--- a/src/locales/translations.xlsx
+++ b/src/locales/translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\icmm-web\src\locales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E611B3E-A417-4E51-B00E-1E2FDAAA8A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1496C2EA-B0D8-421D-95B2-EAB9610C4870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B932D239-48A5-4026-8CCD-CA2BFDECA8AC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="140">
   <si>
     <t>id</t>
   </si>
@@ -128,6 +128,15 @@
     <t>ภาษา</t>
   </si>
   <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>อีเมล์</t>
+  </si>
+  <si>
     <t>km</t>
   </si>
   <si>
@@ -156,6 +165,300 @@
   </si>
   <si>
     <t>ผู้ดูแลระบบ</t>
+  </si>
+  <si>
+    <t>logout</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>ออกจากระบบ</t>
+  </si>
+  <si>
+    <t>...Welcome to the ICCM2025 shop…</t>
+  </si>
+  <si>
+    <t>...ขอต้อนรับสู่ร้านค้า ICMM 2025...</t>
+  </si>
+  <si>
+    <t>welcomeTxt</t>
+  </si>
+  <si>
+    <t>checkOrderStatus</t>
+  </si>
+  <si>
+    <t>Check Order Status</t>
+  </si>
+  <si>
+    <t>ตรวจสอบสถานะคำสั่งซื้อ</t>
+  </si>
+  <si>
+    <t>Products</t>
+  </si>
+  <si>
+    <t>click to select product</t>
+  </si>
+  <si>
+    <t>products</t>
+  </si>
+  <si>
+    <t>clickToSelectProduct</t>
+  </si>
+  <si>
+    <t>สินค้า</t>
+  </si>
+  <si>
+    <t>คลิ๊กเพื่อเลือกสินค้า</t>
+  </si>
+  <si>
+    <t>cart</t>
+  </si>
+  <si>
+    <t>Cart</t>
+  </si>
+  <si>
+    <t>ตะกร้าสินค้า</t>
+  </si>
+  <si>
+    <t>checkout</t>
+  </si>
+  <si>
+    <t>Checkout</t>
+  </si>
+  <si>
+    <t>เสร็จสิ้น</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>baht</t>
+  </si>
+  <si>
+    <t>THB</t>
+  </si>
+  <si>
+    <t>บาท</t>
+  </si>
+  <si>
+    <t>Total :</t>
+  </si>
+  <si>
+    <t>รวมราคา :</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>ชำระเงิน</t>
+  </si>
+  <si>
+    <t>confirmOrder</t>
+  </si>
+  <si>
+    <t>Confirm Order</t>
+  </si>
+  <si>
+    <t>ยืนยันสินค้า</t>
+  </si>
+  <si>
+    <t>backToCart</t>
+  </si>
+  <si>
+    <t>readyToPay</t>
+  </si>
+  <si>
+    <t>Back to cart</t>
+  </si>
+  <si>
+    <t>Ready for pay</t>
+  </si>
+  <si>
+    <t>กลับไปตะกร้าสินค้า</t>
+  </si>
+  <si>
+    <t>พร้อมชำระเงิน</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Delivery address</t>
+  </si>
+  <si>
+    <t>ชื่อ</t>
+  </si>
+  <si>
+    <t>ที่อยู่จัดส่ง</t>
+  </si>
+  <si>
+    <t>deliveryAddress</t>
+  </si>
+  <si>
+    <t>bankTxt</t>
+  </si>
+  <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>accNo</t>
+  </si>
+  <si>
+    <t>accNoTxt</t>
+  </si>
+  <si>
+    <t>accName</t>
+  </si>
+  <si>
+    <t>accNameTxt</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>Siam Comercial</t>
+  </si>
+  <si>
+    <t>Acc. No.</t>
+  </si>
+  <si>
+    <t>111-1-11111-1</t>
+  </si>
+  <si>
+    <t>Acc. Name</t>
+  </si>
+  <si>
+    <t>Mr. John Surname</t>
+  </si>
+  <si>
+    <t>ธนาคาร</t>
+  </si>
+  <si>
+    <t>ไทยพาณิชย์</t>
+  </si>
+  <si>
+    <t>เลขที่บัญชี</t>
+  </si>
+  <si>
+    <t>ชื่อบัญชี</t>
+  </si>
+  <si>
+    <t>นาย จอห์น สมิท</t>
+  </si>
+  <si>
+    <t>Mr. John Smith</t>
+  </si>
+  <si>
+    <t>uploadSlip</t>
+  </si>
+  <si>
+    <t>Upload Slip</t>
+  </si>
+  <si>
+    <t>รูปหลักฐานการโอน</t>
+  </si>
+  <si>
+    <t>sendOrder</t>
+  </si>
+  <si>
+    <t>Submit Order</t>
+  </si>
+  <si>
+    <t>ส่งคำสั่งซื้อ</t>
+  </si>
+  <si>
+    <t>prod1Name</t>
+  </si>
+  <si>
+    <t>prod2Name</t>
+  </si>
+  <si>
+    <t>prod3Name</t>
+  </si>
+  <si>
+    <t>prod4Name</t>
+  </si>
+  <si>
+    <t>prod5Name</t>
+  </si>
+  <si>
+    <t>prod1Detial</t>
+  </si>
+  <si>
+    <t>prod2Detial</t>
+  </si>
+  <si>
+    <t>prod3Detial</t>
+  </si>
+  <si>
+    <t>prod4Detial</t>
+  </si>
+  <si>
+    <t>prod5Detial</t>
+  </si>
+  <si>
+    <t>Running Shirt</t>
+  </si>
+  <si>
+    <t>The Super Diamond fabric is specially woven to elevate the quality of running shirts, making them stand out and unique. Its textured yet smooth surface provides a distinct feel, while offering excellent breathability. This ensures the fabric dries quickly, feels light and comfortable—perfect for intense workouts with heavy sweating.</t>
+  </si>
+  <si>
+    <t>เสื้อออกกำลังกายสำหรับใส่วิ่ง</t>
+  </si>
+  <si>
+    <t>เนื้อผ้า Super Diamond ทอขึ้นมาพิเศษ เพื่อยกระดับคุณภาพเสื้อวิ่งให้มีความโดดเด่นและแตกต่าง ผิวสัมผัสที่มีลวดลายแต่ยังคงความเรียบเนียนที่เป็นเอกลักษณ์นี้ มีคุณสมบัติการระบายอากาศอย่างดีเยี่ยม ทำให้แห้งเร็ว เบา สบาย เหมาะสมกับการออกกำลังกายที่มีเหงื่อออกมากโดยเฉพาะ</t>
+  </si>
+  <si>
+    <t>Running Short</t>
+  </si>
+  <si>
+    <t>กางเกงสำหรับวิ่ง</t>
+  </si>
+  <si>
+    <t>Micropeach fabric is comfortable to wear, with shorts featuring an elastic waistband and an inner drawstring. The material is soft, smooth, and breathable, helping to release heat effectively. It’s quick-drying, odor-resistant, and made with department store-grade quality.</t>
+  </si>
+  <si>
+    <t>ผ้า Micropeachใส่สบายกางเกงขอบเอวยางยืด มีเชือกผูกด้านใน นุ่มลื่น ใส่สบาย ระรายความร้อนได้ดี ไม่มีกลิ่นอับชื้น แห้งไว สินค้าเกรดห้าง คุณภาพดี</t>
+  </si>
+  <si>
+    <t>MAO Buff</t>
+  </si>
+  <si>
+    <t>ผ้าบัฟ</t>
+  </si>
+  <si>
+    <t>MAO Buff Fabric Arm Sleeves – Sun Protection Ideal for outdoor work and motorcycle riding. Suitable for both men and women.</t>
+  </si>
+  <si>
+    <t>MAO ผ้าบัฟ ปลอกแขน กันแดด สำหรับทำงานกลางแจ้ง ขี่จักรยานยนต์ ใส่ได้ทั้งผู้หญิงและผู้ชาย</t>
+  </si>
+  <si>
+    <t>ASICS Running Shoes</t>
+  </si>
+  <si>
+    <t>รองเท้า ASICS</t>
+  </si>
+  <si>
+    <t>ASICS 1011B983.100 DYNABLAST 5 MEN'S RUNNING SHOES Genuine men's running shoes in White/Wave Teal color.</t>
+  </si>
+  <si>
+    <t>ASICS : 1011B983.100 DYNABLAST 5 MEN RUNNING ผู้ชาย รองเท้าวิ่ง ของแท้ WHITE/WAVE TEAL</t>
+  </si>
+  <si>
+    <t>ASICS Cap</t>
+  </si>
+  <si>
+    <t>หมวกวิ่ง ASICS</t>
+  </si>
+  <si>
+    <t>ASICS 3013B124.700 RUNNING LIGHT WOVEN CAP – UNISEX Genuine running cap for men and women in Coral Reef color.</t>
+  </si>
+  <si>
+    <t>ASICS : 3013B124.700 RUNNING LIGHT WOVEN CAP UNISEX RUNNING ชายหญิง หมวก ของแท้ CORAL REEF</t>
   </si>
 </sst>
 </file>
@@ -533,24 +836,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EFFCAA-6DA9-40A3-BF28-CA3BC524DD9C}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:I5"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30:I39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -578,7 +870,7 @@
         <v>14</v>
       </c>
       <c r="I1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -598,7 +890,7 @@
         <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
         <v>26</v>
@@ -607,7 +899,7 @@
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -636,7 +928,7 @@
         <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -656,45 +948,1031 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H4" t="s">
         <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" t="s">
+        <v>72</v>
+      </c>
+      <c r="I16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" t="s">
+        <v>76</v>
+      </c>
+      <c r="I17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" t="s">
+        <v>77</v>
+      </c>
+      <c r="I18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" t="s">
+        <v>81</v>
+      </c>
+      <c r="H20" t="s">
+        <v>81</v>
+      </c>
+      <c r="I20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21" t="s">
+        <v>82</v>
+      </c>
+      <c r="H21" t="s">
+        <v>82</v>
+      </c>
+      <c r="I21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" t="s">
+        <v>92</v>
+      </c>
+      <c r="H22" t="s">
+        <v>92</v>
+      </c>
+      <c r="I22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" t="s">
+        <v>93</v>
+      </c>
+      <c r="H23" t="s">
+        <v>93</v>
+      </c>
+      <c r="I23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" t="s">
+        <v>94</v>
+      </c>
+      <c r="G24" t="s">
+        <v>94</v>
+      </c>
+      <c r="H24" t="s">
+        <v>94</v>
+      </c>
+      <c r="I24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" t="s">
+        <v>95</v>
+      </c>
+      <c r="G25" t="s">
+        <v>95</v>
+      </c>
+      <c r="H25" t="s">
+        <v>95</v>
+      </c>
+      <c r="I25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" t="s">
+        <v>96</v>
+      </c>
+      <c r="H26" t="s">
+        <v>96</v>
+      </c>
+      <c r="I26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27" t="s">
+        <v>97</v>
+      </c>
+      <c r="H27" t="s">
+        <v>97</v>
+      </c>
+      <c r="I27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28" t="s">
+        <v>105</v>
+      </c>
+      <c r="G28" t="s">
+        <v>105</v>
+      </c>
+      <c r="H28" t="s">
+        <v>105</v>
+      </c>
+      <c r="I28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29" t="s">
+        <v>108</v>
+      </c>
+      <c r="G29" t="s">
+        <v>108</v>
+      </c>
+      <c r="H29" t="s">
+        <v>108</v>
+      </c>
+      <c r="I29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30" t="s">
+        <v>120</v>
+      </c>
+      <c r="F30" t="s">
+        <v>120</v>
+      </c>
+      <c r="G30" t="s">
+        <v>120</v>
+      </c>
+      <c r="H30" t="s">
+        <v>120</v>
+      </c>
+      <c r="I30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" t="s">
+        <v>121</v>
+      </c>
+      <c r="E31" t="s">
+        <v>121</v>
+      </c>
+      <c r="F31" t="s">
+        <v>121</v>
+      </c>
+      <c r="G31" t="s">
+        <v>121</v>
+      </c>
+      <c r="H31" t="s">
+        <v>121</v>
+      </c>
+      <c r="I31" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" t="s">
+        <v>124</v>
+      </c>
+      <c r="E32" t="s">
+        <v>124</v>
+      </c>
+      <c r="F32" t="s">
+        <v>124</v>
+      </c>
+      <c r="G32" t="s">
+        <v>124</v>
+      </c>
+      <c r="H32" t="s">
+        <v>124</v>
+      </c>
+      <c r="I32" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" t="s">
+        <v>127</v>
+      </c>
+      <c r="D33" t="s">
+        <v>126</v>
+      </c>
+      <c r="E33" t="s">
+        <v>126</v>
+      </c>
+      <c r="F33" t="s">
+        <v>126</v>
+      </c>
+      <c r="G33" t="s">
+        <v>126</v>
+      </c>
+      <c r="H33" t="s">
+        <v>126</v>
+      </c>
+      <c r="I33" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" t="s">
+        <v>129</v>
+      </c>
+      <c r="D34" t="s">
+        <v>128</v>
+      </c>
+      <c r="E34" t="s">
+        <v>128</v>
+      </c>
+      <c r="F34" t="s">
+        <v>128</v>
+      </c>
+      <c r="G34" t="s">
+        <v>128</v>
+      </c>
+      <c r="H34" t="s">
+        <v>128</v>
+      </c>
+      <c r="I34" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" t="s">
+        <v>130</v>
+      </c>
+      <c r="E35" t="s">
+        <v>130</v>
+      </c>
+      <c r="F35" t="s">
+        <v>130</v>
+      </c>
+      <c r="G35" t="s">
+        <v>130</v>
+      </c>
+      <c r="H35" t="s">
+        <v>130</v>
+      </c>
+      <c r="I35" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36" t="s">
+        <v>132</v>
+      </c>
+      <c r="E36" t="s">
+        <v>132</v>
+      </c>
+      <c r="F36" t="s">
+        <v>132</v>
+      </c>
+      <c r="G36" t="s">
+        <v>132</v>
+      </c>
+      <c r="H36" t="s">
+        <v>132</v>
+      </c>
+      <c r="I36" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>118</v>
+      </c>
+      <c r="B37" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" t="s">
+        <v>135</v>
+      </c>
+      <c r="D37" t="s">
+        <v>134</v>
+      </c>
+      <c r="E37" t="s">
+        <v>134</v>
+      </c>
+      <c r="F37" t="s">
+        <v>134</v>
+      </c>
+      <c r="G37" t="s">
+        <v>134</v>
+      </c>
+      <c r="H37" t="s">
+        <v>134</v>
+      </c>
+      <c r="I37" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" t="s">
+        <v>136</v>
+      </c>
+      <c r="E38" t="s">
+        <v>136</v>
+      </c>
+      <c r="F38" t="s">
+        <v>136</v>
+      </c>
+      <c r="G38" t="s">
+        <v>136</v>
+      </c>
+      <c r="H38" t="s">
+        <v>136</v>
+      </c>
+      <c r="I38" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" t="s">
+        <v>138</v>
+      </c>
+      <c r="C39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D39" t="s">
+        <v>138</v>
+      </c>
+      <c r="E39" t="s">
+        <v>138</v>
+      </c>
+      <c r="F39" t="s">
+        <v>138</v>
+      </c>
+      <c r="G39" t="s">
+        <v>138</v>
+      </c>
+      <c r="H39" t="s">
+        <v>138</v>
+      </c>
+      <c r="I39" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/src/locales/translations.xlsx
+++ b/src/locales/translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\icmm-web\src\locales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1496C2EA-B0D8-421D-95B2-EAB9610C4870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F46A503-F22E-4346-BA14-5EFACD2A95F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B932D239-48A5-4026-8CCD-CA2BFDECA8AC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="146">
   <si>
     <t>id</t>
   </si>
@@ -386,21 +386,6 @@
     <t>prod5Name</t>
   </si>
   <si>
-    <t>prod1Detial</t>
-  </si>
-  <si>
-    <t>prod2Detial</t>
-  </si>
-  <si>
-    <t>prod3Detial</t>
-  </si>
-  <si>
-    <t>prod4Detial</t>
-  </si>
-  <si>
-    <t>prod5Detial</t>
-  </si>
-  <si>
     <t>Running Shirt</t>
   </si>
   <si>
@@ -459,6 +444,39 @@
   </si>
   <si>
     <t>ASICS : 3013B124.700 RUNNING LIGHT WOVEN CAP UNISEX RUNNING ชายหญิง หมวก ของแท้ CORAL REEF</t>
+  </si>
+  <si>
+    <t>prod1Detail</t>
+  </si>
+  <si>
+    <t>prod2Detail</t>
+  </si>
+  <si>
+    <t>prod3Detail</t>
+  </si>
+  <si>
+    <t>prod4Detail</t>
+  </si>
+  <si>
+    <t>prod5Detail</t>
+  </si>
+  <si>
+    <t>addToCart</t>
+  </si>
+  <si>
+    <t>Add to cart</t>
+  </si>
+  <si>
+    <t>ใส่ตะกร้า</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>ราคา</t>
   </si>
 </sst>
 </file>
@@ -836,10 +854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EFFCAA-6DA9-40A3-BF28-CA3BC524DD9C}">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30:I39"/>
+      <selection activeCell="D41" sqref="D41:I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1690,57 +1708,57 @@
         <v>110</v>
       </c>
       <c r="B30" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C30" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D30" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E30" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F30" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G30" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H30" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I30" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="B31" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C31" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D31" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E31" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F31" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G31" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="H31" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I31" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -1748,57 +1766,57 @@
         <v>111</v>
       </c>
       <c r="B32" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C32" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D32" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E32" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F32" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G32" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H32" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="I32" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="B33" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C33" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D33" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E33" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F33" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G33" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H33" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="I33" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -1806,57 +1824,57 @@
         <v>112</v>
       </c>
       <c r="B34" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C34" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D34" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E34" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F34" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G34" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H34" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I34" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="B35" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C35" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D35" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E35" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F35" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G35" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="H35" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I35" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -1864,57 +1882,57 @@
         <v>113</v>
       </c>
       <c r="B36" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C36" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D36" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E36" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F36" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G36" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H36" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="I36" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="B37" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C37" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D37" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E37" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F37" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G37" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H37" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="I37" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -1922,57 +1940,115 @@
         <v>114</v>
       </c>
       <c r="B38" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C38" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D38" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E38" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F38" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G38" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H38" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="I38" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="B39" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C39" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D39" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E39" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F39" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G39" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H39" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I39" t="s">
-        <v>138</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>140</v>
+      </c>
+      <c r="B40" t="s">
+        <v>141</v>
+      </c>
+      <c r="C40" t="s">
+        <v>142</v>
+      </c>
+      <c r="D40" t="s">
+        <v>141</v>
+      </c>
+      <c r="E40" t="s">
+        <v>141</v>
+      </c>
+      <c r="F40" t="s">
+        <v>141</v>
+      </c>
+      <c r="G40" t="s">
+        <v>141</v>
+      </c>
+      <c r="H40" t="s">
+        <v>141</v>
+      </c>
+      <c r="I40" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>143</v>
+      </c>
+      <c r="B41" t="s">
+        <v>144</v>
+      </c>
+      <c r="C41" t="s">
+        <v>145</v>
+      </c>
+      <c r="D41" t="s">
+        <v>144</v>
+      </c>
+      <c r="E41" t="s">
+        <v>144</v>
+      </c>
+      <c r="F41" t="s">
+        <v>144</v>
+      </c>
+      <c r="G41" t="s">
+        <v>144</v>
+      </c>
+      <c r="H41" t="s">
+        <v>144</v>
+      </c>
+      <c r="I41" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/src/locales/translations.xlsx
+++ b/src/locales/translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\icmm-web\src\locales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F46A503-F22E-4346-BA14-5EFACD2A95F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42560739-8F36-4B33-9E9D-56408C1C2A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B932D239-48A5-4026-8CCD-CA2BFDECA8AC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="161">
   <si>
     <t>id</t>
   </si>
@@ -477,6 +477,51 @@
   </si>
   <si>
     <t>ราคา</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>Phone No.</t>
+  </si>
+  <si>
+    <t>เบอร์ติดต่อ</t>
+  </si>
+  <si>
+    <t>totalProduct</t>
+  </si>
+  <si>
+    <t>Total Product Amount :</t>
+  </si>
+  <si>
+    <t>added</t>
+  </si>
+  <si>
+    <t>deliveryCost</t>
+  </si>
+  <si>
+    <t>Add</t>
+  </si>
+  <si>
+    <t>บวก</t>
+  </si>
+  <si>
+    <t>ค่าจัดส่ง</t>
+  </si>
+  <si>
+    <t>Delivery Cost</t>
+  </si>
+  <si>
+    <t>totalAmt</t>
+  </si>
+  <si>
+    <t>Total Amount</t>
+  </si>
+  <si>
+    <t>ราคารวมทั้งสิ้น</t>
+  </si>
+  <si>
+    <t>รวมราคาสินค้า :</t>
   </si>
 </sst>
 </file>
@@ -854,10 +899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EFFCAA-6DA9-40A3-BF28-CA3BC524DD9C}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41:I41"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2051,6 +2096,151 @@
         <v>144</v>
       </c>
     </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>146</v>
+      </c>
+      <c r="B42" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" t="s">
+        <v>148</v>
+      </c>
+      <c r="D42" t="s">
+        <v>147</v>
+      </c>
+      <c r="E42" t="s">
+        <v>147</v>
+      </c>
+      <c r="F42" t="s">
+        <v>147</v>
+      </c>
+      <c r="G42" t="s">
+        <v>147</v>
+      </c>
+      <c r="H42" t="s">
+        <v>147</v>
+      </c>
+      <c r="I42" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>149</v>
+      </c>
+      <c r="B43" t="s">
+        <v>150</v>
+      </c>
+      <c r="C43" t="s">
+        <v>160</v>
+      </c>
+      <c r="D43" t="s">
+        <v>150</v>
+      </c>
+      <c r="E43" t="s">
+        <v>150</v>
+      </c>
+      <c r="F43" t="s">
+        <v>150</v>
+      </c>
+      <c r="G43" t="s">
+        <v>150</v>
+      </c>
+      <c r="H43" t="s">
+        <v>150</v>
+      </c>
+      <c r="I43" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>151</v>
+      </c>
+      <c r="B44" t="s">
+        <v>153</v>
+      </c>
+      <c r="C44" t="s">
+        <v>154</v>
+      </c>
+      <c r="D44" t="s">
+        <v>153</v>
+      </c>
+      <c r="E44" t="s">
+        <v>153</v>
+      </c>
+      <c r="F44" t="s">
+        <v>153</v>
+      </c>
+      <c r="G44" t="s">
+        <v>153</v>
+      </c>
+      <c r="H44" t="s">
+        <v>153</v>
+      </c>
+      <c r="I44" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>152</v>
+      </c>
+      <c r="B45" t="s">
+        <v>156</v>
+      </c>
+      <c r="C45" t="s">
+        <v>155</v>
+      </c>
+      <c r="D45" t="s">
+        <v>156</v>
+      </c>
+      <c r="E45" t="s">
+        <v>156</v>
+      </c>
+      <c r="F45" t="s">
+        <v>156</v>
+      </c>
+      <c r="G45" t="s">
+        <v>156</v>
+      </c>
+      <c r="H45" t="s">
+        <v>156</v>
+      </c>
+      <c r="I45" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>157</v>
+      </c>
+      <c r="B46" t="s">
+        <v>158</v>
+      </c>
+      <c r="C46" t="s">
+        <v>159</v>
+      </c>
+      <c r="D46" t="s">
+        <v>158</v>
+      </c>
+      <c r="E46" t="s">
+        <v>158</v>
+      </c>
+      <c r="F46" t="s">
+        <v>158</v>
+      </c>
+      <c r="G46" t="s">
+        <v>158</v>
+      </c>
+      <c r="H46" t="s">
+        <v>158</v>
+      </c>
+      <c r="I46" t="s">
+        <v>158</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:I4" xr:uid="{01EFFCAA-6DA9-40A3-BF28-CA3BC524DD9C}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/locales/translations.xlsx
+++ b/src/locales/translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\icmm-web\src\locales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42560739-8F36-4B33-9E9D-56408C1C2A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6821395-1737-4B3C-8C79-4AD051E421BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B932D239-48A5-4026-8CCD-CA2BFDECA8AC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="213">
   <si>
     <t>id</t>
   </si>
@@ -522,6 +522,162 @@
   </si>
   <si>
     <t>รวมราคาสินค้า :</t>
+  </si>
+  <si>
+    <t>errName4to50</t>
+  </si>
+  <si>
+    <t>Name can only has 4 to 50 charactors.</t>
+  </si>
+  <si>
+    <t>ชื่อมีความยาวตั้งแต่ 4 ถึง 50 ตัวอักษร</t>
+  </si>
+  <si>
+    <t>Please enter a valid email address.</t>
+  </si>
+  <si>
+    <t>errInvalidEmail</t>
+  </si>
+  <si>
+    <t>รูปแบบอีเมล์ไม่ถูกต้อง</t>
+  </si>
+  <si>
+    <t>errInvalidPhone</t>
+  </si>
+  <si>
+    <t>Please enter a valid phone number.</t>
+  </si>
+  <si>
+    <t>รูปแบบเบอร์ติดต่อไม่ถูกต้อง</t>
+  </si>
+  <si>
+    <t>errAddress20to400</t>
+  </si>
+  <si>
+    <t>Address must be between 20 and 400 characters</t>
+  </si>
+  <si>
+    <t>ที่อยู่สั้นหรือยาวเกินไป</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>remarkPH</t>
+  </si>
+  <si>
+    <t>Message to the seller</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>บันทึก</t>
+  </si>
+  <si>
+    <t>ข้อความถึงผู้ขาย</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>errTest</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>ผิดพลาด</t>
+  </si>
+  <si>
+    <t>ทดสอบผิดพลาด</t>
+  </si>
+  <si>
+    <t>Test Error</t>
+  </si>
+  <si>
+    <t>errInputMissing</t>
+  </si>
+  <si>
+    <t>ข้อมูลบางส่วนสูญหาย</t>
+  </si>
+  <si>
+    <t>Some information is missing</t>
+  </si>
+  <si>
+    <t>errMissing</t>
+  </si>
+  <si>
+    <t>errCartMissing</t>
+  </si>
+  <si>
+    <t>Some information is missing (input)</t>
+  </si>
+  <si>
+    <t>Some information is missing (cart)</t>
+  </si>
+  <si>
+    <t>ข้อมูลบางส่วนสูญหาย (input)</t>
+  </si>
+  <si>
+    <t>ข้อมูลบางส่วนสูญหาย (cart)</t>
+  </si>
+  <si>
+    <t>errInvalidProdectOptId</t>
+  </si>
+  <si>
+    <t>errTotalAmtMismatch</t>
+  </si>
+  <si>
+    <t>ผลรวมไม่สมเหตุผล</t>
+  </si>
+  <si>
+    <t>errGrandTotalMismatch</t>
+  </si>
+  <si>
+    <t>Total Amount Mismatch.</t>
+  </si>
+  <si>
+    <t>Grand Total Mismatch</t>
+  </si>
+  <si>
+    <t>ผลรวมสุดท้ายไม่สมเหตุผล</t>
+  </si>
+  <si>
+    <t>useQRPay</t>
+  </si>
+  <si>
+    <t>useManualPay</t>
+  </si>
+  <si>
+    <t>Switch to manual pay</t>
+  </si>
+  <si>
+    <t>Switch to QR pay</t>
+  </si>
+  <si>
+    <t>เปลี่ยนเป็นโอนด้วยเลขบัญชี</t>
+  </si>
+  <si>
+    <t>clickToUpload</t>
+  </si>
+  <si>
+    <t>Click to upload</t>
+  </si>
+  <si>
+    <t>คลิ๊กเพื่อส่งรูป</t>
+  </si>
+  <si>
+    <t>เปลี่ยนเป็นโอนด้วยคิวอาร์</t>
+  </si>
+  <si>
+    <t>totalForPay</t>
+  </si>
+  <si>
+    <t>Total Pay</t>
+  </si>
+  <si>
+    <t>ยอดรวม</t>
   </si>
 </sst>
 </file>
@@ -899,10 +1055,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EFFCAA-6DA9-40A3-BF28-CA3BC524DD9C}">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2241,6 +2397,528 @@
         <v>158</v>
       </c>
     </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>161</v>
+      </c>
+      <c r="B47" t="s">
+        <v>162</v>
+      </c>
+      <c r="C47" t="s">
+        <v>163</v>
+      </c>
+      <c r="D47" t="s">
+        <v>162</v>
+      </c>
+      <c r="E47" t="s">
+        <v>162</v>
+      </c>
+      <c r="F47" t="s">
+        <v>162</v>
+      </c>
+      <c r="G47" t="s">
+        <v>162</v>
+      </c>
+      <c r="H47" t="s">
+        <v>162</v>
+      </c>
+      <c r="I47" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>165</v>
+      </c>
+      <c r="B48" t="s">
+        <v>164</v>
+      </c>
+      <c r="C48" t="s">
+        <v>166</v>
+      </c>
+      <c r="D48" t="s">
+        <v>164</v>
+      </c>
+      <c r="E48" t="s">
+        <v>164</v>
+      </c>
+      <c r="F48" t="s">
+        <v>164</v>
+      </c>
+      <c r="G48" t="s">
+        <v>164</v>
+      </c>
+      <c r="H48" t="s">
+        <v>164</v>
+      </c>
+      <c r="I48" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>167</v>
+      </c>
+      <c r="B49" t="s">
+        <v>168</v>
+      </c>
+      <c r="C49" t="s">
+        <v>169</v>
+      </c>
+      <c r="D49" t="s">
+        <v>168</v>
+      </c>
+      <c r="E49" t="s">
+        <v>168</v>
+      </c>
+      <c r="F49" t="s">
+        <v>168</v>
+      </c>
+      <c r="G49" t="s">
+        <v>168</v>
+      </c>
+      <c r="H49" t="s">
+        <v>168</v>
+      </c>
+      <c r="I49" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>170</v>
+      </c>
+      <c r="B50" t="s">
+        <v>171</v>
+      </c>
+      <c r="C50" t="s">
+        <v>172</v>
+      </c>
+      <c r="D50" t="s">
+        <v>171</v>
+      </c>
+      <c r="E50" t="s">
+        <v>171</v>
+      </c>
+      <c r="F50" t="s">
+        <v>171</v>
+      </c>
+      <c r="G50" t="s">
+        <v>171</v>
+      </c>
+      <c r="H50" t="s">
+        <v>171</v>
+      </c>
+      <c r="I50" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>173</v>
+      </c>
+      <c r="B51" t="s">
+        <v>176</v>
+      </c>
+      <c r="C51" t="s">
+        <v>177</v>
+      </c>
+      <c r="D51" t="s">
+        <v>176</v>
+      </c>
+      <c r="E51" t="s">
+        <v>176</v>
+      </c>
+      <c r="F51" t="s">
+        <v>176</v>
+      </c>
+      <c r="G51" t="s">
+        <v>176</v>
+      </c>
+      <c r="H51" t="s">
+        <v>176</v>
+      </c>
+      <c r="I51" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>174</v>
+      </c>
+      <c r="B52" t="s">
+        <v>175</v>
+      </c>
+      <c r="C52" t="s">
+        <v>178</v>
+      </c>
+      <c r="D52" t="s">
+        <v>175</v>
+      </c>
+      <c r="E52" t="s">
+        <v>175</v>
+      </c>
+      <c r="F52" t="s">
+        <v>175</v>
+      </c>
+      <c r="G52" t="s">
+        <v>175</v>
+      </c>
+      <c r="H52" t="s">
+        <v>175</v>
+      </c>
+      <c r="I52" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>179</v>
+      </c>
+      <c r="B53" t="s">
+        <v>181</v>
+      </c>
+      <c r="C53" t="s">
+        <v>182</v>
+      </c>
+      <c r="D53" t="s">
+        <v>181</v>
+      </c>
+      <c r="E53" t="s">
+        <v>181</v>
+      </c>
+      <c r="F53" t="s">
+        <v>181</v>
+      </c>
+      <c r="G53" t="s">
+        <v>181</v>
+      </c>
+      <c r="H53" t="s">
+        <v>181</v>
+      </c>
+      <c r="I53" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>180</v>
+      </c>
+      <c r="B54" t="s">
+        <v>184</v>
+      </c>
+      <c r="C54" t="s">
+        <v>183</v>
+      </c>
+      <c r="D54" t="s">
+        <v>184</v>
+      </c>
+      <c r="E54" t="s">
+        <v>184</v>
+      </c>
+      <c r="F54" t="s">
+        <v>184</v>
+      </c>
+      <c r="G54" t="s">
+        <v>184</v>
+      </c>
+      <c r="H54" t="s">
+        <v>184</v>
+      </c>
+      <c r="I54" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>188</v>
+      </c>
+      <c r="B55" t="s">
+        <v>187</v>
+      </c>
+      <c r="C55" t="s">
+        <v>186</v>
+      </c>
+      <c r="D55" t="s">
+        <v>187</v>
+      </c>
+      <c r="E55" t="s">
+        <v>187</v>
+      </c>
+      <c r="F55" t="s">
+        <v>187</v>
+      </c>
+      <c r="G55" t="s">
+        <v>187</v>
+      </c>
+      <c r="H55" t="s">
+        <v>187</v>
+      </c>
+      <c r="I55" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>185</v>
+      </c>
+      <c r="B56" t="s">
+        <v>190</v>
+      </c>
+      <c r="C56" t="s">
+        <v>192</v>
+      </c>
+      <c r="D56" t="s">
+        <v>190</v>
+      </c>
+      <c r="E56" t="s">
+        <v>190</v>
+      </c>
+      <c r="F56" t="s">
+        <v>190</v>
+      </c>
+      <c r="G56" t="s">
+        <v>190</v>
+      </c>
+      <c r="H56" t="s">
+        <v>190</v>
+      </c>
+      <c r="I56" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>189</v>
+      </c>
+      <c r="B57" t="s">
+        <v>191</v>
+      </c>
+      <c r="C57" t="s">
+        <v>193</v>
+      </c>
+      <c r="D57" t="s">
+        <v>191</v>
+      </c>
+      <c r="E57" t="s">
+        <v>191</v>
+      </c>
+      <c r="F57" t="s">
+        <v>191</v>
+      </c>
+      <c r="G57" t="s">
+        <v>191</v>
+      </c>
+      <c r="H57" t="s">
+        <v>191</v>
+      </c>
+      <c r="I57" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>194</v>
+      </c>
+      <c r="B58" t="s">
+        <v>194</v>
+      </c>
+      <c r="C58" t="s">
+        <v>194</v>
+      </c>
+      <c r="D58" t="s">
+        <v>194</v>
+      </c>
+      <c r="E58" t="s">
+        <v>194</v>
+      </c>
+      <c r="F58" t="s">
+        <v>194</v>
+      </c>
+      <c r="G58" t="s">
+        <v>194</v>
+      </c>
+      <c r="H58" t="s">
+        <v>194</v>
+      </c>
+      <c r="I58" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>195</v>
+      </c>
+      <c r="B59" t="s">
+        <v>198</v>
+      </c>
+      <c r="C59" t="s">
+        <v>196</v>
+      </c>
+      <c r="D59" t="s">
+        <v>198</v>
+      </c>
+      <c r="E59" t="s">
+        <v>198</v>
+      </c>
+      <c r="F59" t="s">
+        <v>198</v>
+      </c>
+      <c r="G59" t="s">
+        <v>198</v>
+      </c>
+      <c r="H59" t="s">
+        <v>198</v>
+      </c>
+      <c r="I59" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>197</v>
+      </c>
+      <c r="B60" t="s">
+        <v>199</v>
+      </c>
+      <c r="C60" t="s">
+        <v>200</v>
+      </c>
+      <c r="D60" t="s">
+        <v>199</v>
+      </c>
+      <c r="E60" t="s">
+        <v>199</v>
+      </c>
+      <c r="F60" t="s">
+        <v>199</v>
+      </c>
+      <c r="G60" t="s">
+        <v>199</v>
+      </c>
+      <c r="H60" t="s">
+        <v>199</v>
+      </c>
+      <c r="I60" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>201</v>
+      </c>
+      <c r="B61" t="s">
+        <v>204</v>
+      </c>
+      <c r="C61" t="s">
+        <v>209</v>
+      </c>
+      <c r="D61" t="s">
+        <v>204</v>
+      </c>
+      <c r="E61" t="s">
+        <v>204</v>
+      </c>
+      <c r="F61" t="s">
+        <v>204</v>
+      </c>
+      <c r="G61" t="s">
+        <v>204</v>
+      </c>
+      <c r="H61" t="s">
+        <v>204</v>
+      </c>
+      <c r="I61" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>202</v>
+      </c>
+      <c r="B62" t="s">
+        <v>203</v>
+      </c>
+      <c r="C62" t="s">
+        <v>205</v>
+      </c>
+      <c r="D62" t="s">
+        <v>203</v>
+      </c>
+      <c r="E62" t="s">
+        <v>203</v>
+      </c>
+      <c r="F62" t="s">
+        <v>203</v>
+      </c>
+      <c r="G62" t="s">
+        <v>203</v>
+      </c>
+      <c r="H62" t="s">
+        <v>203</v>
+      </c>
+      <c r="I62" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>206</v>
+      </c>
+      <c r="B63" t="s">
+        <v>207</v>
+      </c>
+      <c r="C63" t="s">
+        <v>208</v>
+      </c>
+      <c r="D63" t="s">
+        <v>207</v>
+      </c>
+      <c r="E63" t="s">
+        <v>207</v>
+      </c>
+      <c r="F63" t="s">
+        <v>207</v>
+      </c>
+      <c r="G63" t="s">
+        <v>207</v>
+      </c>
+      <c r="H63" t="s">
+        <v>207</v>
+      </c>
+      <c r="I63" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>210</v>
+      </c>
+      <c r="B64" t="s">
+        <v>211</v>
+      </c>
+      <c r="C64" t="s">
+        <v>212</v>
+      </c>
+      <c r="D64" t="s">
+        <v>211</v>
+      </c>
+      <c r="E64" t="s">
+        <v>211</v>
+      </c>
+      <c r="F64" t="s">
+        <v>211</v>
+      </c>
+      <c r="G64" t="s">
+        <v>211</v>
+      </c>
+      <c r="H64" t="s">
+        <v>211</v>
+      </c>
+      <c r="I64" t="s">
+        <v>211</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:I4" xr:uid="{01EFFCAA-6DA9-40A3-BF28-CA3BC524DD9C}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/locales/translations.xlsx
+++ b/src/locales/translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\icmm-web\src\locales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6821395-1737-4B3C-8C79-4AD051E421BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A414DBB-6D31-4AD0-991E-002C8047303A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B932D239-48A5-4026-8CCD-CA2BFDECA8AC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="234">
   <si>
     <t>id</t>
   </si>
@@ -678,6 +678,69 @@
   </si>
   <si>
     <t>ยอดรวม</t>
+  </si>
+  <si>
+    <t>plsAddNote</t>
+  </si>
+  <si>
+    <t>Note (Add manual when pay)</t>
+  </si>
+  <si>
+    <t>บันทึก (โปรดใส่ในบันทึกช่วยจำ)</t>
+  </si>
+  <si>
+    <t>Note (Add to note when pay)</t>
+  </si>
+  <si>
+    <t>removePhoto</t>
+  </si>
+  <si>
+    <t>Remove slip</t>
+  </si>
+  <si>
+    <t>นำรูปออก</t>
+  </si>
+  <si>
+    <t>errInvalidOrderId</t>
+  </si>
+  <si>
+    <t>errNoFileUploaded</t>
+  </si>
+  <si>
+    <t>Your order has received!</t>
+  </si>
+  <si>
+    <t>...we will confirm your order within 24 hours...</t>
+  </si>
+  <si>
+    <t>yourOrderHasRecieved</t>
+  </si>
+  <si>
+    <t>เราได้รับออเดอร์ของคุณเรียบร้อย</t>
+  </si>
+  <si>
+    <t>You can check your order status by click "Check Order Status" on the top of page.</t>
+  </si>
+  <si>
+    <t>youCanCheckOrderTxt</t>
+  </si>
+  <si>
+    <t>...เราจะทำไมยืนยันคำสั่งซื้อของคุณภายใน 24 ชั่วโมง...</t>
+  </si>
+  <si>
+    <t>ท่านสามารถตรวจสอบสถานะคำสั่งซื้อโดยคลิ๊ก "ตรวจสอบสถานะคำสั่งซื้อ" ด้านบนของเพจ</t>
+  </si>
+  <si>
+    <t>weWillConfirmTxt</t>
+  </si>
+  <si>
+    <t>reorder</t>
+  </si>
+  <si>
+    <t>Create new order</t>
+  </si>
+  <si>
+    <t>สั่งซื้ออีกครั้ง</t>
   </si>
 </sst>
 </file>
@@ -1055,10 +1118,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EFFCAA-6DA9-40A3-BF28-CA3BC524DD9C}">
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2919,6 +2982,238 @@
         <v>211</v>
       </c>
     </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>213</v>
+      </c>
+      <c r="B65" t="s">
+        <v>216</v>
+      </c>
+      <c r="C65" t="s">
+        <v>215</v>
+      </c>
+      <c r="D65" t="s">
+        <v>214</v>
+      </c>
+      <c r="E65" t="s">
+        <v>214</v>
+      </c>
+      <c r="F65" t="s">
+        <v>214</v>
+      </c>
+      <c r="G65" t="s">
+        <v>214</v>
+      </c>
+      <c r="H65" t="s">
+        <v>214</v>
+      </c>
+      <c r="I65" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>217</v>
+      </c>
+      <c r="B66" t="s">
+        <v>218</v>
+      </c>
+      <c r="C66" t="s">
+        <v>219</v>
+      </c>
+      <c r="D66" t="s">
+        <v>218</v>
+      </c>
+      <c r="E66" t="s">
+        <v>218</v>
+      </c>
+      <c r="F66" t="s">
+        <v>218</v>
+      </c>
+      <c r="G66" t="s">
+        <v>218</v>
+      </c>
+      <c r="H66" t="s">
+        <v>218</v>
+      </c>
+      <c r="I66" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>220</v>
+      </c>
+      <c r="B67" t="s">
+        <v>220</v>
+      </c>
+      <c r="C67" t="s">
+        <v>220</v>
+      </c>
+      <c r="D67" t="s">
+        <v>220</v>
+      </c>
+      <c r="E67" t="s">
+        <v>220</v>
+      </c>
+      <c r="F67" t="s">
+        <v>220</v>
+      </c>
+      <c r="G67" t="s">
+        <v>220</v>
+      </c>
+      <c r="H67" t="s">
+        <v>220</v>
+      </c>
+      <c r="I67" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>221</v>
+      </c>
+      <c r="B68" t="s">
+        <v>221</v>
+      </c>
+      <c r="C68" t="s">
+        <v>221</v>
+      </c>
+      <c r="D68" t="s">
+        <v>221</v>
+      </c>
+      <c r="E68" t="s">
+        <v>221</v>
+      </c>
+      <c r="F68" t="s">
+        <v>221</v>
+      </c>
+      <c r="G68" t="s">
+        <v>221</v>
+      </c>
+      <c r="H68" t="s">
+        <v>221</v>
+      </c>
+      <c r="I68" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>224</v>
+      </c>
+      <c r="B69" t="s">
+        <v>222</v>
+      </c>
+      <c r="C69" t="s">
+        <v>225</v>
+      </c>
+      <c r="D69" t="s">
+        <v>222</v>
+      </c>
+      <c r="E69" t="s">
+        <v>222</v>
+      </c>
+      <c r="F69" t="s">
+        <v>222</v>
+      </c>
+      <c r="G69" t="s">
+        <v>222</v>
+      </c>
+      <c r="H69" t="s">
+        <v>222</v>
+      </c>
+      <c r="I69" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>230</v>
+      </c>
+      <c r="B70" t="s">
+        <v>223</v>
+      </c>
+      <c r="C70" t="s">
+        <v>228</v>
+      </c>
+      <c r="D70" t="s">
+        <v>223</v>
+      </c>
+      <c r="E70" t="s">
+        <v>223</v>
+      </c>
+      <c r="F70" t="s">
+        <v>223</v>
+      </c>
+      <c r="G70" t="s">
+        <v>223</v>
+      </c>
+      <c r="H70" t="s">
+        <v>223</v>
+      </c>
+      <c r="I70" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>227</v>
+      </c>
+      <c r="B71" t="s">
+        <v>226</v>
+      </c>
+      <c r="C71" t="s">
+        <v>229</v>
+      </c>
+      <c r="D71" t="s">
+        <v>226</v>
+      </c>
+      <c r="E71" t="s">
+        <v>226</v>
+      </c>
+      <c r="F71" t="s">
+        <v>226</v>
+      </c>
+      <c r="G71" t="s">
+        <v>226</v>
+      </c>
+      <c r="H71" t="s">
+        <v>226</v>
+      </c>
+      <c r="I71" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>231</v>
+      </c>
+      <c r="B72" t="s">
+        <v>232</v>
+      </c>
+      <c r="C72" t="s">
+        <v>233</v>
+      </c>
+      <c r="D72" t="s">
+        <v>232</v>
+      </c>
+      <c r="E72" t="s">
+        <v>232</v>
+      </c>
+      <c r="F72" t="s">
+        <v>232</v>
+      </c>
+      <c r="G72" t="s">
+        <v>232</v>
+      </c>
+      <c r="H72" t="s">
+        <v>232</v>
+      </c>
+      <c r="I72" t="s">
+        <v>232</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:I4" xr:uid="{01EFFCAA-6DA9-40A3-BF28-CA3BC524DD9C}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/locales/translations.xlsx
+++ b/src/locales/translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\icmm-web\src\locales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A414DBB-6D31-4AD0-991E-002C8047303A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A9CE8F-D25A-40E1-8A55-C755449A2598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B932D239-48A5-4026-8CCD-CA2BFDECA8AC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="250">
   <si>
     <t>id</t>
   </si>
@@ -741,6 +741,54 @@
   </si>
   <si>
     <t>สั่งซื้ออีกครั้ง</t>
+  </si>
+  <si>
+    <t>youCanCheckOrderTxt2</t>
+  </si>
+  <si>
+    <t>by input your order no.</t>
+  </si>
+  <si>
+    <t>youCanCheckOrderTxt3</t>
+  </si>
+  <si>
+    <t>and your email</t>
+  </si>
+  <si>
+    <t>โดยใส่เลขคำสั่งซื้อคือ</t>
+  </si>
+  <si>
+    <t>และอีเมล์ของท่าน</t>
+  </si>
+  <si>
+    <t>errFailToUploadQr</t>
+  </si>
+  <si>
+    <t>Fail to upload QR</t>
+  </si>
+  <si>
+    <t>ไม่สามารถสร้างคิวอาร์ได้</t>
+  </si>
+  <si>
+    <t>ไม่พบหมายเลขคำสั่งซื้อ</t>
+  </si>
+  <si>
+    <t>Invalid Order Id</t>
+  </si>
+  <si>
+    <t>No file uploaded</t>
+  </si>
+  <si>
+    <t>ไม่พบรูปหลักฐานการโอนเงิน</t>
+  </si>
+  <si>
+    <t>errFailToUploadEvidence</t>
+  </si>
+  <si>
+    <t>Fail to upload evidence</t>
+  </si>
+  <si>
+    <t>ไม่สามารถส่งหลักฐานได้</t>
   </si>
 </sst>
 </file>
@@ -1118,10 +1166,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EFFCAA-6DA9-40A3-BF28-CA3BC524DD9C}">
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="I69" sqref="I69"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76:I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3045,28 +3093,28 @@
         <v>220</v>
       </c>
       <c r="B67" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="C67" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="D67" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="E67" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="F67" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="G67" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="H67" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="I67" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
@@ -3074,10 +3122,10 @@
         <v>221</v>
       </c>
       <c r="B68" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="C68" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="D68" t="s">
         <v>221</v>
@@ -3212,6 +3260,122 @@
       </c>
       <c r="I72" t="s">
         <v>232</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>234</v>
+      </c>
+      <c r="B73" t="s">
+        <v>235</v>
+      </c>
+      <c r="C73" t="s">
+        <v>238</v>
+      </c>
+      <c r="D73" t="s">
+        <v>235</v>
+      </c>
+      <c r="E73" t="s">
+        <v>235</v>
+      </c>
+      <c r="F73" t="s">
+        <v>235</v>
+      </c>
+      <c r="G73" t="s">
+        <v>235</v>
+      </c>
+      <c r="H73" t="s">
+        <v>235</v>
+      </c>
+      <c r="I73" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>236</v>
+      </c>
+      <c r="B74" t="s">
+        <v>237</v>
+      </c>
+      <c r="C74" t="s">
+        <v>239</v>
+      </c>
+      <c r="D74" t="s">
+        <v>237</v>
+      </c>
+      <c r="E74" t="s">
+        <v>237</v>
+      </c>
+      <c r="F74" t="s">
+        <v>237</v>
+      </c>
+      <c r="G74" t="s">
+        <v>237</v>
+      </c>
+      <c r="H74" t="s">
+        <v>237</v>
+      </c>
+      <c r="I74" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>240</v>
+      </c>
+      <c r="B75" t="s">
+        <v>241</v>
+      </c>
+      <c r="C75" t="s">
+        <v>242</v>
+      </c>
+      <c r="D75" t="s">
+        <v>241</v>
+      </c>
+      <c r="E75" t="s">
+        <v>241</v>
+      </c>
+      <c r="F75" t="s">
+        <v>241</v>
+      </c>
+      <c r="G75" t="s">
+        <v>241</v>
+      </c>
+      <c r="H75" t="s">
+        <v>241</v>
+      </c>
+      <c r="I75" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>247</v>
+      </c>
+      <c r="B76" t="s">
+        <v>248</v>
+      </c>
+      <c r="C76" t="s">
+        <v>249</v>
+      </c>
+      <c r="D76" t="s">
+        <v>248</v>
+      </c>
+      <c r="E76" t="s">
+        <v>248</v>
+      </c>
+      <c r="F76" t="s">
+        <v>248</v>
+      </c>
+      <c r="G76" t="s">
+        <v>248</v>
+      </c>
+      <c r="H76" t="s">
+        <v>248</v>
+      </c>
+      <c r="I76" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/src/locales/translations.xlsx
+++ b/src/locales/translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\icmm-web\src\locales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A9CE8F-D25A-40E1-8A55-C755449A2598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0F332C-3377-45C4-BA20-388D77FFCCE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B932D239-48A5-4026-8CCD-CA2BFDECA8AC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="277">
   <si>
     <t>id</t>
   </si>
@@ -789,6 +789,87 @@
   </si>
   <si>
     <t>ไม่สามารถส่งหลักฐานได้</t>
+  </si>
+  <si>
+    <t>We are currently not operational.</t>
+  </si>
+  <si>
+    <t>We apologize for the inconvenience.</t>
+  </si>
+  <si>
+    <t>networkErrorTxt1</t>
+  </si>
+  <si>
+    <t>networkErrorTxt2</t>
+  </si>
+  <si>
+    <t>ขณะนี้เรายังไม่เปิดให้บริการ</t>
+  </si>
+  <si>
+    <t>ขออภัยในความไม่สะดวกมา ณ ที่นี้</t>
+  </si>
+  <si>
+    <t>mailerSubject</t>
+  </si>
+  <si>
+    <t>[ICMM2025] Your order has been received!...</t>
+  </si>
+  <si>
+    <t>[ICMM2025] เราได้รับคำสั่งซื้อของท่านเรียบร้อย…</t>
+  </si>
+  <si>
+    <t>mailerDear</t>
+  </si>
+  <si>
+    <t>mailerRegards</t>
+  </si>
+  <si>
+    <t>mailerName</t>
+  </si>
+  <si>
+    <t>Best Regards,</t>
+  </si>
+  <si>
+    <t>ICMM admin.</t>
+  </si>
+  <si>
+    <t>Dear Valued Customer,</t>
+  </si>
+  <si>
+    <t>We have received your order and will confirm it within 24 hours.</t>
+  </si>
+  <si>
+    <t>You can check your order status by clicking "Check Order Status" and entering your order no. :</t>
+  </si>
+  <si>
+    <t>Thank you for shopping with us.</t>
+  </si>
+  <si>
+    <t>เรียนลูกค้าที่เคารพ,</t>
+  </si>
+  <si>
+    <t>เราได้รับคำสั่งซื้อของท่านเรียบร้อยแล้ว และจะดำเนินการยืนยันคำสั่งซื้อภายใน 24 ชั่วโมง</t>
+  </si>
+  <si>
+    <t>ท่านสามารถตรวจสอบสถานะคำสั่งซื้อได้โดยคลิกที่ "ตรวจสอบสถานะคำสั่งซื้อ" และกรอกหมายเลขคำสั่งซื้อของท่านคือ :</t>
+  </si>
+  <si>
+    <t>ขอขอบพระคุณที่เลือกซื้อสินค้ากับเรา</t>
+  </si>
+  <si>
+    <t>ICMM ผู้ดูแลระบบ</t>
+  </si>
+  <si>
+    <t>ขอแสดงความนับถือ</t>
+  </si>
+  <si>
+    <t>mailerTextSendOrder2</t>
+  </si>
+  <si>
+    <t>mailerTextSendOrder3</t>
+  </si>
+  <si>
+    <t>mailerTextSendOrder1</t>
   </si>
 </sst>
 </file>
@@ -1166,10 +1247,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EFFCAA-6DA9-40A3-BF28-CA3BC524DD9C}">
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76:I76"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3378,6 +3459,267 @@
         <v>248</v>
       </c>
     </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>252</v>
+      </c>
+      <c r="B77" t="s">
+        <v>250</v>
+      </c>
+      <c r="C77" t="s">
+        <v>254</v>
+      </c>
+      <c r="D77" t="s">
+        <v>250</v>
+      </c>
+      <c r="E77" t="s">
+        <v>250</v>
+      </c>
+      <c r="F77" t="s">
+        <v>250</v>
+      </c>
+      <c r="G77" t="s">
+        <v>250</v>
+      </c>
+      <c r="H77" t="s">
+        <v>250</v>
+      </c>
+      <c r="I77" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>253</v>
+      </c>
+      <c r="B78" t="s">
+        <v>251</v>
+      </c>
+      <c r="C78" t="s">
+        <v>255</v>
+      </c>
+      <c r="D78" t="s">
+        <v>251</v>
+      </c>
+      <c r="E78" t="s">
+        <v>251</v>
+      </c>
+      <c r="F78" t="s">
+        <v>251</v>
+      </c>
+      <c r="G78" t="s">
+        <v>251</v>
+      </c>
+      <c r="H78" t="s">
+        <v>251</v>
+      </c>
+      <c r="I78" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>256</v>
+      </c>
+      <c r="B79" t="s">
+        <v>257</v>
+      </c>
+      <c r="C79" t="s">
+        <v>258</v>
+      </c>
+      <c r="D79" t="s">
+        <v>257</v>
+      </c>
+      <c r="E79" t="s">
+        <v>257</v>
+      </c>
+      <c r="F79" t="s">
+        <v>257</v>
+      </c>
+      <c r="G79" t="s">
+        <v>257</v>
+      </c>
+      <c r="H79" t="s">
+        <v>257</v>
+      </c>
+      <c r="I79" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>259</v>
+      </c>
+      <c r="B80" t="s">
+        <v>264</v>
+      </c>
+      <c r="C80" t="s">
+        <v>268</v>
+      </c>
+      <c r="D80" t="s">
+        <v>264</v>
+      </c>
+      <c r="E80" t="s">
+        <v>264</v>
+      </c>
+      <c r="F80" t="s">
+        <v>264</v>
+      </c>
+      <c r="G80" t="s">
+        <v>264</v>
+      </c>
+      <c r="H80" t="s">
+        <v>264</v>
+      </c>
+      <c r="I80" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>276</v>
+      </c>
+      <c r="B81" t="s">
+        <v>265</v>
+      </c>
+      <c r="C81" t="s">
+        <v>269</v>
+      </c>
+      <c r="D81" t="s">
+        <v>265</v>
+      </c>
+      <c r="E81" t="s">
+        <v>265</v>
+      </c>
+      <c r="F81" t="s">
+        <v>265</v>
+      </c>
+      <c r="G81" t="s">
+        <v>265</v>
+      </c>
+      <c r="H81" t="s">
+        <v>265</v>
+      </c>
+      <c r="I81" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>274</v>
+      </c>
+      <c r="B82" t="s">
+        <v>266</v>
+      </c>
+      <c r="C82" t="s">
+        <v>270</v>
+      </c>
+      <c r="D82" t="s">
+        <v>266</v>
+      </c>
+      <c r="E82" t="s">
+        <v>266</v>
+      </c>
+      <c r="F82" t="s">
+        <v>266</v>
+      </c>
+      <c r="G82" t="s">
+        <v>266</v>
+      </c>
+      <c r="H82" t="s">
+        <v>266</v>
+      </c>
+      <c r="I82" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>275</v>
+      </c>
+      <c r="B83" t="s">
+        <v>267</v>
+      </c>
+      <c r="C83" t="s">
+        <v>271</v>
+      </c>
+      <c r="D83" t="s">
+        <v>267</v>
+      </c>
+      <c r="E83" t="s">
+        <v>267</v>
+      </c>
+      <c r="F83" t="s">
+        <v>267</v>
+      </c>
+      <c r="G83" t="s">
+        <v>267</v>
+      </c>
+      <c r="H83" t="s">
+        <v>267</v>
+      </c>
+      <c r="I83" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>260</v>
+      </c>
+      <c r="B84" t="s">
+        <v>262</v>
+      </c>
+      <c r="C84" t="s">
+        <v>273</v>
+      </c>
+      <c r="D84" t="s">
+        <v>262</v>
+      </c>
+      <c r="E84" t="s">
+        <v>262</v>
+      </c>
+      <c r="F84" t="s">
+        <v>262</v>
+      </c>
+      <c r="G84" t="s">
+        <v>262</v>
+      </c>
+      <c r="H84" t="s">
+        <v>262</v>
+      </c>
+      <c r="I84" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>261</v>
+      </c>
+      <c r="B85" t="s">
+        <v>263</v>
+      </c>
+      <c r="C85" t="s">
+        <v>272</v>
+      </c>
+      <c r="D85" t="s">
+        <v>263</v>
+      </c>
+      <c r="E85" t="s">
+        <v>263</v>
+      </c>
+      <c r="F85" t="s">
+        <v>263</v>
+      </c>
+      <c r="G85" t="s">
+        <v>263</v>
+      </c>
+      <c r="H85" t="s">
+        <v>263</v>
+      </c>
+      <c r="I85" t="s">
+        <v>263</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:I4" xr:uid="{01EFFCAA-6DA9-40A3-BF28-CA3BC524DD9C}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/locales/translations.xlsx
+++ b/src/locales/translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\icmm-web\src\locales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0F332C-3377-45C4-BA20-388D77FFCCE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F45EE4-1FFE-4785-AEC5-B87C6C3E234C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B932D239-48A5-4026-8CCD-CA2BFDECA8AC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="323">
   <si>
     <t>id</t>
   </si>
@@ -870,6 +870,144 @@
   </si>
   <si>
     <t>mailerTextSendOrder1</t>
+  </si>
+  <si>
+    <t>Order no.</t>
+  </si>
+  <si>
+    <t>orderNo</t>
+  </si>
+  <si>
+    <t>หมายเลขคำสั่งซื้อ</t>
+  </si>
+  <si>
+    <t>Order number</t>
+  </si>
+  <si>
+    <t>errOrderNotFound</t>
+  </si>
+  <si>
+    <t>Email or order no. not match</t>
+  </si>
+  <si>
+    <t>ไม่พบอีเมล์หรือเลขคำสั่งซื้อ</t>
+  </si>
+  <si>
+    <t>errLackData</t>
+  </si>
+  <si>
+    <t>Please input email and order no.</t>
+  </si>
+  <si>
+    <t>กรุณาระบุอีเมล์และหมายเลขคำสั่งซื้อ</t>
+  </si>
+  <si>
+    <t>userNotPaid</t>
+  </si>
+  <si>
+    <t>waitConfirm</t>
+  </si>
+  <si>
+    <t>confirmed</t>
+  </si>
+  <si>
+    <t>delivered</t>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>Confirmed</t>
+  </si>
+  <si>
+    <t>Delivered</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
+  </si>
+  <si>
+    <t>Payment unsuccessful</t>
+  </si>
+  <si>
+    <t>Wait confirmation</t>
+  </si>
+  <si>
+    <t>ชำระเงินไม่สำเร็จ</t>
+  </si>
+  <si>
+    <t>รอการยืนยัน</t>
+  </si>
+  <si>
+    <t>ยืนยันเรียบร้อย</t>
+  </si>
+  <si>
+    <t>จัดส่งเรียบร้อย</t>
+  </si>
+  <si>
+    <t>หยุดชั่วคราว</t>
+  </si>
+  <si>
+    <t>ยกเลิก</t>
+  </si>
+  <si>
+    <t>userNotPaidTxt</t>
+  </si>
+  <si>
+    <t>waitConfirmTxt</t>
+  </si>
+  <si>
+    <t>confirmedTxt</t>
+  </si>
+  <si>
+    <t>deliveredTxt</t>
+  </si>
+  <si>
+    <t>pendingTxt</t>
+  </si>
+  <si>
+    <t>cancelledTxt</t>
+  </si>
+  <si>
+    <t>Please create new order.</t>
+  </si>
+  <si>
+    <t>Please wait for the admin to confirm your payment and verify all details.</t>
+  </si>
+  <si>
+    <t>Your order has been confirmed. We will notify you again when your order is out for delivery.</t>
+  </si>
+  <si>
+    <t>Your order has been delivered. Please check your delivery tracking.</t>
+  </si>
+  <si>
+    <t>Your order is pending, Please contact admin for more information.</t>
+  </si>
+  <si>
+    <t>Your order is cancelled, Please contact admin for more information.</t>
+  </si>
+  <si>
+    <t>กรุณาสร้างคำสั่งซื้อใหม่อีกครั้ง</t>
+  </si>
+  <si>
+    <t>ผู้ดูแลระบบกำลังตรวจสอบหลักฐานการชำระเงิน</t>
+  </si>
+  <si>
+    <t>คำสั่งซื้อของคุณได้รับการยืนยันเรียบร้อย เราจะแจ้งคุณอีกครั้งหลังกจากสินค้าของคุณถูกจัดส่ง</t>
+  </si>
+  <si>
+    <t>คำสั่งซื้อของคุณถูกจัดส่งเรียบร้อย กรุณาติดตามด้วยหมายเลขการจัดส่ง</t>
+  </si>
+  <si>
+    <t>คำสั่งซื้อของคุณถูกระงับชั่วคราว โปรดติดต่อผู้ดูแลระบบเพื่อข้อมูลเพิ่มเติม</t>
+  </si>
+  <si>
+    <t>คำสั่งซื้อของคุณถูกระงับถาวร โปรดติดต่อผู้ดูแลระบบเพื่อข้อมูลเพิ่มเติม</t>
   </si>
 </sst>
 </file>
@@ -1247,13 +1385,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EFFCAA-6DA9-40A3-BF28-CA3BC524DD9C}">
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="F100" sqref="F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="30.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -3718,6 +3859,441 @@
       </c>
       <c r="I85" t="s">
         <v>263</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>278</v>
+      </c>
+      <c r="B86" t="s">
+        <v>280</v>
+      </c>
+      <c r="C86" t="s">
+        <v>279</v>
+      </c>
+      <c r="D86" t="s">
+        <v>277</v>
+      </c>
+      <c r="E86" t="s">
+        <v>277</v>
+      </c>
+      <c r="F86" t="s">
+        <v>277</v>
+      </c>
+      <c r="G86" t="s">
+        <v>277</v>
+      </c>
+      <c r="H86" t="s">
+        <v>277</v>
+      </c>
+      <c r="I86" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>281</v>
+      </c>
+      <c r="B87" t="s">
+        <v>282</v>
+      </c>
+      <c r="C87" t="s">
+        <v>283</v>
+      </c>
+      <c r="D87" t="s">
+        <v>282</v>
+      </c>
+      <c r="E87" t="s">
+        <v>282</v>
+      </c>
+      <c r="F87" t="s">
+        <v>282</v>
+      </c>
+      <c r="G87" t="s">
+        <v>282</v>
+      </c>
+      <c r="H87" t="s">
+        <v>282</v>
+      </c>
+      <c r="I87" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>284</v>
+      </c>
+      <c r="B88" t="s">
+        <v>285</v>
+      </c>
+      <c r="C88" t="s">
+        <v>286</v>
+      </c>
+      <c r="D88" t="s">
+        <v>285</v>
+      </c>
+      <c r="E88" t="s">
+        <v>285</v>
+      </c>
+      <c r="F88" t="s">
+        <v>285</v>
+      </c>
+      <c r="G88" t="s">
+        <v>285</v>
+      </c>
+      <c r="H88" t="s">
+        <v>285</v>
+      </c>
+      <c r="I88" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>287</v>
+      </c>
+      <c r="B89" t="s">
+        <v>297</v>
+      </c>
+      <c r="C89" t="s">
+        <v>299</v>
+      </c>
+      <c r="D89" t="s">
+        <v>297</v>
+      </c>
+      <c r="E89" t="s">
+        <v>297</v>
+      </c>
+      <c r="F89" t="s">
+        <v>297</v>
+      </c>
+      <c r="G89" t="s">
+        <v>297</v>
+      </c>
+      <c r="H89" t="s">
+        <v>297</v>
+      </c>
+      <c r="I89" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>288</v>
+      </c>
+      <c r="B90" t="s">
+        <v>298</v>
+      </c>
+      <c r="C90" t="s">
+        <v>300</v>
+      </c>
+      <c r="D90" t="s">
+        <v>298</v>
+      </c>
+      <c r="E90" t="s">
+        <v>298</v>
+      </c>
+      <c r="F90" t="s">
+        <v>298</v>
+      </c>
+      <c r="G90" t="s">
+        <v>298</v>
+      </c>
+      <c r="H90" t="s">
+        <v>298</v>
+      </c>
+      <c r="I90" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>289</v>
+      </c>
+      <c r="B91" t="s">
+        <v>293</v>
+      </c>
+      <c r="C91" t="s">
+        <v>301</v>
+      </c>
+      <c r="D91" t="s">
+        <v>293</v>
+      </c>
+      <c r="E91" t="s">
+        <v>293</v>
+      </c>
+      <c r="F91" t="s">
+        <v>293</v>
+      </c>
+      <c r="G91" t="s">
+        <v>293</v>
+      </c>
+      <c r="H91" t="s">
+        <v>293</v>
+      </c>
+      <c r="I91" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>290</v>
+      </c>
+      <c r="B92" t="s">
+        <v>294</v>
+      </c>
+      <c r="C92" t="s">
+        <v>302</v>
+      </c>
+      <c r="D92" t="s">
+        <v>294</v>
+      </c>
+      <c r="E92" t="s">
+        <v>294</v>
+      </c>
+      <c r="F92" t="s">
+        <v>294</v>
+      </c>
+      <c r="G92" t="s">
+        <v>294</v>
+      </c>
+      <c r="H92" t="s">
+        <v>294</v>
+      </c>
+      <c r="I92" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>291</v>
+      </c>
+      <c r="B93" t="s">
+        <v>295</v>
+      </c>
+      <c r="C93" t="s">
+        <v>303</v>
+      </c>
+      <c r="D93" t="s">
+        <v>295</v>
+      </c>
+      <c r="E93" t="s">
+        <v>295</v>
+      </c>
+      <c r="F93" t="s">
+        <v>295</v>
+      </c>
+      <c r="G93" t="s">
+        <v>295</v>
+      </c>
+      <c r="H93" t="s">
+        <v>295</v>
+      </c>
+      <c r="I93" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>292</v>
+      </c>
+      <c r="B94" t="s">
+        <v>296</v>
+      </c>
+      <c r="C94" t="s">
+        <v>304</v>
+      </c>
+      <c r="D94" t="s">
+        <v>296</v>
+      </c>
+      <c r="E94" t="s">
+        <v>296</v>
+      </c>
+      <c r="F94" t="s">
+        <v>296</v>
+      </c>
+      <c r="G94" t="s">
+        <v>296</v>
+      </c>
+      <c r="H94" t="s">
+        <v>296</v>
+      </c>
+      <c r="I94" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>305</v>
+      </c>
+      <c r="B95" t="s">
+        <v>311</v>
+      </c>
+      <c r="C95" t="s">
+        <v>317</v>
+      </c>
+      <c r="D95" t="s">
+        <v>311</v>
+      </c>
+      <c r="E95" t="s">
+        <v>311</v>
+      </c>
+      <c r="F95" t="s">
+        <v>311</v>
+      </c>
+      <c r="G95" t="s">
+        <v>311</v>
+      </c>
+      <c r="H95" t="s">
+        <v>311</v>
+      </c>
+      <c r="I95" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>306</v>
+      </c>
+      <c r="B96" t="s">
+        <v>312</v>
+      </c>
+      <c r="C96" t="s">
+        <v>318</v>
+      </c>
+      <c r="D96" t="s">
+        <v>312</v>
+      </c>
+      <c r="E96" t="s">
+        <v>312</v>
+      </c>
+      <c r="F96" t="s">
+        <v>312</v>
+      </c>
+      <c r="G96" t="s">
+        <v>312</v>
+      </c>
+      <c r="H96" t="s">
+        <v>312</v>
+      </c>
+      <c r="I96" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>307</v>
+      </c>
+      <c r="B97" t="s">
+        <v>313</v>
+      </c>
+      <c r="C97" t="s">
+        <v>319</v>
+      </c>
+      <c r="D97" t="s">
+        <v>313</v>
+      </c>
+      <c r="E97" t="s">
+        <v>313</v>
+      </c>
+      <c r="F97" t="s">
+        <v>313</v>
+      </c>
+      <c r="G97" t="s">
+        <v>313</v>
+      </c>
+      <c r="H97" t="s">
+        <v>313</v>
+      </c>
+      <c r="I97" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>308</v>
+      </c>
+      <c r="B98" t="s">
+        <v>314</v>
+      </c>
+      <c r="C98" t="s">
+        <v>320</v>
+      </c>
+      <c r="D98" t="s">
+        <v>314</v>
+      </c>
+      <c r="E98" t="s">
+        <v>314</v>
+      </c>
+      <c r="F98" t="s">
+        <v>314</v>
+      </c>
+      <c r="G98" t="s">
+        <v>314</v>
+      </c>
+      <c r="H98" t="s">
+        <v>314</v>
+      </c>
+      <c r="I98" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>309</v>
+      </c>
+      <c r="B99" t="s">
+        <v>315</v>
+      </c>
+      <c r="C99" t="s">
+        <v>321</v>
+      </c>
+      <c r="D99" t="s">
+        <v>315</v>
+      </c>
+      <c r="E99" t="s">
+        <v>315</v>
+      </c>
+      <c r="F99" t="s">
+        <v>315</v>
+      </c>
+      <c r="G99" t="s">
+        <v>315</v>
+      </c>
+      <c r="H99" t="s">
+        <v>315</v>
+      </c>
+      <c r="I99" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>310</v>
+      </c>
+      <c r="B100" t="s">
+        <v>316</v>
+      </c>
+      <c r="C100" t="s">
+        <v>322</v>
+      </c>
+      <c r="D100" t="s">
+        <v>316</v>
+      </c>
+      <c r="E100" t="s">
+        <v>316</v>
+      </c>
+      <c r="F100" t="s">
+        <v>316</v>
+      </c>
+      <c r="G100" t="s">
+        <v>316</v>
+      </c>
+      <c r="H100" t="s">
+        <v>316</v>
+      </c>
+      <c r="I100" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>

--- a/src/locales/translations.xlsx
+++ b/src/locales/translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\icmm-web\src\locales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F45EE4-1FFE-4785-AEC5-B87C6C3E234C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293FB5AD-E6FE-4EAC-A9CA-AC624E2BB1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B932D239-48A5-4026-8CCD-CA2BFDECA8AC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="329">
   <si>
     <t>id</t>
   </si>
@@ -1008,6 +1008,24 @@
   </si>
   <si>
     <t>คำสั่งซื้อของคุณถูกระงับถาวร โปรดติดต่อผู้ดูแลระบบเพื่อข้อมูลเพิ่มเติม</t>
+  </si>
+  <si>
+    <t>createdAt</t>
+  </si>
+  <si>
+    <t>updatedAt</t>
+  </si>
+  <si>
+    <t>Created At</t>
+  </si>
+  <si>
+    <t>Updated At</t>
+  </si>
+  <si>
+    <t>ถูกสร้างเมื่อ</t>
+  </si>
+  <si>
+    <t>แก้ไขครั้งล่าสุด</t>
   </si>
 </sst>
 </file>
@@ -1385,10 +1403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EFFCAA-6DA9-40A3-BF28-CA3BC524DD9C}">
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:I102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="F100" sqref="F100"/>
+      <selection activeCell="D101" sqref="D101:I102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4296,6 +4314,64 @@
         <v>316</v>
       </c>
     </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>323</v>
+      </c>
+      <c r="B101" t="s">
+        <v>325</v>
+      </c>
+      <c r="C101" t="s">
+        <v>327</v>
+      </c>
+      <c r="D101" t="s">
+        <v>325</v>
+      </c>
+      <c r="E101" t="s">
+        <v>325</v>
+      </c>
+      <c r="F101" t="s">
+        <v>325</v>
+      </c>
+      <c r="G101" t="s">
+        <v>325</v>
+      </c>
+      <c r="H101" t="s">
+        <v>325</v>
+      </c>
+      <c r="I101" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>324</v>
+      </c>
+      <c r="B102" t="s">
+        <v>326</v>
+      </c>
+      <c r="C102" t="s">
+        <v>328</v>
+      </c>
+      <c r="D102" t="s">
+        <v>326</v>
+      </c>
+      <c r="E102" t="s">
+        <v>326</v>
+      </c>
+      <c r="F102" t="s">
+        <v>326</v>
+      </c>
+      <c r="G102" t="s">
+        <v>326</v>
+      </c>
+      <c r="H102" t="s">
+        <v>326</v>
+      </c>
+      <c r="I102" t="s">
+        <v>326</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:I4" xr:uid="{01EFFCAA-6DA9-40A3-BF28-CA3BC524DD9C}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/locales/translations.xlsx
+++ b/src/locales/translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\icmm-web\src\locales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293FB5AD-E6FE-4EAC-A9CA-AC624E2BB1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960FAC20-31BF-4214-A8AA-0828A1FC45B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B932D239-48A5-4026-8CCD-CA2BFDECA8AC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="348">
   <si>
     <t>id</t>
   </si>
@@ -1026,6 +1026,63 @@
   </si>
   <si>
     <t>แก้ไขครั้งล่าสุด</t>
+  </si>
+  <si>
+    <t>emsTracking</t>
+  </si>
+  <si>
+    <t>EMS Tracking</t>
+  </si>
+  <si>
+    <t>หมายเลขติดตามพัสดุ</t>
+  </si>
+  <si>
+    <t>mailerTextUpdateOrder1</t>
+  </si>
+  <si>
+    <t>mailerTextUpdateOrder2</t>
+  </si>
+  <si>
+    <t>mailerTextUpdateOrder3</t>
+  </si>
+  <si>
+    <t>mailerSubjectUpdateOrder</t>
+  </si>
+  <si>
+    <t>[ICMM2025] Your order has been updated!...</t>
+  </si>
+  <si>
+    <t>We have updated your order status or detail.</t>
+  </si>
+  <si>
+    <t>[ICMM2025] คำสั่งซื้อของท่านมีการเปลี่ยนสถานะหรือแก้ไข…</t>
+  </si>
+  <si>
+    <t>เราได้ทำการเปลี่ยนแปลงสถานะหรือรายละเอียดคำสั่งซื้อของท่าน</t>
+  </si>
+  <si>
+    <t>[ICMM2025] คำสั่งซื้อของท่านมีการเปลี่ยนสถานะ…</t>
+  </si>
+  <si>
+    <t>mailerTextFwdOrder1</t>
+  </si>
+  <si>
+    <t>mailerTextFwdOrder3</t>
+  </si>
+  <si>
+    <t>mailerTextFwdOrder2</t>
+  </si>
+  <si>
+    <t>mailerSubjectFwdOrder</t>
+  </si>
+  <si>
+    <t>[ICMM2025] Your order has changed status!...</t>
+  </si>
+  <si>
+    <t>We have moved your order to the next state.</t>
+  </si>
+  <si>
+    <t>คำสั่งซื้อของท่านถูกทำเดินการไปยังสถานะถัดไป</t>
   </si>
 </sst>
 </file>
@@ -1403,15 +1460,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EFFCAA-6DA9-40A3-BF28-CA3BC524DD9C}">
-  <dimension ref="A1:I102"/>
+  <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101:I102"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="D104" sqref="D104:I111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="30.88671875" customWidth="1"/>
+    <col min="3" max="3" width="47.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -4370,6 +4428,267 @@
       </c>
       <c r="I102" t="s">
         <v>326</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>329</v>
+      </c>
+      <c r="B103" t="s">
+        <v>330</v>
+      </c>
+      <c r="C103" t="s">
+        <v>331</v>
+      </c>
+      <c r="D103" t="s">
+        <v>330</v>
+      </c>
+      <c r="E103" t="s">
+        <v>330</v>
+      </c>
+      <c r="F103" t="s">
+        <v>330</v>
+      </c>
+      <c r="G103" t="s">
+        <v>330</v>
+      </c>
+      <c r="H103" t="s">
+        <v>330</v>
+      </c>
+      <c r="I103" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>332</v>
+      </c>
+      <c r="B104" t="s">
+        <v>337</v>
+      </c>
+      <c r="C104" t="s">
+        <v>339</v>
+      </c>
+      <c r="D104" t="s">
+        <v>337</v>
+      </c>
+      <c r="E104" t="s">
+        <v>337</v>
+      </c>
+      <c r="F104" t="s">
+        <v>337</v>
+      </c>
+      <c r="G104" t="s">
+        <v>337</v>
+      </c>
+      <c r="H104" t="s">
+        <v>337</v>
+      </c>
+      <c r="I104" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>333</v>
+      </c>
+      <c r="B105" t="s">
+        <v>266</v>
+      </c>
+      <c r="C105" t="s">
+        <v>270</v>
+      </c>
+      <c r="D105" t="s">
+        <v>266</v>
+      </c>
+      <c r="E105" t="s">
+        <v>266</v>
+      </c>
+      <c r="F105" t="s">
+        <v>266</v>
+      </c>
+      <c r="G105" t="s">
+        <v>266</v>
+      </c>
+      <c r="H105" t="s">
+        <v>266</v>
+      </c>
+      <c r="I105" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>334</v>
+      </c>
+      <c r="B106" t="s">
+        <v>267</v>
+      </c>
+      <c r="C106" t="s">
+        <v>271</v>
+      </c>
+      <c r="D106" t="s">
+        <v>267</v>
+      </c>
+      <c r="E106" t="s">
+        <v>267</v>
+      </c>
+      <c r="F106" t="s">
+        <v>267</v>
+      </c>
+      <c r="G106" t="s">
+        <v>267</v>
+      </c>
+      <c r="H106" t="s">
+        <v>267</v>
+      </c>
+      <c r="I106" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>335</v>
+      </c>
+      <c r="B107" t="s">
+        <v>336</v>
+      </c>
+      <c r="C107" t="s">
+        <v>338</v>
+      </c>
+      <c r="D107" t="s">
+        <v>336</v>
+      </c>
+      <c r="E107" t="s">
+        <v>336</v>
+      </c>
+      <c r="F107" t="s">
+        <v>336</v>
+      </c>
+      <c r="G107" t="s">
+        <v>336</v>
+      </c>
+      <c r="H107" t="s">
+        <v>336</v>
+      </c>
+      <c r="I107" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>341</v>
+      </c>
+      <c r="B108" t="s">
+        <v>346</v>
+      </c>
+      <c r="C108" t="s">
+        <v>347</v>
+      </c>
+      <c r="D108" t="s">
+        <v>346</v>
+      </c>
+      <c r="E108" t="s">
+        <v>346</v>
+      </c>
+      <c r="F108" t="s">
+        <v>346</v>
+      </c>
+      <c r="G108" t="s">
+        <v>346</v>
+      </c>
+      <c r="H108" t="s">
+        <v>346</v>
+      </c>
+      <c r="I108" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>343</v>
+      </c>
+      <c r="B109" t="s">
+        <v>266</v>
+      </c>
+      <c r="C109" t="s">
+        <v>270</v>
+      </c>
+      <c r="D109" t="s">
+        <v>266</v>
+      </c>
+      <c r="E109" t="s">
+        <v>266</v>
+      </c>
+      <c r="F109" t="s">
+        <v>266</v>
+      </c>
+      <c r="G109" t="s">
+        <v>266</v>
+      </c>
+      <c r="H109" t="s">
+        <v>266</v>
+      </c>
+      <c r="I109" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>342</v>
+      </c>
+      <c r="B110" t="s">
+        <v>267</v>
+      </c>
+      <c r="C110" t="s">
+        <v>271</v>
+      </c>
+      <c r="D110" t="s">
+        <v>267</v>
+      </c>
+      <c r="E110" t="s">
+        <v>267</v>
+      </c>
+      <c r="F110" t="s">
+        <v>267</v>
+      </c>
+      <c r="G110" t="s">
+        <v>267</v>
+      </c>
+      <c r="H110" t="s">
+        <v>267</v>
+      </c>
+      <c r="I110" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>344</v>
+      </c>
+      <c r="B111" t="s">
+        <v>345</v>
+      </c>
+      <c r="C111" t="s">
+        <v>340</v>
+      </c>
+      <c r="D111" t="s">
+        <v>345</v>
+      </c>
+      <c r="E111" t="s">
+        <v>345</v>
+      </c>
+      <c r="F111" t="s">
+        <v>345</v>
+      </c>
+      <c r="G111" t="s">
+        <v>345</v>
+      </c>
+      <c r="H111" t="s">
+        <v>345</v>
+      </c>
+      <c r="I111" t="s">
+        <v>345</v>
       </c>
     </row>
   </sheetData>

--- a/src/locales/translations.xlsx
+++ b/src/locales/translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\icmm-web\src\locales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960FAC20-31BF-4214-A8AA-0828A1FC45B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8913908F-42B8-4443-916C-F102E75B67C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B932D239-48A5-4026-8CCD-CA2BFDECA8AC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="942">
   <si>
     <t>id</t>
   </si>
@@ -332,9 +332,6 @@
     <t>Acc. Name</t>
   </si>
   <si>
-    <t>Mr. John Surname</t>
-  </si>
-  <si>
     <t>ธนาคาร</t>
   </si>
   <si>
@@ -683,9 +680,6 @@
     <t>plsAddNote</t>
   </si>
   <si>
-    <t>Note (Add manual when pay)</t>
-  </si>
-  <si>
     <t>บันทึก (โปรดใส่ในบันทึกช่วยจำ)</t>
   </si>
   <si>
@@ -872,9 +866,6 @@
     <t>mailerTextSendOrder1</t>
   </si>
   <si>
-    <t>Order no.</t>
-  </si>
-  <si>
     <t>orderNo</t>
   </si>
   <si>
@@ -1083,6 +1074,1797 @@
   </si>
   <si>
     <t>คำสั่งซื้อของท่านถูกทำเดินการไปยังสถานะถัดไป</t>
+  </si>
+  <si>
+    <t>行政</t>
+  </si>
+  <si>
+    <t>管理者</t>
+  </si>
+  <si>
+    <t>Administradora</t>
+  </si>
+  <si>
+    <t>ရော်လွှာ</t>
+  </si>
+  <si>
+    <t>ບໍລິຫານ</t>
+  </si>
+  <si>
+    <t>រដ្ឋបាល</t>
+  </si>
+  <si>
+    <t>注销</t>
+  </si>
+  <si>
+    <t>ログアウト</t>
+  </si>
+  <si>
+    <t>Cierre de sesión</t>
+  </si>
+  <si>
+    <t>ဝင်</t>
+  </si>
+  <si>
+    <t>ອອກຈາກລະບົບ</t>
+  </si>
+  <si>
+    <t>ដមនើញ់បំផុតកេត</t>
+  </si>
+  <si>
+    <t>...欢迎来到ICCM2025商店…</t>
+  </si>
+  <si>
+    <t>... ICCM2025ショップへようこそ…</t>
+  </si>
+  <si>
+    <t>... Bienvenido a la tienda ICCM2025 ...</t>
+  </si>
+  <si>
+    <t>... ICCCM25 ဆိုင်ခန်းကိုကြိုဆိုပါသည်။</t>
+  </si>
+  <si>
+    <t>... ຍິນດີຕ້ອນຮັບສູ່ຮ້ານ ICCM2025 ...</t>
+  </si>
+  <si>
+    <t>សូមស្វាគមន៍មកកាន់ហាង ICCM2025 ...</t>
+  </si>
+  <si>
+    <t>检查订单状态</t>
+  </si>
+  <si>
+    <t>注文ステータスを確認してください</t>
+  </si>
+  <si>
+    <t>Verifique el estado del pedido</t>
+  </si>
+  <si>
+    <t>အမိန့်အခြေအနေကိုစစ်ဆေးပါ</t>
+  </si>
+  <si>
+    <t>ກວດສອບສະຖານະການສັ່ງຊື້</t>
+  </si>
+  <si>
+    <t>ពិនិត្យមើលស្ថានភាពបញ្ជាទិញ</t>
+  </si>
+  <si>
+    <t>产品</t>
+  </si>
+  <si>
+    <t>製品</t>
+  </si>
+  <si>
+    <t>Productos</t>
+  </si>
+  <si>
+    <t>ထုတ်ကုန်များ</t>
+  </si>
+  <si>
+    <t>ຜະລິດຕະພັນ</t>
+  </si>
+  <si>
+    <t>ផលិតផល</t>
+  </si>
+  <si>
+    <t>点击选择产品</t>
+  </si>
+  <si>
+    <t>クリックして製品を選択します</t>
+  </si>
+  <si>
+    <t>Haga clic para seleccionar el producto</t>
+  </si>
+  <si>
+    <t>ထုတ်ကုန်ကိုရွေးချယ်ရန်နှိပ်ပါ</t>
+  </si>
+  <si>
+    <t>ກົດເພື່ອເລືອກຜະລິດຕະພັນ</t>
+  </si>
+  <si>
+    <t>ចុចដើម្បីជ្រើសរើសផលិតផល</t>
+  </si>
+  <si>
+    <t>大车</t>
+  </si>
+  <si>
+    <t>カート</t>
+  </si>
+  <si>
+    <t>Carro</t>
+  </si>
+  <si>
+    <t>လှည်း</t>
+  </si>
+  <si>
+    <t>ລົດເຂັນ</t>
+  </si>
+  <si>
+    <t>រតេហ</t>
+  </si>
+  <si>
+    <t>查看</t>
+  </si>
+  <si>
+    <t>チェックアウト</t>
+  </si>
+  <si>
+    <t>Verificar</t>
+  </si>
+  <si>
+    <t>ထွက်ခွာသည်</t>
+  </si>
+  <si>
+    <t>ດ່ານກວດກາ</t>
+  </si>
+  <si>
+    <t>CheckoUT</t>
+  </si>
+  <si>
+    <t>全部的 ：</t>
+  </si>
+  <si>
+    <t>合計 ：</t>
+  </si>
+  <si>
+    <t>စုစုပေါင်း:</t>
+  </si>
+  <si>
+    <t>ຈໍານວນທັງຫມົດ:</t>
+  </si>
+  <si>
+    <t>សរុប:</t>
+  </si>
+  <si>
+    <t>thb</t>
+  </si>
+  <si>
+    <t>ບາດ</t>
+  </si>
+  <si>
+    <t>បាត</t>
+  </si>
+  <si>
+    <t>确认订单</t>
+  </si>
+  <si>
+    <t>注文を確認します</t>
+  </si>
+  <si>
+    <t>Confirmar orden</t>
+  </si>
+  <si>
+    <t>အတည်ပြုရန်အမိန့်</t>
+  </si>
+  <si>
+    <t>ຢືນຢັນຄໍາສັ່ງ</t>
+  </si>
+  <si>
+    <t>បញ្ជាក់ការបញ្ជាទិញ</t>
+  </si>
+  <si>
+    <t>回到购物车</t>
+  </si>
+  <si>
+    <t>カートに戻ります</t>
+  </si>
+  <si>
+    <t>Volver al carrito</t>
+  </si>
+  <si>
+    <t>လှည်းသို့ပြန်သွားသည်</t>
+  </si>
+  <si>
+    <t>ກັບໄປທີ່ລົດເຂັນ</t>
+  </si>
+  <si>
+    <t>ត្រលប់ទៅរទេះវិញ</t>
+  </si>
+  <si>
+    <t>准备付款</t>
+  </si>
+  <si>
+    <t>支払いの準備ができました</t>
+  </si>
+  <si>
+    <t>Listo para pagar</t>
+  </si>
+  <si>
+    <t>လစာအဘို့အဆင်သင့်</t>
+  </si>
+  <si>
+    <t>ກຽມພ້ອມສໍາລັບການຈ່າຍ</t>
+  </si>
+  <si>
+    <t>ត្រៀមខ្លួនសម្រាប់ប្រាក់ខែ</t>
+  </si>
+  <si>
+    <t>电子邮件</t>
+  </si>
+  <si>
+    <t>メール</t>
+  </si>
+  <si>
+    <t>Correo electrónico</t>
+  </si>
+  <si>
+    <t>အီးမေးလ်</t>
+  </si>
+  <si>
+    <t>ອີເມວ</t>
+  </si>
+  <si>
+    <t>អ៊ីមែល</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>名前</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>နံမယ်</t>
+  </si>
+  <si>
+    <t>ຊື່</t>
+  </si>
+  <si>
+    <t>ឈ្ផោហ</t>
+  </si>
+  <si>
+    <t>送货地址</t>
+  </si>
+  <si>
+    <t>配達アドレス</t>
+  </si>
+  <si>
+    <t>Dirección de entrega</t>
+  </si>
+  <si>
+    <t>ပေးပို့လိပ်စာ</t>
+  </si>
+  <si>
+    <t>ທີ່ຢູ່ສົ່ງ</t>
+  </si>
+  <si>
+    <t>អាសយដ្ឋានដឹកជញ្ជូន</t>
+  </si>
+  <si>
+    <t>银行</t>
+  </si>
+  <si>
+    <t>銀行</t>
+  </si>
+  <si>
+    <t>Banco</t>
+  </si>
+  <si>
+    <t>ကမ်း</t>
+  </si>
+  <si>
+    <t>ທະນາຄານ</t>
+  </si>
+  <si>
+    <t>ធនាការ</t>
+  </si>
+  <si>
+    <t>暹罗广告</t>
+  </si>
+  <si>
+    <t>サイアムコマーシャル</t>
+  </si>
+  <si>
+    <t>Comercial de siam</t>
+  </si>
+  <si>
+    <t>Siam စီးပွားဖြစ်</t>
+  </si>
+  <si>
+    <t>ການຄ້າສາi</t>
+  </si>
+  <si>
+    <t>ពាណិជ្ជកម្មសៀម</t>
+  </si>
+  <si>
+    <t>ACC。 不。</t>
+  </si>
+  <si>
+    <t>acc。 いいえ。</t>
+  </si>
+  <si>
+    <t>Accado No.</t>
+  </si>
+  <si>
+    <t>ACC ။ အမှတ်</t>
+  </si>
+  <si>
+    <t>acert. ບໍ່.</t>
+  </si>
+  <si>
+    <t>ACC ។ ការដុត</t>
+  </si>
+  <si>
+    <t>111-111111-1</t>
+  </si>
+  <si>
+    <t>111-1-11111-1-</t>
+  </si>
+  <si>
+    <t>111-11-1111-111-11-11-1</t>
+  </si>
+  <si>
+    <t>ACC。 姓名</t>
+  </si>
+  <si>
+    <t>acc。 名前</t>
+  </si>
+  <si>
+    <t>Accado Nombre</t>
+  </si>
+  <si>
+    <t>ACC ။ နံမယ်</t>
+  </si>
+  <si>
+    <t>acert. ຊື່</t>
+  </si>
+  <si>
+    <t>ACC ។ ឈ្ផោហ</t>
+  </si>
+  <si>
+    <t>约翰·史密斯先生</t>
+  </si>
+  <si>
+    <t>ジョン・スミス氏</t>
+  </si>
+  <si>
+    <t>Sr. John Smith</t>
+  </si>
+  <si>
+    <t>ທ່ານ John Smith</t>
+  </si>
+  <si>
+    <t>លោកចនស្មីត</t>
+  </si>
+  <si>
+    <t>上传单</t>
+  </si>
+  <si>
+    <t>スリップをアップロードします</t>
+  </si>
+  <si>
+    <t>Subiendo el deslizamiento</t>
+  </si>
+  <si>
+    <t>တင်ပါးစလစ်</t>
+  </si>
+  <si>
+    <t>ອັບໂຫລດ</t>
+  </si>
+  <si>
+    <t>ផ្ទុកឡើង</t>
+  </si>
+  <si>
+    <t>提交订单</t>
+  </si>
+  <si>
+    <t>注文を送信します</t>
+  </si>
+  <si>
+    <t>Enviar orden</t>
+  </si>
+  <si>
+    <t>တင်သွင်းရန်</t>
+  </si>
+  <si>
+    <t>ສົ່ງຄໍາສັ່ງ</t>
+  </si>
+  <si>
+    <t>ដាក់ស្នើបទបញ្ជា</t>
+  </si>
+  <si>
+    <t>跑步衬衫</t>
+  </si>
+  <si>
+    <t>ランニングシャツ</t>
+  </si>
+  <si>
+    <t>Camiseta</t>
+  </si>
+  <si>
+    <t>အပြေးရှပ်အင်္ကျီ</t>
+  </si>
+  <si>
+    <t>ເສື້ອແລ່ນ</t>
+  </si>
+  <si>
+    <t>អាវរត់</t>
+  </si>
+  <si>
+    <t>超级钻石面料专门编织，以提高跑步衬衫的质量，使它们脱颖而出且独特。 它的质感但光滑的表面可提供独特的感觉，同时提供出色的透气性。 这样可以确保织物迅速干燥，感觉轻巧舒适 - 完美地锻炼出大量出汗。</t>
+  </si>
+  <si>
+    <t>スーパーダイヤモンドの生地は、ランニングシャツの品質を高めるために特別に織り込まれており、目立つユニークなシャツにしています。 そのテクスチャーされたが滑らかな表面は、優れた通気性を提供しながら、独特の感触を提供します。 これにより、生地が素早く乾燥し、軽くて快適に感じます。激しい汗をかいた激しいトレーニングに最適です。</t>
+  </si>
+  <si>
+    <t>La tela Super Diamond está especialmente tejida para elevar la calidad de las camisas para correr, haciéndolas destacadas y únicas. Su superficie texturizada pero lisa proporciona una sensación distinta, al tiempo que ofrece una excelente transpirabilidad. Esto garantiza que la tela se seque rápidamente, se siente ligera y cómoda, perfecta para entrenamientos intensos con una fuerte sudoración.</t>
+  </si>
+  <si>
+    <t>စူပါစိန်အထည်သည်အလွန်အမင်းယက်စိမ်းလန်းသောအပြေးရှပ်အင်္ကျီများ၏အရည်အသွေးကိုမြှင့်တင်ရန်, ၎င်း၏ textured သေးငယ်တဲ့ချောချောမွေ့မွေ့မျက်နှာပြင်သည်အလွန်ဆိုးရှားလွယ်မှုကိုကမ်းလှမ်းနေစဉ်ကွဲပြားသောခံစားမှုကိုပေးသည်။ ၎င်းသည်အထည်အလိပ်လျင်မြန်စွာခန်းခြောက်သည်, လေးလံသောချွေးများနှင့်ပြင်းထန်သောလေ့ကျင့်ခန်းများအတွက်အလင်းရောင်နှင့်အဆင်ပြေချောမွေ့စေသည်။</t>
+  </si>
+  <si>
+    <t>ຜ້າເພັດ Super ແມ່ນແສ່ວພິເສດເປັນພິເສດໃນການຍົກຄຸນນະພາບຂອງເສື້ອທີ່ໃຊ້, ເຮັດໃຫ້ພວກມັນໂດດເດັ່ນແລະເປັນເອກະລັກສະເພາະ. ພື້ນຜິວທີ່ມີໂຄງສ້າງຍັງມີຄວາມຮູ້ສຶກທີ່ແຕກຕ່າງ, ໃນຂະນະທີ່ສະເຫນີລົມຫາຍໃຈທີ່ດີເລີດ. ນີ້ຮັບປະກັນຜ້າແຫ້ງໄດ້ໄວ, ຮູ້ສຶກເບົາແລະສະບາຍດີ, ດີເລີດສໍາລັບການອອກກໍາລັງກາຍທີ່ຮຸນແຮງ.</t>
+  </si>
+  <si>
+    <t>ក្រណាត់ពេជ្រទំនើបគឺត្បាញយ៉ាងពិសេសដើម្បីលើកកំពស់គុណភាពនៃអាវដែលកំពុងរត់ដែលធ្វើឱ្យពួកគេលេចធ្លោនិងប្លែក។ ប្រភពវាយនភាពរបស់វាមិនទាន់រលូនផ្តល់នូវអារម្មណ៍ខុសគ្នាខណៈពេលដែលផ្តល់នូវការដកដង្ហើមដ៏ល្អបំផុត។ នេះធានាថាក្រណាត់ស្ងួតយ៉ាងឆាប់រហ័សមានអារម្មណ៍ស្រាលនិងមានផាសុកភាពល្អឥតខ្ចោះសម្រាប់ការហាត់ប្រាណខ្លាំងដោយបែកញើសខ្លាំង។</t>
+  </si>
+  <si>
+    <t>跑步短</t>
+  </si>
+  <si>
+    <t>短く走っています</t>
+  </si>
+  <si>
+    <t>Corriendo corto</t>
+  </si>
+  <si>
+    <t>အပြေး</t>
+  </si>
+  <si>
+    <t>ແລ່ນສັ້ນ</t>
+  </si>
+  <si>
+    <t>ដំណើរការខ្លី</t>
+  </si>
+  <si>
+    <t>Micropeach织物舒适穿着，短裤带有弹性腰带和内部束带。 该材料柔软，光滑且透气，有助于有效释放热量。 它是快速干燥的，耐味的，并以百货商店级的质量制成。</t>
+  </si>
+  <si>
+    <t>マイクロペーチの生地は快適で、弾力性のあるウエストバンドと内側のドローストリングを備えたショートパンツがあります。 材料は柔らかく、滑らかで、通気性があり、熱を効果的に放出するのに役立ちます。 迅速に乾燥し、臭気が耐えられ、デパートグレードの品質で作られています。</t>
+  </si>
+  <si>
+    <t>La tela de Micropeach es cómoda de usar, con pantalones cortos con una cintura elástica y una cordillera interior. El material es suave, suave y transpirable, lo que ayuda a liberar el calor de manera efectiva. Es de secado rápido, resistente al olor y está hecho con calidad de grado en los que los escaparates del departamento.</t>
+  </si>
+  <si>
+    <t>Micropereach Fabric သည် 0 တ်ဆင်ရန်အဆင်ပြေသည်, ပစ္စည်းသည်အပူကိုထိထိရောက်ရောက်ဖြန့်ချိရန်ကူညီခြင်းအားဖြင့်ပျော့ပျောင်း။ ချောမွေ့ပြီးရှူရှိုက်ခြင်း, ၎င်းသည်ခြောက်သွေ့သော, အနံ့ခံနိုင်ရည်ရှိသည့်,</t>
+  </si>
+  <si>
+    <t>ຜ້າປູພື້ນ Micropeach ແມ່ນສະດວກສະບາຍໃນການສວມໃສ່, ເຊິ່ງສັ້ນທີ່ມີສາຍແອວ elastic ແລະ drawstring ພາຍໃນ. ອຸປະກອນການແມ່ນອ່ອນ, ລຽບ, ແລະລົມຫາຍໃຈ, ຊ່ວຍໃຫ້ປ່ອຍຄວາມຮ້ອນໄດ້ຢ່າງມີປະສິດທິຜົນ. ມັນແຫ້ງໄວ, ທົນທານຕໍ່ກິ່ນ, ແລະເຮັດດ້ວຍຄຸນນະພາບຂອງຫ້ອງຮຽນ.</t>
+  </si>
+  <si>
+    <t>ក្រណាត់មីក្រូក្រណាត់មានផាសុកភាពក្នុងការពាក់ដោយខ្លីដែលបង្ហាញថាមានខ្សែក្រវ៉ាត់យឺតនិងខ្សែពួរខាងក្នុង។ សម្ភារៈគឺទន់រលោងរលោងហើយអាចដកដង្ហើមបានជួយបញ្ចេញកំដៅឱ្យមានប្រសិទ្ធភាព។ វាស្ងួតរហ័សក្លិនក្លិននិងធ្វើជាមួយគុណភាពហាងលក់ទំនិញ។</t>
+  </si>
+  <si>
+    <t>毛buff</t>
+  </si>
+  <si>
+    <t>マオバフ</t>
+  </si>
+  <si>
+    <t>Mao Buff</t>
+  </si>
+  <si>
+    <t>Mao buff</t>
+  </si>
+  <si>
+    <t>Mao Buff Buff</t>
+  </si>
+  <si>
+    <t>MAO BUFF织物手臂袖子 - 防晒功能是户外工作和摩托车骑行的理想选择。 适合男人和女人。</t>
+  </si>
+  <si>
+    <t>Mao Buff Fabric Arm Sleeves  - 屋外作業やオートバイライディングに最適な日焼け防止。 男性と女性の両方に適しています。</t>
+  </si>
+  <si>
+    <t>Mangas de brazo de tela de buff de Mao: protección solar ideal para trabajos al aire libre y montar en motocicleta. Adecuado tanto para hombres como para mujeres.</t>
+  </si>
+  <si>
+    <t>Mao Buff အထည်လက်များ - အပြင်ဘက်အလုပ်နှင့်မော်တော်ဆိုင်ကယ်စီးခြင်းအတွက်နေရောင်ကာကွယ်မှုစံနမူနာ။ အမျိုးသားများနှင့်အမျိုးသမီးများအတွက်သင့်တော်သည်။</t>
+  </si>
+  <si>
+    <t>ເສອແຂນແຂນແຂນ Mao Buff Friend - ການປ້ອງກັນແສງແດດທີ່ເຫມາະສົມສໍາລັບການເຮັດວຽກນອກແລະຂີ່ລົດຈັກ. ເຫມາະສໍາລັບທັງຊາຍແລະຍິງ.</t>
+  </si>
+  <si>
+    <t>អាវធំរបស់ម៉ៅប៊ូហ្វូ - ការការពារកម្តៅថ្ងៃល្អបំផុតសម្រាប់ការងារក្រៅនិងការជិះម៉ូតូ។ សាកសមសម្រាប់ទាំងបុរសនិងស្ត្រី។</t>
+  </si>
+  <si>
+    <t>ASIC跑鞋</t>
+  </si>
+  <si>
+    <t>アシックスランニングシューズ</t>
+  </si>
+  <si>
+    <t>Asics ပြေးဖိနပ်</t>
+  </si>
+  <si>
+    <t>ເກີບແລ່ນ Asics</t>
+  </si>
+  <si>
+    <t>Asics កំពុងរត់ស្បែកជើង</t>
+  </si>
+  <si>
+    <t>ASICS 1011B983.100 Dynablast 5男士跑步鞋是白色/波蓝绿色的真正男士跑步鞋。</t>
+  </si>
+  <si>
+    <t>ASICS 1011B983.100 DYNABLAST 5メンズランニングシューズ白/波のティール色の本物のメンズランニングシューズ。</t>
+  </si>
+  <si>
+    <t>ASICS 1011B983.100 Dynablast 5 zapatillas para correr para hombres.</t>
+  </si>
+  <si>
+    <t>asics 1011b983.100 Dynablast 5 အမျိုးသားများသည်အဖြူရောင်အမျိုးသားစီးနင်းဖိနပ်သည်အဖြူရောင် / လှိုင်းစိမ်းလန်းသောအရောင်များဖြင့်စစ်မှန်တဲ့အမျိုးသားစီးဖိနပ်စီးဖိနပ်ဖြစ်သည်။</t>
+  </si>
+  <si>
+    <t>Asics 1011b983.100 Dynablast 5 ຂອງຜູ້ຊາຍກໍາລັງແລ່ນຂອງຜູ້ຊາຍເກີບແລ່ນທີ່ແທ້ຈິງຂອງຜູ້ຊາຍໃນສີຂາວ / ຄື້ນສີ.</t>
+  </si>
+  <si>
+    <t>Asics 1011b983.100 Dynableast ស្បែកជើងដែលរត់របស់បុរស 5 ស្បែកជើងដែលកំពុងរត់របស់បុរសពិតប្រាកដរបស់បុរសពិតប្រាកដនៅពណ៌ស / រលកពណ៌ត្នោត។</t>
+  </si>
+  <si>
+    <t>ASIC上限</t>
+  </si>
+  <si>
+    <t>アシックスキャップ</t>
+  </si>
+  <si>
+    <t>Tapa asics</t>
+  </si>
+  <si>
+    <t>Asics Cap</t>
+  </si>
+  <si>
+    <t>Asics Cap Cap</t>
+  </si>
+  <si>
+    <t>ASICS 3013B124.700跑步轻织帽 - 男女珊瑚礁颜色的男女式跑步帽。</t>
+  </si>
+  <si>
+    <t>ASICS 3013B124.700ランニングライト織りキャップ - サンゴ礁の色の男性と女性のためのユニセックスの本物のランニングキャップ。</t>
+  </si>
+  <si>
+    <t>ASICS 3013B124.700 CAP de luz tejida de luz - Capo de carrera genuino unisex para hombres y mujeres en color de arrecifes de coral.</t>
+  </si>
+  <si>
+    <t>Asics 3013B124.700 အပြေး Light Window Cap To Window - Coral Ref အရောင်ရှိအမျိုးသားများနှင့်အမျိုးသမီးများအတွက် Unisex စစ်မှန်သောပြေးအဖွဲ့သို့။</t>
+  </si>
+  <si>
+    <t>ASICS 3013B124.700 ແລ່ນ Capine Light Cap - Unisex Cap ທີ່ໃຊ້ໃນການແລ່ນສໍາລັບຜູ້ຊາຍແລະແມ່ຍິງໃນ Coral onef Color.</t>
+  </si>
+  <si>
+    <t>Asics 3013b124.700 ការរត់ត្បាញធុនស្រាល - unisex ដែលកំពុងរត់មួកពិតប្រាកដសម្រាប់បុរសនិងស្ត្រីនៅក្នុងពណ៌ផ្កាថ្មថ្មប៉ប្រះទឹក។</t>
+  </si>
+  <si>
+    <t>添加到购物车</t>
+  </si>
+  <si>
+    <t>カートに追加</t>
+  </si>
+  <si>
+    <t>Añadir a la cesta</t>
+  </si>
+  <si>
+    <t>စျေးဝယ်ခြင်းထဲသို့ထည့်သည်</t>
+  </si>
+  <si>
+    <t>ຕື່ມໃສ່ກະຕ່າ</t>
+  </si>
+  <si>
+    <t>បន្ថែមទៅរទេះ</t>
+  </si>
+  <si>
+    <t>价格</t>
+  </si>
+  <si>
+    <t>価格</t>
+  </si>
+  <si>
+    <t>Precio</t>
+  </si>
+  <si>
+    <t>စြေး</t>
+  </si>
+  <si>
+    <t>ລາຄາ</t>
+  </si>
+  <si>
+    <t>តមលៃ</t>
+  </si>
+  <si>
+    <t>电话号码</t>
+  </si>
+  <si>
+    <t>電話番号</t>
+  </si>
+  <si>
+    <t>Número de teléfono</t>
+  </si>
+  <si>
+    <t>ဖုန်းနံပါတ်</t>
+  </si>
+  <si>
+    <t>ໂທລະສັບ.</t>
+  </si>
+  <si>
+    <t>លេខទូរស័ព្ទលេខទូរស័ព្ទ</t>
+  </si>
+  <si>
+    <t>总产品金额：</t>
+  </si>
+  <si>
+    <t>総製品量：</t>
+  </si>
+  <si>
+    <t>Cantidad total del producto:</t>
+  </si>
+  <si>
+    <t>စုစုပေါင်းထုတ်ကုန်ပမာဏ -</t>
+  </si>
+  <si>
+    <t>ຈໍານວນສິນຄ້າທັງຫມົດ:</t>
+  </si>
+  <si>
+    <t>ចំនួនផលិតផលសរុប:</t>
+  </si>
+  <si>
+    <t>添加</t>
+  </si>
+  <si>
+    <t>追加</t>
+  </si>
+  <si>
+    <t>Agregar</t>
+  </si>
+  <si>
+    <t>ပေါင်း</t>
+  </si>
+  <si>
+    <t>ເພີ່ມ</t>
+  </si>
+  <si>
+    <t>បុក / ករ</t>
+  </si>
+  <si>
+    <t>交货费用</t>
+  </si>
+  <si>
+    <t>配送コスト</t>
+  </si>
+  <si>
+    <t>Costo de entrega</t>
+  </si>
+  <si>
+    <t>ပေးပို့ကုန်ကျစရိတ်</t>
+  </si>
+  <si>
+    <t>ຄ່າຂົນ</t>
+  </si>
+  <si>
+    <t>ថ្លៃដឹកជញ្ជូន</t>
+  </si>
+  <si>
+    <t>总金额</t>
+  </si>
+  <si>
+    <t>合計金額</t>
+  </si>
+  <si>
+    <t>Cantidad total</t>
+  </si>
+  <si>
+    <t>စုစုပေါင်းတန်ဘိုး</t>
+  </si>
+  <si>
+    <t>ຈໍານວນເງິນທັງຫມົດ</t>
+  </si>
+  <si>
+    <t>ចំនួនសរុប</t>
+  </si>
+  <si>
+    <t>名称只能有4至50个炭镜。</t>
+  </si>
+  <si>
+    <t>名前には4〜50個のキャラクターしかありません。</t>
+  </si>
+  <si>
+    <t>El nombre solo puede tener de 4 a 50 charactores.</t>
+  </si>
+  <si>
+    <t>နာမည်ကသာ 4 မှ 50 အထိရှိတယ်။</t>
+  </si>
+  <si>
+    <t>ຊື່ສາມາດມີພຽງແຕ່ 4 ຫາ 50 ຕົວຂອງຕົວເມືອງ.</t>
+  </si>
+  <si>
+    <t>ឈ្មោះអាចមានតែកាំជ្រួច 4 ទៅ 50 ប៉ុណ្ណោះ។</t>
+  </si>
+  <si>
+    <t>请输入有效的电子邮件地址。</t>
+  </si>
+  <si>
+    <t>有効なメールアドレスを入力してください。</t>
+  </si>
+  <si>
+    <t>Por favor, introduce una dirección de correo electrónico válida.</t>
+  </si>
+  <si>
+    <t>ကျေးဇူးပြု။ မှန်ကန်သောအီးမေးလ်လိပ်စာတစ်ခုဖြည့်ပါ။</t>
+  </si>
+  <si>
+    <t>ກະລຸນາໃສ່ທີ່ຢູ່ອີເມວທີ່ຖືກຕ້ອງ.</t>
+  </si>
+  <si>
+    <t>សូមបញ្ចូលអាសយដ្ឋានអ៊ីមែលត្រឹមត្រូវ។</t>
+  </si>
+  <si>
+    <t>请输入有效的电话号码。</t>
+  </si>
+  <si>
+    <t>有効な電話番号を入力してください。</t>
+  </si>
+  <si>
+    <t>Ingrese un número de teléfono válido.</t>
+  </si>
+  <si>
+    <t>ကျေးဇူးပြု. မှန်ကန်သောဖုန်းနံပါတ်ကိုထည့်ပါ။</t>
+  </si>
+  <si>
+    <t>ກະລຸນາໃສ່ເບີໂທລະສັບທີ່ຖືກຕ້ອງ.</t>
+  </si>
+  <si>
+    <t>សូមបញ្ចូលលេខទូរស័ព្ទដែលមានសុពលភាព។</t>
+  </si>
+  <si>
+    <t>地址必须在20到400个字符之间</t>
+  </si>
+  <si>
+    <t>アドレスは20〜400文字でなければなりません</t>
+  </si>
+  <si>
+    <t>La dirección debe estar entre 20 y 400 caracteres</t>
+  </si>
+  <si>
+    <t>လိပ်စာသည်စာလုံးရေ 20 နှင့် 400 ကြားတွင်ရှိရမည်</t>
+  </si>
+  <si>
+    <t>ທີ່ຢູ່ຕ້ອງມີລະຫວ່າງ 20 ຫາ 400 ຕົວອັກສອນ</t>
+  </si>
+  <si>
+    <t>អាស័យដ្ឋានត្រូវតែមានចន្លោះពី 20 ទៅ 400 តួអក្សរ</t>
+  </si>
+  <si>
+    <t>评论</t>
+  </si>
+  <si>
+    <t>述べる</t>
+  </si>
+  <si>
+    <t>Observación</t>
+  </si>
+  <si>
+    <t>ပေြာဆို</t>
+  </si>
+  <si>
+    <t>ຂໍ້ສັງເກດ</t>
+  </si>
+  <si>
+    <t>ធេវីតាមបេបផេសង</t>
+  </si>
+  <si>
+    <t>给卖方的消息</t>
+  </si>
+  <si>
+    <t>売り手へのメッセージ</t>
+  </si>
+  <si>
+    <t>Mensaje a la vendedora</t>
+  </si>
+  <si>
+    <t>ရောင်းသူထံစာ</t>
+  </si>
+  <si>
+    <t>ຂໍ້ຄວາມເຖິງຜູ້ຂາຍ</t>
+  </si>
+  <si>
+    <t>សារទៅអ្នកលក់</t>
+  </si>
+  <si>
+    <t>错误</t>
+  </si>
+  <si>
+    <t>エラー</t>
+  </si>
+  <si>
+    <t>အမှား</t>
+  </si>
+  <si>
+    <t>ຜິດ</t>
+  </si>
+  <si>
+    <t>កមហុស</t>
+  </si>
+  <si>
+    <t>测试错误</t>
+  </si>
+  <si>
+    <t>テストエラー</t>
+  </si>
+  <si>
+    <t>Error de prueba</t>
+  </si>
+  <si>
+    <t>စမ်းသပ်မှုအမှား</t>
+  </si>
+  <si>
+    <t>ຄວາມຜິດພາດໃນການທົດສອບ</t>
+  </si>
+  <si>
+    <t>កំហុសក្នុងការសាកល្បង</t>
+  </si>
+  <si>
+    <t>缺少一些信息</t>
+  </si>
+  <si>
+    <t>いくつかの情報がありません</t>
+  </si>
+  <si>
+    <t>Falta algo de información</t>
+  </si>
+  <si>
+    <t>သတင်းအချက်အလက်အချို့ပျောက်နေသည်</t>
+  </si>
+  <si>
+    <t>ບາງຂໍ້ມູນແມ່ນຫາຍໄປ</t>
+  </si>
+  <si>
+    <t>ព័ត៌មានខ្លះបាត់</t>
+  </si>
+  <si>
+    <t>缺少一些信息（输入）</t>
+  </si>
+  <si>
+    <t>いくつかの情報がありません（入力）</t>
+  </si>
+  <si>
+    <t>Falta cierta información (entrada)</t>
+  </si>
+  <si>
+    <t>သတင်းအချက်အလက်အချို့သည်ပျောက်ဆုံးနေသည် (input)</t>
+  </si>
+  <si>
+    <t>ບາງຂໍ້ມູນແມ່ນຂາດຫາຍໄປ (ການປ້ອນຂໍ້ມູນ)</t>
+  </si>
+  <si>
+    <t>ព័ត៌មានខ្លះបាត់ (ការបញ្ចូល)</t>
+  </si>
+  <si>
+    <t>缺少一些信息（购物车）</t>
+  </si>
+  <si>
+    <t>いくつかの情報がありません（カート）</t>
+  </si>
+  <si>
+    <t>Falta cierta información (carrito)</t>
+  </si>
+  <si>
+    <t>သတင်းအချက်အလက်အချို့သည်ပျောက်နေသည် (လှည်း)</t>
+  </si>
+  <si>
+    <t>ຂໍ້ມູນບາງຢ່າງແມ່ນຂາດ (ລົດເຂັນ)</t>
+  </si>
+  <si>
+    <t>ព័ត៌មានខ្លះបាត់ (រទេះ)</t>
+  </si>
+  <si>
+    <t>errinvalidprodectoptid</t>
+  </si>
+  <si>
+    <t>ErrinValidProdectOpTid</t>
+  </si>
+  <si>
+    <t>errinvalidprotectoptid</t>
+  </si>
+  <si>
+    <t>allrinvalprodepprodeptidtid</t>
+  </si>
+  <si>
+    <t>Errinvalidprodecctos</t>
+  </si>
+  <si>
+    <t>总数量不匹配。</t>
+  </si>
+  <si>
+    <t>総量の不一致。</t>
+  </si>
+  <si>
+    <t>Cantidad total no coincidiendo.</t>
+  </si>
+  <si>
+    <t>စုစုပေါင်းငွေပမာဏမတိုက်ဆိုင်။</t>
+  </si>
+  <si>
+    <t>ຈໍານວນທັງຫມົດທີ່ບໍ່ສອດຄ່ອງກັນ.</t>
+  </si>
+  <si>
+    <t>ចំនួនសរុបមិនត្រូវគ្នា។</t>
+  </si>
+  <si>
+    <t>总体不匹配</t>
+  </si>
+  <si>
+    <t>総合的な不一致</t>
+  </si>
+  <si>
+    <t>Gran desajuste total</t>
+  </si>
+  <si>
+    <t>Grand Total Final Mismatch</t>
+  </si>
+  <si>
+    <t>Grand Int សរុបមិនត្រូវគ្នា</t>
+  </si>
+  <si>
+    <t>切换到QR付费</t>
+  </si>
+  <si>
+    <t>QR Payに切り替えます</t>
+  </si>
+  <si>
+    <t>Cambiar a QR Pay</t>
+  </si>
+  <si>
+    <t>QR Pay သို့ပြောင်းပါ</t>
+  </si>
+  <si>
+    <t>ປ່ຽນເປັນ QR Pay</t>
+  </si>
+  <si>
+    <t>ប្តូរទៅ QR ប្រាក់ខែ</t>
+  </si>
+  <si>
+    <t>切换到手动付款</t>
+  </si>
+  <si>
+    <t>手動支払いに切り替えます</t>
+  </si>
+  <si>
+    <t>Cambiar al pago manual</t>
+  </si>
+  <si>
+    <t>လက်စွဲစာအုပ်မှ switch</t>
+  </si>
+  <si>
+    <t>ປ່ຽນເປັນເງິນເດືອນຄູ່ມື</t>
+  </si>
+  <si>
+    <t>ប្តូរទៅប្រាក់ខែដោយដៃ</t>
+  </si>
+  <si>
+    <t>单击上传</t>
+  </si>
+  <si>
+    <t>クリックしてアップロードします</t>
+  </si>
+  <si>
+    <t>Haga clic para cargar</t>
+  </si>
+  <si>
+    <t>တင်ရန်ကိုနှိပ်ပါ</t>
+  </si>
+  <si>
+    <t>ກົດເພື່ອອັບໂຫລດ</t>
+  </si>
+  <si>
+    <t>ចុចដើម្បីផ្ទុកឡើង</t>
+  </si>
+  <si>
+    <t>总薪水</t>
+  </si>
+  <si>
+    <t>総賃金</t>
+  </si>
+  <si>
+    <t>Pago total</t>
+  </si>
+  <si>
+    <t>စုစုပေါင်းလစာ</t>
+  </si>
+  <si>
+    <t>ເງິນເດືອນທັງຫມົດ</t>
+  </si>
+  <si>
+    <t>ប្រាក់ឈ្នួលសរុប</t>
+  </si>
+  <si>
+    <t>注意（添加到何时付款）</t>
+  </si>
+  <si>
+    <t>メモ（支払い時に注意する）</t>
+  </si>
+  <si>
+    <t>Nota (Agregue a que tenga en cuenta cuándo se paga)</t>
+  </si>
+  <si>
+    <t>မှတ်စု (ငွေပေးချေသည့်အခါမှတ်သားရန်ထည့်ပါ)</t>
+  </si>
+  <si>
+    <t>ຫມາຍເຫດ (ເພີ່ມເຂົ້າໃນເວລາທີ່ຈ່າຍ)</t>
+  </si>
+  <si>
+    <t>ចំណាំ (បន្ថែមទៅចំណាំនៅពេលបង់ប្រាក់)</t>
+  </si>
+  <si>
+    <t>拆下滑动</t>
+  </si>
+  <si>
+    <t>スリップを取り外します</t>
+  </si>
+  <si>
+    <t>Retirar deslizamiento</t>
+  </si>
+  <si>
+    <t>ရေငုပ်သင်္ဘောဖယ်ရှားပါ</t>
+  </si>
+  <si>
+    <t>ເອົາອອກ</t>
+  </si>
+  <si>
+    <t>យកចេញ</t>
+  </si>
+  <si>
+    <t>无效订单ID</t>
+  </si>
+  <si>
+    <t>無効な注文ID</t>
+  </si>
+  <si>
+    <t>Id de orden inválida</t>
+  </si>
+  <si>
+    <t>မမှန်ကန်သောအမိန့် ID</t>
+  </si>
+  <si>
+    <t>ບັດປະຈໍາຕົວທີ່ບໍ່ຖືກຕ້ອງ</t>
+  </si>
+  <si>
+    <t>លេខសម្គាល់លំដាប់មិនត្រឹមត្រូវ</t>
+  </si>
+  <si>
+    <t>没有上传的文件</t>
+  </si>
+  <si>
+    <t>アップロードされたファイルはありません</t>
+  </si>
+  <si>
+    <t>No hay archivo cargado</t>
+  </si>
+  <si>
+    <t>ဖိုင်တင်ခြင်းမရှိပါ</t>
+  </si>
+  <si>
+    <t>ບໍ່ມີເອກະສານທີ່ອັບໂຫລດແລ້ວ</t>
+  </si>
+  <si>
+    <t>មិនមានឯកសារផ្ទុកឡើងទេ</t>
+  </si>
+  <si>
+    <t>您的订单已收到！</t>
+  </si>
+  <si>
+    <t>あなたの注文は受け取りました！</t>
+  </si>
+  <si>
+    <t>¡Su pedido ha recibido!</t>
+  </si>
+  <si>
+    <t>သင်၏အမှာစာကိုလက်ခံရရှိခဲ့သည်။</t>
+  </si>
+  <si>
+    <t>ຄໍາສັ່ງຂອງທ່ານໄດ້ຮັບແລ້ວ!</t>
+  </si>
+  <si>
+    <t>ការបញ្ជាទិញរបស់អ្នកបានទទួល!</t>
+  </si>
+  <si>
+    <t>...我们将在24小时内确认您的订单...</t>
+  </si>
+  <si>
+    <t>... 24時間以内にご注文を確認します...</t>
+  </si>
+  <si>
+    <t>... Confirmaremos su pedido dentro de las 24 horas ...</t>
+  </si>
+  <si>
+    <t>... 24 နာရီအတွင်းသင်၏အမှာစာကိုအတည်ပြုပါမည်။</t>
+  </si>
+  <si>
+    <t>... ພວກເຮົາຈະຢືນຢັນການສັ່ງຊື້ຂອງທ່ານພາຍໃນ 24 ຊົ່ວໂມງ ...</t>
+  </si>
+  <si>
+    <t>... យើងនឹងបញ្ជាក់ការបញ្ជាទិញរបស់អ្នកក្នុងរយៈពេល 24 ម៉ោង ...</t>
+  </si>
+  <si>
+    <t>您可以通过单击页面顶部的“检查订单状态”来检查您的订单状态。</t>
+  </si>
+  <si>
+    <t>ページ上部の「注文ステータスを確認」をクリックして、注文ステータスを確認できます。</t>
+  </si>
+  <si>
+    <t>Puede verificar el estado de su pedido haciendo clic en "Verifique el estado del pedido" en la parte superior de la página.</t>
+  </si>
+  <si>
+    <t>စာမျက်နှာ၏ထိပ်ရှိ "Check Order Status status" ကိုနှိပ်ပါ။</t>
+  </si>
+  <si>
+    <t>ທ່ານສາມາດກວດສອບສະຖານະການສັ່ງຊື້ຂອງທ່ານໂດຍກົດປຸ່ມ "ກວດສອບສະຖານະການສັ່ງຊື້" ຢູ່ເທິງສຸດຂອງຫນ້າ.</t>
+  </si>
+  <si>
+    <t>អ្នកអាចពិនិត្យមើលស្ថានភាពបញ្ជាទិញរបស់អ្នកដោយចុច "ពិនិត្យមើលស្ថានភាពបញ្ជាទិញ" នៅផ្នែកខាងលើនៃទំព័រ។</t>
+  </si>
+  <si>
+    <t>创建新订单</t>
+  </si>
+  <si>
+    <t>新しい注文を作成します</t>
+  </si>
+  <si>
+    <t>Crear un nuevo pedido</t>
+  </si>
+  <si>
+    <t>အမိန့်အသစ်ဖန်တီးပါ</t>
+  </si>
+  <si>
+    <t>ສ້າງລໍາດັບໃຫມ່</t>
+  </si>
+  <si>
+    <t>បង្កើតការបញ្ជាទិញថ្មី</t>
+  </si>
+  <si>
+    <t>通过输入您的订单号。</t>
+  </si>
+  <si>
+    <t>ご注文番号を入力してください。</t>
+  </si>
+  <si>
+    <t>Al ingresar su pedido no.</t>
+  </si>
+  <si>
+    <t>သင်၏အမှာစာကို input အားဖြင့်။</t>
+  </si>
+  <si>
+    <t>ໂດຍການປ້ອນຄໍາສັ່ງຂອງທ່ານບໍ່.</t>
+  </si>
+  <si>
+    <t>ដោយបញ្ចូលការបញ្ជាទិញរបស់អ្នកទេ។</t>
+  </si>
+  <si>
+    <t>和您的电子邮件</t>
+  </si>
+  <si>
+    <t>そしてあなたのメール</t>
+  </si>
+  <si>
+    <t>Y tu correo electrónico</t>
+  </si>
+  <si>
+    <t>နှင့်သင်၏အီးမေးလ်</t>
+  </si>
+  <si>
+    <t>ແລະອີເມວຂອງທ່ານ</t>
+  </si>
+  <si>
+    <t>និងអ៊ីមែលរបស់អ្នក</t>
+  </si>
+  <si>
+    <t>无法上传QR</t>
+  </si>
+  <si>
+    <t>QRのアップロードに失敗します</t>
+  </si>
+  <si>
+    <t>No cargar QR</t>
+  </si>
+  <si>
+    <t>QR ကို upload လုပ်ရန်ပျက်ကွက်</t>
+  </si>
+  <si>
+    <t>ລົ້ມເຫລວໃນການອັບໂຫລດ qr</t>
+  </si>
+  <si>
+    <t>ខកខានមិនបានផ្ទុកឡើង QR</t>
+  </si>
+  <si>
+    <t>无法上传证据</t>
+  </si>
+  <si>
+    <t>証拠をアップロードできません</t>
+  </si>
+  <si>
+    <t>No subir evidencia</t>
+  </si>
+  <si>
+    <t>သက်သေအထောက်အထားတင်ရန်ပျက်ကွက်</t>
+  </si>
+  <si>
+    <t>ລົ້ມເຫລວໃນການອັບໂຫລດຫຼັກຖານ</t>
+  </si>
+  <si>
+    <t>ខកខានមិនបានបញ្ចូលភស្តុតាង</t>
+  </si>
+  <si>
+    <t>我们目前不运作。</t>
+  </si>
+  <si>
+    <t>現在、運用はありません。</t>
+  </si>
+  <si>
+    <t>Actualmente no estamos operativos.</t>
+  </si>
+  <si>
+    <t>ကျနော်တို့လက်ရှိလည်ပတ်မဟုတ်ပါဘူး။</t>
+  </si>
+  <si>
+    <t>ພວກເຮົາປະຈຸບັນບໍ່ໄດ້ດໍາເນີນງານ.</t>
+  </si>
+  <si>
+    <t>បច្ចុប្បន្នយើងមិនដំណើរការទេ។</t>
+  </si>
+  <si>
+    <t>不便之处，我们深表歉意。</t>
+  </si>
+  <si>
+    <t>ご不便をおかけして申し訳ございません。</t>
+  </si>
+  <si>
+    <t>Pedimos disculpas por las molestias.</t>
+  </si>
+  <si>
+    <t>အဆင်မပြေမှုအတွက်တောင်းပန်ပါတယ်</t>
+  </si>
+  <si>
+    <t>ພວກເຮົາຂໍອະໄພໃນຄວາມບໍ່ສະດວກ.</t>
+  </si>
+  <si>
+    <t>យើងសូមអភ័យទោសចំពោះភាពរអាក់រអួលនេះ។</t>
+  </si>
+  <si>
+    <t>[ICMM2025]您的订单已收到！</t>
+  </si>
+  <si>
+    <t>[ICMM2025]あなたの注文が受け取られました！...</t>
+  </si>
+  <si>
+    <t>[ICMM2025] ¡Su pedido ha sido recibido! ...</t>
+  </si>
+  <si>
+    <t>[icm2025] သင်၏အမှာစာကိုလက်ခံရရှိခဲ့သည်။</t>
+  </si>
+  <si>
+    <t>[ICMM2025] ຄໍາສັ່ງຂອງທ່ານໄດ້ຮັບແລ້ວ! ...</t>
+  </si>
+  <si>
+    <t>[ICM2025] ការបញ្ជាទិញរបស់អ្នកត្រូវបានទទួល! ...</t>
+  </si>
+  <si>
+    <t>尊贵的顾客，</t>
+  </si>
+  <si>
+    <t>親愛なる顧客、</t>
+  </si>
+  <si>
+    <t>Estimada cliente,</t>
+  </si>
+  <si>
+    <t>ချစ်ခင်ရပါသောတန်ဖိုးရှိသောဖောက်သည်,</t>
+  </si>
+  <si>
+    <t>ລູກຄ້າທີ່ມີຄຸນຄ່າທີ່ຮັກແພງ,</t>
+  </si>
+  <si>
+    <t>អតិថិជនដែលមានតម្លៃសូមគោរព,</t>
+  </si>
+  <si>
+    <t>我们已收到您的订单，并将在24小时内确认。</t>
+  </si>
+  <si>
+    <t>ご注文を受け取り、24時間以内に確認します。</t>
+  </si>
+  <si>
+    <t>Hemos recibido su pedido y lo confirmaremos dentro de las 24 horas.</t>
+  </si>
+  <si>
+    <t>သင်၏အမှာစာကိုလက်ခံရရှိပြီး 24 နာရီအတွင်းအတည်ပြုပါလိမ့်မည်။</t>
+  </si>
+  <si>
+    <t>ພວກເຮົາໄດ້ຮັບຄໍາສັ່ງຂອງທ່ານແລະຈະຢືນຢັນມັນພາຍໃນ 24 ຊົ່ວໂມງ.</t>
+  </si>
+  <si>
+    <t>យើងបានទទួលការបញ្ជាទិញរបស់អ្នកហើយនឹងបញ្ជាក់វាក្នុងរយៈពេល 24 ម៉ោង។</t>
+  </si>
+  <si>
+    <t>您可以通过单击“检查订单状态”并输入订单号来检查您的订单状态。 ：</t>
+  </si>
+  <si>
+    <t>「注文ステータスの確認」をクリックして注文番号を入力して、注文ステータスを確認できます。 ：</t>
+  </si>
+  <si>
+    <t>Puede verificar el estado de su pedido haciendo clic en "Verifique el estado del pedido" e ingresando su pedido no. :</t>
+  </si>
+  <si>
+    <t>"Check order status" ကိုနှိပ်ခြင်းနှင့်သင်၏အမှာစာကိုရိုက်ခြင်းဖြင့်သင်၏အမှာစာ status ကိုစစ်ဆေးနိုင်သည်။ ဖြေ -</t>
+  </si>
+  <si>
+    <t>ທ່ານສາມາດກວດເບິ່ງສະຖານະການສັ່ງຊື້ຂອງທ່ານໄດ້ໂດຍການກົດປຸ່ມ "ກວດສອບສະຖານະການສັ່ງຊື້" ແລະໃສ່ຄໍາສັ່ງຂອງທ່ານບໍ່. :</t>
+  </si>
+  <si>
+    <t>អ្នកអាចពិនិត្យមើលស្ថានភាពបញ្ជាទិញរបស់អ្នកដោយចុច "ពិនិត្យមើលស្ថានភាពបញ្ជាទិញ" ហើយបញ្ចូលការបញ្ជាទិញរបស់អ្នកទេ។ :</t>
+  </si>
+  <si>
+    <t>感谢您与我们一起购物。</t>
+  </si>
+  <si>
+    <t>私たちと一緒に買い物をしてくれてありがとう。</t>
+  </si>
+  <si>
+    <t>Gracias por comprar con nosotras.</t>
+  </si>
+  <si>
+    <t>ငါတို့နှင့်အတူစျေးဝယ်အတွက်ကျေးဇူးတင်ပါသည်။</t>
+  </si>
+  <si>
+    <t>ຂອບໃຈສໍາລັບການໄປຊື້ເຄື່ອງກັບພວກເຮົາ.</t>
+  </si>
+  <si>
+    <t>សូមអរគុណចំពោះការដើរទិញឥវ៉ាន់ជាមួយយើង។</t>
+  </si>
+  <si>
+    <t>此致，</t>
+  </si>
+  <si>
+    <t>よろしくお願いします、</t>
+  </si>
+  <si>
+    <t>Atentamente,</t>
+  </si>
+  <si>
+    <t>လေးစားစွာဖြင့်,</t>
+  </si>
+  <si>
+    <t>ກ່ຽວກັບທີ່ດີທີ່ສຸດ,</t>
+  </si>
+  <si>
+    <t>ដោយក្តីគោរពបំផុត,</t>
+  </si>
+  <si>
+    <t>ICMM管理员。</t>
+  </si>
+  <si>
+    <t>ICMM管理者。</t>
+  </si>
+  <si>
+    <t>ICMM Admin.</t>
+  </si>
+  <si>
+    <t>ICMM admin ။</t>
+  </si>
+  <si>
+    <t>រដ្ឋបាលអាយស៊ីអិមអេមអេមអេមអេមអេស។</t>
+  </si>
+  <si>
+    <t>订单号</t>
+  </si>
+  <si>
+    <t>注文番号</t>
+  </si>
+  <si>
+    <t>Número de orden</t>
+  </si>
+  <si>
+    <t>အော်ဒါနံပါတ်</t>
+  </si>
+  <si>
+    <t>ເລກສັ່ງ</t>
+  </si>
+  <si>
+    <t>លេខបញ្ជាទិញ</t>
+  </si>
+  <si>
+    <t>电子邮件或订单号。 不匹配</t>
+  </si>
+  <si>
+    <t>電子メールまたは注文番号。 一致しません</t>
+  </si>
+  <si>
+    <t>Correo electrónico u pedido no. No coinciden</t>
+  </si>
+  <si>
+    <t>အီးမေးလ်သို့မဟုတ်အမိန့်အမှတ်။ မကိုက်ညီဘူး</t>
+  </si>
+  <si>
+    <t>ອີເມວຫຼືສັ່ງຊື້. ບໍ່ກົງກັນ</t>
+  </si>
+  <si>
+    <t>អ៊ីម៉ែលឬបញ្ជាទិញទេ។ មិនត្រូវគ្នា</t>
+  </si>
+  <si>
+    <t>请输入电子邮件和订购号。</t>
+  </si>
+  <si>
+    <t>電子メールを入力して注文してください。</t>
+  </si>
+  <si>
+    <t>Ingrese el correo electrónico y el pedido no.</t>
+  </si>
+  <si>
+    <t>ကျေးဇူးပြု. အီးမေးလ်နှင့်အမှာစာမပေးပါ။</t>
+  </si>
+  <si>
+    <t>ກະລຸນາປ້ອນອີເມວແລະສັ່ງຊື້.</t>
+  </si>
+  <si>
+    <t>សូមបញ្ចូលអ៊ីម៉ែលហើយបញ្ជាទិញទេ។</t>
+  </si>
+  <si>
+    <t>付款失败</t>
+  </si>
+  <si>
+    <t>支払いに失敗しました</t>
+  </si>
+  <si>
+    <t>Pago fallida</t>
+  </si>
+  <si>
+    <t>မအောင်မြင်ငွေပေးချေမှု</t>
+  </si>
+  <si>
+    <t>ການຈ່າຍເງິນບໍ່ປະສົບຜົນສໍາເລັດ</t>
+  </si>
+  <si>
+    <t>ការទូទាត់មិនបានជោគជ័យ</t>
+  </si>
+  <si>
+    <t>等待确认</t>
+  </si>
+  <si>
+    <t>確認確認</t>
+  </si>
+  <si>
+    <t>Esperar confirmación</t>
+  </si>
+  <si>
+    <t>စောင့်ဆိုင်းအတည်ပြုပါ</t>
+  </si>
+  <si>
+    <t>ລໍຖ້າການຢືນຢັນ</t>
+  </si>
+  <si>
+    <t>ការរង់ចាំការរង់ចាំ</t>
+  </si>
+  <si>
+    <t>确认的</t>
+  </si>
+  <si>
+    <t>確認済み</t>
+  </si>
+  <si>
+    <t>Confirmada</t>
+  </si>
+  <si>
+    <t>အတည်ပြုသည်</t>
+  </si>
+  <si>
+    <t>ຖືກຢືນຢັນ</t>
+  </si>
+  <si>
+    <t>បានបញ្ជាក់</t>
+  </si>
+  <si>
+    <t>发表</t>
+  </si>
+  <si>
+    <t>配達</t>
+  </si>
+  <si>
+    <t>Entregada</t>
+  </si>
+  <si>
+    <t>လွှတ်ပေးသည်</t>
+  </si>
+  <si>
+    <t>ສົ່ງ</t>
+  </si>
+  <si>
+    <t>ប្រគល់ជូន</t>
+  </si>
+  <si>
+    <t>待办的</t>
+  </si>
+  <si>
+    <t>保留中</t>
+  </si>
+  <si>
+    <t>Pendiente</t>
+  </si>
+  <si>
+    <t>လာမည့်</t>
+  </si>
+  <si>
+    <t>ທີ່ລໍຄອຍ</t>
+  </si>
+  <si>
+    <t>ដេលមិនតាន់សរមច</t>
+  </si>
+  <si>
+    <t>取消</t>
+  </si>
+  <si>
+    <t>キャンセル</t>
+  </si>
+  <si>
+    <t>Cancelada</t>
+  </si>
+  <si>
+    <t>ပယ်ဖျက်လိုက်သော</t>
+  </si>
+  <si>
+    <t>ຍົກເລີກ</t>
+  </si>
+  <si>
+    <t>លប់លានផាក</t>
+  </si>
+  <si>
+    <t>请创建新订单。</t>
+  </si>
+  <si>
+    <t>新しい注文を作成してください。</t>
+  </si>
+  <si>
+    <t>Por favor cree un nuevo pedido.</t>
+  </si>
+  <si>
+    <t>ကျေးဇူးပြုပြီးအမှာစာအသစ်ကိုဖန်တီးပါ။</t>
+  </si>
+  <si>
+    <t>ກະລຸນາສ້າງຄໍາສັ່ງໃຫມ່.</t>
+  </si>
+  <si>
+    <t>សូមបង្កើតការបញ្ជាទិញថ្មី។</t>
+  </si>
+  <si>
+    <t>请等待管理员确认您的付款并验证所有详细信息。</t>
+  </si>
+  <si>
+    <t>管理者が支払いを確認し、すべての詳細を確認するのを待ってください。</t>
+  </si>
+  <si>
+    <t>Espere a que el administrador confirme su pago y verifique todos los detalles.</t>
+  </si>
+  <si>
+    <t>ကျေးဇူးပြု. သင်၏ငွေပေးချေမှုကိုအတည်ပြုရန်နှင့်အသေးစိတ်အချက်အလက်အားလုံးကိုအတည်ပြုရန် admin ကိုစောင့်ပါ။</t>
+  </si>
+  <si>
+    <t>ກະລຸນາລໍຖ້າ admin ເພື່ອຢືນຢັນການຈ່າຍເງິນຂອງທ່ານແລະກວດສອບລາຍລະອຽດທັງຫມົດ.</t>
+  </si>
+  <si>
+    <t>សូមរង់ចាំឱ្យអ្នកគ្រប់គ្រងបញ្ជាក់ពីការទូទាត់របស់អ្នកនិងផ្ទៀងផ្ទាត់ព័ត៌មានលម្អិតទាំងអស់។</t>
+  </si>
+  <si>
+    <t>您的订单已得到确认。 当您的订单出售时，我们将再次通知您。</t>
+  </si>
+  <si>
+    <t>ご注文が確認されました。 ご注文が配送中に再度通知します。</t>
+  </si>
+  <si>
+    <t>Su pedido ha sido confirmado. Le notificaremos nuevamente cuando su pedido esté fuera para la entrega.</t>
+  </si>
+  <si>
+    <t>သင်၏အမှာစာကိုအတည်ပြုပြီးဖြစ်သည်။ သင်၏အမှာစာသည်သင့်မှာကြားမှုကိုပေးပို့ခြင်းအတွက်နောက်တဖန်သင့်အားကျွန်ုပ်တို့အကြောင်းကြားပါမည်။</t>
+  </si>
+  <si>
+    <t>ຄໍາສັ່ງຂອງທ່ານໄດ້ຮັບການຢັ້ງຢືນ. ພວກເຮົາຈະແຈ້ງໃຫ້ທ່ານຊາບອີກຄັ້ງເມື່ອການສັ່ງຊື້ຂອງທ່ານອອກສໍາລັບການຈັດສົ່ງ.</t>
+  </si>
+  <si>
+    <t>ការបញ្ជាទិញរបស់អ្នកត្រូវបានបញ្ជាក់។ យើងនឹងជូនដំណឹងអ្នកម្តងទៀតនៅពេលការបញ្ជាទិញរបស់អ្នកចេញសម្រាប់ការដឹកជញ្ជូន។</t>
+  </si>
+  <si>
+    <t>您的订单已交付。 请检查您的送货跟踪。</t>
+  </si>
+  <si>
+    <t>ご注文が配信されました。 配達追跡を確認してください。</t>
+  </si>
+  <si>
+    <t>Su pedido ha sido entregado. Consulte el seguimiento de su entrega.</t>
+  </si>
+  <si>
+    <t>သင်၏အမှာစာကိုပေးပို့ခဲ့သည် ကျေးဇူးပြု. သင်၏ပို့ဆောင်မှုခြေရာခံစစ်ဆေးပါ။</t>
+  </si>
+  <si>
+    <t>ຄໍາສັ່ງຂອງທ່ານໄດ້ຖືກຈັດສົ່ງແລ້ວ. ກະລຸນາກວດສອບການຕິດຕາມການຈັດສົ່ງຂອງທ່ານ.</t>
+  </si>
+  <si>
+    <t>ការបញ្ជាទិញរបស់អ្នកត្រូវបានប្រគល់ជូន។ សូមពិនិត្យមើលការតាមដានការដឹកជញ្ជូនរបស់អ្នក។</t>
+  </si>
+  <si>
+    <t>您的订单待定，请联系管理员以获取更多信息。</t>
+  </si>
+  <si>
+    <t>ご注文は保留中です。詳細については、管理者にお問い合わせください。</t>
+  </si>
+  <si>
+    <t>Su pedido está pendiente, comuníquese con el administrador para obtener más información.</t>
+  </si>
+  <si>
+    <t>သင်၏အမှာစာကိုဆိုင်းငံ့ထားပါ။ ကျေးဇူးပြု. နောက်ထပ်သတင်းအချက်အလက်များအတွက် admin ကိုဆက်သွယ်ပါ။</t>
+  </si>
+  <si>
+    <t>ຄໍາສັ່ງຂອງທ່ານກໍາລັງລໍຖ້າ, ກະລຸນາຕິດຕໍ່ເບິ່ງ Admin ສໍາລັບຂໍ້ມູນເພີ່ມເຕີມ.</t>
+  </si>
+  <si>
+    <t>ការបញ្ជាទិញរបស់អ្នកកំពុងរង់ចាំសូមទាក់ទងរដ្ឋបាលសម្រាប់ព័ត៌មានបន្ថែម។</t>
+  </si>
+  <si>
+    <t>您的订单已取消，请联系管理员以获取更多信息。</t>
+  </si>
+  <si>
+    <t>ご注文はキャンセルされます。詳細については、管理者にお問い合わせください。</t>
+  </si>
+  <si>
+    <t>Su pedido se cancela, comuníquese con el administrador para obtener más información.</t>
+  </si>
+  <si>
+    <t>သင်၏အမှာစာကိုဖျက်သိမ်းပြီး, နောက်ထပ်အချက်အလက်များအတွက် admin ကိုဆက်သွယ်ပါ။</t>
+  </si>
+  <si>
+    <t>ຄໍາສັ່ງຂອງທ່ານຖືກຍົກເລີກ, ກະລຸນາຕິດຕໍ່ຫາ Admin ສໍາລັບຂໍ້ມູນເພີ່ມເຕີມ.</t>
+  </si>
+  <si>
+    <t>ការបញ្ជាទិញរបស់អ្នកត្រូវបានលុបចោលសូមទាក់ទងរដ្ឋបាលសម្រាប់ព័ត៌មានបន្ថែម។</t>
+  </si>
+  <si>
+    <t>创建在</t>
+  </si>
+  <si>
+    <t>で作成されました</t>
+  </si>
+  <si>
+    <t>Creado a</t>
+  </si>
+  <si>
+    <t>ဖန်တီးခဲ့တယ်</t>
+  </si>
+  <si>
+    <t>ສ້າງຂື້ນທີ່</t>
+  </si>
+  <si>
+    <t>បានបង្កើតនៅ</t>
+  </si>
+  <si>
+    <t>更新在</t>
+  </si>
+  <si>
+    <t>で更新されました</t>
+  </si>
+  <si>
+    <t>Actualizado en</t>
+  </si>
+  <si>
+    <t>မှာ updated</t>
+  </si>
+  <si>
+    <t>ອັບເດດຢູ່</t>
+  </si>
+  <si>
+    <t>ធ្វើឱ្យទាន់សម័យនៅ</t>
+  </si>
+  <si>
+    <t>EMS跟踪</t>
+  </si>
+  <si>
+    <t>EMSトラッキング</t>
+  </si>
+  <si>
+    <t>Seguimiento de EMS</t>
+  </si>
+  <si>
+    <t>EMS ခြေရာခံခြင်း</t>
+  </si>
+  <si>
+    <t>ການຕິດຕາມ EMS</t>
+  </si>
+  <si>
+    <t>ems តាមដាន</t>
+  </si>
+  <si>
+    <t>我们已经更新了您的订单状态或细节。</t>
+  </si>
+  <si>
+    <t>ご注文のステータスまたは詳細を更新しました。</t>
+  </si>
+  <si>
+    <t>Hemos actualizado el estado o el detalle de su pedido.</t>
+  </si>
+  <si>
+    <t>သင်၏အမှာစာအခြေအနေသို့မဟုတ်အသေးစိတ်ကိုကျွန်ုပ်တို့အသစ်ပြောင်းသည်။</t>
+  </si>
+  <si>
+    <t>ພວກເຮົາໄດ້ປັບປຸງສະຖານະການສັ່ງຊື້ຂອງທ່ານຫຼືລາຍລະອຽດ.</t>
+  </si>
+  <si>
+    <t>យើងបានធ្វើបច្ចុប្បន្នភាពស្ថានភាពបញ្ជាទិញរបស់អ្នកឬលម្អិត។</t>
+  </si>
+  <si>
+    <t>[ICMM2025]您的订单已更新！</t>
+  </si>
+  <si>
+    <t>[ICMM2025]ご注文が更新されました！...</t>
+  </si>
+  <si>
+    <t>[ICMM2025] ¡Su pedido se ha actualizado! ...</t>
+  </si>
+  <si>
+    <t>[icmm2025] သင်၏အမှာစာကိုအသစ်ပြောင်းထားသည်။ ...</t>
+  </si>
+  <si>
+    <t>[ICMM2025] ຄໍາສັ່ງຂອງທ່ານໄດ້ຖືກປັບປຸງແລ້ວ! ...</t>
+  </si>
+  <si>
+    <t>[ICMM2025] ការបញ្ជាទិញរបស់អ្នកត្រូវបានធ្វើបច្ចុប្បន្នភាព! ...</t>
+  </si>
+  <si>
+    <t>我们已经将您的订单转移到了下一个状态。</t>
+  </si>
+  <si>
+    <t>ご注文を次の状態に移しました。</t>
+  </si>
+  <si>
+    <t>Hemos trasladado su pedido al siguiente estado.</t>
+  </si>
+  <si>
+    <t>ငါတို့သည်သင်တို့၏အမိန့်ကိုနောက်ပြည်နယ်သို့ပြောင်းရွှေ့ပါပြီ။</t>
+  </si>
+  <si>
+    <t>ພວກເຮົາໄດ້ຍ້າຍຄໍາສັ່ງຂອງທ່ານໄປຍັງລັດຕໍ່ໄປ.</t>
+  </si>
+  <si>
+    <t>យើងបានផ្លាស់ប្តូរការបញ្ជាទិញរបស់អ្នកទៅរដ្ឋបន្ទាប់។</t>
+  </si>
+  <si>
+    <t>[ICMM2025]您的订单已更改状态！</t>
+  </si>
+  <si>
+    <t>[ICMM2025]あなたの注文はステータスを変更しました！...</t>
+  </si>
+  <si>
+    <t>[ICMM2025] ¡Tu pedido ha cambiado el estado! ...</t>
+  </si>
+  <si>
+    <t>[icmm2025] သင်၏အမှာစာသည် status ကိုပြောင်းလဲလိုက်သည်။</t>
+  </si>
+  <si>
+    <t>[ICMM2025] ຄໍາສັ່ງຂອງທ່ານໄດ້ປ່ຽນສະຖານະພາບ! ...</t>
+  </si>
+  <si>
+    <t>[ICMM2025] ការបញ្ជាទិញរបស់អ្នកបានផ្លាស់ប្តូរស្ថានភាព! ...</t>
   </si>
 </sst>
 </file>
@@ -1462,14 +3244,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EFFCAA-6DA9-40A3-BF28-CA3BC524DD9C}">
   <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="D104" sqref="D104:I111"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="30.88671875" customWidth="1"/>
-    <col min="3" max="3" width="47.77734375" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -1599,22 +3381,22 @@
         <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>345</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>346</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>347</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>348</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>349</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1628,22 +3410,22 @@
         <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>351</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>352</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>353</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>354</v>
       </c>
       <c r="H6" t="s">
-        <v>43</v>
+        <v>355</v>
       </c>
       <c r="I6" t="s">
-        <v>43</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -1657,22 +3439,22 @@
         <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>357</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>358</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>359</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>360</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>361</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1686,22 +3468,22 @@
         <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>363</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>364</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>365</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>366</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>367</v>
       </c>
       <c r="I8" t="s">
-        <v>49</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -1715,22 +3497,22 @@
         <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>369</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>370</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>371</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>372</v>
       </c>
       <c r="H9" t="s">
-        <v>51</v>
+        <v>373</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>374</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -1744,22 +3526,22 @@
         <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>375</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>376</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>377</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>378</v>
       </c>
       <c r="H10" t="s">
-        <v>52</v>
+        <v>379</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -1773,22 +3555,22 @@
         <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>381</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>382</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>383</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
+        <v>384</v>
       </c>
       <c r="H11" t="s">
-        <v>58</v>
+        <v>385</v>
       </c>
       <c r="I11" t="s">
-        <v>58</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -1802,22 +3584,22 @@
         <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>387</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>388</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>389</v>
       </c>
       <c r="G12" t="s">
-        <v>61</v>
+        <v>390</v>
       </c>
       <c r="H12" t="s">
-        <v>61</v>
+        <v>391</v>
       </c>
       <c r="I12" t="s">
-        <v>61</v>
+        <v>392</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -1831,22 +3613,22 @@
         <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>393</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>394</v>
       </c>
       <c r="F13" t="s">
         <v>67</v>
       </c>
       <c r="G13" t="s">
-        <v>67</v>
+        <v>395</v>
       </c>
       <c r="H13" t="s">
-        <v>67</v>
+        <v>396</v>
       </c>
       <c r="I13" t="s">
-        <v>67</v>
+        <v>397</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -1869,13 +3651,13 @@
         <v>65</v>
       </c>
       <c r="G14" t="s">
-        <v>65</v>
+        <v>398</v>
       </c>
       <c r="H14" t="s">
-        <v>65</v>
+        <v>399</v>
       </c>
       <c r="I14" t="s">
-        <v>65</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -1889,22 +3671,22 @@
         <v>70</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>387</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>388</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>389</v>
       </c>
       <c r="G15" t="s">
-        <v>61</v>
+        <v>390</v>
       </c>
       <c r="H15" t="s">
-        <v>61</v>
+        <v>391</v>
       </c>
       <c r="I15" t="s">
-        <v>61</v>
+        <v>392</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -1918,22 +3700,22 @@
         <v>73</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>401</v>
       </c>
       <c r="E16" t="s">
-        <v>72</v>
+        <v>402</v>
       </c>
       <c r="F16" t="s">
-        <v>72</v>
+        <v>403</v>
       </c>
       <c r="G16" t="s">
-        <v>72</v>
+        <v>404</v>
       </c>
       <c r="H16" t="s">
-        <v>72</v>
+        <v>405</v>
       </c>
       <c r="I16" t="s">
-        <v>72</v>
+        <v>406</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -1947,22 +3729,22 @@
         <v>78</v>
       </c>
       <c r="D17" t="s">
-        <v>76</v>
+        <v>407</v>
       </c>
       <c r="E17" t="s">
-        <v>76</v>
+        <v>408</v>
       </c>
       <c r="F17" t="s">
-        <v>76</v>
+        <v>409</v>
       </c>
       <c r="G17" t="s">
-        <v>76</v>
+        <v>410</v>
       </c>
       <c r="H17" t="s">
-        <v>76</v>
+        <v>411</v>
       </c>
       <c r="I17" t="s">
-        <v>76</v>
+        <v>412</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -1976,22 +3758,22 @@
         <v>79</v>
       </c>
       <c r="D18" t="s">
-        <v>77</v>
+        <v>413</v>
       </c>
       <c r="E18" t="s">
-        <v>77</v>
+        <v>414</v>
       </c>
       <c r="F18" t="s">
-        <v>77</v>
+        <v>415</v>
       </c>
       <c r="G18" t="s">
-        <v>77</v>
+        <v>416</v>
       </c>
       <c r="H18" t="s">
-        <v>77</v>
+        <v>417</v>
       </c>
       <c r="I18" t="s">
-        <v>77</v>
+        <v>418</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -2005,22 +3787,22 @@
         <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>419</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>420</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>421</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>422</v>
       </c>
       <c r="H19" t="s">
-        <v>30</v>
+        <v>423</v>
       </c>
       <c r="I19" t="s">
-        <v>30</v>
+        <v>424</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -2034,22 +3816,22 @@
         <v>83</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>425</v>
       </c>
       <c r="E20" t="s">
-        <v>81</v>
+        <v>426</v>
       </c>
       <c r="F20" t="s">
-        <v>81</v>
+        <v>427</v>
       </c>
       <c r="G20" t="s">
-        <v>81</v>
+        <v>428</v>
       </c>
       <c r="H20" t="s">
-        <v>81</v>
+        <v>429</v>
       </c>
       <c r="I20" t="s">
-        <v>81</v>
+        <v>430</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -2063,22 +3845,22 @@
         <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
+        <v>431</v>
       </c>
       <c r="E21" t="s">
-        <v>82</v>
+        <v>432</v>
       </c>
       <c r="F21" t="s">
-        <v>82</v>
+        <v>433</v>
       </c>
       <c r="G21" t="s">
-        <v>82</v>
+        <v>434</v>
       </c>
       <c r="H21" t="s">
-        <v>82</v>
+        <v>435</v>
       </c>
       <c r="I21" t="s">
-        <v>82</v>
+        <v>436</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -2089,25 +3871,25 @@
         <v>92</v>
       </c>
       <c r="C22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D22" t="s">
-        <v>92</v>
+        <v>437</v>
       </c>
       <c r="E22" t="s">
-        <v>92</v>
+        <v>438</v>
       </c>
       <c r="F22" t="s">
-        <v>92</v>
+        <v>439</v>
       </c>
       <c r="G22" t="s">
-        <v>92</v>
+        <v>440</v>
       </c>
       <c r="H22" t="s">
-        <v>92</v>
+        <v>441</v>
       </c>
       <c r="I22" t="s">
-        <v>92</v>
+        <v>442</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -2118,25 +3900,25 @@
         <v>93</v>
       </c>
       <c r="C23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D23" t="s">
-        <v>93</v>
+        <v>443</v>
       </c>
       <c r="E23" t="s">
-        <v>93</v>
+        <v>444</v>
       </c>
       <c r="F23" t="s">
-        <v>93</v>
+        <v>445</v>
       </c>
       <c r="G23" t="s">
-        <v>93</v>
+        <v>446</v>
       </c>
       <c r="H23" t="s">
-        <v>93</v>
+        <v>447</v>
       </c>
       <c r="I23" t="s">
-        <v>93</v>
+        <v>448</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -2147,25 +3929,25 @@
         <v>94</v>
       </c>
       <c r="C24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D24" t="s">
-        <v>94</v>
+        <v>449</v>
       </c>
       <c r="E24" t="s">
-        <v>94</v>
+        <v>450</v>
       </c>
       <c r="F24" t="s">
-        <v>94</v>
+        <v>451</v>
       </c>
       <c r="G24" t="s">
-        <v>94</v>
+        <v>452</v>
       </c>
       <c r="H24" t="s">
-        <v>94</v>
+        <v>453</v>
       </c>
       <c r="I24" t="s">
-        <v>94</v>
+        <v>454</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -2179,10 +3961,10 @@
         <v>95</v>
       </c>
       <c r="D25" t="s">
-        <v>95</v>
+        <v>455</v>
       </c>
       <c r="E25" t="s">
-        <v>95</v>
+        <v>456</v>
       </c>
       <c r="F25" t="s">
         <v>95</v>
@@ -2194,7 +3976,7 @@
         <v>95</v>
       </c>
       <c r="I25" t="s">
-        <v>95</v>
+        <v>457</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -2205,25 +3987,25 @@
         <v>96</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D26" t="s">
-        <v>96</v>
+        <v>458</v>
       </c>
       <c r="E26" t="s">
-        <v>96</v>
+        <v>459</v>
       </c>
       <c r="F26" t="s">
-        <v>96</v>
+        <v>460</v>
       </c>
       <c r="G26" t="s">
-        <v>96</v>
+        <v>461</v>
       </c>
       <c r="H26" t="s">
-        <v>96</v>
+        <v>462</v>
       </c>
       <c r="I26" t="s">
-        <v>96</v>
+        <v>463</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -2231,2464 +4013,2464 @@
         <v>91</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C27" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" t="s">
+        <v>464</v>
+      </c>
+      <c r="E27" t="s">
+        <v>465</v>
+      </c>
+      <c r="F27" t="s">
+        <v>466</v>
+      </c>
+      <c r="G27" t="s">
         <v>102</v>
       </c>
-      <c r="D27" t="s">
-        <v>97</v>
-      </c>
-      <c r="E27" t="s">
-        <v>97</v>
-      </c>
-      <c r="F27" t="s">
-        <v>97</v>
-      </c>
-      <c r="G27" t="s">
-        <v>97</v>
-      </c>
       <c r="H27" t="s">
-        <v>97</v>
+        <v>467</v>
       </c>
       <c r="I27" t="s">
-        <v>97</v>
+        <v>468</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" t="s">
         <v>104</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>105</v>
       </c>
-      <c r="C28" t="s">
-        <v>106</v>
-      </c>
       <c r="D28" t="s">
-        <v>105</v>
+        <v>469</v>
       </c>
       <c r="E28" t="s">
-        <v>105</v>
+        <v>470</v>
       </c>
       <c r="F28" t="s">
-        <v>105</v>
+        <v>471</v>
       </c>
       <c r="G28" t="s">
-        <v>105</v>
+        <v>472</v>
       </c>
       <c r="H28" t="s">
-        <v>105</v>
+        <v>473</v>
       </c>
       <c r="I28" t="s">
-        <v>105</v>
+        <v>474</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" t="s">
         <v>107</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>108</v>
       </c>
-      <c r="C29" t="s">
-        <v>109</v>
-      </c>
       <c r="D29" t="s">
-        <v>108</v>
+        <v>475</v>
       </c>
       <c r="E29" t="s">
-        <v>108</v>
+        <v>476</v>
       </c>
       <c r="F29" t="s">
-        <v>108</v>
+        <v>477</v>
       </c>
       <c r="G29" t="s">
-        <v>108</v>
+        <v>478</v>
       </c>
       <c r="H29" t="s">
-        <v>108</v>
+        <v>479</v>
       </c>
       <c r="I29" t="s">
-        <v>108</v>
+        <v>480</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D30" t="s">
-        <v>115</v>
+        <v>481</v>
       </c>
       <c r="E30" t="s">
-        <v>115</v>
+        <v>482</v>
       </c>
       <c r="F30" t="s">
-        <v>115</v>
+        <v>483</v>
       </c>
       <c r="G30" t="s">
-        <v>115</v>
+        <v>484</v>
       </c>
       <c r="H30" t="s">
-        <v>115</v>
+        <v>485</v>
       </c>
       <c r="I30" t="s">
-        <v>115</v>
+        <v>486</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D31" t="s">
-        <v>116</v>
+        <v>487</v>
       </c>
       <c r="E31" t="s">
-        <v>116</v>
+        <v>488</v>
       </c>
       <c r="F31" t="s">
-        <v>116</v>
+        <v>489</v>
       </c>
       <c r="G31" t="s">
-        <v>116</v>
+        <v>490</v>
       </c>
       <c r="H31" t="s">
-        <v>116</v>
+        <v>491</v>
       </c>
       <c r="I31" t="s">
-        <v>116</v>
+        <v>492</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" t="s">
         <v>119</v>
       </c>
-      <c r="C32" t="s">
-        <v>120</v>
-      </c>
       <c r="D32" t="s">
-        <v>119</v>
+        <v>493</v>
       </c>
       <c r="E32" t="s">
-        <v>119</v>
+        <v>494</v>
       </c>
       <c r="F32" t="s">
-        <v>119</v>
+        <v>495</v>
       </c>
       <c r="G32" t="s">
-        <v>119</v>
+        <v>496</v>
       </c>
       <c r="H32" t="s">
-        <v>119</v>
+        <v>497</v>
       </c>
       <c r="I32" t="s">
-        <v>119</v>
+        <v>498</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B33" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" t="s">
         <v>121</v>
       </c>
-      <c r="C33" t="s">
-        <v>122</v>
-      </c>
       <c r="D33" t="s">
-        <v>121</v>
+        <v>499</v>
       </c>
       <c r="E33" t="s">
-        <v>121</v>
+        <v>500</v>
       </c>
       <c r="F33" t="s">
-        <v>121</v>
+        <v>501</v>
       </c>
       <c r="G33" t="s">
-        <v>121</v>
+        <v>502</v>
       </c>
       <c r="H33" t="s">
-        <v>121</v>
+        <v>503</v>
       </c>
       <c r="I33" t="s">
-        <v>121</v>
+        <v>504</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B34" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" t="s">
         <v>123</v>
       </c>
-      <c r="C34" t="s">
-        <v>124</v>
-      </c>
       <c r="D34" t="s">
-        <v>123</v>
+        <v>505</v>
       </c>
       <c r="E34" t="s">
-        <v>123</v>
+        <v>506</v>
       </c>
       <c r="F34" t="s">
-        <v>123</v>
+        <v>507</v>
       </c>
       <c r="G34" t="s">
-        <v>123</v>
+        <v>508</v>
       </c>
       <c r="H34" t="s">
-        <v>123</v>
+        <v>509</v>
       </c>
       <c r="I34" t="s">
-        <v>123</v>
+        <v>507</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B35" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" t="s">
         <v>125</v>
       </c>
-      <c r="C35" t="s">
-        <v>126</v>
-      </c>
       <c r="D35" t="s">
-        <v>125</v>
+        <v>510</v>
       </c>
       <c r="E35" t="s">
-        <v>125</v>
+        <v>511</v>
       </c>
       <c r="F35" t="s">
-        <v>125</v>
+        <v>512</v>
       </c>
       <c r="G35" t="s">
-        <v>125</v>
+        <v>513</v>
       </c>
       <c r="H35" t="s">
-        <v>125</v>
+        <v>514</v>
       </c>
       <c r="I35" t="s">
-        <v>125</v>
+        <v>515</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B36" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" t="s">
         <v>127</v>
       </c>
-      <c r="C36" t="s">
-        <v>128</v>
-      </c>
       <c r="D36" t="s">
-        <v>127</v>
+        <v>516</v>
       </c>
       <c r="E36" t="s">
-        <v>127</v>
+        <v>517</v>
       </c>
       <c r="F36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G36" t="s">
-        <v>127</v>
+        <v>518</v>
       </c>
       <c r="H36" t="s">
-        <v>127</v>
+        <v>519</v>
       </c>
       <c r="I36" t="s">
-        <v>127</v>
+        <v>520</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B37" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" t="s">
         <v>129</v>
       </c>
-      <c r="C37" t="s">
-        <v>130</v>
-      </c>
       <c r="D37" t="s">
-        <v>129</v>
+        <v>521</v>
       </c>
       <c r="E37" t="s">
-        <v>129</v>
+        <v>522</v>
       </c>
       <c r="F37" t="s">
-        <v>129</v>
+        <v>523</v>
       </c>
       <c r="G37" t="s">
-        <v>129</v>
+        <v>524</v>
       </c>
       <c r="H37" t="s">
-        <v>129</v>
+        <v>525</v>
       </c>
       <c r="I37" t="s">
-        <v>129</v>
+        <v>526</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B38" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" t="s">
         <v>131</v>
       </c>
-      <c r="C38" t="s">
-        <v>132</v>
-      </c>
       <c r="D38" t="s">
-        <v>131</v>
+        <v>527</v>
       </c>
       <c r="E38" t="s">
-        <v>131</v>
+        <v>528</v>
       </c>
       <c r="F38" t="s">
-        <v>131</v>
+        <v>529</v>
       </c>
       <c r="G38" t="s">
-        <v>131</v>
+        <v>530</v>
       </c>
       <c r="H38" t="s">
-        <v>131</v>
+        <v>530</v>
       </c>
       <c r="I38" t="s">
-        <v>131</v>
+        <v>531</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B39" t="s">
+        <v>132</v>
+      </c>
+      <c r="C39" t="s">
         <v>133</v>
       </c>
-      <c r="C39" t="s">
-        <v>134</v>
-      </c>
       <c r="D39" t="s">
-        <v>133</v>
+        <v>532</v>
       </c>
       <c r="E39" t="s">
-        <v>133</v>
+        <v>533</v>
       </c>
       <c r="F39" t="s">
-        <v>133</v>
+        <v>534</v>
       </c>
       <c r="G39" t="s">
-        <v>133</v>
+        <v>535</v>
       </c>
       <c r="H39" t="s">
-        <v>133</v>
+        <v>536</v>
       </c>
       <c r="I39" t="s">
-        <v>133</v>
+        <v>537</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>139</v>
+      </c>
+      <c r="B40" t="s">
         <v>140</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>141</v>
       </c>
-      <c r="C40" t="s">
-        <v>142</v>
-      </c>
       <c r="D40" t="s">
-        <v>141</v>
+        <v>538</v>
       </c>
       <c r="E40" t="s">
-        <v>141</v>
+        <v>539</v>
       </c>
       <c r="F40" t="s">
-        <v>141</v>
+        <v>540</v>
       </c>
       <c r="G40" t="s">
-        <v>141</v>
+        <v>541</v>
       </c>
       <c r="H40" t="s">
-        <v>141</v>
+        <v>542</v>
       </c>
       <c r="I40" t="s">
-        <v>141</v>
+        <v>543</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>142</v>
+      </c>
+      <c r="B41" t="s">
         <v>143</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>144</v>
       </c>
-      <c r="C41" t="s">
-        <v>145</v>
-      </c>
       <c r="D41" t="s">
-        <v>144</v>
+        <v>544</v>
       </c>
       <c r="E41" t="s">
-        <v>144</v>
+        <v>545</v>
       </c>
       <c r="F41" t="s">
-        <v>144</v>
+        <v>546</v>
       </c>
       <c r="G41" t="s">
-        <v>144</v>
+        <v>547</v>
       </c>
       <c r="H41" t="s">
-        <v>144</v>
+        <v>548</v>
       </c>
       <c r="I41" t="s">
-        <v>144</v>
+        <v>549</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>145</v>
+      </c>
+      <c r="B42" t="s">
         <v>146</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>147</v>
       </c>
-      <c r="C42" t="s">
-        <v>148</v>
-      </c>
       <c r="D42" t="s">
-        <v>147</v>
+        <v>550</v>
       </c>
       <c r="E42" t="s">
-        <v>147</v>
+        <v>551</v>
       </c>
       <c r="F42" t="s">
-        <v>147</v>
+        <v>552</v>
       </c>
       <c r="G42" t="s">
-        <v>147</v>
+        <v>553</v>
       </c>
       <c r="H42" t="s">
-        <v>147</v>
+        <v>554</v>
       </c>
       <c r="I42" t="s">
-        <v>147</v>
+        <v>555</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>148</v>
+      </c>
+      <c r="B43" t="s">
         <v>149</v>
       </c>
-      <c r="B43" t="s">
-        <v>150</v>
-      </c>
       <c r="C43" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D43" t="s">
-        <v>150</v>
+        <v>556</v>
       </c>
       <c r="E43" t="s">
-        <v>150</v>
+        <v>557</v>
       </c>
       <c r="F43" t="s">
-        <v>150</v>
+        <v>558</v>
       </c>
       <c r="G43" t="s">
-        <v>150</v>
+        <v>559</v>
       </c>
       <c r="H43" t="s">
-        <v>150</v>
+        <v>560</v>
       </c>
       <c r="I43" t="s">
-        <v>150</v>
+        <v>561</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B44" t="s">
+        <v>152</v>
+      </c>
+      <c r="C44" t="s">
         <v>153</v>
       </c>
-      <c r="C44" t="s">
-        <v>154</v>
-      </c>
       <c r="D44" t="s">
-        <v>153</v>
+        <v>562</v>
       </c>
       <c r="E44" t="s">
-        <v>153</v>
+        <v>563</v>
       </c>
       <c r="F44" t="s">
-        <v>153</v>
+        <v>564</v>
       </c>
       <c r="G44" t="s">
-        <v>153</v>
+        <v>565</v>
       </c>
       <c r="H44" t="s">
-        <v>153</v>
+        <v>566</v>
       </c>
       <c r="I44" t="s">
-        <v>153</v>
+        <v>567</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B45" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C45" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D45" t="s">
-        <v>156</v>
+        <v>568</v>
       </c>
       <c r="E45" t="s">
-        <v>156</v>
+        <v>569</v>
       </c>
       <c r="F45" t="s">
-        <v>156</v>
+        <v>570</v>
       </c>
       <c r="G45" t="s">
-        <v>156</v>
+        <v>571</v>
       </c>
       <c r="H45" t="s">
-        <v>156</v>
+        <v>572</v>
       </c>
       <c r="I45" t="s">
-        <v>156</v>
+        <v>573</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>156</v>
+      </c>
+      <c r="B46" t="s">
         <v>157</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>158</v>
       </c>
-      <c r="C46" t="s">
-        <v>159</v>
-      </c>
       <c r="D46" t="s">
-        <v>158</v>
+        <v>574</v>
       </c>
       <c r="E46" t="s">
-        <v>158</v>
+        <v>575</v>
       </c>
       <c r="F46" t="s">
-        <v>158</v>
+        <v>576</v>
       </c>
       <c r="G46" t="s">
-        <v>158</v>
+        <v>577</v>
       </c>
       <c r="H46" t="s">
-        <v>158</v>
+        <v>578</v>
       </c>
       <c r="I46" t="s">
-        <v>158</v>
+        <v>579</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>160</v>
+      </c>
+      <c r="B47" t="s">
         <v>161</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>162</v>
       </c>
-      <c r="C47" t="s">
-        <v>163</v>
-      </c>
       <c r="D47" t="s">
-        <v>162</v>
+        <v>580</v>
       </c>
       <c r="E47" t="s">
-        <v>162</v>
+        <v>581</v>
       </c>
       <c r="F47" t="s">
-        <v>162</v>
+        <v>582</v>
       </c>
       <c r="G47" t="s">
-        <v>162</v>
+        <v>583</v>
       </c>
       <c r="H47" t="s">
-        <v>162</v>
+        <v>584</v>
       </c>
       <c r="I47" t="s">
-        <v>162</v>
+        <v>585</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>164</v>
+      </c>
+      <c r="B48" t="s">
+        <v>163</v>
+      </c>
+      <c r="C48" t="s">
         <v>165</v>
       </c>
-      <c r="B48" t="s">
-        <v>164</v>
-      </c>
-      <c r="C48" t="s">
-        <v>166</v>
-      </c>
       <c r="D48" t="s">
-        <v>164</v>
+        <v>586</v>
       </c>
       <c r="E48" t="s">
-        <v>164</v>
+        <v>587</v>
       </c>
       <c r="F48" t="s">
-        <v>164</v>
+        <v>588</v>
       </c>
       <c r="G48" t="s">
-        <v>164</v>
+        <v>589</v>
       </c>
       <c r="H48" t="s">
-        <v>164</v>
+        <v>590</v>
       </c>
       <c r="I48" t="s">
-        <v>164</v>
+        <v>591</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>166</v>
+      </c>
+      <c r="B49" t="s">
         <v>167</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>168</v>
       </c>
-      <c r="C49" t="s">
-        <v>169</v>
-      </c>
       <c r="D49" t="s">
-        <v>168</v>
+        <v>592</v>
       </c>
       <c r="E49" t="s">
-        <v>168</v>
+        <v>593</v>
       </c>
       <c r="F49" t="s">
-        <v>168</v>
+        <v>594</v>
       </c>
       <c r="G49" t="s">
-        <v>168</v>
+        <v>595</v>
       </c>
       <c r="H49" t="s">
-        <v>168</v>
+        <v>596</v>
       </c>
       <c r="I49" t="s">
-        <v>168</v>
+        <v>597</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>169</v>
+      </c>
+      <c r="B50" t="s">
         <v>170</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>171</v>
       </c>
-      <c r="C50" t="s">
-        <v>172</v>
-      </c>
       <c r="D50" t="s">
-        <v>171</v>
+        <v>598</v>
       </c>
       <c r="E50" t="s">
-        <v>171</v>
+        <v>599</v>
       </c>
       <c r="F50" t="s">
-        <v>171</v>
+        <v>600</v>
       </c>
       <c r="G50" t="s">
-        <v>171</v>
+        <v>601</v>
       </c>
       <c r="H50" t="s">
-        <v>171</v>
+        <v>602</v>
       </c>
       <c r="I50" t="s">
-        <v>171</v>
+        <v>603</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B51" t="s">
+        <v>175</v>
+      </c>
+      <c r="C51" t="s">
         <v>176</v>
       </c>
-      <c r="C51" t="s">
-        <v>177</v>
-      </c>
       <c r="D51" t="s">
-        <v>176</v>
+        <v>604</v>
       </c>
       <c r="E51" t="s">
-        <v>176</v>
+        <v>605</v>
       </c>
       <c r="F51" t="s">
-        <v>176</v>
+        <v>606</v>
       </c>
       <c r="G51" t="s">
-        <v>176</v>
+        <v>607</v>
       </c>
       <c r="H51" t="s">
-        <v>176</v>
+        <v>608</v>
       </c>
       <c r="I51" t="s">
-        <v>176</v>
+        <v>609</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>173</v>
+      </c>
+      <c r="B52" t="s">
         <v>174</v>
       </c>
-      <c r="B52" t="s">
-        <v>175</v>
-      </c>
       <c r="C52" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D52" t="s">
-        <v>175</v>
+        <v>610</v>
       </c>
       <c r="E52" t="s">
-        <v>175</v>
+        <v>611</v>
       </c>
       <c r="F52" t="s">
-        <v>175</v>
+        <v>612</v>
       </c>
       <c r="G52" t="s">
-        <v>175</v>
+        <v>613</v>
       </c>
       <c r="H52" t="s">
-        <v>175</v>
+        <v>614</v>
       </c>
       <c r="I52" t="s">
-        <v>175</v>
+        <v>615</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B53" t="s">
+        <v>180</v>
+      </c>
+      <c r="C53" t="s">
         <v>181</v>
       </c>
-      <c r="C53" t="s">
-        <v>182</v>
-      </c>
       <c r="D53" t="s">
-        <v>181</v>
+        <v>616</v>
       </c>
       <c r="E53" t="s">
-        <v>181</v>
+        <v>617</v>
       </c>
       <c r="F53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G53" t="s">
-        <v>181</v>
+        <v>618</v>
       </c>
       <c r="H53" t="s">
-        <v>181</v>
+        <v>619</v>
       </c>
       <c r="I53" t="s">
-        <v>181</v>
+        <v>620</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B54" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C54" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D54" t="s">
-        <v>184</v>
+        <v>621</v>
       </c>
       <c r="E54" t="s">
-        <v>184</v>
+        <v>622</v>
       </c>
       <c r="F54" t="s">
-        <v>184</v>
+        <v>623</v>
       </c>
       <c r="G54" t="s">
-        <v>184</v>
+        <v>624</v>
       </c>
       <c r="H54" t="s">
-        <v>184</v>
+        <v>625</v>
       </c>
       <c r="I54" t="s">
-        <v>184</v>
+        <v>626</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B55" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C55" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D55" t="s">
-        <v>187</v>
+        <v>627</v>
       </c>
       <c r="E55" t="s">
-        <v>187</v>
+        <v>628</v>
       </c>
       <c r="F55" t="s">
-        <v>187</v>
+        <v>629</v>
       </c>
       <c r="G55" t="s">
-        <v>187</v>
+        <v>630</v>
       </c>
       <c r="H55" t="s">
-        <v>187</v>
+        <v>631</v>
       </c>
       <c r="I55" t="s">
-        <v>187</v>
+        <v>632</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B56" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C56" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D56" t="s">
-        <v>190</v>
+        <v>633</v>
       </c>
       <c r="E56" t="s">
-        <v>190</v>
+        <v>634</v>
       </c>
       <c r="F56" t="s">
-        <v>190</v>
+        <v>635</v>
       </c>
       <c r="G56" t="s">
-        <v>190</v>
+        <v>636</v>
       </c>
       <c r="H56" t="s">
-        <v>190</v>
+        <v>637</v>
       </c>
       <c r="I56" t="s">
-        <v>190</v>
+        <v>638</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B57" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C57" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D57" t="s">
-        <v>191</v>
+        <v>639</v>
       </c>
       <c r="E57" t="s">
-        <v>191</v>
+        <v>640</v>
       </c>
       <c r="F57" t="s">
-        <v>191</v>
+        <v>641</v>
       </c>
       <c r="G57" t="s">
-        <v>191</v>
+        <v>642</v>
       </c>
       <c r="H57" t="s">
-        <v>191</v>
+        <v>643</v>
       </c>
       <c r="I57" t="s">
-        <v>191</v>
+        <v>644</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B58" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C58" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D58" t="s">
-        <v>194</v>
+        <v>645</v>
       </c>
       <c r="E58" t="s">
-        <v>194</v>
+        <v>645</v>
       </c>
       <c r="F58" t="s">
-        <v>194</v>
+        <v>646</v>
       </c>
       <c r="G58" t="s">
-        <v>194</v>
+        <v>647</v>
       </c>
       <c r="H58" t="s">
-        <v>194</v>
+        <v>648</v>
       </c>
       <c r="I58" t="s">
-        <v>194</v>
+        <v>649</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>194</v>
+      </c>
+      <c r="B59" t="s">
+        <v>197</v>
+      </c>
+      <c r="C59" t="s">
         <v>195</v>
       </c>
-      <c r="B59" t="s">
-        <v>198</v>
-      </c>
-      <c r="C59" t="s">
-        <v>196</v>
-      </c>
       <c r="D59" t="s">
-        <v>198</v>
+        <v>650</v>
       </c>
       <c r="E59" t="s">
-        <v>198</v>
+        <v>651</v>
       </c>
       <c r="F59" t="s">
-        <v>198</v>
+        <v>652</v>
       </c>
       <c r="G59" t="s">
-        <v>198</v>
+        <v>653</v>
       </c>
       <c r="H59" t="s">
-        <v>198</v>
+        <v>654</v>
       </c>
       <c r="I59" t="s">
-        <v>198</v>
+        <v>655</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B60" t="s">
+        <v>198</v>
+      </c>
+      <c r="C60" t="s">
         <v>199</v>
       </c>
-      <c r="C60" t="s">
-        <v>200</v>
-      </c>
       <c r="D60" t="s">
-        <v>199</v>
+        <v>656</v>
       </c>
       <c r="E60" t="s">
-        <v>199</v>
+        <v>657</v>
       </c>
       <c r="F60" t="s">
-        <v>199</v>
+        <v>658</v>
       </c>
       <c r="G60" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H60" t="s">
-        <v>199</v>
+        <v>659</v>
       </c>
       <c r="I60" t="s">
-        <v>199</v>
+        <v>660</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B61" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C61" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D61" t="s">
-        <v>204</v>
+        <v>661</v>
       </c>
       <c r="E61" t="s">
-        <v>204</v>
+        <v>662</v>
       </c>
       <c r="F61" t="s">
-        <v>204</v>
+        <v>663</v>
       </c>
       <c r="G61" t="s">
-        <v>204</v>
+        <v>664</v>
       </c>
       <c r="H61" t="s">
-        <v>204</v>
+        <v>665</v>
       </c>
       <c r="I61" t="s">
-        <v>204</v>
+        <v>666</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
+        <v>201</v>
+      </c>
+      <c r="B62" t="s">
         <v>202</v>
       </c>
-      <c r="B62" t="s">
-        <v>203</v>
-      </c>
       <c r="C62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D62" t="s">
-        <v>203</v>
+        <v>667</v>
       </c>
       <c r="E62" t="s">
-        <v>203</v>
+        <v>668</v>
       </c>
       <c r="F62" t="s">
-        <v>203</v>
+        <v>669</v>
       </c>
       <c r="G62" t="s">
-        <v>203</v>
+        <v>670</v>
       </c>
       <c r="H62" t="s">
-        <v>203</v>
+        <v>671</v>
       </c>
       <c r="I62" t="s">
-        <v>203</v>
+        <v>672</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>205</v>
+      </c>
+      <c r="B63" t="s">
         <v>206</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>207</v>
       </c>
-      <c r="C63" t="s">
-        <v>208</v>
-      </c>
       <c r="D63" t="s">
-        <v>207</v>
+        <v>673</v>
       </c>
       <c r="E63" t="s">
-        <v>207</v>
+        <v>674</v>
       </c>
       <c r="F63" t="s">
-        <v>207</v>
+        <v>675</v>
       </c>
       <c r="G63" t="s">
-        <v>207</v>
+        <v>676</v>
       </c>
       <c r="H63" t="s">
-        <v>207</v>
+        <v>677</v>
       </c>
       <c r="I63" t="s">
-        <v>207</v>
+        <v>678</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>209</v>
+      </c>
+      <c r="B64" t="s">
         <v>210</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>211</v>
       </c>
-      <c r="C64" t="s">
-        <v>212</v>
-      </c>
       <c r="D64" t="s">
-        <v>211</v>
+        <v>679</v>
       </c>
       <c r="E64" t="s">
-        <v>211</v>
+        <v>680</v>
       </c>
       <c r="F64" t="s">
-        <v>211</v>
+        <v>681</v>
       </c>
       <c r="G64" t="s">
-        <v>211</v>
+        <v>682</v>
       </c>
       <c r="H64" t="s">
-        <v>211</v>
+        <v>683</v>
       </c>
       <c r="I64" t="s">
-        <v>211</v>
+        <v>684</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>212</v>
+      </c>
+      <c r="B65" t="s">
+        <v>214</v>
+      </c>
+      <c r="C65" t="s">
         <v>213</v>
       </c>
-      <c r="B65" t="s">
-        <v>216</v>
-      </c>
-      <c r="C65" t="s">
-        <v>215</v>
-      </c>
       <c r="D65" t="s">
-        <v>214</v>
+        <v>685</v>
       </c>
       <c r="E65" t="s">
-        <v>214</v>
+        <v>686</v>
       </c>
       <c r="F65" t="s">
-        <v>214</v>
+        <v>687</v>
       </c>
       <c r="G65" t="s">
-        <v>214</v>
+        <v>688</v>
       </c>
       <c r="H65" t="s">
-        <v>214</v>
+        <v>689</v>
       </c>
       <c r="I65" t="s">
-        <v>214</v>
+        <v>690</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
+        <v>215</v>
+      </c>
+      <c r="B66" t="s">
+        <v>216</v>
+      </c>
+      <c r="C66" t="s">
         <v>217</v>
       </c>
-      <c r="B66" t="s">
-        <v>218</v>
-      </c>
-      <c r="C66" t="s">
-        <v>219</v>
-      </c>
       <c r="D66" t="s">
-        <v>218</v>
+        <v>691</v>
       </c>
       <c r="E66" t="s">
-        <v>218</v>
+        <v>692</v>
       </c>
       <c r="F66" t="s">
-        <v>218</v>
+        <v>693</v>
       </c>
       <c r="G66" t="s">
-        <v>218</v>
+        <v>694</v>
       </c>
       <c r="H66" t="s">
-        <v>218</v>
+        <v>695</v>
       </c>
       <c r="I66" t="s">
-        <v>218</v>
+        <v>696</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B67" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C67" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D67" t="s">
-        <v>244</v>
+        <v>697</v>
       </c>
       <c r="E67" t="s">
-        <v>244</v>
+        <v>698</v>
       </c>
       <c r="F67" t="s">
-        <v>244</v>
+        <v>699</v>
       </c>
       <c r="G67" t="s">
-        <v>244</v>
+        <v>700</v>
       </c>
       <c r="H67" t="s">
-        <v>244</v>
+        <v>701</v>
       </c>
       <c r="I67" t="s">
-        <v>244</v>
+        <v>702</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B68" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C68" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D68" t="s">
-        <v>221</v>
+        <v>703</v>
       </c>
       <c r="E68" t="s">
-        <v>221</v>
+        <v>704</v>
       </c>
       <c r="F68" t="s">
-        <v>221</v>
+        <v>705</v>
       </c>
       <c r="G68" t="s">
-        <v>221</v>
+        <v>706</v>
       </c>
       <c r="H68" t="s">
-        <v>221</v>
+        <v>707</v>
       </c>
       <c r="I68" t="s">
-        <v>221</v>
+        <v>708</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B69" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C69" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D69" t="s">
-        <v>222</v>
+        <v>709</v>
       </c>
       <c r="E69" t="s">
-        <v>222</v>
+        <v>710</v>
       </c>
       <c r="F69" t="s">
-        <v>222</v>
+        <v>711</v>
       </c>
       <c r="G69" t="s">
-        <v>222</v>
+        <v>712</v>
       </c>
       <c r="H69" t="s">
-        <v>222</v>
+        <v>713</v>
       </c>
       <c r="I69" t="s">
-        <v>222</v>
+        <v>714</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B70" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C70" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D70" t="s">
-        <v>223</v>
+        <v>715</v>
       </c>
       <c r="E70" t="s">
-        <v>223</v>
+        <v>716</v>
       </c>
       <c r="F70" t="s">
-        <v>223</v>
+        <v>717</v>
       </c>
       <c r="G70" t="s">
-        <v>223</v>
+        <v>718</v>
       </c>
       <c r="H70" t="s">
-        <v>223</v>
+        <v>719</v>
       </c>
       <c r="I70" t="s">
-        <v>223</v>
+        <v>720</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
+        <v>225</v>
+      </c>
+      <c r="B71" t="s">
+        <v>224</v>
+      </c>
+      <c r="C71" t="s">
         <v>227</v>
       </c>
-      <c r="B71" t="s">
-        <v>226</v>
-      </c>
-      <c r="C71" t="s">
-        <v>229</v>
-      </c>
       <c r="D71" t="s">
-        <v>226</v>
+        <v>721</v>
       </c>
       <c r="E71" t="s">
-        <v>226</v>
+        <v>722</v>
       </c>
       <c r="F71" t="s">
-        <v>226</v>
+        <v>723</v>
       </c>
       <c r="G71" t="s">
-        <v>226</v>
+        <v>724</v>
       </c>
       <c r="H71" t="s">
-        <v>226</v>
+        <v>725</v>
       </c>
       <c r="I71" t="s">
-        <v>226</v>
+        <v>726</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
+        <v>229</v>
+      </c>
+      <c r="B72" t="s">
+        <v>230</v>
+      </c>
+      <c r="C72" t="s">
         <v>231</v>
       </c>
-      <c r="B72" t="s">
-        <v>232</v>
-      </c>
-      <c r="C72" t="s">
-        <v>233</v>
-      </c>
       <c r="D72" t="s">
-        <v>232</v>
+        <v>727</v>
       </c>
       <c r="E72" t="s">
-        <v>232</v>
+        <v>728</v>
       </c>
       <c r="F72" t="s">
-        <v>232</v>
+        <v>729</v>
       </c>
       <c r="G72" t="s">
-        <v>232</v>
+        <v>730</v>
       </c>
       <c r="H72" t="s">
-        <v>232</v>
+        <v>731</v>
       </c>
       <c r="I72" t="s">
-        <v>232</v>
+        <v>732</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B73" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C73" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D73" t="s">
-        <v>235</v>
+        <v>733</v>
       </c>
       <c r="E73" t="s">
-        <v>235</v>
+        <v>734</v>
       </c>
       <c r="F73" t="s">
-        <v>235</v>
+        <v>735</v>
       </c>
       <c r="G73" t="s">
-        <v>235</v>
+        <v>736</v>
       </c>
       <c r="H73" t="s">
-        <v>235</v>
+        <v>737</v>
       </c>
       <c r="I73" t="s">
-        <v>235</v>
+        <v>738</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B74" t="s">
+        <v>235</v>
+      </c>
+      <c r="C74" t="s">
         <v>237</v>
       </c>
-      <c r="C74" t="s">
-        <v>239</v>
-      </c>
       <c r="D74" t="s">
-        <v>237</v>
+        <v>739</v>
       </c>
       <c r="E74" t="s">
-        <v>237</v>
+        <v>740</v>
       </c>
       <c r="F74" t="s">
-        <v>237</v>
+        <v>741</v>
       </c>
       <c r="G74" t="s">
-        <v>237</v>
+        <v>742</v>
       </c>
       <c r="H74" t="s">
-        <v>237</v>
+        <v>743</v>
       </c>
       <c r="I74" t="s">
-        <v>237</v>
+        <v>744</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
+        <v>238</v>
+      </c>
+      <c r="B75" t="s">
+        <v>239</v>
+      </c>
+      <c r="C75" t="s">
         <v>240</v>
       </c>
-      <c r="B75" t="s">
-        <v>241</v>
-      </c>
-      <c r="C75" t="s">
-        <v>242</v>
-      </c>
       <c r="D75" t="s">
-        <v>241</v>
+        <v>745</v>
       </c>
       <c r="E75" t="s">
-        <v>241</v>
+        <v>746</v>
       </c>
       <c r="F75" t="s">
-        <v>241</v>
+        <v>747</v>
       </c>
       <c r="G75" t="s">
-        <v>241</v>
+        <v>748</v>
       </c>
       <c r="H75" t="s">
-        <v>241</v>
+        <v>749</v>
       </c>
       <c r="I75" t="s">
-        <v>241</v>
+        <v>750</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
+        <v>245</v>
+      </c>
+      <c r="B76" t="s">
+        <v>246</v>
+      </c>
+      <c r="C76" t="s">
         <v>247</v>
       </c>
-      <c r="B76" t="s">
-        <v>248</v>
-      </c>
-      <c r="C76" t="s">
-        <v>249</v>
-      </c>
       <c r="D76" t="s">
-        <v>248</v>
+        <v>751</v>
       </c>
       <c r="E76" t="s">
-        <v>248</v>
+        <v>752</v>
       </c>
       <c r="F76" t="s">
-        <v>248</v>
+        <v>753</v>
       </c>
       <c r="G76" t="s">
-        <v>248</v>
+        <v>754</v>
       </c>
       <c r="H76" t="s">
-        <v>248</v>
+        <v>755</v>
       </c>
       <c r="I76" t="s">
-        <v>248</v>
+        <v>756</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
+        <v>250</v>
+      </c>
+      <c r="B77" t="s">
+        <v>248</v>
+      </c>
+      <c r="C77" t="s">
         <v>252</v>
       </c>
-      <c r="B77" t="s">
-        <v>250</v>
-      </c>
-      <c r="C77" t="s">
-        <v>254</v>
-      </c>
       <c r="D77" t="s">
-        <v>250</v>
+        <v>757</v>
       </c>
       <c r="E77" t="s">
-        <v>250</v>
+        <v>758</v>
       </c>
       <c r="F77" t="s">
-        <v>250</v>
+        <v>759</v>
       </c>
       <c r="G77" t="s">
-        <v>250</v>
+        <v>760</v>
       </c>
       <c r="H77" t="s">
-        <v>250</v>
+        <v>761</v>
       </c>
       <c r="I77" t="s">
-        <v>250</v>
+        <v>762</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
+        <v>251</v>
+      </c>
+      <c r="B78" t="s">
+        <v>249</v>
+      </c>
+      <c r="C78" t="s">
         <v>253</v>
       </c>
-      <c r="B78" t="s">
-        <v>251</v>
-      </c>
-      <c r="C78" t="s">
-        <v>255</v>
-      </c>
       <c r="D78" t="s">
-        <v>251</v>
+        <v>763</v>
       </c>
       <c r="E78" t="s">
-        <v>251</v>
+        <v>764</v>
       </c>
       <c r="F78" t="s">
-        <v>251</v>
+        <v>765</v>
       </c>
       <c r="G78" t="s">
-        <v>251</v>
+        <v>766</v>
       </c>
       <c r="H78" t="s">
-        <v>251</v>
+        <v>767</v>
       </c>
       <c r="I78" t="s">
-        <v>251</v>
+        <v>768</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
+        <v>254</v>
+      </c>
+      <c r="B79" t="s">
+        <v>255</v>
+      </c>
+      <c r="C79" t="s">
         <v>256</v>
       </c>
-      <c r="B79" t="s">
-        <v>257</v>
-      </c>
-      <c r="C79" t="s">
-        <v>258</v>
-      </c>
       <c r="D79" t="s">
-        <v>257</v>
+        <v>769</v>
       </c>
       <c r="E79" t="s">
-        <v>257</v>
+        <v>770</v>
       </c>
       <c r="F79" t="s">
-        <v>257</v>
+        <v>771</v>
       </c>
       <c r="G79" t="s">
-        <v>257</v>
+        <v>772</v>
       </c>
       <c r="H79" t="s">
-        <v>257</v>
+        <v>773</v>
       </c>
       <c r="I79" t="s">
-        <v>257</v>
+        <v>774</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B80" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C80" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D80" t="s">
-        <v>264</v>
+        <v>775</v>
       </c>
       <c r="E80" t="s">
-        <v>264</v>
+        <v>776</v>
       </c>
       <c r="F80" t="s">
-        <v>264</v>
+        <v>777</v>
       </c>
       <c r="G80" t="s">
-        <v>264</v>
+        <v>778</v>
       </c>
       <c r="H80" t="s">
-        <v>264</v>
+        <v>779</v>
       </c>
       <c r="I80" t="s">
-        <v>264</v>
+        <v>780</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B81" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C81" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D81" t="s">
-        <v>265</v>
+        <v>781</v>
       </c>
       <c r="E81" t="s">
-        <v>265</v>
+        <v>782</v>
       </c>
       <c r="F81" t="s">
-        <v>265</v>
+        <v>783</v>
       </c>
       <c r="G81" t="s">
-        <v>265</v>
+        <v>784</v>
       </c>
       <c r="H81" t="s">
-        <v>265</v>
+        <v>785</v>
       </c>
       <c r="I81" t="s">
-        <v>265</v>
+        <v>786</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B82" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C82" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D82" t="s">
-        <v>266</v>
+        <v>787</v>
       </c>
       <c r="E82" t="s">
-        <v>266</v>
+        <v>788</v>
       </c>
       <c r="F82" t="s">
-        <v>266</v>
+        <v>789</v>
       </c>
       <c r="G82" t="s">
-        <v>266</v>
+        <v>790</v>
       </c>
       <c r="H82" t="s">
-        <v>266</v>
+        <v>791</v>
       </c>
       <c r="I82" t="s">
-        <v>266</v>
+        <v>792</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B83" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C83" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D83" t="s">
-        <v>267</v>
+        <v>793</v>
       </c>
       <c r="E83" t="s">
-        <v>267</v>
+        <v>794</v>
       </c>
       <c r="F83" t="s">
-        <v>267</v>
+        <v>795</v>
       </c>
       <c r="G83" t="s">
-        <v>267</v>
+        <v>796</v>
       </c>
       <c r="H83" t="s">
-        <v>267</v>
+        <v>797</v>
       </c>
       <c r="I83" t="s">
-        <v>267</v>
+        <v>798</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
+        <v>258</v>
+      </c>
+      <c r="B84" t="s">
         <v>260</v>
       </c>
-      <c r="B84" t="s">
-        <v>262</v>
-      </c>
       <c r="C84" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D84" t="s">
-        <v>262</v>
+        <v>799</v>
       </c>
       <c r="E84" t="s">
-        <v>262</v>
+        <v>800</v>
       </c>
       <c r="F84" t="s">
-        <v>262</v>
+        <v>801</v>
       </c>
       <c r="G84" t="s">
-        <v>262</v>
+        <v>802</v>
       </c>
       <c r="H84" t="s">
-        <v>262</v>
+        <v>803</v>
       </c>
       <c r="I84" t="s">
-        <v>262</v>
+        <v>804</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
+        <v>259</v>
+      </c>
+      <c r="B85" t="s">
         <v>261</v>
       </c>
-      <c r="B85" t="s">
-        <v>263</v>
-      </c>
       <c r="C85" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D85" t="s">
-        <v>263</v>
+        <v>805</v>
       </c>
       <c r="E85" t="s">
-        <v>263</v>
+        <v>806</v>
       </c>
       <c r="F85" t="s">
-        <v>263</v>
+        <v>807</v>
       </c>
       <c r="G85" t="s">
-        <v>263</v>
+        <v>808</v>
       </c>
       <c r="H85" t="s">
-        <v>263</v>
+        <v>807</v>
       </c>
       <c r="I85" t="s">
-        <v>263</v>
+        <v>809</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B86" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C86" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D86" t="s">
-        <v>277</v>
+        <v>810</v>
       </c>
       <c r="E86" t="s">
-        <v>277</v>
+        <v>811</v>
       </c>
       <c r="F86" t="s">
-        <v>277</v>
+        <v>812</v>
       </c>
       <c r="G86" t="s">
-        <v>277</v>
+        <v>813</v>
       </c>
       <c r="H86" t="s">
-        <v>277</v>
+        <v>814</v>
       </c>
       <c r="I86" t="s">
-        <v>277</v>
+        <v>815</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B87" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C87" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D87" t="s">
-        <v>282</v>
+        <v>816</v>
       </c>
       <c r="E87" t="s">
-        <v>282</v>
+        <v>817</v>
       </c>
       <c r="F87" t="s">
-        <v>282</v>
+        <v>818</v>
       </c>
       <c r="G87" t="s">
-        <v>282</v>
+        <v>819</v>
       </c>
       <c r="H87" t="s">
-        <v>282</v>
+        <v>820</v>
       </c>
       <c r="I87" t="s">
-        <v>282</v>
+        <v>821</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B88" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C88" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D88" t="s">
-        <v>285</v>
+        <v>822</v>
       </c>
       <c r="E88" t="s">
-        <v>285</v>
+        <v>823</v>
       </c>
       <c r="F88" t="s">
-        <v>285</v>
+        <v>824</v>
       </c>
       <c r="G88" t="s">
-        <v>285</v>
+        <v>825</v>
       </c>
       <c r="H88" t="s">
-        <v>285</v>
+        <v>826</v>
       </c>
       <c r="I88" t="s">
-        <v>285</v>
+        <v>827</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B89" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C89" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D89" t="s">
-        <v>297</v>
+        <v>828</v>
       </c>
       <c r="E89" t="s">
-        <v>297</v>
+        <v>829</v>
       </c>
       <c r="F89" t="s">
-        <v>297</v>
+        <v>830</v>
       </c>
       <c r="G89" t="s">
-        <v>297</v>
+        <v>831</v>
       </c>
       <c r="H89" t="s">
-        <v>297</v>
+        <v>832</v>
       </c>
       <c r="I89" t="s">
-        <v>297</v>
+        <v>833</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B90" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C90" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D90" t="s">
-        <v>298</v>
+        <v>834</v>
       </c>
       <c r="E90" t="s">
-        <v>298</v>
+        <v>835</v>
       </c>
       <c r="F90" t="s">
-        <v>298</v>
+        <v>836</v>
       </c>
       <c r="G90" t="s">
-        <v>298</v>
+        <v>837</v>
       </c>
       <c r="H90" t="s">
-        <v>298</v>
+        <v>838</v>
       </c>
       <c r="I90" t="s">
-        <v>298</v>
+        <v>839</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B91" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C91" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D91" t="s">
-        <v>293</v>
+        <v>840</v>
       </c>
       <c r="E91" t="s">
-        <v>293</v>
+        <v>841</v>
       </c>
       <c r="F91" t="s">
-        <v>293</v>
+        <v>842</v>
       </c>
       <c r="G91" t="s">
-        <v>293</v>
+        <v>843</v>
       </c>
       <c r="H91" t="s">
-        <v>293</v>
+        <v>844</v>
       </c>
       <c r="I91" t="s">
-        <v>293</v>
+        <v>845</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B92" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C92" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D92" t="s">
-        <v>294</v>
+        <v>846</v>
       </c>
       <c r="E92" t="s">
-        <v>294</v>
+        <v>847</v>
       </c>
       <c r="F92" t="s">
-        <v>294</v>
+        <v>848</v>
       </c>
       <c r="G92" t="s">
-        <v>294</v>
+        <v>849</v>
       </c>
       <c r="H92" t="s">
-        <v>294</v>
+        <v>850</v>
       </c>
       <c r="I92" t="s">
-        <v>294</v>
+        <v>851</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B93" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C93" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D93" t="s">
-        <v>295</v>
+        <v>852</v>
       </c>
       <c r="E93" t="s">
-        <v>295</v>
+        <v>853</v>
       </c>
       <c r="F93" t="s">
-        <v>295</v>
+        <v>854</v>
       </c>
       <c r="G93" t="s">
-        <v>295</v>
+        <v>855</v>
       </c>
       <c r="H93" t="s">
-        <v>295</v>
+        <v>856</v>
       </c>
       <c r="I93" t="s">
-        <v>295</v>
+        <v>857</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B94" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C94" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D94" t="s">
-        <v>296</v>
+        <v>858</v>
       </c>
       <c r="E94" t="s">
-        <v>296</v>
+        <v>859</v>
       </c>
       <c r="F94" t="s">
-        <v>296</v>
+        <v>860</v>
       </c>
       <c r="G94" t="s">
-        <v>296</v>
+        <v>861</v>
       </c>
       <c r="H94" t="s">
-        <v>296</v>
+        <v>862</v>
       </c>
       <c r="I94" t="s">
-        <v>296</v>
+        <v>863</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B95" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C95" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D95" t="s">
-        <v>311</v>
+        <v>864</v>
       </c>
       <c r="E95" t="s">
-        <v>311</v>
+        <v>865</v>
       </c>
       <c r="F95" t="s">
-        <v>311</v>
+        <v>866</v>
       </c>
       <c r="G95" t="s">
-        <v>311</v>
+        <v>867</v>
       </c>
       <c r="H95" t="s">
-        <v>311</v>
+        <v>868</v>
       </c>
       <c r="I95" t="s">
-        <v>311</v>
+        <v>869</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B96" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C96" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D96" t="s">
-        <v>312</v>
+        <v>870</v>
       </c>
       <c r="E96" t="s">
-        <v>312</v>
+        <v>871</v>
       </c>
       <c r="F96" t="s">
-        <v>312</v>
+        <v>872</v>
       </c>
       <c r="G96" t="s">
-        <v>312</v>
+        <v>873</v>
       </c>
       <c r="H96" t="s">
-        <v>312</v>
+        <v>874</v>
       </c>
       <c r="I96" t="s">
-        <v>312</v>
+        <v>875</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B97" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C97" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D97" t="s">
-        <v>313</v>
+        <v>876</v>
       </c>
       <c r="E97" t="s">
-        <v>313</v>
+        <v>877</v>
       </c>
       <c r="F97" t="s">
-        <v>313</v>
+        <v>878</v>
       </c>
       <c r="G97" t="s">
-        <v>313</v>
+        <v>879</v>
       </c>
       <c r="H97" t="s">
-        <v>313</v>
+        <v>880</v>
       </c>
       <c r="I97" t="s">
-        <v>313</v>
+        <v>881</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B98" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C98" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D98" t="s">
-        <v>314</v>
+        <v>882</v>
       </c>
       <c r="E98" t="s">
-        <v>314</v>
+        <v>883</v>
       </c>
       <c r="F98" t="s">
-        <v>314</v>
+        <v>884</v>
       </c>
       <c r="G98" t="s">
-        <v>314</v>
+        <v>885</v>
       </c>
       <c r="H98" t="s">
-        <v>314</v>
+        <v>886</v>
       </c>
       <c r="I98" t="s">
-        <v>314</v>
+        <v>887</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B99" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C99" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D99" t="s">
-        <v>315</v>
+        <v>888</v>
       </c>
       <c r="E99" t="s">
-        <v>315</v>
+        <v>889</v>
       </c>
       <c r="F99" t="s">
-        <v>315</v>
+        <v>890</v>
       </c>
       <c r="G99" t="s">
-        <v>315</v>
+        <v>891</v>
       </c>
       <c r="H99" t="s">
-        <v>315</v>
+        <v>892</v>
       </c>
       <c r="I99" t="s">
-        <v>315</v>
+        <v>893</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B100" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C100" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D100" t="s">
-        <v>316</v>
+        <v>894</v>
       </c>
       <c r="E100" t="s">
-        <v>316</v>
+        <v>895</v>
       </c>
       <c r="F100" t="s">
-        <v>316</v>
+        <v>896</v>
       </c>
       <c r="G100" t="s">
-        <v>316</v>
+        <v>897</v>
       </c>
       <c r="H100" t="s">
-        <v>316</v>
+        <v>898</v>
       </c>
       <c r="I100" t="s">
-        <v>316</v>
+        <v>899</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B101" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C101" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D101" t="s">
-        <v>325</v>
+        <v>900</v>
       </c>
       <c r="E101" t="s">
-        <v>325</v>
+        <v>901</v>
       </c>
       <c r="F101" t="s">
-        <v>325</v>
+        <v>902</v>
       </c>
       <c r="G101" t="s">
-        <v>325</v>
+        <v>903</v>
       </c>
       <c r="H101" t="s">
-        <v>325</v>
+        <v>904</v>
       </c>
       <c r="I101" t="s">
-        <v>325</v>
+        <v>905</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B102" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C102" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D102" t="s">
-        <v>326</v>
+        <v>906</v>
       </c>
       <c r="E102" t="s">
-        <v>326</v>
+        <v>907</v>
       </c>
       <c r="F102" t="s">
-        <v>326</v>
+        <v>908</v>
       </c>
       <c r="G102" t="s">
-        <v>326</v>
+        <v>909</v>
       </c>
       <c r="H102" t="s">
-        <v>326</v>
+        <v>910</v>
       </c>
       <c r="I102" t="s">
-        <v>326</v>
+        <v>911</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B103" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C103" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D103" t="s">
-        <v>330</v>
+        <v>912</v>
       </c>
       <c r="E103" t="s">
-        <v>330</v>
+        <v>913</v>
       </c>
       <c r="F103" t="s">
-        <v>330</v>
+        <v>914</v>
       </c>
       <c r="G103" t="s">
-        <v>330</v>
+        <v>915</v>
       </c>
       <c r="H103" t="s">
-        <v>330</v>
+        <v>916</v>
       </c>
       <c r="I103" t="s">
-        <v>330</v>
+        <v>917</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B104" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C104" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D104" t="s">
-        <v>337</v>
+        <v>918</v>
       </c>
       <c r="E104" t="s">
-        <v>337</v>
+        <v>919</v>
       </c>
       <c r="F104" t="s">
-        <v>337</v>
+        <v>920</v>
       </c>
       <c r="G104" t="s">
-        <v>337</v>
+        <v>921</v>
       </c>
       <c r="H104" t="s">
-        <v>337</v>
+        <v>922</v>
       </c>
       <c r="I104" t="s">
-        <v>337</v>
+        <v>923</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B105" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C105" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D105" t="s">
-        <v>266</v>
+        <v>787</v>
       </c>
       <c r="E105" t="s">
-        <v>266</v>
+        <v>788</v>
       </c>
       <c r="F105" t="s">
-        <v>266</v>
+        <v>789</v>
       </c>
       <c r="G105" t="s">
-        <v>266</v>
+        <v>790</v>
       </c>
       <c r="H105" t="s">
-        <v>266</v>
+        <v>791</v>
       </c>
       <c r="I105" t="s">
-        <v>266</v>
+        <v>792</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B106" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C106" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D106" t="s">
-        <v>267</v>
+        <v>793</v>
       </c>
       <c r="E106" t="s">
-        <v>267</v>
+        <v>794</v>
       </c>
       <c r="F106" t="s">
-        <v>267</v>
+        <v>795</v>
       </c>
       <c r="G106" t="s">
-        <v>267</v>
+        <v>796</v>
       </c>
       <c r="H106" t="s">
-        <v>267</v>
+        <v>797</v>
       </c>
       <c r="I106" t="s">
-        <v>267</v>
+        <v>798</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
+        <v>332</v>
+      </c>
+      <c r="B107" t="s">
+        <v>333</v>
+      </c>
+      <c r="C107" t="s">
         <v>335</v>
       </c>
-      <c r="B107" t="s">
-        <v>336</v>
-      </c>
-      <c r="C107" t="s">
-        <v>338</v>
-      </c>
       <c r="D107" t="s">
-        <v>336</v>
+        <v>924</v>
       </c>
       <c r="E107" t="s">
-        <v>336</v>
+        <v>925</v>
       </c>
       <c r="F107" t="s">
-        <v>336</v>
+        <v>926</v>
       </c>
       <c r="G107" t="s">
-        <v>336</v>
+        <v>927</v>
       </c>
       <c r="H107" t="s">
-        <v>336</v>
+        <v>928</v>
       </c>
       <c r="I107" t="s">
-        <v>336</v>
+        <v>929</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B108" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C108" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D108" t="s">
-        <v>346</v>
+        <v>930</v>
       </c>
       <c r="E108" t="s">
-        <v>346</v>
+        <v>931</v>
       </c>
       <c r="F108" t="s">
-        <v>346</v>
+        <v>932</v>
       </c>
       <c r="G108" t="s">
-        <v>346</v>
+        <v>933</v>
       </c>
       <c r="H108" t="s">
-        <v>346</v>
+        <v>934</v>
       </c>
       <c r="I108" t="s">
-        <v>346</v>
+        <v>935</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B109" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C109" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D109" t="s">
-        <v>266</v>
+        <v>787</v>
       </c>
       <c r="E109" t="s">
-        <v>266</v>
+        <v>788</v>
       </c>
       <c r="F109" t="s">
-        <v>266</v>
+        <v>789</v>
       </c>
       <c r="G109" t="s">
-        <v>266</v>
+        <v>790</v>
       </c>
       <c r="H109" t="s">
-        <v>266</v>
+        <v>791</v>
       </c>
       <c r="I109" t="s">
-        <v>266</v>
+        <v>792</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B110" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C110" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D110" t="s">
-        <v>267</v>
+        <v>793</v>
       </c>
       <c r="E110" t="s">
-        <v>267</v>
+        <v>794</v>
       </c>
       <c r="F110" t="s">
-        <v>267</v>
+        <v>795</v>
       </c>
       <c r="G110" t="s">
-        <v>267</v>
+        <v>796</v>
       </c>
       <c r="H110" t="s">
-        <v>267</v>
+        <v>797</v>
       </c>
       <c r="I110" t="s">
-        <v>267</v>
+        <v>798</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B111" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C111" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D111" t="s">
-        <v>345</v>
+        <v>936</v>
       </c>
       <c r="E111" t="s">
-        <v>345</v>
+        <v>937</v>
       </c>
       <c r="F111" t="s">
-        <v>345</v>
+        <v>938</v>
       </c>
       <c r="G111" t="s">
-        <v>345</v>
+        <v>939</v>
       </c>
       <c r="H111" t="s">
-        <v>345</v>
+        <v>940</v>
       </c>
       <c r="I111" t="s">
-        <v>345</v>
+        <v>941</v>
       </c>
     </row>
   </sheetData>

--- a/src/locales/translations.xlsx
+++ b/src/locales/translations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\icmm-web\src\locales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8913908F-42B8-4443-916C-F102E75B67C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEA6C55-C141-4D11-9DC2-79A97CAFBBC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B932D239-48A5-4026-8CCD-CA2BFDECA8AC}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{B932D239-48A5-4026-8CCD-CA2BFDECA8AC}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="981">
   <si>
     <t>id</t>
   </si>
@@ -806,9 +806,6 @@
     <t>mailerSubject</t>
   </si>
   <si>
-    <t>[ICMM2025] Your order has been received!...</t>
-  </si>
-  <si>
     <t>[ICMM2025] เราได้รับคำสั่งซื้อของท่านเรียบร้อย…</t>
   </si>
   <si>
@@ -830,9 +827,6 @@
     <t>Dear Valued Customer,</t>
   </si>
   <si>
-    <t>We have received your order and will confirm it within 24 hours.</t>
-  </si>
-  <si>
     <t>You can check your order status by clicking "Check Order Status" and entering your order no. :</t>
   </si>
   <si>
@@ -842,9 +836,6 @@
     <t>เรียนลูกค้าที่เคารพ,</t>
   </si>
   <si>
-    <t>เราได้รับคำสั่งซื้อของท่านเรียบร้อยแล้ว และจะดำเนินการยืนยันคำสั่งซื้อภายใน 24 ชั่วโมง</t>
-  </si>
-  <si>
     <t>ท่านสามารถตรวจสอบสถานะคำสั่งซื้อได้โดยคลิกที่ "ตรวจสอบสถานะคำสั่งซื้อ" และกรอกหมายเลขคำสั่งซื้อของท่านคือ :</t>
   </si>
   <si>
@@ -2865,6 +2856,132 @@
   </si>
   <si>
     <t>[ICMM2025] ការបញ្ជាទិញរបស់អ្នកបានផ្លាស់ប្តូរស្ថានភាព! ...</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>Discount code</t>
+  </si>
+  <si>
+    <t>รหัสส่วนลด</t>
+  </si>
+  <si>
+    <t>apply</t>
+  </si>
+  <si>
+    <t>Apply</t>
+  </si>
+  <si>
+    <t>ใช้รหัส</t>
+  </si>
+  <si>
+    <t>fillCode</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>รหัส</t>
+  </si>
+  <si>
+    <t>errPlaseFillCode</t>
+  </si>
+  <si>
+    <t>Please fill code.</t>
+  </si>
+  <si>
+    <t>โปรดใส่รหัส</t>
+  </si>
+  <si>
+    <t>errCodeNotFound</t>
+  </si>
+  <si>
+    <t>Code not found or has already used.</t>
+  </si>
+  <si>
+    <t>ไม่พบรหัสหรือรหัสถูกใช้แล้ว</t>
+  </si>
+  <si>
+    <t>discount</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>ส่วนลด</t>
+  </si>
+  <si>
+    <t>notOver</t>
+  </si>
+  <si>
+    <t>ไม่เกิน</t>
+  </si>
+  <si>
+    <t>not over</t>
+  </si>
+  <si>
+    <t>mailerSubjectReadyForPay</t>
+  </si>
+  <si>
+    <t>[ICMM2025] Your order has been created!...</t>
+  </si>
+  <si>
+    <t>[ICMM2025] เราได้รับหลักฐานการชำระของท่านเรียบร้อย…</t>
+  </si>
+  <si>
+    <t>เราได้รับหลักฐานการชำระตามคำสั่งซื้อของท่านเรียบร้อยแล้ว และจะดำเนินการยืนยันคำสั่งซื้อภายใน 24 ชั่วโมง</t>
+  </si>
+  <si>
+    <t>[ICMM2025] Your payment evidence has been received!...</t>
+  </si>
+  <si>
+    <t>We have received your payment evidence and will confirm it within 24 hours.</t>
+  </si>
+  <si>
+    <t>mailerTextReadyForPay1</t>
+  </si>
+  <si>
+    <t>mailerTextReadyForPay2</t>
+  </si>
+  <si>
+    <t>mailerTextReadyForPay3</t>
+  </si>
+  <si>
+    <t>We have received your order  detail, Please finish your payment and upload evidence.</t>
+  </si>
+  <si>
+    <t>เราได้รับคำสั่งซื้อของท่านเรียบร้อยแล้ว โปรดดำเนินการชำระเงินและอัพโหลดหลักฐานการชำระ</t>
+  </si>
+  <si>
+    <t>yourOrderIsFree</t>
+  </si>
+  <si>
+    <t>Your order total is ฿0.00. Please click ‘Submit Order’ to complete your purchase.</t>
+  </si>
+  <si>
+    <t>ยอดรวมของคุณคือ 0.00 บาท กรุณาคลิก ‘ส่งคำสั่งซื้อ’ เพื่อดำเนินการให้เสร็จสมบูรณ์</t>
+  </si>
+  <si>
+    <t>errPleaseUploadSlip</t>
+  </si>
+  <si>
+    <t>Please upload slip before submit order.</t>
+  </si>
+  <si>
+    <t>กรุณาแนบหลักฐานการโอนเงินก่อนกดส่งคำสั่งซื้อ</t>
+  </si>
+  <si>
+    <t>Your order total is THB 0.00. Please click ‘Submit Order’ to complete your purchase.</t>
+  </si>
+  <si>
+    <t>If you are not ready to pay now, you can pay and upload the payment slip later by going to the 'Upload Slip' section and entering your order no:</t>
+  </si>
+  <si>
+    <t>หากคุณยังไม่พร้อมชำระเงินในขณะนี้ คุณสามารถชำระเงินและอัปโหลดสลิปในภายหลังได้โดยไปที่เมนู 'อัปโหลดสลิป' และกรอกหมายเลขคำสั่งซื้อของคุณ</t>
+  </si>
+  <si>
+    <t>ifYouAreNotReadyToPay</t>
   </si>
 </sst>
 </file>
@@ -3242,19 +3359,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EFFCAA-6DA9-40A3-BF28-CA3BC524DD9C}">
-  <dimension ref="A1:I111"/>
+  <dimension ref="A1:I125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="A125" sqref="A125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.88671875" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3283,7 +3401,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3312,7 +3430,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3341,7 +3459,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -3370,7 +3488,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -3381,25 +3499,25 @@
         <v>41</v>
       </c>
       <c r="D5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E5" t="s">
+        <v>343</v>
+      </c>
+      <c r="F5" t="s">
+        <v>344</v>
+      </c>
+      <c r="G5" t="s">
         <v>345</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
         <v>346</v>
       </c>
-      <c r="F5" t="s">
+      <c r="I5" t="s">
         <v>347</v>
       </c>
-      <c r="G5" t="s">
-        <v>348</v>
-      </c>
-      <c r="H5" t="s">
-        <v>349</v>
-      </c>
-      <c r="I5" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -3410,25 +3528,25 @@
         <v>44</v>
       </c>
       <c r="D6" t="s">
+        <v>348</v>
+      </c>
+      <c r="E6" t="s">
+        <v>349</v>
+      </c>
+      <c r="F6" t="s">
+        <v>350</v>
+      </c>
+      <c r="G6" t="s">
         <v>351</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H6" t="s">
         <v>352</v>
       </c>
-      <c r="F6" t="s">
+      <c r="I6" t="s">
         <v>353</v>
       </c>
-      <c r="G6" t="s">
-        <v>354</v>
-      </c>
-      <c r="H6" t="s">
-        <v>355</v>
-      </c>
-      <c r="I6" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -3439,25 +3557,25 @@
         <v>46</v>
       </c>
       <c r="D7" t="s">
+        <v>354</v>
+      </c>
+      <c r="E7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F7" t="s">
+        <v>356</v>
+      </c>
+      <c r="G7" t="s">
         <v>357</v>
       </c>
-      <c r="E7" t="s">
+      <c r="H7" t="s">
         <v>358</v>
       </c>
-      <c r="F7" t="s">
+      <c r="I7" t="s">
         <v>359</v>
       </c>
-      <c r="G7" t="s">
-        <v>360</v>
-      </c>
-      <c r="H7" t="s">
-        <v>361</v>
-      </c>
-      <c r="I7" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -3468,25 +3586,25 @@
         <v>50</v>
       </c>
       <c r="D8" t="s">
+        <v>360</v>
+      </c>
+      <c r="E8" t="s">
+        <v>361</v>
+      </c>
+      <c r="F8" t="s">
+        <v>362</v>
+      </c>
+      <c r="G8" t="s">
         <v>363</v>
       </c>
-      <c r="E8" t="s">
+      <c r="H8" t="s">
         <v>364</v>
       </c>
-      <c r="F8" t="s">
+      <c r="I8" t="s">
         <v>365</v>
       </c>
-      <c r="G8" t="s">
-        <v>366</v>
-      </c>
-      <c r="H8" t="s">
-        <v>367</v>
-      </c>
-      <c r="I8" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -3497,25 +3615,25 @@
         <v>55</v>
       </c>
       <c r="D9" t="s">
+        <v>366</v>
+      </c>
+      <c r="E9" t="s">
+        <v>367</v>
+      </c>
+      <c r="F9" t="s">
+        <v>368</v>
+      </c>
+      <c r="G9" t="s">
         <v>369</v>
       </c>
-      <c r="E9" t="s">
+      <c r="H9" t="s">
         <v>370</v>
       </c>
-      <c r="F9" t="s">
+      <c r="I9" t="s">
         <v>371</v>
       </c>
-      <c r="G9" t="s">
-        <v>372</v>
-      </c>
-      <c r="H9" t="s">
-        <v>373</v>
-      </c>
-      <c r="I9" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -3526,25 +3644,25 @@
         <v>56</v>
       </c>
       <c r="D10" t="s">
+        <v>372</v>
+      </c>
+      <c r="E10" t="s">
+        <v>373</v>
+      </c>
+      <c r="F10" t="s">
+        <v>374</v>
+      </c>
+      <c r="G10" t="s">
         <v>375</v>
       </c>
-      <c r="E10" t="s">
+      <c r="H10" t="s">
         <v>376</v>
       </c>
-      <c r="F10" t="s">
+      <c r="I10" t="s">
         <v>377</v>
       </c>
-      <c r="G10" t="s">
-        <v>378</v>
-      </c>
-      <c r="H10" t="s">
-        <v>379</v>
-      </c>
-      <c r="I10" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -3555,25 +3673,25 @@
         <v>59</v>
       </c>
       <c r="D11" t="s">
+        <v>378</v>
+      </c>
+      <c r="E11" t="s">
+        <v>379</v>
+      </c>
+      <c r="F11" t="s">
+        <v>380</v>
+      </c>
+      <c r="G11" t="s">
         <v>381</v>
       </c>
-      <c r="E11" t="s">
+      <c r="H11" t="s">
         <v>382</v>
       </c>
-      <c r="F11" t="s">
+      <c r="I11" t="s">
         <v>383</v>
       </c>
-      <c r="G11" t="s">
-        <v>384</v>
-      </c>
-      <c r="H11" t="s">
-        <v>385</v>
-      </c>
-      <c r="I11" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -3584,25 +3702,25 @@
         <v>62</v>
       </c>
       <c r="D12" t="s">
+        <v>384</v>
+      </c>
+      <c r="E12" t="s">
+        <v>385</v>
+      </c>
+      <c r="F12" t="s">
+        <v>386</v>
+      </c>
+      <c r="G12" t="s">
         <v>387</v>
       </c>
-      <c r="E12" t="s">
+      <c r="H12" t="s">
         <v>388</v>
       </c>
-      <c r="F12" t="s">
+      <c r="I12" t="s">
         <v>389</v>
       </c>
-      <c r="G12" t="s">
-        <v>390</v>
-      </c>
-      <c r="H12" t="s">
-        <v>391</v>
-      </c>
-      <c r="I12" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>63</v>
       </c>
@@ -3613,25 +3731,25 @@
         <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E13" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F13" t="s">
         <v>67</v>
       </c>
       <c r="G13" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H13" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="I13" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -3651,16 +3769,16 @@
         <v>65</v>
       </c>
       <c r="G14" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H14" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="I14" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>69</v>
       </c>
@@ -3671,25 +3789,25 @@
         <v>70</v>
       </c>
       <c r="D15" t="s">
+        <v>384</v>
+      </c>
+      <c r="E15" t="s">
+        <v>385</v>
+      </c>
+      <c r="F15" t="s">
+        <v>386</v>
+      </c>
+      <c r="G15" t="s">
         <v>387</v>
       </c>
-      <c r="E15" t="s">
+      <c r="H15" t="s">
         <v>388</v>
       </c>
-      <c r="F15" t="s">
+      <c r="I15" t="s">
         <v>389</v>
       </c>
-      <c r="G15" t="s">
-        <v>390</v>
-      </c>
-      <c r="H15" t="s">
-        <v>391</v>
-      </c>
-      <c r="I15" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>71</v>
       </c>
@@ -3700,25 +3818,25 @@
         <v>73</v>
       </c>
       <c r="D16" t="s">
+        <v>398</v>
+      </c>
+      <c r="E16" t="s">
+        <v>399</v>
+      </c>
+      <c r="F16" t="s">
+        <v>400</v>
+      </c>
+      <c r="G16" t="s">
         <v>401</v>
       </c>
-      <c r="E16" t="s">
+      <c r="H16" t="s">
         <v>402</v>
       </c>
-      <c r="F16" t="s">
+      <c r="I16" t="s">
         <v>403</v>
       </c>
-      <c r="G16" t="s">
-        <v>404</v>
-      </c>
-      <c r="H16" t="s">
-        <v>405</v>
-      </c>
-      <c r="I16" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>74</v>
       </c>
@@ -3729,25 +3847,25 @@
         <v>78</v>
       </c>
       <c r="D17" t="s">
+        <v>404</v>
+      </c>
+      <c r="E17" t="s">
+        <v>405</v>
+      </c>
+      <c r="F17" t="s">
+        <v>406</v>
+      </c>
+      <c r="G17" t="s">
         <v>407</v>
       </c>
-      <c r="E17" t="s">
+      <c r="H17" t="s">
         <v>408</v>
       </c>
-      <c r="F17" t="s">
+      <c r="I17" t="s">
         <v>409</v>
       </c>
-      <c r="G17" t="s">
-        <v>410</v>
-      </c>
-      <c r="H17" t="s">
-        <v>411</v>
-      </c>
-      <c r="I17" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>75</v>
       </c>
@@ -3758,25 +3876,25 @@
         <v>79</v>
       </c>
       <c r="D18" t="s">
+        <v>410</v>
+      </c>
+      <c r="E18" t="s">
+        <v>411</v>
+      </c>
+      <c r="F18" t="s">
+        <v>412</v>
+      </c>
+      <c r="G18" t="s">
         <v>413</v>
       </c>
-      <c r="E18" t="s">
+      <c r="H18" t="s">
         <v>414</v>
       </c>
-      <c r="F18" t="s">
+      <c r="I18" t="s">
         <v>415</v>
       </c>
-      <c r="G18" t="s">
-        <v>416</v>
-      </c>
-      <c r="H18" t="s">
-        <v>417</v>
-      </c>
-      <c r="I18" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -3787,25 +3905,25 @@
         <v>31</v>
       </c>
       <c r="D19" t="s">
+        <v>416</v>
+      </c>
+      <c r="E19" t="s">
+        <v>417</v>
+      </c>
+      <c r="F19" t="s">
+        <v>418</v>
+      </c>
+      <c r="G19" t="s">
         <v>419</v>
       </c>
-      <c r="E19" t="s">
+      <c r="H19" t="s">
         <v>420</v>
       </c>
-      <c r="F19" t="s">
+      <c r="I19" t="s">
         <v>421</v>
       </c>
-      <c r="G19" t="s">
-        <v>422</v>
-      </c>
-      <c r="H19" t="s">
-        <v>423</v>
-      </c>
-      <c r="I19" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -3816,25 +3934,25 @@
         <v>83</v>
       </c>
       <c r="D20" t="s">
+        <v>422</v>
+      </c>
+      <c r="E20" t="s">
+        <v>423</v>
+      </c>
+      <c r="F20" t="s">
+        <v>424</v>
+      </c>
+      <c r="G20" t="s">
         <v>425</v>
       </c>
-      <c r="E20" t="s">
+      <c r="H20" t="s">
         <v>426</v>
       </c>
-      <c r="F20" t="s">
+      <c r="I20" t="s">
         <v>427</v>
       </c>
-      <c r="G20" t="s">
-        <v>428</v>
-      </c>
-      <c r="H20" t="s">
-        <v>429</v>
-      </c>
-      <c r="I20" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -3845,25 +3963,25 @@
         <v>84</v>
       </c>
       <c r="D21" t="s">
+        <v>428</v>
+      </c>
+      <c r="E21" t="s">
+        <v>429</v>
+      </c>
+      <c r="F21" t="s">
+        <v>430</v>
+      </c>
+      <c r="G21" t="s">
         <v>431</v>
       </c>
-      <c r="E21" t="s">
+      <c r="H21" t="s">
         <v>432</v>
       </c>
-      <c r="F21" t="s">
+      <c r="I21" t="s">
         <v>433</v>
       </c>
-      <c r="G21" t="s">
-        <v>434</v>
-      </c>
-      <c r="H21" t="s">
-        <v>435</v>
-      </c>
-      <c r="I21" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>87</v>
       </c>
@@ -3874,25 +3992,25 @@
         <v>97</v>
       </c>
       <c r="D22" t="s">
+        <v>434</v>
+      </c>
+      <c r="E22" t="s">
+        <v>435</v>
+      </c>
+      <c r="F22" t="s">
+        <v>436</v>
+      </c>
+      <c r="G22" t="s">
         <v>437</v>
       </c>
-      <c r="E22" t="s">
+      <c r="H22" t="s">
         <v>438</v>
       </c>
-      <c r="F22" t="s">
+      <c r="I22" t="s">
         <v>439</v>
       </c>
-      <c r="G22" t="s">
-        <v>440</v>
-      </c>
-      <c r="H22" t="s">
-        <v>441</v>
-      </c>
-      <c r="I22" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>86</v>
       </c>
@@ -3903,25 +4021,25 @@
         <v>98</v>
       </c>
       <c r="D23" t="s">
+        <v>440</v>
+      </c>
+      <c r="E23" t="s">
+        <v>441</v>
+      </c>
+      <c r="F23" t="s">
+        <v>442</v>
+      </c>
+      <c r="G23" t="s">
         <v>443</v>
       </c>
-      <c r="E23" t="s">
+      <c r="H23" t="s">
         <v>444</v>
       </c>
-      <c r="F23" t="s">
+      <c r="I23" t="s">
         <v>445</v>
       </c>
-      <c r="G23" t="s">
-        <v>446</v>
-      </c>
-      <c r="H23" t="s">
-        <v>447</v>
-      </c>
-      <c r="I23" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>88</v>
       </c>
@@ -3932,25 +4050,25 @@
         <v>99</v>
       </c>
       <c r="D24" t="s">
+        <v>446</v>
+      </c>
+      <c r="E24" t="s">
+        <v>447</v>
+      </c>
+      <c r="F24" t="s">
+        <v>448</v>
+      </c>
+      <c r="G24" t="s">
         <v>449</v>
       </c>
-      <c r="E24" t="s">
+      <c r="H24" t="s">
         <v>450</v>
       </c>
-      <c r="F24" t="s">
+      <c r="I24" t="s">
         <v>451</v>
       </c>
-      <c r="G24" t="s">
-        <v>452</v>
-      </c>
-      <c r="H24" t="s">
-        <v>453</v>
-      </c>
-      <c r="I24" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>89</v>
       </c>
@@ -3961,10 +4079,10 @@
         <v>95</v>
       </c>
       <c r="D25" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E25" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="F25" t="s">
         <v>95</v>
@@ -3976,10 +4094,10 @@
         <v>95</v>
       </c>
       <c r="I25" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>90</v>
       </c>
@@ -3990,25 +4108,25 @@
         <v>100</v>
       </c>
       <c r="D26" t="s">
+        <v>455</v>
+      </c>
+      <c r="E26" t="s">
+        <v>456</v>
+      </c>
+      <c r="F26" t="s">
+        <v>457</v>
+      </c>
+      <c r="G26" t="s">
         <v>458</v>
       </c>
-      <c r="E26" t="s">
+      <c r="H26" t="s">
         <v>459</v>
       </c>
-      <c r="F26" t="s">
+      <c r="I26" t="s">
         <v>460</v>
       </c>
-      <c r="G26" t="s">
-        <v>461</v>
-      </c>
-      <c r="H26" t="s">
-        <v>462</v>
-      </c>
-      <c r="I26" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>91</v>
       </c>
@@ -4019,25 +4137,25 @@
         <v>101</v>
       </c>
       <c r="D27" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="E27" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F27" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G27" t="s">
         <v>102</v>
       </c>
       <c r="H27" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="I27" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>103</v>
       </c>
@@ -4048,25 +4166,25 @@
         <v>105</v>
       </c>
       <c r="D28" t="s">
+        <v>466</v>
+      </c>
+      <c r="E28" t="s">
+        <v>467</v>
+      </c>
+      <c r="F28" t="s">
+        <v>468</v>
+      </c>
+      <c r="G28" t="s">
         <v>469</v>
       </c>
-      <c r="E28" t="s">
+      <c r="H28" t="s">
         <v>470</v>
       </c>
-      <c r="F28" t="s">
+      <c r="I28" t="s">
         <v>471</v>
       </c>
-      <c r="G28" t="s">
-        <v>472</v>
-      </c>
-      <c r="H28" t="s">
-        <v>473</v>
-      </c>
-      <c r="I28" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>106</v>
       </c>
@@ -4077,25 +4195,25 @@
         <v>108</v>
       </c>
       <c r="D29" t="s">
+        <v>472</v>
+      </c>
+      <c r="E29" t="s">
+        <v>473</v>
+      </c>
+      <c r="F29" t="s">
+        <v>474</v>
+      </c>
+      <c r="G29" t="s">
         <v>475</v>
       </c>
-      <c r="E29" t="s">
+      <c r="H29" t="s">
         <v>476</v>
       </c>
-      <c r="F29" t="s">
+      <c r="I29" t="s">
         <v>477</v>
       </c>
-      <c r="G29" t="s">
-        <v>478</v>
-      </c>
-      <c r="H29" t="s">
-        <v>479</v>
-      </c>
-      <c r="I29" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>109</v>
       </c>
@@ -4106,25 +4224,25 @@
         <v>116</v>
       </c>
       <c r="D30" t="s">
+        <v>478</v>
+      </c>
+      <c r="E30" t="s">
+        <v>479</v>
+      </c>
+      <c r="F30" t="s">
+        <v>480</v>
+      </c>
+      <c r="G30" t="s">
         <v>481</v>
       </c>
-      <c r="E30" t="s">
+      <c r="H30" t="s">
         <v>482</v>
       </c>
-      <c r="F30" t="s">
+      <c r="I30" t="s">
         <v>483</v>
       </c>
-      <c r="G30" t="s">
-        <v>484</v>
-      </c>
-      <c r="H30" t="s">
-        <v>485</v>
-      </c>
-      <c r="I30" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>134</v>
       </c>
@@ -4135,25 +4253,25 @@
         <v>117</v>
       </c>
       <c r="D31" t="s">
+        <v>484</v>
+      </c>
+      <c r="E31" t="s">
+        <v>485</v>
+      </c>
+      <c r="F31" t="s">
+        <v>486</v>
+      </c>
+      <c r="G31" t="s">
         <v>487</v>
       </c>
-      <c r="E31" t="s">
+      <c r="H31" t="s">
         <v>488</v>
       </c>
-      <c r="F31" t="s">
+      <c r="I31" t="s">
         <v>489</v>
       </c>
-      <c r="G31" t="s">
-        <v>490</v>
-      </c>
-      <c r="H31" t="s">
-        <v>491</v>
-      </c>
-      <c r="I31" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>110</v>
       </c>
@@ -4164,25 +4282,25 @@
         <v>119</v>
       </c>
       <c r="D32" t="s">
+        <v>490</v>
+      </c>
+      <c r="E32" t="s">
+        <v>491</v>
+      </c>
+      <c r="F32" t="s">
+        <v>492</v>
+      </c>
+      <c r="G32" t="s">
         <v>493</v>
       </c>
-      <c r="E32" t="s">
+      <c r="H32" t="s">
         <v>494</v>
       </c>
-      <c r="F32" t="s">
+      <c r="I32" t="s">
         <v>495</v>
       </c>
-      <c r="G32" t="s">
-        <v>496</v>
-      </c>
-      <c r="H32" t="s">
-        <v>497</v>
-      </c>
-      <c r="I32" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>135</v>
       </c>
@@ -4193,25 +4311,25 @@
         <v>121</v>
       </c>
       <c r="D33" t="s">
+        <v>496</v>
+      </c>
+      <c r="E33" t="s">
+        <v>497</v>
+      </c>
+      <c r="F33" t="s">
+        <v>498</v>
+      </c>
+      <c r="G33" t="s">
         <v>499</v>
       </c>
-      <c r="E33" t="s">
+      <c r="H33" t="s">
         <v>500</v>
       </c>
-      <c r="F33" t="s">
+      <c r="I33" t="s">
         <v>501</v>
       </c>
-      <c r="G33" t="s">
-        <v>502</v>
-      </c>
-      <c r="H33" t="s">
-        <v>503</v>
-      </c>
-      <c r="I33" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>111</v>
       </c>
@@ -4222,25 +4340,25 @@
         <v>123</v>
       </c>
       <c r="D34" t="s">
+        <v>502</v>
+      </c>
+      <c r="E34" t="s">
+        <v>503</v>
+      </c>
+      <c r="F34" t="s">
+        <v>504</v>
+      </c>
+      <c r="G34" t="s">
         <v>505</v>
       </c>
-      <c r="E34" t="s">
+      <c r="H34" t="s">
         <v>506</v>
       </c>
-      <c r="F34" t="s">
-        <v>507</v>
-      </c>
-      <c r="G34" t="s">
-        <v>508</v>
-      </c>
-      <c r="H34" t="s">
-        <v>509</v>
-      </c>
       <c r="I34" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>136</v>
       </c>
@@ -4251,25 +4369,25 @@
         <v>125</v>
       </c>
       <c r="D35" t="s">
+        <v>507</v>
+      </c>
+      <c r="E35" t="s">
+        <v>508</v>
+      </c>
+      <c r="F35" t="s">
+        <v>509</v>
+      </c>
+      <c r="G35" t="s">
         <v>510</v>
       </c>
-      <c r="E35" t="s">
+      <c r="H35" t="s">
         <v>511</v>
       </c>
-      <c r="F35" t="s">
+      <c r="I35" t="s">
         <v>512</v>
       </c>
-      <c r="G35" t="s">
-        <v>513</v>
-      </c>
-      <c r="H35" t="s">
-        <v>514</v>
-      </c>
-      <c r="I35" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>112</v>
       </c>
@@ -4280,25 +4398,25 @@
         <v>127</v>
       </c>
       <c r="D36" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E36" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F36" t="s">
         <v>126</v>
       </c>
       <c r="G36" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="H36" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="I36" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>137</v>
       </c>
@@ -4309,25 +4427,25 @@
         <v>129</v>
       </c>
       <c r="D37" t="s">
+        <v>518</v>
+      </c>
+      <c r="E37" t="s">
+        <v>519</v>
+      </c>
+      <c r="F37" t="s">
+        <v>520</v>
+      </c>
+      <c r="G37" t="s">
         <v>521</v>
       </c>
-      <c r="E37" t="s">
+      <c r="H37" t="s">
         <v>522</v>
       </c>
-      <c r="F37" t="s">
+      <c r="I37" t="s">
         <v>523</v>
       </c>
-      <c r="G37" t="s">
-        <v>524</v>
-      </c>
-      <c r="H37" t="s">
-        <v>525</v>
-      </c>
-      <c r="I37" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>113</v>
       </c>
@@ -4338,25 +4456,25 @@
         <v>131</v>
       </c>
       <c r="D38" t="s">
+        <v>524</v>
+      </c>
+      <c r="E38" t="s">
+        <v>525</v>
+      </c>
+      <c r="F38" t="s">
+        <v>526</v>
+      </c>
+      <c r="G38" t="s">
         <v>527</v>
       </c>
-      <c r="E38" t="s">
+      <c r="H38" t="s">
+        <v>527</v>
+      </c>
+      <c r="I38" t="s">
         <v>528</v>
       </c>
-      <c r="F38" t="s">
-        <v>529</v>
-      </c>
-      <c r="G38" t="s">
-        <v>530</v>
-      </c>
-      <c r="H38" t="s">
-        <v>530</v>
-      </c>
-      <c r="I38" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>138</v>
       </c>
@@ -4367,25 +4485,25 @@
         <v>133</v>
       </c>
       <c r="D39" t="s">
+        <v>529</v>
+      </c>
+      <c r="E39" t="s">
+        <v>530</v>
+      </c>
+      <c r="F39" t="s">
+        <v>531</v>
+      </c>
+      <c r="G39" t="s">
         <v>532</v>
       </c>
-      <c r="E39" t="s">
+      <c r="H39" t="s">
         <v>533</v>
       </c>
-      <c r="F39" t="s">
+      <c r="I39" t="s">
         <v>534</v>
       </c>
-      <c r="G39" t="s">
-        <v>535</v>
-      </c>
-      <c r="H39" t="s">
-        <v>536</v>
-      </c>
-      <c r="I39" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>139</v>
       </c>
@@ -4396,25 +4514,25 @@
         <v>141</v>
       </c>
       <c r="D40" t="s">
+        <v>535</v>
+      </c>
+      <c r="E40" t="s">
+        <v>536</v>
+      </c>
+      <c r="F40" t="s">
+        <v>537</v>
+      </c>
+      <c r="G40" t="s">
         <v>538</v>
       </c>
-      <c r="E40" t="s">
+      <c r="H40" t="s">
         <v>539</v>
       </c>
-      <c r="F40" t="s">
+      <c r="I40" t="s">
         <v>540</v>
       </c>
-      <c r="G40" t="s">
-        <v>541</v>
-      </c>
-      <c r="H40" t="s">
-        <v>542</v>
-      </c>
-      <c r="I40" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>142</v>
       </c>
@@ -4425,25 +4543,25 @@
         <v>144</v>
       </c>
       <c r="D41" t="s">
+        <v>541</v>
+      </c>
+      <c r="E41" t="s">
+        <v>542</v>
+      </c>
+      <c r="F41" t="s">
+        <v>543</v>
+      </c>
+      <c r="G41" t="s">
         <v>544</v>
       </c>
-      <c r="E41" t="s">
+      <c r="H41" t="s">
         <v>545</v>
       </c>
-      <c r="F41" t="s">
+      <c r="I41" t="s">
         <v>546</v>
       </c>
-      <c r="G41" t="s">
-        <v>547</v>
-      </c>
-      <c r="H41" t="s">
-        <v>548</v>
-      </c>
-      <c r="I41" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>145</v>
       </c>
@@ -4454,25 +4572,25 @@
         <v>147</v>
       </c>
       <c r="D42" t="s">
+        <v>547</v>
+      </c>
+      <c r="E42" t="s">
+        <v>548</v>
+      </c>
+      <c r="F42" t="s">
+        <v>549</v>
+      </c>
+      <c r="G42" t="s">
         <v>550</v>
       </c>
-      <c r="E42" t="s">
+      <c r="H42" t="s">
         <v>551</v>
       </c>
-      <c r="F42" t="s">
+      <c r="I42" t="s">
         <v>552</v>
       </c>
-      <c r="G42" t="s">
-        <v>553</v>
-      </c>
-      <c r="H42" t="s">
-        <v>554</v>
-      </c>
-      <c r="I42" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>148</v>
       </c>
@@ -4483,25 +4601,25 @@
         <v>159</v>
       </c>
       <c r="D43" t="s">
+        <v>553</v>
+      </c>
+      <c r="E43" t="s">
+        <v>554</v>
+      </c>
+      <c r="F43" t="s">
+        <v>555</v>
+      </c>
+      <c r="G43" t="s">
         <v>556</v>
       </c>
-      <c r="E43" t="s">
+      <c r="H43" t="s">
         <v>557</v>
       </c>
-      <c r="F43" t="s">
+      <c r="I43" t="s">
         <v>558</v>
       </c>
-      <c r="G43" t="s">
-        <v>559</v>
-      </c>
-      <c r="H43" t="s">
-        <v>560</v>
-      </c>
-      <c r="I43" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>150</v>
       </c>
@@ -4512,25 +4630,25 @@
         <v>153</v>
       </c>
       <c r="D44" t="s">
+        <v>559</v>
+      </c>
+      <c r="E44" t="s">
+        <v>560</v>
+      </c>
+      <c r="F44" t="s">
+        <v>561</v>
+      </c>
+      <c r="G44" t="s">
         <v>562</v>
       </c>
-      <c r="E44" t="s">
+      <c r="H44" t="s">
         <v>563</v>
       </c>
-      <c r="F44" t="s">
+      <c r="I44" t="s">
         <v>564</v>
       </c>
-      <c r="G44" t="s">
-        <v>565</v>
-      </c>
-      <c r="H44" t="s">
-        <v>566</v>
-      </c>
-      <c r="I44" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>151</v>
       </c>
@@ -4541,25 +4659,25 @@
         <v>154</v>
       </c>
       <c r="D45" t="s">
+        <v>565</v>
+      </c>
+      <c r="E45" t="s">
+        <v>566</v>
+      </c>
+      <c r="F45" t="s">
+        <v>567</v>
+      </c>
+      <c r="G45" t="s">
         <v>568</v>
       </c>
-      <c r="E45" t="s">
+      <c r="H45" t="s">
         <v>569</v>
       </c>
-      <c r="F45" t="s">
+      <c r="I45" t="s">
         <v>570</v>
       </c>
-      <c r="G45" t="s">
-        <v>571</v>
-      </c>
-      <c r="H45" t="s">
-        <v>572</v>
-      </c>
-      <c r="I45" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>156</v>
       </c>
@@ -4570,25 +4688,25 @@
         <v>158</v>
       </c>
       <c r="D46" t="s">
+        <v>571</v>
+      </c>
+      <c r="E46" t="s">
+        <v>572</v>
+      </c>
+      <c r="F46" t="s">
+        <v>573</v>
+      </c>
+      <c r="G46" t="s">
         <v>574</v>
       </c>
-      <c r="E46" t="s">
+      <c r="H46" t="s">
         <v>575</v>
       </c>
-      <c r="F46" t="s">
+      <c r="I46" t="s">
         <v>576</v>
       </c>
-      <c r="G46" t="s">
-        <v>577</v>
-      </c>
-      <c r="H46" t="s">
-        <v>578</v>
-      </c>
-      <c r="I46" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>160</v>
       </c>
@@ -4599,25 +4717,25 @@
         <v>162</v>
       </c>
       <c r="D47" t="s">
+        <v>577</v>
+      </c>
+      <c r="E47" t="s">
+        <v>578</v>
+      </c>
+      <c r="F47" t="s">
+        <v>579</v>
+      </c>
+      <c r="G47" t="s">
         <v>580</v>
       </c>
-      <c r="E47" t="s">
+      <c r="H47" t="s">
         <v>581</v>
       </c>
-      <c r="F47" t="s">
+      <c r="I47" t="s">
         <v>582</v>
       </c>
-      <c r="G47" t="s">
-        <v>583</v>
-      </c>
-      <c r="H47" t="s">
-        <v>584</v>
-      </c>
-      <c r="I47" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>164</v>
       </c>
@@ -4628,25 +4746,25 @@
         <v>165</v>
       </c>
       <c r="D48" t="s">
+        <v>583</v>
+      </c>
+      <c r="E48" t="s">
+        <v>584</v>
+      </c>
+      <c r="F48" t="s">
+        <v>585</v>
+      </c>
+      <c r="G48" t="s">
         <v>586</v>
       </c>
-      <c r="E48" t="s">
+      <c r="H48" t="s">
         <v>587</v>
       </c>
-      <c r="F48" t="s">
+      <c r="I48" t="s">
         <v>588</v>
       </c>
-      <c r="G48" t="s">
-        <v>589</v>
-      </c>
-      <c r="H48" t="s">
-        <v>590</v>
-      </c>
-      <c r="I48" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>166</v>
       </c>
@@ -4657,25 +4775,25 @@
         <v>168</v>
       </c>
       <c r="D49" t="s">
+        <v>589</v>
+      </c>
+      <c r="E49" t="s">
+        <v>590</v>
+      </c>
+      <c r="F49" t="s">
+        <v>591</v>
+      </c>
+      <c r="G49" t="s">
         <v>592</v>
       </c>
-      <c r="E49" t="s">
+      <c r="H49" t="s">
         <v>593</v>
       </c>
-      <c r="F49" t="s">
+      <c r="I49" t="s">
         <v>594</v>
       </c>
-      <c r="G49" t="s">
-        <v>595</v>
-      </c>
-      <c r="H49" t="s">
-        <v>596</v>
-      </c>
-      <c r="I49" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>169</v>
       </c>
@@ -4686,25 +4804,25 @@
         <v>171</v>
       </c>
       <c r="D50" t="s">
+        <v>595</v>
+      </c>
+      <c r="E50" t="s">
+        <v>596</v>
+      </c>
+      <c r="F50" t="s">
+        <v>597</v>
+      </c>
+      <c r="G50" t="s">
         <v>598</v>
       </c>
-      <c r="E50" t="s">
+      <c r="H50" t="s">
         <v>599</v>
       </c>
-      <c r="F50" t="s">
+      <c r="I50" t="s">
         <v>600</v>
       </c>
-      <c r="G50" t="s">
-        <v>601</v>
-      </c>
-      <c r="H50" t="s">
-        <v>602</v>
-      </c>
-      <c r="I50" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>172</v>
       </c>
@@ -4715,25 +4833,25 @@
         <v>176</v>
       </c>
       <c r="D51" t="s">
+        <v>601</v>
+      </c>
+      <c r="E51" t="s">
+        <v>602</v>
+      </c>
+      <c r="F51" t="s">
+        <v>603</v>
+      </c>
+      <c r="G51" t="s">
         <v>604</v>
       </c>
-      <c r="E51" t="s">
+      <c r="H51" t="s">
         <v>605</v>
       </c>
-      <c r="F51" t="s">
+      <c r="I51" t="s">
         <v>606</v>
       </c>
-      <c r="G51" t="s">
-        <v>607</v>
-      </c>
-      <c r="H51" t="s">
-        <v>608</v>
-      </c>
-      <c r="I51" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>173</v>
       </c>
@@ -4744,25 +4862,25 @@
         <v>177</v>
       </c>
       <c r="D52" t="s">
+        <v>607</v>
+      </c>
+      <c r="E52" t="s">
+        <v>608</v>
+      </c>
+      <c r="F52" t="s">
+        <v>609</v>
+      </c>
+      <c r="G52" t="s">
         <v>610</v>
       </c>
-      <c r="E52" t="s">
+      <c r="H52" t="s">
         <v>611</v>
       </c>
-      <c r="F52" t="s">
+      <c r="I52" t="s">
         <v>612</v>
       </c>
-      <c r="G52" t="s">
-        <v>613</v>
-      </c>
-      <c r="H52" t="s">
-        <v>614</v>
-      </c>
-      <c r="I52" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>178</v>
       </c>
@@ -4773,25 +4891,25 @@
         <v>181</v>
       </c>
       <c r="D53" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E53" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="F53" t="s">
         <v>180</v>
       </c>
       <c r="G53" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="H53" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="I53" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>179</v>
       </c>
@@ -4802,25 +4920,25 @@
         <v>182</v>
       </c>
       <c r="D54" t="s">
+        <v>618</v>
+      </c>
+      <c r="E54" t="s">
+        <v>619</v>
+      </c>
+      <c r="F54" t="s">
+        <v>620</v>
+      </c>
+      <c r="G54" t="s">
         <v>621</v>
       </c>
-      <c r="E54" t="s">
+      <c r="H54" t="s">
         <v>622</v>
       </c>
-      <c r="F54" t="s">
+      <c r="I54" t="s">
         <v>623</v>
       </c>
-      <c r="G54" t="s">
-        <v>624</v>
-      </c>
-      <c r="H54" t="s">
-        <v>625</v>
-      </c>
-      <c r="I54" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>187</v>
       </c>
@@ -4831,25 +4949,25 @@
         <v>185</v>
       </c>
       <c r="D55" t="s">
+        <v>624</v>
+      </c>
+      <c r="E55" t="s">
+        <v>625</v>
+      </c>
+      <c r="F55" t="s">
+        <v>626</v>
+      </c>
+      <c r="G55" t="s">
         <v>627</v>
       </c>
-      <c r="E55" t="s">
+      <c r="H55" t="s">
         <v>628</v>
       </c>
-      <c r="F55" t="s">
+      <c r="I55" t="s">
         <v>629</v>
       </c>
-      <c r="G55" t="s">
-        <v>630</v>
-      </c>
-      <c r="H55" t="s">
-        <v>631</v>
-      </c>
-      <c r="I55" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>184</v>
       </c>
@@ -4860,25 +4978,25 @@
         <v>191</v>
       </c>
       <c r="D56" t="s">
+        <v>630</v>
+      </c>
+      <c r="E56" t="s">
+        <v>631</v>
+      </c>
+      <c r="F56" t="s">
+        <v>632</v>
+      </c>
+      <c r="G56" t="s">
         <v>633</v>
       </c>
-      <c r="E56" t="s">
+      <c r="H56" t="s">
         <v>634</v>
       </c>
-      <c r="F56" t="s">
+      <c r="I56" t="s">
         <v>635</v>
       </c>
-      <c r="G56" t="s">
-        <v>636</v>
-      </c>
-      <c r="H56" t="s">
-        <v>637</v>
-      </c>
-      <c r="I56" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>188</v>
       </c>
@@ -4889,25 +5007,25 @@
         <v>192</v>
       </c>
       <c r="D57" t="s">
+        <v>636</v>
+      </c>
+      <c r="E57" t="s">
+        <v>637</v>
+      </c>
+      <c r="F57" t="s">
+        <v>638</v>
+      </c>
+      <c r="G57" t="s">
         <v>639</v>
       </c>
-      <c r="E57" t="s">
+      <c r="H57" t="s">
         <v>640</v>
       </c>
-      <c r="F57" t="s">
+      <c r="I57" t="s">
         <v>641</v>
       </c>
-      <c r="G57" t="s">
-        <v>642</v>
-      </c>
-      <c r="H57" t="s">
-        <v>643</v>
-      </c>
-      <c r="I57" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>193</v>
       </c>
@@ -4918,25 +5036,25 @@
         <v>193</v>
       </c>
       <c r="D58" t="s">
+        <v>642</v>
+      </c>
+      <c r="E58" t="s">
+        <v>642</v>
+      </c>
+      <c r="F58" t="s">
+        <v>643</v>
+      </c>
+      <c r="G58" t="s">
+        <v>644</v>
+      </c>
+      <c r="H58" t="s">
         <v>645</v>
       </c>
-      <c r="E58" t="s">
-        <v>645</v>
-      </c>
-      <c r="F58" t="s">
+      <c r="I58" t="s">
         <v>646</v>
       </c>
-      <c r="G58" t="s">
-        <v>647</v>
-      </c>
-      <c r="H58" t="s">
-        <v>648</v>
-      </c>
-      <c r="I58" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>194</v>
       </c>
@@ -4947,25 +5065,25 @@
         <v>195</v>
       </c>
       <c r="D59" t="s">
+        <v>647</v>
+      </c>
+      <c r="E59" t="s">
+        <v>648</v>
+      </c>
+      <c r="F59" t="s">
+        <v>649</v>
+      </c>
+      <c r="G59" t="s">
         <v>650</v>
       </c>
-      <c r="E59" t="s">
+      <c r="H59" t="s">
         <v>651</v>
       </c>
-      <c r="F59" t="s">
+      <c r="I59" t="s">
         <v>652</v>
       </c>
-      <c r="G59" t="s">
-        <v>653</v>
-      </c>
-      <c r="H59" t="s">
-        <v>654</v>
-      </c>
-      <c r="I59" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>196</v>
       </c>
@@ -4976,25 +5094,25 @@
         <v>199</v>
       </c>
       <c r="D60" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="E60" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="F60" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="G60" t="s">
         <v>198</v>
       </c>
       <c r="H60" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="I60" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>200</v>
       </c>
@@ -5005,25 +5123,25 @@
         <v>208</v>
       </c>
       <c r="D61" t="s">
+        <v>658</v>
+      </c>
+      <c r="E61" t="s">
+        <v>659</v>
+      </c>
+      <c r="F61" t="s">
+        <v>660</v>
+      </c>
+      <c r="G61" t="s">
         <v>661</v>
       </c>
-      <c r="E61" t="s">
+      <c r="H61" t="s">
         <v>662</v>
       </c>
-      <c r="F61" t="s">
+      <c r="I61" t="s">
         <v>663</v>
       </c>
-      <c r="G61" t="s">
-        <v>664</v>
-      </c>
-      <c r="H61" t="s">
-        <v>665</v>
-      </c>
-      <c r="I61" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>201</v>
       </c>
@@ -5034,25 +5152,25 @@
         <v>204</v>
       </c>
       <c r="D62" t="s">
+        <v>664</v>
+      </c>
+      <c r="E62" t="s">
+        <v>665</v>
+      </c>
+      <c r="F62" t="s">
+        <v>666</v>
+      </c>
+      <c r="G62" t="s">
         <v>667</v>
       </c>
-      <c r="E62" t="s">
+      <c r="H62" t="s">
         <v>668</v>
       </c>
-      <c r="F62" t="s">
+      <c r="I62" t="s">
         <v>669</v>
       </c>
-      <c r="G62" t="s">
-        <v>670</v>
-      </c>
-      <c r="H62" t="s">
-        <v>671</v>
-      </c>
-      <c r="I62" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>205</v>
       </c>
@@ -5063,25 +5181,25 @@
         <v>207</v>
       </c>
       <c r="D63" t="s">
+        <v>670</v>
+      </c>
+      <c r="E63" t="s">
+        <v>671</v>
+      </c>
+      <c r="F63" t="s">
+        <v>672</v>
+      </c>
+      <c r="G63" t="s">
         <v>673</v>
       </c>
-      <c r="E63" t="s">
+      <c r="H63" t="s">
         <v>674</v>
       </c>
-      <c r="F63" t="s">
+      <c r="I63" t="s">
         <v>675</v>
       </c>
-      <c r="G63" t="s">
-        <v>676</v>
-      </c>
-      <c r="H63" t="s">
-        <v>677</v>
-      </c>
-      <c r="I63" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>209</v>
       </c>
@@ -5092,25 +5210,25 @@
         <v>211</v>
       </c>
       <c r="D64" t="s">
+        <v>676</v>
+      </c>
+      <c r="E64" t="s">
+        <v>677</v>
+      </c>
+      <c r="F64" t="s">
+        <v>678</v>
+      </c>
+      <c r="G64" t="s">
         <v>679</v>
       </c>
-      <c r="E64" t="s">
+      <c r="H64" t="s">
         <v>680</v>
       </c>
-      <c r="F64" t="s">
+      <c r="I64" t="s">
         <v>681</v>
       </c>
-      <c r="G64" t="s">
-        <v>682</v>
-      </c>
-      <c r="H64" t="s">
-        <v>683</v>
-      </c>
-      <c r="I64" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>212</v>
       </c>
@@ -5121,25 +5239,25 @@
         <v>213</v>
       </c>
       <c r="D65" t="s">
+        <v>682</v>
+      </c>
+      <c r="E65" t="s">
+        <v>683</v>
+      </c>
+      <c r="F65" t="s">
+        <v>684</v>
+      </c>
+      <c r="G65" t="s">
         <v>685</v>
       </c>
-      <c r="E65" t="s">
+      <c r="H65" t="s">
         <v>686</v>
       </c>
-      <c r="F65" t="s">
+      <c r="I65" t="s">
         <v>687</v>
       </c>
-      <c r="G65" t="s">
-        <v>688</v>
-      </c>
-      <c r="H65" t="s">
-        <v>689</v>
-      </c>
-      <c r="I65" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>215</v>
       </c>
@@ -5150,25 +5268,25 @@
         <v>217</v>
       </c>
       <c r="D66" t="s">
+        <v>688</v>
+      </c>
+      <c r="E66" t="s">
+        <v>689</v>
+      </c>
+      <c r="F66" t="s">
+        <v>690</v>
+      </c>
+      <c r="G66" t="s">
         <v>691</v>
       </c>
-      <c r="E66" t="s">
+      <c r="H66" t="s">
         <v>692</v>
       </c>
-      <c r="F66" t="s">
+      <c r="I66" t="s">
         <v>693</v>
       </c>
-      <c r="G66" t="s">
-        <v>694</v>
-      </c>
-      <c r="H66" t="s">
-        <v>695</v>
-      </c>
-      <c r="I66" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>218</v>
       </c>
@@ -5179,25 +5297,25 @@
         <v>241</v>
       </c>
       <c r="D67" t="s">
+        <v>694</v>
+      </c>
+      <c r="E67" t="s">
+        <v>695</v>
+      </c>
+      <c r="F67" t="s">
+        <v>696</v>
+      </c>
+      <c r="G67" t="s">
         <v>697</v>
       </c>
-      <c r="E67" t="s">
+      <c r="H67" t="s">
         <v>698</v>
       </c>
-      <c r="F67" t="s">
+      <c r="I67" t="s">
         <v>699</v>
       </c>
-      <c r="G67" t="s">
-        <v>700</v>
-      </c>
-      <c r="H67" t="s">
-        <v>701</v>
-      </c>
-      <c r="I67" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>219</v>
       </c>
@@ -5208,25 +5326,25 @@
         <v>244</v>
       </c>
       <c r="D68" t="s">
+        <v>700</v>
+      </c>
+      <c r="E68" t="s">
+        <v>701</v>
+      </c>
+      <c r="F68" t="s">
+        <v>702</v>
+      </c>
+      <c r="G68" t="s">
         <v>703</v>
       </c>
-      <c r="E68" t="s">
+      <c r="H68" t="s">
         <v>704</v>
       </c>
-      <c r="F68" t="s">
+      <c r="I68" t="s">
         <v>705</v>
       </c>
-      <c r="G68" t="s">
-        <v>706</v>
-      </c>
-      <c r="H68" t="s">
-        <v>707</v>
-      </c>
-      <c r="I68" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>222</v>
       </c>
@@ -5237,25 +5355,25 @@
         <v>223</v>
       </c>
       <c r="D69" t="s">
+        <v>706</v>
+      </c>
+      <c r="E69" t="s">
+        <v>707</v>
+      </c>
+      <c r="F69" t="s">
+        <v>708</v>
+      </c>
+      <c r="G69" t="s">
         <v>709</v>
       </c>
-      <c r="E69" t="s">
+      <c r="H69" t="s">
         <v>710</v>
       </c>
-      <c r="F69" t="s">
+      <c r="I69" t="s">
         <v>711</v>
       </c>
-      <c r="G69" t="s">
-        <v>712</v>
-      </c>
-      <c r="H69" t="s">
-        <v>713</v>
-      </c>
-      <c r="I69" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>228</v>
       </c>
@@ -5266,25 +5384,25 @@
         <v>226</v>
       </c>
       <c r="D70" t="s">
+        <v>712</v>
+      </c>
+      <c r="E70" t="s">
+        <v>713</v>
+      </c>
+      <c r="F70" t="s">
+        <v>714</v>
+      </c>
+      <c r="G70" t="s">
         <v>715</v>
       </c>
-      <c r="E70" t="s">
+      <c r="H70" t="s">
         <v>716</v>
       </c>
-      <c r="F70" t="s">
+      <c r="I70" t="s">
         <v>717</v>
       </c>
-      <c r="G70" t="s">
-        <v>718</v>
-      </c>
-      <c r="H70" t="s">
-        <v>719</v>
-      </c>
-      <c r="I70" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>225</v>
       </c>
@@ -5295,25 +5413,25 @@
         <v>227</v>
       </c>
       <c r="D71" t="s">
+        <v>718</v>
+      </c>
+      <c r="E71" t="s">
+        <v>719</v>
+      </c>
+      <c r="F71" t="s">
+        <v>720</v>
+      </c>
+      <c r="G71" t="s">
         <v>721</v>
       </c>
-      <c r="E71" t="s">
+      <c r="H71" t="s">
         <v>722</v>
       </c>
-      <c r="F71" t="s">
+      <c r="I71" t="s">
         <v>723</v>
       </c>
-      <c r="G71" t="s">
-        <v>724</v>
-      </c>
-      <c r="H71" t="s">
-        <v>725</v>
-      </c>
-      <c r="I71" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>229</v>
       </c>
@@ -5324,25 +5442,25 @@
         <v>231</v>
       </c>
       <c r="D72" t="s">
+        <v>724</v>
+      </c>
+      <c r="E72" t="s">
+        <v>725</v>
+      </c>
+      <c r="F72" t="s">
+        <v>726</v>
+      </c>
+      <c r="G72" t="s">
         <v>727</v>
       </c>
-      <c r="E72" t="s">
+      <c r="H72" t="s">
         <v>728</v>
       </c>
-      <c r="F72" t="s">
+      <c r="I72" t="s">
         <v>729</v>
       </c>
-      <c r="G72" t="s">
-        <v>730</v>
-      </c>
-      <c r="H72" t="s">
-        <v>731</v>
-      </c>
-      <c r="I72" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>232</v>
       </c>
@@ -5353,25 +5471,25 @@
         <v>236</v>
       </c>
       <c r="D73" t="s">
+        <v>730</v>
+      </c>
+      <c r="E73" t="s">
+        <v>731</v>
+      </c>
+      <c r="F73" t="s">
+        <v>732</v>
+      </c>
+      <c r="G73" t="s">
         <v>733</v>
       </c>
-      <c r="E73" t="s">
+      <c r="H73" t="s">
         <v>734</v>
       </c>
-      <c r="F73" t="s">
+      <c r="I73" t="s">
         <v>735</v>
       </c>
-      <c r="G73" t="s">
-        <v>736</v>
-      </c>
-      <c r="H73" t="s">
-        <v>737</v>
-      </c>
-      <c r="I73" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>234</v>
       </c>
@@ -5382,25 +5500,25 @@
         <v>237</v>
       </c>
       <c r="D74" t="s">
+        <v>736</v>
+      </c>
+      <c r="E74" t="s">
+        <v>737</v>
+      </c>
+      <c r="F74" t="s">
+        <v>738</v>
+      </c>
+      <c r="G74" t="s">
         <v>739</v>
       </c>
-      <c r="E74" t="s">
+      <c r="H74" t="s">
         <v>740</v>
       </c>
-      <c r="F74" t="s">
+      <c r="I74" t="s">
         <v>741</v>
       </c>
-      <c r="G74" t="s">
-        <v>742</v>
-      </c>
-      <c r="H74" t="s">
-        <v>743</v>
-      </c>
-      <c r="I74" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>238</v>
       </c>
@@ -5411,25 +5529,25 @@
         <v>240</v>
       </c>
       <c r="D75" t="s">
+        <v>742</v>
+      </c>
+      <c r="E75" t="s">
+        <v>743</v>
+      </c>
+      <c r="F75" t="s">
+        <v>744</v>
+      </c>
+      <c r="G75" t="s">
         <v>745</v>
       </c>
-      <c r="E75" t="s">
+      <c r="H75" t="s">
         <v>746</v>
       </c>
-      <c r="F75" t="s">
+      <c r="I75" t="s">
         <v>747</v>
       </c>
-      <c r="G75" t="s">
-        <v>748</v>
-      </c>
-      <c r="H75" t="s">
-        <v>749</v>
-      </c>
-      <c r="I75" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>245</v>
       </c>
@@ -5440,25 +5558,25 @@
         <v>247</v>
       </c>
       <c r="D76" t="s">
+        <v>748</v>
+      </c>
+      <c r="E76" t="s">
+        <v>749</v>
+      </c>
+      <c r="F76" t="s">
+        <v>750</v>
+      </c>
+      <c r="G76" t="s">
         <v>751</v>
       </c>
-      <c r="E76" t="s">
+      <c r="H76" t="s">
         <v>752</v>
       </c>
-      <c r="F76" t="s">
+      <c r="I76" t="s">
         <v>753</v>
       </c>
-      <c r="G76" t="s">
-        <v>754</v>
-      </c>
-      <c r="H76" t="s">
-        <v>755</v>
-      </c>
-      <c r="I76" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>250</v>
       </c>
@@ -5469,25 +5587,25 @@
         <v>252</v>
       </c>
       <c r="D77" t="s">
+        <v>754</v>
+      </c>
+      <c r="E77" t="s">
+        <v>755</v>
+      </c>
+      <c r="F77" t="s">
+        <v>756</v>
+      </c>
+      <c r="G77" t="s">
         <v>757</v>
       </c>
-      <c r="E77" t="s">
+      <c r="H77" t="s">
         <v>758</v>
       </c>
-      <c r="F77" t="s">
+      <c r="I77" t="s">
         <v>759</v>
       </c>
-      <c r="G77" t="s">
-        <v>760</v>
-      </c>
-      <c r="H77" t="s">
-        <v>761</v>
-      </c>
-      <c r="I77" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>251</v>
       </c>
@@ -5498,979 +5616,1385 @@
         <v>253</v>
       </c>
       <c r="D78" t="s">
+        <v>760</v>
+      </c>
+      <c r="E78" t="s">
+        <v>761</v>
+      </c>
+      <c r="F78" t="s">
+        <v>762</v>
+      </c>
+      <c r="G78" t="s">
         <v>763</v>
       </c>
-      <c r="E78" t="s">
+      <c r="H78" t="s">
         <v>764</v>
       </c>
-      <c r="F78" t="s">
+      <c r="I78" t="s">
         <v>765</v>
       </c>
-      <c r="G78" t="s">
-        <v>766</v>
-      </c>
-      <c r="H78" t="s">
-        <v>767</v>
-      </c>
-      <c r="I78" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>254</v>
       </c>
       <c r="B79" t="s">
+        <v>964</v>
+      </c>
+      <c r="C79" t="s">
+        <v>962</v>
+      </c>
+      <c r="D79" t="s">
+        <v>766</v>
+      </c>
+      <c r="E79" t="s">
+        <v>767</v>
+      </c>
+      <c r="F79" t="s">
+        <v>768</v>
+      </c>
+      <c r="G79" t="s">
+        <v>769</v>
+      </c>
+      <c r="H79" t="s">
+        <v>770</v>
+      </c>
+      <c r="I79" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>256</v>
+      </c>
+      <c r="B80" t="s">
+        <v>261</v>
+      </c>
+      <c r="C80" t="s">
+        <v>264</v>
+      </c>
+      <c r="D80" t="s">
+        <v>772</v>
+      </c>
+      <c r="E80" t="s">
+        <v>773</v>
+      </c>
+      <c r="F80" t="s">
+        <v>774</v>
+      </c>
+      <c r="G80" t="s">
+        <v>775</v>
+      </c>
+      <c r="H80" t="s">
+        <v>776</v>
+      </c>
+      <c r="I80" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>271</v>
+      </c>
+      <c r="B81" t="s">
+        <v>965</v>
+      </c>
+      <c r="C81" t="s">
+        <v>963</v>
+      </c>
+      <c r="D81" t="s">
+        <v>778</v>
+      </c>
+      <c r="E81" t="s">
+        <v>779</v>
+      </c>
+      <c r="F81" t="s">
+        <v>780</v>
+      </c>
+      <c r="G81" t="s">
+        <v>781</v>
+      </c>
+      <c r="H81" t="s">
+        <v>782</v>
+      </c>
+      <c r="I81" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>269</v>
+      </c>
+      <c r="B82" t="s">
+        <v>262</v>
+      </c>
+      <c r="C82" t="s">
+        <v>265</v>
+      </c>
+      <c r="D82" t="s">
+        <v>784</v>
+      </c>
+      <c r="E82" t="s">
+        <v>785</v>
+      </c>
+      <c r="F82" t="s">
+        <v>786</v>
+      </c>
+      <c r="G82" t="s">
+        <v>787</v>
+      </c>
+      <c r="H82" t="s">
+        <v>788</v>
+      </c>
+      <c r="I82" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>270</v>
+      </c>
+      <c r="B83" t="s">
+        <v>263</v>
+      </c>
+      <c r="C83" t="s">
+        <v>266</v>
+      </c>
+      <c r="D83" t="s">
+        <v>790</v>
+      </c>
+      <c r="E83" t="s">
+        <v>791</v>
+      </c>
+      <c r="F83" t="s">
+        <v>792</v>
+      </c>
+      <c r="G83" t="s">
+        <v>793</v>
+      </c>
+      <c r="H83" t="s">
+        <v>794</v>
+      </c>
+      <c r="I83" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>257</v>
+      </c>
+      <c r="B84" t="s">
+        <v>259</v>
+      </c>
+      <c r="C84" t="s">
+        <v>268</v>
+      </c>
+      <c r="D84" t="s">
+        <v>796</v>
+      </c>
+      <c r="E84" t="s">
+        <v>797</v>
+      </c>
+      <c r="F84" t="s">
+        <v>798</v>
+      </c>
+      <c r="G84" t="s">
+        <v>799</v>
+      </c>
+      <c r="H84" t="s">
+        <v>800</v>
+      </c>
+      <c r="I84" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>258</v>
+      </c>
+      <c r="B85" t="s">
+        <v>260</v>
+      </c>
+      <c r="C85" t="s">
+        <v>267</v>
+      </c>
+      <c r="D85" t="s">
+        <v>802</v>
+      </c>
+      <c r="E85" t="s">
+        <v>803</v>
+      </c>
+      <c r="F85" t="s">
+        <v>804</v>
+      </c>
+      <c r="G85" t="s">
+        <v>805</v>
+      </c>
+      <c r="H85" t="s">
+        <v>804</v>
+      </c>
+      <c r="I85" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>272</v>
+      </c>
+      <c r="B86" t="s">
+        <v>274</v>
+      </c>
+      <c r="C86" t="s">
+        <v>273</v>
+      </c>
+      <c r="D86" t="s">
+        <v>807</v>
+      </c>
+      <c r="E86" t="s">
+        <v>808</v>
+      </c>
+      <c r="F86" t="s">
+        <v>809</v>
+      </c>
+      <c r="G86" t="s">
+        <v>810</v>
+      </c>
+      <c r="H86" t="s">
+        <v>811</v>
+      </c>
+      <c r="I86" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>275</v>
+      </c>
+      <c r="B87" t="s">
+        <v>276</v>
+      </c>
+      <c r="C87" t="s">
+        <v>277</v>
+      </c>
+      <c r="D87" t="s">
+        <v>813</v>
+      </c>
+      <c r="E87" t="s">
+        <v>814</v>
+      </c>
+      <c r="F87" t="s">
+        <v>815</v>
+      </c>
+      <c r="G87" t="s">
+        <v>816</v>
+      </c>
+      <c r="H87" t="s">
+        <v>817</v>
+      </c>
+      <c r="I87" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>278</v>
+      </c>
+      <c r="B88" t="s">
+        <v>279</v>
+      </c>
+      <c r="C88" t="s">
+        <v>280</v>
+      </c>
+      <c r="D88" t="s">
+        <v>819</v>
+      </c>
+      <c r="E88" t="s">
+        <v>820</v>
+      </c>
+      <c r="F88" t="s">
+        <v>821</v>
+      </c>
+      <c r="G88" t="s">
+        <v>822</v>
+      </c>
+      <c r="H88" t="s">
+        <v>823</v>
+      </c>
+      <c r="I88" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>281</v>
+      </c>
+      <c r="B89" t="s">
+        <v>291</v>
+      </c>
+      <c r="C89" t="s">
+        <v>293</v>
+      </c>
+      <c r="D89" t="s">
+        <v>825</v>
+      </c>
+      <c r="E89" t="s">
+        <v>826</v>
+      </c>
+      <c r="F89" t="s">
+        <v>827</v>
+      </c>
+      <c r="G89" t="s">
+        <v>828</v>
+      </c>
+      <c r="H89" t="s">
+        <v>829</v>
+      </c>
+      <c r="I89" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>282</v>
+      </c>
+      <c r="B90" t="s">
+        <v>292</v>
+      </c>
+      <c r="C90" t="s">
+        <v>294</v>
+      </c>
+      <c r="D90" t="s">
+        <v>831</v>
+      </c>
+      <c r="E90" t="s">
+        <v>832</v>
+      </c>
+      <c r="F90" t="s">
+        <v>833</v>
+      </c>
+      <c r="G90" t="s">
+        <v>834</v>
+      </c>
+      <c r="H90" t="s">
+        <v>835</v>
+      </c>
+      <c r="I90" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>283</v>
+      </c>
+      <c r="B91" t="s">
+        <v>287</v>
+      </c>
+      <c r="C91" t="s">
+        <v>295</v>
+      </c>
+      <c r="D91" t="s">
+        <v>837</v>
+      </c>
+      <c r="E91" t="s">
+        <v>838</v>
+      </c>
+      <c r="F91" t="s">
+        <v>839</v>
+      </c>
+      <c r="G91" t="s">
+        <v>840</v>
+      </c>
+      <c r="H91" t="s">
+        <v>841</v>
+      </c>
+      <c r="I91" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>284</v>
+      </c>
+      <c r="B92" t="s">
+        <v>288</v>
+      </c>
+      <c r="C92" t="s">
+        <v>296</v>
+      </c>
+      <c r="D92" t="s">
+        <v>843</v>
+      </c>
+      <c r="E92" t="s">
+        <v>844</v>
+      </c>
+      <c r="F92" t="s">
+        <v>845</v>
+      </c>
+      <c r="G92" t="s">
+        <v>846</v>
+      </c>
+      <c r="H92" t="s">
+        <v>847</v>
+      </c>
+      <c r="I92" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>285</v>
+      </c>
+      <c r="B93" t="s">
+        <v>289</v>
+      </c>
+      <c r="C93" t="s">
+        <v>297</v>
+      </c>
+      <c r="D93" t="s">
+        <v>849</v>
+      </c>
+      <c r="E93" t="s">
+        <v>850</v>
+      </c>
+      <c r="F93" t="s">
+        <v>851</v>
+      </c>
+      <c r="G93" t="s">
+        <v>852</v>
+      </c>
+      <c r="H93" t="s">
+        <v>853</v>
+      </c>
+      <c r="I93" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>286</v>
+      </c>
+      <c r="B94" t="s">
+        <v>290</v>
+      </c>
+      <c r="C94" t="s">
+        <v>298</v>
+      </c>
+      <c r="D94" t="s">
+        <v>855</v>
+      </c>
+      <c r="E94" t="s">
+        <v>856</v>
+      </c>
+      <c r="F94" t="s">
+        <v>857</v>
+      </c>
+      <c r="G94" t="s">
+        <v>858</v>
+      </c>
+      <c r="H94" t="s">
+        <v>859</v>
+      </c>
+      <c r="I94" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>299</v>
+      </c>
+      <c r="B95" t="s">
+        <v>305</v>
+      </c>
+      <c r="C95" t="s">
+        <v>311</v>
+      </c>
+      <c r="D95" t="s">
+        <v>861</v>
+      </c>
+      <c r="E95" t="s">
+        <v>862</v>
+      </c>
+      <c r="F95" t="s">
+        <v>863</v>
+      </c>
+      <c r="G95" t="s">
+        <v>864</v>
+      </c>
+      <c r="H95" t="s">
+        <v>865</v>
+      </c>
+      <c r="I95" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>300</v>
+      </c>
+      <c r="B96" t="s">
+        <v>306</v>
+      </c>
+      <c r="C96" t="s">
+        <v>312</v>
+      </c>
+      <c r="D96" t="s">
+        <v>867</v>
+      </c>
+      <c r="E96" t="s">
+        <v>868</v>
+      </c>
+      <c r="F96" t="s">
+        <v>869</v>
+      </c>
+      <c r="G96" t="s">
+        <v>870</v>
+      </c>
+      <c r="H96" t="s">
+        <v>871</v>
+      </c>
+      <c r="I96" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>301</v>
+      </c>
+      <c r="B97" t="s">
+        <v>307</v>
+      </c>
+      <c r="C97" t="s">
+        <v>313</v>
+      </c>
+      <c r="D97" t="s">
+        <v>873</v>
+      </c>
+      <c r="E97" t="s">
+        <v>874</v>
+      </c>
+      <c r="F97" t="s">
+        <v>875</v>
+      </c>
+      <c r="G97" t="s">
+        <v>876</v>
+      </c>
+      <c r="H97" t="s">
+        <v>877</v>
+      </c>
+      <c r="I97" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>302</v>
+      </c>
+      <c r="B98" t="s">
+        <v>308</v>
+      </c>
+      <c r="C98" t="s">
+        <v>314</v>
+      </c>
+      <c r="D98" t="s">
+        <v>879</v>
+      </c>
+      <c r="E98" t="s">
+        <v>880</v>
+      </c>
+      <c r="F98" t="s">
+        <v>881</v>
+      </c>
+      <c r="G98" t="s">
+        <v>882</v>
+      </c>
+      <c r="H98" t="s">
+        <v>883</v>
+      </c>
+      <c r="I98" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>303</v>
+      </c>
+      <c r="B99" t="s">
+        <v>309</v>
+      </c>
+      <c r="C99" t="s">
+        <v>315</v>
+      </c>
+      <c r="D99" t="s">
+        <v>885</v>
+      </c>
+      <c r="E99" t="s">
+        <v>886</v>
+      </c>
+      <c r="F99" t="s">
+        <v>887</v>
+      </c>
+      <c r="G99" t="s">
+        <v>888</v>
+      </c>
+      <c r="H99" t="s">
+        <v>889</v>
+      </c>
+      <c r="I99" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>304</v>
+      </c>
+      <c r="B100" t="s">
+        <v>310</v>
+      </c>
+      <c r="C100" t="s">
+        <v>316</v>
+      </c>
+      <c r="D100" t="s">
+        <v>891</v>
+      </c>
+      <c r="E100" t="s">
+        <v>892</v>
+      </c>
+      <c r="F100" t="s">
+        <v>893</v>
+      </c>
+      <c r="G100" t="s">
+        <v>894</v>
+      </c>
+      <c r="H100" t="s">
+        <v>895</v>
+      </c>
+      <c r="I100" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>317</v>
+      </c>
+      <c r="B101" t="s">
+        <v>319</v>
+      </c>
+      <c r="C101" t="s">
+        <v>321</v>
+      </c>
+      <c r="D101" t="s">
+        <v>897</v>
+      </c>
+      <c r="E101" t="s">
+        <v>898</v>
+      </c>
+      <c r="F101" t="s">
+        <v>899</v>
+      </c>
+      <c r="G101" t="s">
+        <v>900</v>
+      </c>
+      <c r="H101" t="s">
+        <v>901</v>
+      </c>
+      <c r="I101" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>318</v>
+      </c>
+      <c r="B102" t="s">
+        <v>320</v>
+      </c>
+      <c r="C102" t="s">
+        <v>322</v>
+      </c>
+      <c r="D102" t="s">
+        <v>903</v>
+      </c>
+      <c r="E102" t="s">
+        <v>904</v>
+      </c>
+      <c r="F102" t="s">
+        <v>905</v>
+      </c>
+      <c r="G102" t="s">
+        <v>906</v>
+      </c>
+      <c r="H102" t="s">
+        <v>907</v>
+      </c>
+      <c r="I102" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>323</v>
+      </c>
+      <c r="B103" t="s">
+        <v>324</v>
+      </c>
+      <c r="C103" t="s">
+        <v>325</v>
+      </c>
+      <c r="D103" t="s">
+        <v>909</v>
+      </c>
+      <c r="E103" t="s">
+        <v>910</v>
+      </c>
+      <c r="F103" t="s">
+        <v>911</v>
+      </c>
+      <c r="G103" t="s">
+        <v>912</v>
+      </c>
+      <c r="H103" t="s">
+        <v>913</v>
+      </c>
+      <c r="I103" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>326</v>
+      </c>
+      <c r="B104" t="s">
+        <v>331</v>
+      </c>
+      <c r="C104" t="s">
+        <v>333</v>
+      </c>
+      <c r="D104" t="s">
+        <v>915</v>
+      </c>
+      <c r="E104" t="s">
+        <v>916</v>
+      </c>
+      <c r="F104" t="s">
+        <v>917</v>
+      </c>
+      <c r="G104" t="s">
+        <v>918</v>
+      </c>
+      <c r="H104" t="s">
+        <v>919</v>
+      </c>
+      <c r="I104" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>327</v>
+      </c>
+      <c r="B105" t="s">
+        <v>262</v>
+      </c>
+      <c r="C105" t="s">
+        <v>265</v>
+      </c>
+      <c r="D105" t="s">
+        <v>784</v>
+      </c>
+      <c r="E105" t="s">
+        <v>785</v>
+      </c>
+      <c r="F105" t="s">
+        <v>786</v>
+      </c>
+      <c r="G105" t="s">
+        <v>787</v>
+      </c>
+      <c r="H105" t="s">
+        <v>788</v>
+      </c>
+      <c r="I105" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>328</v>
+      </c>
+      <c r="B106" t="s">
+        <v>263</v>
+      </c>
+      <c r="C106" t="s">
+        <v>266</v>
+      </c>
+      <c r="D106" t="s">
+        <v>790</v>
+      </c>
+      <c r="E106" t="s">
+        <v>791</v>
+      </c>
+      <c r="F106" t="s">
+        <v>792</v>
+      </c>
+      <c r="G106" t="s">
+        <v>793</v>
+      </c>
+      <c r="H106" t="s">
+        <v>794</v>
+      </c>
+      <c r="I106" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>329</v>
+      </c>
+      <c r="B107" t="s">
+        <v>330</v>
+      </c>
+      <c r="C107" t="s">
+        <v>332</v>
+      </c>
+      <c r="D107" t="s">
+        <v>921</v>
+      </c>
+      <c r="E107" t="s">
+        <v>922</v>
+      </c>
+      <c r="F107" t="s">
+        <v>923</v>
+      </c>
+      <c r="G107" t="s">
+        <v>924</v>
+      </c>
+      <c r="H107" t="s">
+        <v>925</v>
+      </c>
+      <c r="I107" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>335</v>
+      </c>
+      <c r="B108" t="s">
+        <v>340</v>
+      </c>
+      <c r="C108" t="s">
+        <v>341</v>
+      </c>
+      <c r="D108" t="s">
+        <v>927</v>
+      </c>
+      <c r="E108" t="s">
+        <v>928</v>
+      </c>
+      <c r="F108" t="s">
+        <v>929</v>
+      </c>
+      <c r="G108" t="s">
+        <v>930</v>
+      </c>
+      <c r="H108" t="s">
+        <v>931</v>
+      </c>
+      <c r="I108" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>337</v>
+      </c>
+      <c r="B109" t="s">
+        <v>262</v>
+      </c>
+      <c r="C109" t="s">
+        <v>265</v>
+      </c>
+      <c r="D109" t="s">
+        <v>784</v>
+      </c>
+      <c r="E109" t="s">
+        <v>785</v>
+      </c>
+      <c r="F109" t="s">
+        <v>786</v>
+      </c>
+      <c r="G109" t="s">
+        <v>787</v>
+      </c>
+      <c r="H109" t="s">
+        <v>788</v>
+      </c>
+      <c r="I109" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>336</v>
+      </c>
+      <c r="B110" t="s">
+        <v>263</v>
+      </c>
+      <c r="C110" t="s">
+        <v>266</v>
+      </c>
+      <c r="D110" t="s">
+        <v>790</v>
+      </c>
+      <c r="E110" t="s">
+        <v>791</v>
+      </c>
+      <c r="F110" t="s">
+        <v>792</v>
+      </c>
+      <c r="G110" t="s">
+        <v>793</v>
+      </c>
+      <c r="H110" t="s">
+        <v>794</v>
+      </c>
+      <c r="I110" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>338</v>
+      </c>
+      <c r="B111" t="s">
+        <v>339</v>
+      </c>
+      <c r="C111" t="s">
+        <v>334</v>
+      </c>
+      <c r="D111" t="s">
+        <v>933</v>
+      </c>
+      <c r="E111" t="s">
+        <v>934</v>
+      </c>
+      <c r="F111" t="s">
+        <v>935</v>
+      </c>
+      <c r="G111" t="s">
+        <v>936</v>
+      </c>
+      <c r="H111" t="s">
+        <v>937</v>
+      </c>
+      <c r="I111" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>939</v>
+      </c>
+      <c r="B112" t="s">
+        <v>940</v>
+      </c>
+      <c r="C112" t="s">
+        <v>941</v>
+      </c>
+      <c r="D112" t="s">
+        <v>940</v>
+      </c>
+      <c r="E112" t="s">
+        <v>940</v>
+      </c>
+      <c r="F112" t="s">
+        <v>940</v>
+      </c>
+      <c r="G112" t="s">
+        <v>940</v>
+      </c>
+      <c r="H112" t="s">
+        <v>940</v>
+      </c>
+      <c r="I112" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>942</v>
+      </c>
+      <c r="B113" t="s">
+        <v>943</v>
+      </c>
+      <c r="C113" t="s">
+        <v>944</v>
+      </c>
+      <c r="D113" t="s">
+        <v>943</v>
+      </c>
+      <c r="E113" t="s">
+        <v>943</v>
+      </c>
+      <c r="F113" t="s">
+        <v>943</v>
+      </c>
+      <c r="G113" t="s">
+        <v>943</v>
+      </c>
+      <c r="H113" t="s">
+        <v>943</v>
+      </c>
+      <c r="I113" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>945</v>
+      </c>
+      <c r="B114" t="s">
+        <v>946</v>
+      </c>
+      <c r="C114" t="s">
+        <v>947</v>
+      </c>
+      <c r="D114" t="s">
+        <v>946</v>
+      </c>
+      <c r="E114" t="s">
+        <v>946</v>
+      </c>
+      <c r="F114" t="s">
+        <v>946</v>
+      </c>
+      <c r="G114" t="s">
+        <v>946</v>
+      </c>
+      <c r="H114" t="s">
+        <v>946</v>
+      </c>
+      <c r="I114" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>948</v>
+      </c>
+      <c r="B115" t="s">
+        <v>949</v>
+      </c>
+      <c r="C115" t="s">
+        <v>950</v>
+      </c>
+      <c r="D115" t="s">
+        <v>949</v>
+      </c>
+      <c r="E115" t="s">
+        <v>949</v>
+      </c>
+      <c r="F115" t="s">
+        <v>949</v>
+      </c>
+      <c r="G115" t="s">
+        <v>949</v>
+      </c>
+      <c r="H115" t="s">
+        <v>949</v>
+      </c>
+      <c r="I115" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>951</v>
+      </c>
+      <c r="B116" t="s">
+        <v>952</v>
+      </c>
+      <c r="C116" t="s">
+        <v>953</v>
+      </c>
+      <c r="D116" t="s">
+        <v>952</v>
+      </c>
+      <c r="E116" t="s">
+        <v>952</v>
+      </c>
+      <c r="F116" t="s">
+        <v>952</v>
+      </c>
+      <c r="G116" t="s">
+        <v>952</v>
+      </c>
+      <c r="H116" t="s">
+        <v>952</v>
+      </c>
+      <c r="I116" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>954</v>
+      </c>
+      <c r="B117" t="s">
+        <v>955</v>
+      </c>
+      <c r="C117" t="s">
+        <v>956</v>
+      </c>
+      <c r="D117" t="s">
+        <v>955</v>
+      </c>
+      <c r="E117" t="s">
+        <v>955</v>
+      </c>
+      <c r="F117" t="s">
+        <v>955</v>
+      </c>
+      <c r="G117" t="s">
+        <v>955</v>
+      </c>
+      <c r="H117" t="s">
+        <v>955</v>
+      </c>
+      <c r="I117" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>957</v>
+      </c>
+      <c r="B118" t="s">
+        <v>959</v>
+      </c>
+      <c r="C118" t="s">
+        <v>958</v>
+      </c>
+      <c r="D118" t="s">
+        <v>959</v>
+      </c>
+      <c r="E118" t="s">
+        <v>959</v>
+      </c>
+      <c r="F118" t="s">
+        <v>959</v>
+      </c>
+      <c r="G118" t="s">
+        <v>959</v>
+      </c>
+      <c r="H118" t="s">
+        <v>959</v>
+      </c>
+      <c r="I118" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>960</v>
+      </c>
+      <c r="B119" t="s">
+        <v>961</v>
+      </c>
+      <c r="C119" t="s">
         <v>255</v>
       </c>
-      <c r="C79" t="s">
-        <v>256</v>
-      </c>
-      <c r="D79" t="s">
-        <v>769</v>
-      </c>
-      <c r="E79" t="s">
-        <v>770</v>
-      </c>
-      <c r="F79" t="s">
-        <v>771</v>
-      </c>
-      <c r="G79" t="s">
-        <v>772</v>
-      </c>
-      <c r="H79" t="s">
-        <v>773</v>
-      </c>
-      <c r="I79" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>257</v>
-      </c>
-      <c r="B80" t="s">
+      <c r="D119" t="s">
+        <v>961</v>
+      </c>
+      <c r="E119" t="s">
+        <v>961</v>
+      </c>
+      <c r="F119" t="s">
+        <v>961</v>
+      </c>
+      <c r="G119" t="s">
+        <v>961</v>
+      </c>
+      <c r="H119" t="s">
+        <v>961</v>
+      </c>
+      <c r="I119" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>966</v>
+      </c>
+      <c r="B120" t="s">
+        <v>969</v>
+      </c>
+      <c r="C120" t="s">
+        <v>970</v>
+      </c>
+      <c r="D120" t="s">
+        <v>969</v>
+      </c>
+      <c r="E120" t="s">
+        <v>969</v>
+      </c>
+      <c r="F120" t="s">
+        <v>969</v>
+      </c>
+      <c r="G120" t="s">
+        <v>969</v>
+      </c>
+      <c r="H120" t="s">
+        <v>969</v>
+      </c>
+      <c r="I120" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>967</v>
+      </c>
+      <c r="B121" t="s">
         <v>262</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C121" t="s">
+        <v>265</v>
+      </c>
+      <c r="D121" t="s">
+        <v>262</v>
+      </c>
+      <c r="E121" t="s">
+        <v>262</v>
+      </c>
+      <c r="F121" t="s">
+        <v>262</v>
+      </c>
+      <c r="G121" t="s">
+        <v>262</v>
+      </c>
+      <c r="H121" t="s">
+        <v>262</v>
+      </c>
+      <c r="I121" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>968</v>
+      </c>
+      <c r="B122" t="s">
+        <v>263</v>
+      </c>
+      <c r="C122" t="s">
         <v>266</v>
       </c>
-      <c r="D80" t="s">
-        <v>775</v>
-      </c>
-      <c r="E80" t="s">
-        <v>776</v>
-      </c>
-      <c r="F80" t="s">
-        <v>777</v>
-      </c>
-      <c r="G80" t="s">
-        <v>778</v>
-      </c>
-      <c r="H80" t="s">
-        <v>779</v>
-      </c>
-      <c r="I80" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>274</v>
-      </c>
-      <c r="B81" t="s">
+      <c r="D122" t="s">
         <v>263</v>
       </c>
-      <c r="C81" t="s">
-        <v>267</v>
-      </c>
-      <c r="D81" t="s">
-        <v>781</v>
-      </c>
-      <c r="E81" t="s">
-        <v>782</v>
-      </c>
-      <c r="F81" t="s">
-        <v>783</v>
-      </c>
-      <c r="G81" t="s">
-        <v>784</v>
-      </c>
-      <c r="H81" t="s">
-        <v>785</v>
-      </c>
-      <c r="I81" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>272</v>
-      </c>
-      <c r="B82" t="s">
-        <v>264</v>
-      </c>
-      <c r="C82" t="s">
-        <v>268</v>
-      </c>
-      <c r="D82" t="s">
-        <v>787</v>
-      </c>
-      <c r="E82" t="s">
-        <v>788</v>
-      </c>
-      <c r="F82" t="s">
-        <v>789</v>
-      </c>
-      <c r="G82" t="s">
-        <v>790</v>
-      </c>
-      <c r="H82" t="s">
-        <v>791</v>
-      </c>
-      <c r="I82" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>273</v>
-      </c>
-      <c r="B83" t="s">
-        <v>265</v>
-      </c>
-      <c r="C83" t="s">
-        <v>269</v>
-      </c>
-      <c r="D83" t="s">
-        <v>793</v>
-      </c>
-      <c r="E83" t="s">
-        <v>794</v>
-      </c>
-      <c r="F83" t="s">
-        <v>795</v>
-      </c>
-      <c r="G83" t="s">
-        <v>796</v>
-      </c>
-      <c r="H83" t="s">
-        <v>797</v>
-      </c>
-      <c r="I83" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>258</v>
-      </c>
-      <c r="B84" t="s">
-        <v>260</v>
-      </c>
-      <c r="C84" t="s">
-        <v>271</v>
-      </c>
-      <c r="D84" t="s">
-        <v>799</v>
-      </c>
-      <c r="E84" t="s">
-        <v>800</v>
-      </c>
-      <c r="F84" t="s">
-        <v>801</v>
-      </c>
-      <c r="G84" t="s">
-        <v>802</v>
-      </c>
-      <c r="H84" t="s">
-        <v>803</v>
-      </c>
-      <c r="I84" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>259</v>
-      </c>
-      <c r="B85" t="s">
-        <v>261</v>
-      </c>
-      <c r="C85" t="s">
-        <v>270</v>
-      </c>
-      <c r="D85" t="s">
-        <v>805</v>
-      </c>
-      <c r="E85" t="s">
-        <v>806</v>
-      </c>
-      <c r="F85" t="s">
-        <v>807</v>
-      </c>
-      <c r="G85" t="s">
-        <v>808</v>
-      </c>
-      <c r="H85" t="s">
-        <v>807</v>
-      </c>
-      <c r="I85" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>275</v>
-      </c>
-      <c r="B86" t="s">
-        <v>277</v>
-      </c>
-      <c r="C86" t="s">
-        <v>276</v>
-      </c>
-      <c r="D86" t="s">
-        <v>810</v>
-      </c>
-      <c r="E86" t="s">
-        <v>811</v>
-      </c>
-      <c r="F86" t="s">
-        <v>812</v>
-      </c>
-      <c r="G86" t="s">
-        <v>813</v>
-      </c>
-      <c r="H86" t="s">
-        <v>814</v>
-      </c>
-      <c r="I86" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>278</v>
-      </c>
-      <c r="B87" t="s">
-        <v>279</v>
-      </c>
-      <c r="C87" t="s">
-        <v>280</v>
-      </c>
-      <c r="D87" t="s">
-        <v>816</v>
-      </c>
-      <c r="E87" t="s">
-        <v>817</v>
-      </c>
-      <c r="F87" t="s">
-        <v>818</v>
-      </c>
-      <c r="G87" t="s">
-        <v>819</v>
-      </c>
-      <c r="H87" t="s">
-        <v>820</v>
-      </c>
-      <c r="I87" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>281</v>
-      </c>
-      <c r="B88" t="s">
-        <v>282</v>
-      </c>
-      <c r="C88" t="s">
-        <v>283</v>
-      </c>
-      <c r="D88" t="s">
-        <v>822</v>
-      </c>
-      <c r="E88" t="s">
-        <v>823</v>
-      </c>
-      <c r="F88" t="s">
-        <v>824</v>
-      </c>
-      <c r="G88" t="s">
-        <v>825</v>
-      </c>
-      <c r="H88" t="s">
-        <v>826</v>
-      </c>
-      <c r="I88" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>284</v>
-      </c>
-      <c r="B89" t="s">
-        <v>294</v>
-      </c>
-      <c r="C89" t="s">
-        <v>296</v>
-      </c>
-      <c r="D89" t="s">
-        <v>828</v>
-      </c>
-      <c r="E89" t="s">
-        <v>829</v>
-      </c>
-      <c r="F89" t="s">
-        <v>830</v>
-      </c>
-      <c r="G89" t="s">
-        <v>831</v>
-      </c>
-      <c r="H89" t="s">
-        <v>832</v>
-      </c>
-      <c r="I89" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>285</v>
-      </c>
-      <c r="B90" t="s">
-        <v>295</v>
-      </c>
-      <c r="C90" t="s">
-        <v>297</v>
-      </c>
-      <c r="D90" t="s">
-        <v>834</v>
-      </c>
-      <c r="E90" t="s">
-        <v>835</v>
-      </c>
-      <c r="F90" t="s">
-        <v>836</v>
-      </c>
-      <c r="G90" t="s">
-        <v>837</v>
-      </c>
-      <c r="H90" t="s">
-        <v>838</v>
-      </c>
-      <c r="I90" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>286</v>
-      </c>
-      <c r="B91" t="s">
-        <v>290</v>
-      </c>
-      <c r="C91" t="s">
-        <v>298</v>
-      </c>
-      <c r="D91" t="s">
-        <v>840</v>
-      </c>
-      <c r="E91" t="s">
-        <v>841</v>
-      </c>
-      <c r="F91" t="s">
-        <v>842</v>
-      </c>
-      <c r="G91" t="s">
-        <v>843</v>
-      </c>
-      <c r="H91" t="s">
-        <v>844</v>
-      </c>
-      <c r="I91" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>287</v>
-      </c>
-      <c r="B92" t="s">
-        <v>291</v>
-      </c>
-      <c r="C92" t="s">
-        <v>299</v>
-      </c>
-      <c r="D92" t="s">
-        <v>846</v>
-      </c>
-      <c r="E92" t="s">
-        <v>847</v>
-      </c>
-      <c r="F92" t="s">
-        <v>848</v>
-      </c>
-      <c r="G92" t="s">
-        <v>849</v>
-      </c>
-      <c r="H92" t="s">
-        <v>850</v>
-      </c>
-      <c r="I92" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>288</v>
-      </c>
-      <c r="B93" t="s">
-        <v>292</v>
-      </c>
-      <c r="C93" t="s">
-        <v>300</v>
-      </c>
-      <c r="D93" t="s">
-        <v>852</v>
-      </c>
-      <c r="E93" t="s">
-        <v>853</v>
-      </c>
-      <c r="F93" t="s">
-        <v>854</v>
-      </c>
-      <c r="G93" t="s">
-        <v>855</v>
-      </c>
-      <c r="H93" t="s">
-        <v>856</v>
-      </c>
-      <c r="I93" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>289</v>
-      </c>
-      <c r="B94" t="s">
-        <v>293</v>
-      </c>
-      <c r="C94" t="s">
-        <v>301</v>
-      </c>
-      <c r="D94" t="s">
-        <v>858</v>
-      </c>
-      <c r="E94" t="s">
-        <v>859</v>
-      </c>
-      <c r="F94" t="s">
-        <v>860</v>
-      </c>
-      <c r="G94" t="s">
-        <v>861</v>
-      </c>
-      <c r="H94" t="s">
-        <v>862</v>
-      </c>
-      <c r="I94" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>302</v>
-      </c>
-      <c r="B95" t="s">
-        <v>308</v>
-      </c>
-      <c r="C95" t="s">
-        <v>314</v>
-      </c>
-      <c r="D95" t="s">
-        <v>864</v>
-      </c>
-      <c r="E95" t="s">
-        <v>865</v>
-      </c>
-      <c r="F95" t="s">
-        <v>866</v>
-      </c>
-      <c r="G95" t="s">
-        <v>867</v>
-      </c>
-      <c r="H95" t="s">
-        <v>868</v>
-      </c>
-      <c r="I95" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>303</v>
-      </c>
-      <c r="B96" t="s">
-        <v>309</v>
-      </c>
-      <c r="C96" t="s">
-        <v>315</v>
-      </c>
-      <c r="D96" t="s">
-        <v>870</v>
-      </c>
-      <c r="E96" t="s">
-        <v>871</v>
-      </c>
-      <c r="F96" t="s">
-        <v>872</v>
-      </c>
-      <c r="G96" t="s">
-        <v>873</v>
-      </c>
-      <c r="H96" t="s">
-        <v>874</v>
-      </c>
-      <c r="I96" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>304</v>
-      </c>
-      <c r="B97" t="s">
-        <v>310</v>
-      </c>
-      <c r="C97" t="s">
-        <v>316</v>
-      </c>
-      <c r="D97" t="s">
-        <v>876</v>
-      </c>
-      <c r="E97" t="s">
-        <v>877</v>
-      </c>
-      <c r="F97" t="s">
-        <v>878</v>
-      </c>
-      <c r="G97" t="s">
-        <v>879</v>
-      </c>
-      <c r="H97" t="s">
-        <v>880</v>
-      </c>
-      <c r="I97" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>305</v>
-      </c>
-      <c r="B98" t="s">
-        <v>311</v>
-      </c>
-      <c r="C98" t="s">
-        <v>317</v>
-      </c>
-      <c r="D98" t="s">
-        <v>882</v>
-      </c>
-      <c r="E98" t="s">
-        <v>883</v>
-      </c>
-      <c r="F98" t="s">
-        <v>884</v>
-      </c>
-      <c r="G98" t="s">
-        <v>885</v>
-      </c>
-      <c r="H98" t="s">
-        <v>886</v>
-      </c>
-      <c r="I98" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>306</v>
-      </c>
-      <c r="B99" t="s">
-        <v>312</v>
-      </c>
-      <c r="C99" t="s">
-        <v>318</v>
-      </c>
-      <c r="D99" t="s">
-        <v>888</v>
-      </c>
-      <c r="E99" t="s">
-        <v>889</v>
-      </c>
-      <c r="F99" t="s">
-        <v>890</v>
-      </c>
-      <c r="G99" t="s">
-        <v>891</v>
-      </c>
-      <c r="H99" t="s">
-        <v>892</v>
-      </c>
-      <c r="I99" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>307</v>
-      </c>
-      <c r="B100" t="s">
-        <v>313</v>
-      </c>
-      <c r="C100" t="s">
-        <v>319</v>
-      </c>
-      <c r="D100" t="s">
-        <v>894</v>
-      </c>
-      <c r="E100" t="s">
-        <v>895</v>
-      </c>
-      <c r="F100" t="s">
-        <v>896</v>
-      </c>
-      <c r="G100" t="s">
-        <v>897</v>
-      </c>
-      <c r="H100" t="s">
-        <v>898</v>
-      </c>
-      <c r="I100" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>320</v>
-      </c>
-      <c r="B101" t="s">
-        <v>322</v>
-      </c>
-      <c r="C101" t="s">
-        <v>324</v>
-      </c>
-      <c r="D101" t="s">
-        <v>900</v>
-      </c>
-      <c r="E101" t="s">
-        <v>901</v>
-      </c>
-      <c r="F101" t="s">
-        <v>902</v>
-      </c>
-      <c r="G101" t="s">
-        <v>903</v>
-      </c>
-      <c r="H101" t="s">
-        <v>904</v>
-      </c>
-      <c r="I101" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>321</v>
-      </c>
-      <c r="B102" t="s">
-        <v>323</v>
-      </c>
-      <c r="C102" t="s">
-        <v>325</v>
-      </c>
-      <c r="D102" t="s">
-        <v>906</v>
-      </c>
-      <c r="E102" t="s">
-        <v>907</v>
-      </c>
-      <c r="F102" t="s">
-        <v>908</v>
-      </c>
-      <c r="G102" t="s">
-        <v>909</v>
-      </c>
-      <c r="H102" t="s">
-        <v>910</v>
-      </c>
-      <c r="I102" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>326</v>
-      </c>
-      <c r="B103" t="s">
-        <v>327</v>
-      </c>
-      <c r="C103" t="s">
-        <v>328</v>
-      </c>
-      <c r="D103" t="s">
-        <v>912</v>
-      </c>
-      <c r="E103" t="s">
-        <v>913</v>
-      </c>
-      <c r="F103" t="s">
-        <v>914</v>
-      </c>
-      <c r="G103" t="s">
-        <v>915</v>
-      </c>
-      <c r="H103" t="s">
-        <v>916</v>
-      </c>
-      <c r="I103" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>329</v>
-      </c>
-      <c r="B104" t="s">
-        <v>334</v>
-      </c>
-      <c r="C104" t="s">
-        <v>336</v>
-      </c>
-      <c r="D104" t="s">
-        <v>918</v>
-      </c>
-      <c r="E104" t="s">
-        <v>919</v>
-      </c>
-      <c r="F104" t="s">
-        <v>920</v>
-      </c>
-      <c r="G104" t="s">
-        <v>921</v>
-      </c>
-      <c r="H104" t="s">
-        <v>922</v>
-      </c>
-      <c r="I104" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>330</v>
-      </c>
-      <c r="B105" t="s">
-        <v>264</v>
-      </c>
-      <c r="C105" t="s">
-        <v>268</v>
-      </c>
-      <c r="D105" t="s">
-        <v>787</v>
-      </c>
-      <c r="E105" t="s">
-        <v>788</v>
-      </c>
-      <c r="F105" t="s">
-        <v>789</v>
-      </c>
-      <c r="G105" t="s">
-        <v>790</v>
-      </c>
-      <c r="H105" t="s">
-        <v>791</v>
-      </c>
-      <c r="I105" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>331</v>
-      </c>
-      <c r="B106" t="s">
-        <v>265</v>
-      </c>
-      <c r="C106" t="s">
-        <v>269</v>
-      </c>
-      <c r="D106" t="s">
-        <v>793</v>
-      </c>
-      <c r="E106" t="s">
-        <v>794</v>
-      </c>
-      <c r="F106" t="s">
-        <v>795</v>
-      </c>
-      <c r="G106" t="s">
-        <v>796</v>
-      </c>
-      <c r="H106" t="s">
-        <v>797</v>
-      </c>
-      <c r="I106" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>332</v>
-      </c>
-      <c r="B107" t="s">
-        <v>333</v>
-      </c>
-      <c r="C107" t="s">
-        <v>335</v>
-      </c>
-      <c r="D107" t="s">
-        <v>924</v>
-      </c>
-      <c r="E107" t="s">
-        <v>925</v>
-      </c>
-      <c r="F107" t="s">
-        <v>926</v>
-      </c>
-      <c r="G107" t="s">
-        <v>927</v>
-      </c>
-      <c r="H107" t="s">
-        <v>928</v>
-      </c>
-      <c r="I107" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>338</v>
-      </c>
-      <c r="B108" t="s">
-        <v>343</v>
-      </c>
-      <c r="C108" t="s">
-        <v>344</v>
-      </c>
-      <c r="D108" t="s">
-        <v>930</v>
-      </c>
-      <c r="E108" t="s">
-        <v>931</v>
-      </c>
-      <c r="F108" t="s">
-        <v>932</v>
-      </c>
-      <c r="G108" t="s">
-        <v>933</v>
-      </c>
-      <c r="H108" t="s">
-        <v>934</v>
-      </c>
-      <c r="I108" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>340</v>
-      </c>
-      <c r="B109" t="s">
-        <v>264</v>
-      </c>
-      <c r="C109" t="s">
-        <v>268</v>
-      </c>
-      <c r="D109" t="s">
-        <v>787</v>
-      </c>
-      <c r="E109" t="s">
-        <v>788</v>
-      </c>
-      <c r="F109" t="s">
-        <v>789</v>
-      </c>
-      <c r="G109" t="s">
-        <v>790</v>
-      </c>
-      <c r="H109" t="s">
-        <v>791</v>
-      </c>
-      <c r="I109" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>339</v>
-      </c>
-      <c r="B110" t="s">
-        <v>265</v>
-      </c>
-      <c r="C110" t="s">
-        <v>269</v>
-      </c>
-      <c r="D110" t="s">
-        <v>793</v>
-      </c>
-      <c r="E110" t="s">
-        <v>794</v>
-      </c>
-      <c r="F110" t="s">
-        <v>795</v>
-      </c>
-      <c r="G110" t="s">
-        <v>796</v>
-      </c>
-      <c r="H110" t="s">
-        <v>797</v>
-      </c>
-      <c r="I110" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>341</v>
-      </c>
-      <c r="B111" t="s">
-        <v>342</v>
-      </c>
-      <c r="C111" t="s">
-        <v>337</v>
-      </c>
-      <c r="D111" t="s">
-        <v>936</v>
-      </c>
-      <c r="E111" t="s">
-        <v>937</v>
-      </c>
-      <c r="F111" t="s">
-        <v>938</v>
-      </c>
-      <c r="G111" t="s">
-        <v>939</v>
-      </c>
-      <c r="H111" t="s">
-        <v>940</v>
-      </c>
-      <c r="I111" t="s">
-        <v>941</v>
+      <c r="E122" t="s">
+        <v>263</v>
+      </c>
+      <c r="F122" t="s">
+        <v>263</v>
+      </c>
+      <c r="G122" t="s">
+        <v>263</v>
+      </c>
+      <c r="H122" t="s">
+        <v>263</v>
+      </c>
+      <c r="I122" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>971</v>
+      </c>
+      <c r="B123" t="s">
+        <v>977</v>
+      </c>
+      <c r="C123" t="s">
+        <v>973</v>
+      </c>
+      <c r="D123" t="s">
+        <v>972</v>
+      </c>
+      <c r="E123" t="s">
+        <v>972</v>
+      </c>
+      <c r="F123" t="s">
+        <v>972</v>
+      </c>
+      <c r="G123" t="s">
+        <v>972</v>
+      </c>
+      <c r="H123" t="s">
+        <v>972</v>
+      </c>
+      <c r="I123" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>974</v>
+      </c>
+      <c r="B124" t="s">
+        <v>975</v>
+      </c>
+      <c r="C124" t="s">
+        <v>976</v>
+      </c>
+      <c r="D124" t="s">
+        <v>975</v>
+      </c>
+      <c r="E124" t="s">
+        <v>975</v>
+      </c>
+      <c r="F124" t="s">
+        <v>975</v>
+      </c>
+      <c r="G124" t="s">
+        <v>975</v>
+      </c>
+      <c r="H124" t="s">
+        <v>975</v>
+      </c>
+      <c r="I124" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>980</v>
+      </c>
+      <c r="B125" t="s">
+        <v>978</v>
+      </c>
+      <c r="C125" t="s">
+        <v>979</v>
+      </c>
+      <c r="D125" t="s">
+        <v>978</v>
+      </c>
+      <c r="E125" t="s">
+        <v>978</v>
+      </c>
+      <c r="F125" t="s">
+        <v>978</v>
+      </c>
+      <c r="G125" t="s">
+        <v>978</v>
+      </c>
+      <c r="H125" t="s">
+        <v>978</v>
+      </c>
+      <c r="I125" t="s">
+        <v>978</v>
       </c>
     </row>
   </sheetData>

--- a/src/locales/translations.xlsx
+++ b/src/locales/translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\icmm-web\src\locales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEA6C55-C141-4D11-9DC2-79A97CAFBBC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95A778C-09BB-40B7-A79D-9471AFBE2A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{B932D239-48A5-4026-8CCD-CA2BFDECA8AC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="985">
   <si>
     <t>id</t>
   </si>
@@ -2978,10 +2978,22 @@
     <t>If you are not ready to pay now, you can pay and upload the payment slip later by going to the 'Upload Slip' section and entering your order no:</t>
   </si>
   <si>
-    <t>หากคุณยังไม่พร้อมชำระเงินในขณะนี้ คุณสามารถชำระเงินและอัปโหลดสลิปในภายหลังได้โดยไปที่เมนู 'อัปโหลดสลิป' และกรอกหมายเลขคำสั่งซื้อของคุณ</t>
-  </si>
-  <si>
     <t>ifYouAreNotReadyToPay</t>
+  </si>
+  <si>
+    <t>หากคุณยังไม่พร้อมชำระเงินในขณะนี้ คุณสามารถชำระเงินและอัปโหลดสลิปในภายหลังได้โดยไปที่เมนู 'ส่งหลักฐานการชำระ' และกรอกหมายเลขคำสั่งซื้อของคุณ</t>
+  </si>
+  <si>
+    <t>ส่งหลักฐานการชำระ</t>
+  </si>
+  <si>
+    <t>goToShop</t>
+  </si>
+  <si>
+    <t>Go to shop</t>
+  </si>
+  <si>
+    <t>เข้าสู่ร้านค้า</t>
   </si>
 </sst>
 </file>
@@ -3359,10 +3371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EFFCAA-6DA9-40A3-BF28-CA3BC524DD9C}">
-  <dimension ref="A1:I125"/>
+  <dimension ref="A1:I127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="A125" sqref="A125"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="D127" sqref="D127:I127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6970,13 +6982,13 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B125" t="s">
         <v>978</v>
       </c>
       <c r="C125" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="D125" t="s">
         <v>978</v>
@@ -6995,6 +7007,64 @@
       </c>
       <c r="I125" t="s">
         <v>978</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>103</v>
+      </c>
+      <c r="B126" t="s">
+        <v>104</v>
+      </c>
+      <c r="C126" t="s">
+        <v>981</v>
+      </c>
+      <c r="D126" t="s">
+        <v>104</v>
+      </c>
+      <c r="E126" t="s">
+        <v>104</v>
+      </c>
+      <c r="F126" t="s">
+        <v>104</v>
+      </c>
+      <c r="G126" t="s">
+        <v>104</v>
+      </c>
+      <c r="H126" t="s">
+        <v>104</v>
+      </c>
+      <c r="I126" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>982</v>
+      </c>
+      <c r="B127" t="s">
+        <v>983</v>
+      </c>
+      <c r="C127" t="s">
+        <v>984</v>
+      </c>
+      <c r="D127" t="s">
+        <v>983</v>
+      </c>
+      <c r="E127" t="s">
+        <v>983</v>
+      </c>
+      <c r="F127" t="s">
+        <v>983</v>
+      </c>
+      <c r="G127" t="s">
+        <v>983</v>
+      </c>
+      <c r="H127" t="s">
+        <v>983</v>
+      </c>
+      <c r="I127" t="s">
+        <v>983</v>
       </c>
     </row>
   </sheetData>

--- a/src/locales/translations.xlsx
+++ b/src/locales/translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\icmm-web\src\locales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95A778C-09BB-40B7-A79D-9471AFBE2A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318925C4-17E8-4101-97A7-36CCA1B5B854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{B932D239-48A5-4026-8CCD-CA2BFDECA8AC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="988">
   <si>
     <t>id</t>
   </si>
@@ -914,15 +914,9 @@
     <t>Cancelled</t>
   </si>
   <si>
-    <t>Payment unsuccessful</t>
-  </si>
-  <si>
     <t>Wait confirmation</t>
   </si>
   <si>
-    <t>ชำระเงินไม่สำเร็จ</t>
-  </si>
-  <si>
     <t>รอการยืนยัน</t>
   </si>
   <si>
@@ -956,9 +950,6 @@
     <t>cancelledTxt</t>
   </si>
   <si>
-    <t>Please create new order.</t>
-  </si>
-  <si>
     <t>Please wait for the admin to confirm your payment and verify all details.</t>
   </si>
   <si>
@@ -974,9 +965,6 @@
     <t>Your order is cancelled, Please contact admin for more information.</t>
   </si>
   <si>
-    <t>กรุณาสร้างคำสั่งซื้อใหม่อีกครั้ง</t>
-  </si>
-  <si>
     <t>ผู้ดูแลระบบกำลังตรวจสอบหลักฐานการชำระเงิน</t>
   </si>
   <si>
@@ -2994,6 +2982,27 @@
   </si>
   <si>
     <t>เข้าสู่ร้านค้า</t>
+  </si>
+  <si>
+    <t>Please upload slip.</t>
+  </si>
+  <si>
+    <t>กรุณาอัพโหลดหลักฐานการชำระ</t>
+  </si>
+  <si>
+    <t>discountDetail</t>
+  </si>
+  <si>
+    <t>Discount detail</t>
+  </si>
+  <si>
+    <t>รายละเอียดส่วนลด</t>
+  </si>
+  <si>
+    <t>รอหลักฐานการชำระ</t>
+  </si>
+  <si>
+    <t>Wait payment evidence</t>
   </si>
 </sst>
 </file>
@@ -3371,10 +3380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EFFCAA-6DA9-40A3-BF28-CA3BC524DD9C}">
-  <dimension ref="A1:I127"/>
+  <dimension ref="A1:I128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="D127" sqref="D127:I127"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3511,22 +3520,22 @@
         <v>41</v>
       </c>
       <c r="D5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E5" t="s">
+        <v>339</v>
+      </c>
+      <c r="F5" t="s">
+        <v>340</v>
+      </c>
+      <c r="G5" t="s">
+        <v>341</v>
+      </c>
+      <c r="H5" t="s">
         <v>342</v>
       </c>
-      <c r="E5" t="s">
+      <c r="I5" t="s">
         <v>343</v>
-      </c>
-      <c r="F5" t="s">
-        <v>344</v>
-      </c>
-      <c r="G5" t="s">
-        <v>345</v>
-      </c>
-      <c r="H5" t="s">
-        <v>346</v>
-      </c>
-      <c r="I5" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -3540,22 +3549,22 @@
         <v>44</v>
       </c>
       <c r="D6" t="s">
+        <v>344</v>
+      </c>
+      <c r="E6" t="s">
+        <v>345</v>
+      </c>
+      <c r="F6" t="s">
+        <v>346</v>
+      </c>
+      <c r="G6" t="s">
+        <v>347</v>
+      </c>
+      <c r="H6" t="s">
         <v>348</v>
       </c>
-      <c r="E6" t="s">
+      <c r="I6" t="s">
         <v>349</v>
-      </c>
-      <c r="F6" t="s">
-        <v>350</v>
-      </c>
-      <c r="G6" t="s">
-        <v>351</v>
-      </c>
-      <c r="H6" t="s">
-        <v>352</v>
-      </c>
-      <c r="I6" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -3569,22 +3578,22 @@
         <v>46</v>
       </c>
       <c r="D7" t="s">
+        <v>350</v>
+      </c>
+      <c r="E7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F7" t="s">
+        <v>352</v>
+      </c>
+      <c r="G7" t="s">
+        <v>353</v>
+      </c>
+      <c r="H7" t="s">
         <v>354</v>
       </c>
-      <c r="E7" t="s">
+      <c r="I7" t="s">
         <v>355</v>
-      </c>
-      <c r="F7" t="s">
-        <v>356</v>
-      </c>
-      <c r="G7" t="s">
-        <v>357</v>
-      </c>
-      <c r="H7" t="s">
-        <v>358</v>
-      </c>
-      <c r="I7" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -3598,22 +3607,22 @@
         <v>50</v>
       </c>
       <c r="D8" t="s">
+        <v>356</v>
+      </c>
+      <c r="E8" t="s">
+        <v>357</v>
+      </c>
+      <c r="F8" t="s">
+        <v>358</v>
+      </c>
+      <c r="G8" t="s">
+        <v>359</v>
+      </c>
+      <c r="H8" t="s">
         <v>360</v>
       </c>
-      <c r="E8" t="s">
+      <c r="I8" t="s">
         <v>361</v>
-      </c>
-      <c r="F8" t="s">
-        <v>362</v>
-      </c>
-      <c r="G8" t="s">
-        <v>363</v>
-      </c>
-      <c r="H8" t="s">
-        <v>364</v>
-      </c>
-      <c r="I8" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -3627,22 +3636,22 @@
         <v>55</v>
       </c>
       <c r="D9" t="s">
+        <v>362</v>
+      </c>
+      <c r="E9" t="s">
+        <v>363</v>
+      </c>
+      <c r="F9" t="s">
+        <v>364</v>
+      </c>
+      <c r="G9" t="s">
+        <v>365</v>
+      </c>
+      <c r="H9" t="s">
         <v>366</v>
       </c>
-      <c r="E9" t="s">
+      <c r="I9" t="s">
         <v>367</v>
-      </c>
-      <c r="F9" t="s">
-        <v>368</v>
-      </c>
-      <c r="G9" t="s">
-        <v>369</v>
-      </c>
-      <c r="H9" t="s">
-        <v>370</v>
-      </c>
-      <c r="I9" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -3656,22 +3665,22 @@
         <v>56</v>
       </c>
       <c r="D10" t="s">
+        <v>368</v>
+      </c>
+      <c r="E10" t="s">
+        <v>369</v>
+      </c>
+      <c r="F10" t="s">
+        <v>370</v>
+      </c>
+      <c r="G10" t="s">
+        <v>371</v>
+      </c>
+      <c r="H10" t="s">
         <v>372</v>
       </c>
-      <c r="E10" t="s">
+      <c r="I10" t="s">
         <v>373</v>
-      </c>
-      <c r="F10" t="s">
-        <v>374</v>
-      </c>
-      <c r="G10" t="s">
-        <v>375</v>
-      </c>
-      <c r="H10" t="s">
-        <v>376</v>
-      </c>
-      <c r="I10" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -3685,22 +3694,22 @@
         <v>59</v>
       </c>
       <c r="D11" t="s">
+        <v>374</v>
+      </c>
+      <c r="E11" t="s">
+        <v>375</v>
+      </c>
+      <c r="F11" t="s">
+        <v>376</v>
+      </c>
+      <c r="G11" t="s">
+        <v>377</v>
+      </c>
+      <c r="H11" t="s">
         <v>378</v>
       </c>
-      <c r="E11" t="s">
+      <c r="I11" t="s">
         <v>379</v>
-      </c>
-      <c r="F11" t="s">
-        <v>380</v>
-      </c>
-      <c r="G11" t="s">
-        <v>381</v>
-      </c>
-      <c r="H11" t="s">
-        <v>382</v>
-      </c>
-      <c r="I11" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -3714,22 +3723,22 @@
         <v>62</v>
       </c>
       <c r="D12" t="s">
+        <v>380</v>
+      </c>
+      <c r="E12" t="s">
+        <v>381</v>
+      </c>
+      <c r="F12" t="s">
+        <v>382</v>
+      </c>
+      <c r="G12" t="s">
+        <v>383</v>
+      </c>
+      <c r="H12" t="s">
         <v>384</v>
       </c>
-      <c r="E12" t="s">
+      <c r="I12" t="s">
         <v>385</v>
-      </c>
-      <c r="F12" t="s">
-        <v>386</v>
-      </c>
-      <c r="G12" t="s">
-        <v>387</v>
-      </c>
-      <c r="H12" t="s">
-        <v>388</v>
-      </c>
-      <c r="I12" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -3743,22 +3752,22 @@
         <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E13" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F13" t="s">
         <v>67</v>
       </c>
       <c r="G13" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="H13" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="I13" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -3781,13 +3790,13 @@
         <v>65</v>
       </c>
       <c r="G14" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H14" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="I14" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -3801,22 +3810,22 @@
         <v>70</v>
       </c>
       <c r="D15" t="s">
+        <v>380</v>
+      </c>
+      <c r="E15" t="s">
+        <v>381</v>
+      </c>
+      <c r="F15" t="s">
+        <v>382</v>
+      </c>
+      <c r="G15" t="s">
+        <v>383</v>
+      </c>
+      <c r="H15" t="s">
         <v>384</v>
       </c>
-      <c r="E15" t="s">
+      <c r="I15" t="s">
         <v>385</v>
-      </c>
-      <c r="F15" t="s">
-        <v>386</v>
-      </c>
-      <c r="G15" t="s">
-        <v>387</v>
-      </c>
-      <c r="H15" t="s">
-        <v>388</v>
-      </c>
-      <c r="I15" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -3830,22 +3839,22 @@
         <v>73</v>
       </c>
       <c r="D16" t="s">
+        <v>394</v>
+      </c>
+      <c r="E16" t="s">
+        <v>395</v>
+      </c>
+      <c r="F16" t="s">
+        <v>396</v>
+      </c>
+      <c r="G16" t="s">
+        <v>397</v>
+      </c>
+      <c r="H16" t="s">
         <v>398</v>
       </c>
-      <c r="E16" t="s">
+      <c r="I16" t="s">
         <v>399</v>
-      </c>
-      <c r="F16" t="s">
-        <v>400</v>
-      </c>
-      <c r="G16" t="s">
-        <v>401</v>
-      </c>
-      <c r="H16" t="s">
-        <v>402</v>
-      </c>
-      <c r="I16" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -3859,22 +3868,22 @@
         <v>78</v>
       </c>
       <c r="D17" t="s">
+        <v>400</v>
+      </c>
+      <c r="E17" t="s">
+        <v>401</v>
+      </c>
+      <c r="F17" t="s">
+        <v>402</v>
+      </c>
+      <c r="G17" t="s">
+        <v>403</v>
+      </c>
+      <c r="H17" t="s">
         <v>404</v>
       </c>
-      <c r="E17" t="s">
+      <c r="I17" t="s">
         <v>405</v>
-      </c>
-      <c r="F17" t="s">
-        <v>406</v>
-      </c>
-      <c r="G17" t="s">
-        <v>407</v>
-      </c>
-      <c r="H17" t="s">
-        <v>408</v>
-      </c>
-      <c r="I17" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -3888,22 +3897,22 @@
         <v>79</v>
       </c>
       <c r="D18" t="s">
+        <v>406</v>
+      </c>
+      <c r="E18" t="s">
+        <v>407</v>
+      </c>
+      <c r="F18" t="s">
+        <v>408</v>
+      </c>
+      <c r="G18" t="s">
+        <v>409</v>
+      </c>
+      <c r="H18" t="s">
         <v>410</v>
       </c>
-      <c r="E18" t="s">
+      <c r="I18" t="s">
         <v>411</v>
-      </c>
-      <c r="F18" t="s">
-        <v>412</v>
-      </c>
-      <c r="G18" t="s">
-        <v>413</v>
-      </c>
-      <c r="H18" t="s">
-        <v>414</v>
-      </c>
-      <c r="I18" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -3917,22 +3926,22 @@
         <v>31</v>
       </c>
       <c r="D19" t="s">
+        <v>412</v>
+      </c>
+      <c r="E19" t="s">
+        <v>413</v>
+      </c>
+      <c r="F19" t="s">
+        <v>414</v>
+      </c>
+      <c r="G19" t="s">
+        <v>415</v>
+      </c>
+      <c r="H19" t="s">
         <v>416</v>
       </c>
-      <c r="E19" t="s">
+      <c r="I19" t="s">
         <v>417</v>
-      </c>
-      <c r="F19" t="s">
-        <v>418</v>
-      </c>
-      <c r="G19" t="s">
-        <v>419</v>
-      </c>
-      <c r="H19" t="s">
-        <v>420</v>
-      </c>
-      <c r="I19" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -3946,22 +3955,22 @@
         <v>83</v>
       </c>
       <c r="D20" t="s">
+        <v>418</v>
+      </c>
+      <c r="E20" t="s">
+        <v>419</v>
+      </c>
+      <c r="F20" t="s">
+        <v>420</v>
+      </c>
+      <c r="G20" t="s">
+        <v>421</v>
+      </c>
+      <c r="H20" t="s">
         <v>422</v>
       </c>
-      <c r="E20" t="s">
+      <c r="I20" t="s">
         <v>423</v>
-      </c>
-      <c r="F20" t="s">
-        <v>424</v>
-      </c>
-      <c r="G20" t="s">
-        <v>425</v>
-      </c>
-      <c r="H20" t="s">
-        <v>426</v>
-      </c>
-      <c r="I20" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -3975,22 +3984,22 @@
         <v>84</v>
       </c>
       <c r="D21" t="s">
+        <v>424</v>
+      </c>
+      <c r="E21" t="s">
+        <v>425</v>
+      </c>
+      <c r="F21" t="s">
+        <v>426</v>
+      </c>
+      <c r="G21" t="s">
+        <v>427</v>
+      </c>
+      <c r="H21" t="s">
         <v>428</v>
       </c>
-      <c r="E21" t="s">
+      <c r="I21" t="s">
         <v>429</v>
-      </c>
-      <c r="F21" t="s">
-        <v>430</v>
-      </c>
-      <c r="G21" t="s">
-        <v>431</v>
-      </c>
-      <c r="H21" t="s">
-        <v>432</v>
-      </c>
-      <c r="I21" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -4004,22 +4013,22 @@
         <v>97</v>
       </c>
       <c r="D22" t="s">
+        <v>430</v>
+      </c>
+      <c r="E22" t="s">
+        <v>431</v>
+      </c>
+      <c r="F22" t="s">
+        <v>432</v>
+      </c>
+      <c r="G22" t="s">
+        <v>433</v>
+      </c>
+      <c r="H22" t="s">
         <v>434</v>
       </c>
-      <c r="E22" t="s">
+      <c r="I22" t="s">
         <v>435</v>
-      </c>
-      <c r="F22" t="s">
-        <v>436</v>
-      </c>
-      <c r="G22" t="s">
-        <v>437</v>
-      </c>
-      <c r="H22" t="s">
-        <v>438</v>
-      </c>
-      <c r="I22" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -4033,22 +4042,22 @@
         <v>98</v>
       </c>
       <c r="D23" t="s">
+        <v>436</v>
+      </c>
+      <c r="E23" t="s">
+        <v>437</v>
+      </c>
+      <c r="F23" t="s">
+        <v>438</v>
+      </c>
+      <c r="G23" t="s">
+        <v>439</v>
+      </c>
+      <c r="H23" t="s">
         <v>440</v>
       </c>
-      <c r="E23" t="s">
+      <c r="I23" t="s">
         <v>441</v>
-      </c>
-      <c r="F23" t="s">
-        <v>442</v>
-      </c>
-      <c r="G23" t="s">
-        <v>443</v>
-      </c>
-      <c r="H23" t="s">
-        <v>444</v>
-      </c>
-      <c r="I23" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -4062,22 +4071,22 @@
         <v>99</v>
       </c>
       <c r="D24" t="s">
+        <v>442</v>
+      </c>
+      <c r="E24" t="s">
+        <v>443</v>
+      </c>
+      <c r="F24" t="s">
+        <v>444</v>
+      </c>
+      <c r="G24" t="s">
+        <v>445</v>
+      </c>
+      <c r="H24" t="s">
         <v>446</v>
       </c>
-      <c r="E24" t="s">
+      <c r="I24" t="s">
         <v>447</v>
-      </c>
-      <c r="F24" t="s">
-        <v>448</v>
-      </c>
-      <c r="G24" t="s">
-        <v>449</v>
-      </c>
-      <c r="H24" t="s">
-        <v>450</v>
-      </c>
-      <c r="I24" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -4091,10 +4100,10 @@
         <v>95</v>
       </c>
       <c r="D25" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="E25" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F25" t="s">
         <v>95</v>
@@ -4106,7 +4115,7 @@
         <v>95</v>
       </c>
       <c r="I25" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -4120,22 +4129,22 @@
         <v>100</v>
       </c>
       <c r="D26" t="s">
+        <v>451</v>
+      </c>
+      <c r="E26" t="s">
+        <v>452</v>
+      </c>
+      <c r="F26" t="s">
+        <v>453</v>
+      </c>
+      <c r="G26" t="s">
+        <v>454</v>
+      </c>
+      <c r="H26" t="s">
         <v>455</v>
       </c>
-      <c r="E26" t="s">
+      <c r="I26" t="s">
         <v>456</v>
-      </c>
-      <c r="F26" t="s">
-        <v>457</v>
-      </c>
-      <c r="G26" t="s">
-        <v>458</v>
-      </c>
-      <c r="H26" t="s">
-        <v>459</v>
-      </c>
-      <c r="I26" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -4149,22 +4158,22 @@
         <v>101</v>
       </c>
       <c r="D27" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E27" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="F27" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="G27" t="s">
         <v>102</v>
       </c>
       <c r="H27" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="I27" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -4178,22 +4187,22 @@
         <v>105</v>
       </c>
       <c r="D28" t="s">
+        <v>462</v>
+      </c>
+      <c r="E28" t="s">
+        <v>463</v>
+      </c>
+      <c r="F28" t="s">
+        <v>464</v>
+      </c>
+      <c r="G28" t="s">
+        <v>465</v>
+      </c>
+      <c r="H28" t="s">
         <v>466</v>
       </c>
-      <c r="E28" t="s">
+      <c r="I28" t="s">
         <v>467</v>
-      </c>
-      <c r="F28" t="s">
-        <v>468</v>
-      </c>
-      <c r="G28" t="s">
-        <v>469</v>
-      </c>
-      <c r="H28" t="s">
-        <v>470</v>
-      </c>
-      <c r="I28" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -4207,22 +4216,22 @@
         <v>108</v>
       </c>
       <c r="D29" t="s">
+        <v>468</v>
+      </c>
+      <c r="E29" t="s">
+        <v>469</v>
+      </c>
+      <c r="F29" t="s">
+        <v>470</v>
+      </c>
+      <c r="G29" t="s">
+        <v>471</v>
+      </c>
+      <c r="H29" t="s">
         <v>472</v>
       </c>
-      <c r="E29" t="s">
+      <c r="I29" t="s">
         <v>473</v>
-      </c>
-      <c r="F29" t="s">
-        <v>474</v>
-      </c>
-      <c r="G29" t="s">
-        <v>475</v>
-      </c>
-      <c r="H29" t="s">
-        <v>476</v>
-      </c>
-      <c r="I29" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -4236,22 +4245,22 @@
         <v>116</v>
       </c>
       <c r="D30" t="s">
+        <v>474</v>
+      </c>
+      <c r="E30" t="s">
+        <v>475</v>
+      </c>
+      <c r="F30" t="s">
+        <v>476</v>
+      </c>
+      <c r="G30" t="s">
+        <v>477</v>
+      </c>
+      <c r="H30" t="s">
         <v>478</v>
       </c>
-      <c r="E30" t="s">
+      <c r="I30" t="s">
         <v>479</v>
-      </c>
-      <c r="F30" t="s">
-        <v>480</v>
-      </c>
-      <c r="G30" t="s">
-        <v>481</v>
-      </c>
-      <c r="H30" t="s">
-        <v>482</v>
-      </c>
-      <c r="I30" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -4265,22 +4274,22 @@
         <v>117</v>
       </c>
       <c r="D31" t="s">
+        <v>480</v>
+      </c>
+      <c r="E31" t="s">
+        <v>481</v>
+      </c>
+      <c r="F31" t="s">
+        <v>482</v>
+      </c>
+      <c r="G31" t="s">
+        <v>483</v>
+      </c>
+      <c r="H31" t="s">
         <v>484</v>
       </c>
-      <c r="E31" t="s">
+      <c r="I31" t="s">
         <v>485</v>
-      </c>
-      <c r="F31" t="s">
-        <v>486</v>
-      </c>
-      <c r="G31" t="s">
-        <v>487</v>
-      </c>
-      <c r="H31" t="s">
-        <v>488</v>
-      </c>
-      <c r="I31" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -4294,22 +4303,22 @@
         <v>119</v>
       </c>
       <c r="D32" t="s">
+        <v>486</v>
+      </c>
+      <c r="E32" t="s">
+        <v>487</v>
+      </c>
+      <c r="F32" t="s">
+        <v>488</v>
+      </c>
+      <c r="G32" t="s">
+        <v>489</v>
+      </c>
+      <c r="H32" t="s">
         <v>490</v>
       </c>
-      <c r="E32" t="s">
+      <c r="I32" t="s">
         <v>491</v>
-      </c>
-      <c r="F32" t="s">
-        <v>492</v>
-      </c>
-      <c r="G32" t="s">
-        <v>493</v>
-      </c>
-      <c r="H32" t="s">
-        <v>494</v>
-      </c>
-      <c r="I32" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -4323,22 +4332,22 @@
         <v>121</v>
       </c>
       <c r="D33" t="s">
+        <v>492</v>
+      </c>
+      <c r="E33" t="s">
+        <v>493</v>
+      </c>
+      <c r="F33" t="s">
+        <v>494</v>
+      </c>
+      <c r="G33" t="s">
+        <v>495</v>
+      </c>
+      <c r="H33" t="s">
         <v>496</v>
       </c>
-      <c r="E33" t="s">
+      <c r="I33" t="s">
         <v>497</v>
-      </c>
-      <c r="F33" t="s">
-        <v>498</v>
-      </c>
-      <c r="G33" t="s">
-        <v>499</v>
-      </c>
-      <c r="H33" t="s">
-        <v>500</v>
-      </c>
-      <c r="I33" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -4352,22 +4361,22 @@
         <v>123</v>
       </c>
       <c r="D34" t="s">
+        <v>498</v>
+      </c>
+      <c r="E34" t="s">
+        <v>499</v>
+      </c>
+      <c r="F34" t="s">
+        <v>500</v>
+      </c>
+      <c r="G34" t="s">
+        <v>501</v>
+      </c>
+      <c r="H34" t="s">
         <v>502</v>
       </c>
-      <c r="E34" t="s">
-        <v>503</v>
-      </c>
-      <c r="F34" t="s">
-        <v>504</v>
-      </c>
-      <c r="G34" t="s">
-        <v>505</v>
-      </c>
-      <c r="H34" t="s">
-        <v>506</v>
-      </c>
       <c r="I34" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -4381,22 +4390,22 @@
         <v>125</v>
       </c>
       <c r="D35" t="s">
+        <v>503</v>
+      </c>
+      <c r="E35" t="s">
+        <v>504</v>
+      </c>
+      <c r="F35" t="s">
+        <v>505</v>
+      </c>
+      <c r="G35" t="s">
+        <v>506</v>
+      </c>
+      <c r="H35" t="s">
         <v>507</v>
       </c>
-      <c r="E35" t="s">
+      <c r="I35" t="s">
         <v>508</v>
-      </c>
-      <c r="F35" t="s">
-        <v>509</v>
-      </c>
-      <c r="G35" t="s">
-        <v>510</v>
-      </c>
-      <c r="H35" t="s">
-        <v>511</v>
-      </c>
-      <c r="I35" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -4410,22 +4419,22 @@
         <v>127</v>
       </c>
       <c r="D36" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="E36" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F36" t="s">
         <v>126</v>
       </c>
       <c r="G36" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="H36" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="I36" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -4439,22 +4448,22 @@
         <v>129</v>
       </c>
       <c r="D37" t="s">
+        <v>514</v>
+      </c>
+      <c r="E37" t="s">
+        <v>515</v>
+      </c>
+      <c r="F37" t="s">
+        <v>516</v>
+      </c>
+      <c r="G37" t="s">
+        <v>517</v>
+      </c>
+      <c r="H37" t="s">
         <v>518</v>
       </c>
-      <c r="E37" t="s">
+      <c r="I37" t="s">
         <v>519</v>
-      </c>
-      <c r="F37" t="s">
-        <v>520</v>
-      </c>
-      <c r="G37" t="s">
-        <v>521</v>
-      </c>
-      <c r="H37" t="s">
-        <v>522</v>
-      </c>
-      <c r="I37" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -4468,22 +4477,22 @@
         <v>131</v>
       </c>
       <c r="D38" t="s">
+        <v>520</v>
+      </c>
+      <c r="E38" t="s">
+        <v>521</v>
+      </c>
+      <c r="F38" t="s">
+        <v>522</v>
+      </c>
+      <c r="G38" t="s">
+        <v>523</v>
+      </c>
+      <c r="H38" t="s">
+        <v>523</v>
+      </c>
+      <c r="I38" t="s">
         <v>524</v>
-      </c>
-      <c r="E38" t="s">
-        <v>525</v>
-      </c>
-      <c r="F38" t="s">
-        <v>526</v>
-      </c>
-      <c r="G38" t="s">
-        <v>527</v>
-      </c>
-      <c r="H38" t="s">
-        <v>527</v>
-      </c>
-      <c r="I38" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -4497,22 +4506,22 @@
         <v>133</v>
       </c>
       <c r="D39" t="s">
+        <v>525</v>
+      </c>
+      <c r="E39" t="s">
+        <v>526</v>
+      </c>
+      <c r="F39" t="s">
+        <v>527</v>
+      </c>
+      <c r="G39" t="s">
+        <v>528</v>
+      </c>
+      <c r="H39" t="s">
         <v>529</v>
       </c>
-      <c r="E39" t="s">
+      <c r="I39" t="s">
         <v>530</v>
-      </c>
-      <c r="F39" t="s">
-        <v>531</v>
-      </c>
-      <c r="G39" t="s">
-        <v>532</v>
-      </c>
-      <c r="H39" t="s">
-        <v>533</v>
-      </c>
-      <c r="I39" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -4526,22 +4535,22 @@
         <v>141</v>
       </c>
       <c r="D40" t="s">
+        <v>531</v>
+      </c>
+      <c r="E40" t="s">
+        <v>532</v>
+      </c>
+      <c r="F40" t="s">
+        <v>533</v>
+      </c>
+      <c r="G40" t="s">
+        <v>534</v>
+      </c>
+      <c r="H40" t="s">
         <v>535</v>
       </c>
-      <c r="E40" t="s">
+      <c r="I40" t="s">
         <v>536</v>
-      </c>
-      <c r="F40" t="s">
-        <v>537</v>
-      </c>
-      <c r="G40" t="s">
-        <v>538</v>
-      </c>
-      <c r="H40" t="s">
-        <v>539</v>
-      </c>
-      <c r="I40" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -4555,22 +4564,22 @@
         <v>144</v>
       </c>
       <c r="D41" t="s">
+        <v>537</v>
+      </c>
+      <c r="E41" t="s">
+        <v>538</v>
+      </c>
+      <c r="F41" t="s">
+        <v>539</v>
+      </c>
+      <c r="G41" t="s">
+        <v>540</v>
+      </c>
+      <c r="H41" t="s">
         <v>541</v>
       </c>
-      <c r="E41" t="s">
+      <c r="I41" t="s">
         <v>542</v>
-      </c>
-      <c r="F41" t="s">
-        <v>543</v>
-      </c>
-      <c r="G41" t="s">
-        <v>544</v>
-      </c>
-      <c r="H41" t="s">
-        <v>545</v>
-      </c>
-      <c r="I41" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -4584,22 +4593,22 @@
         <v>147</v>
       </c>
       <c r="D42" t="s">
+        <v>543</v>
+      </c>
+      <c r="E42" t="s">
+        <v>544</v>
+      </c>
+      <c r="F42" t="s">
+        <v>545</v>
+      </c>
+      <c r="G42" t="s">
+        <v>546</v>
+      </c>
+      <c r="H42" t="s">
         <v>547</v>
       </c>
-      <c r="E42" t="s">
+      <c r="I42" t="s">
         <v>548</v>
-      </c>
-      <c r="F42" t="s">
-        <v>549</v>
-      </c>
-      <c r="G42" t="s">
-        <v>550</v>
-      </c>
-      <c r="H42" t="s">
-        <v>551</v>
-      </c>
-      <c r="I42" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -4613,22 +4622,22 @@
         <v>159</v>
       </c>
       <c r="D43" t="s">
+        <v>549</v>
+      </c>
+      <c r="E43" t="s">
+        <v>550</v>
+      </c>
+      <c r="F43" t="s">
+        <v>551</v>
+      </c>
+      <c r="G43" t="s">
+        <v>552</v>
+      </c>
+      <c r="H43" t="s">
         <v>553</v>
       </c>
-      <c r="E43" t="s">
+      <c r="I43" t="s">
         <v>554</v>
-      </c>
-      <c r="F43" t="s">
-        <v>555</v>
-      </c>
-      <c r="G43" t="s">
-        <v>556</v>
-      </c>
-      <c r="H43" t="s">
-        <v>557</v>
-      </c>
-      <c r="I43" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -4642,22 +4651,22 @@
         <v>153</v>
       </c>
       <c r="D44" t="s">
+        <v>555</v>
+      </c>
+      <c r="E44" t="s">
+        <v>556</v>
+      </c>
+      <c r="F44" t="s">
+        <v>557</v>
+      </c>
+      <c r="G44" t="s">
+        <v>558</v>
+      </c>
+      <c r="H44" t="s">
         <v>559</v>
       </c>
-      <c r="E44" t="s">
+      <c r="I44" t="s">
         <v>560</v>
-      </c>
-      <c r="F44" t="s">
-        <v>561</v>
-      </c>
-      <c r="G44" t="s">
-        <v>562</v>
-      </c>
-      <c r="H44" t="s">
-        <v>563</v>
-      </c>
-      <c r="I44" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -4671,22 +4680,22 @@
         <v>154</v>
       </c>
       <c r="D45" t="s">
+        <v>561</v>
+      </c>
+      <c r="E45" t="s">
+        <v>562</v>
+      </c>
+      <c r="F45" t="s">
+        <v>563</v>
+      </c>
+      <c r="G45" t="s">
+        <v>564</v>
+      </c>
+      <c r="H45" t="s">
         <v>565</v>
       </c>
-      <c r="E45" t="s">
+      <c r="I45" t="s">
         <v>566</v>
-      </c>
-      <c r="F45" t="s">
-        <v>567</v>
-      </c>
-      <c r="G45" t="s">
-        <v>568</v>
-      </c>
-      <c r="H45" t="s">
-        <v>569</v>
-      </c>
-      <c r="I45" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -4700,22 +4709,22 @@
         <v>158</v>
       </c>
       <c r="D46" t="s">
+        <v>567</v>
+      </c>
+      <c r="E46" t="s">
+        <v>568</v>
+      </c>
+      <c r="F46" t="s">
+        <v>569</v>
+      </c>
+      <c r="G46" t="s">
+        <v>570</v>
+      </c>
+      <c r="H46" t="s">
         <v>571</v>
       </c>
-      <c r="E46" t="s">
+      <c r="I46" t="s">
         <v>572</v>
-      </c>
-      <c r="F46" t="s">
-        <v>573</v>
-      </c>
-      <c r="G46" t="s">
-        <v>574</v>
-      </c>
-      <c r="H46" t="s">
-        <v>575</v>
-      </c>
-      <c r="I46" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -4729,22 +4738,22 @@
         <v>162</v>
       </c>
       <c r="D47" t="s">
+        <v>573</v>
+      </c>
+      <c r="E47" t="s">
+        <v>574</v>
+      </c>
+      <c r="F47" t="s">
+        <v>575</v>
+      </c>
+      <c r="G47" t="s">
+        <v>576</v>
+      </c>
+      <c r="H47" t="s">
         <v>577</v>
       </c>
-      <c r="E47" t="s">
+      <c r="I47" t="s">
         <v>578</v>
-      </c>
-      <c r="F47" t="s">
-        <v>579</v>
-      </c>
-      <c r="G47" t="s">
-        <v>580</v>
-      </c>
-      <c r="H47" t="s">
-        <v>581</v>
-      </c>
-      <c r="I47" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -4758,22 +4767,22 @@
         <v>165</v>
       </c>
       <c r="D48" t="s">
+        <v>579</v>
+      </c>
+      <c r="E48" t="s">
+        <v>580</v>
+      </c>
+      <c r="F48" t="s">
+        <v>581</v>
+      </c>
+      <c r="G48" t="s">
+        <v>582</v>
+      </c>
+      <c r="H48" t="s">
         <v>583</v>
       </c>
-      <c r="E48" t="s">
+      <c r="I48" t="s">
         <v>584</v>
-      </c>
-      <c r="F48" t="s">
-        <v>585</v>
-      </c>
-      <c r="G48" t="s">
-        <v>586</v>
-      </c>
-      <c r="H48" t="s">
-        <v>587</v>
-      </c>
-      <c r="I48" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -4787,22 +4796,22 @@
         <v>168</v>
       </c>
       <c r="D49" t="s">
+        <v>585</v>
+      </c>
+      <c r="E49" t="s">
+        <v>586</v>
+      </c>
+      <c r="F49" t="s">
+        <v>587</v>
+      </c>
+      <c r="G49" t="s">
+        <v>588</v>
+      </c>
+      <c r="H49" t="s">
         <v>589</v>
       </c>
-      <c r="E49" t="s">
+      <c r="I49" t="s">
         <v>590</v>
-      </c>
-      <c r="F49" t="s">
-        <v>591</v>
-      </c>
-      <c r="G49" t="s">
-        <v>592</v>
-      </c>
-      <c r="H49" t="s">
-        <v>593</v>
-      </c>
-      <c r="I49" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -4816,22 +4825,22 @@
         <v>171</v>
       </c>
       <c r="D50" t="s">
+        <v>591</v>
+      </c>
+      <c r="E50" t="s">
+        <v>592</v>
+      </c>
+      <c r="F50" t="s">
+        <v>593</v>
+      </c>
+      <c r="G50" t="s">
+        <v>594</v>
+      </c>
+      <c r="H50" t="s">
         <v>595</v>
       </c>
-      <c r="E50" t="s">
+      <c r="I50" t="s">
         <v>596</v>
-      </c>
-      <c r="F50" t="s">
-        <v>597</v>
-      </c>
-      <c r="G50" t="s">
-        <v>598</v>
-      </c>
-      <c r="H50" t="s">
-        <v>599</v>
-      </c>
-      <c r="I50" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -4845,22 +4854,22 @@
         <v>176</v>
       </c>
       <c r="D51" t="s">
+        <v>597</v>
+      </c>
+      <c r="E51" t="s">
+        <v>598</v>
+      </c>
+      <c r="F51" t="s">
+        <v>599</v>
+      </c>
+      <c r="G51" t="s">
+        <v>600</v>
+      </c>
+      <c r="H51" t="s">
         <v>601</v>
       </c>
-      <c r="E51" t="s">
+      <c r="I51" t="s">
         <v>602</v>
-      </c>
-      <c r="F51" t="s">
-        <v>603</v>
-      </c>
-      <c r="G51" t="s">
-        <v>604</v>
-      </c>
-      <c r="H51" t="s">
-        <v>605</v>
-      </c>
-      <c r="I51" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -4874,22 +4883,22 @@
         <v>177</v>
       </c>
       <c r="D52" t="s">
+        <v>603</v>
+      </c>
+      <c r="E52" t="s">
+        <v>604</v>
+      </c>
+      <c r="F52" t="s">
+        <v>605</v>
+      </c>
+      <c r="G52" t="s">
+        <v>606</v>
+      </c>
+      <c r="H52" t="s">
         <v>607</v>
       </c>
-      <c r="E52" t="s">
+      <c r="I52" t="s">
         <v>608</v>
-      </c>
-      <c r="F52" t="s">
-        <v>609</v>
-      </c>
-      <c r="G52" t="s">
-        <v>610</v>
-      </c>
-      <c r="H52" t="s">
-        <v>611</v>
-      </c>
-      <c r="I52" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -4903,22 +4912,22 @@
         <v>181</v>
       </c>
       <c r="D53" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="E53" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="F53" t="s">
         <v>180</v>
       </c>
       <c r="G53" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="H53" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="I53" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -4932,22 +4941,22 @@
         <v>182</v>
       </c>
       <c r="D54" t="s">
+        <v>614</v>
+      </c>
+      <c r="E54" t="s">
+        <v>615</v>
+      </c>
+      <c r="F54" t="s">
+        <v>616</v>
+      </c>
+      <c r="G54" t="s">
+        <v>617</v>
+      </c>
+      <c r="H54" t="s">
         <v>618</v>
       </c>
-      <c r="E54" t="s">
+      <c r="I54" t="s">
         <v>619</v>
-      </c>
-      <c r="F54" t="s">
-        <v>620</v>
-      </c>
-      <c r="G54" t="s">
-        <v>621</v>
-      </c>
-      <c r="H54" t="s">
-        <v>622</v>
-      </c>
-      <c r="I54" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -4961,22 +4970,22 @@
         <v>185</v>
       </c>
       <c r="D55" t="s">
+        <v>620</v>
+      </c>
+      <c r="E55" t="s">
+        <v>621</v>
+      </c>
+      <c r="F55" t="s">
+        <v>622</v>
+      </c>
+      <c r="G55" t="s">
+        <v>623</v>
+      </c>
+      <c r="H55" t="s">
         <v>624</v>
       </c>
-      <c r="E55" t="s">
+      <c r="I55" t="s">
         <v>625</v>
-      </c>
-      <c r="F55" t="s">
-        <v>626</v>
-      </c>
-      <c r="G55" t="s">
-        <v>627</v>
-      </c>
-      <c r="H55" t="s">
-        <v>628</v>
-      </c>
-      <c r="I55" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -4990,22 +4999,22 @@
         <v>191</v>
       </c>
       <c r="D56" t="s">
+        <v>626</v>
+      </c>
+      <c r="E56" t="s">
+        <v>627</v>
+      </c>
+      <c r="F56" t="s">
+        <v>628</v>
+      </c>
+      <c r="G56" t="s">
+        <v>629</v>
+      </c>
+      <c r="H56" t="s">
         <v>630</v>
       </c>
-      <c r="E56" t="s">
+      <c r="I56" t="s">
         <v>631</v>
-      </c>
-      <c r="F56" t="s">
-        <v>632</v>
-      </c>
-      <c r="G56" t="s">
-        <v>633</v>
-      </c>
-      <c r="H56" t="s">
-        <v>634</v>
-      </c>
-      <c r="I56" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -5019,22 +5028,22 @@
         <v>192</v>
       </c>
       <c r="D57" t="s">
+        <v>632</v>
+      </c>
+      <c r="E57" t="s">
+        <v>633</v>
+      </c>
+      <c r="F57" t="s">
+        <v>634</v>
+      </c>
+      <c r="G57" t="s">
+        <v>635</v>
+      </c>
+      <c r="H57" t="s">
         <v>636</v>
       </c>
-      <c r="E57" t="s">
+      <c r="I57" t="s">
         <v>637</v>
-      </c>
-      <c r="F57" t="s">
-        <v>638</v>
-      </c>
-      <c r="G57" t="s">
-        <v>639</v>
-      </c>
-      <c r="H57" t="s">
-        <v>640</v>
-      </c>
-      <c r="I57" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -5048,22 +5057,22 @@
         <v>193</v>
       </c>
       <c r="D58" t="s">
+        <v>638</v>
+      </c>
+      <c r="E58" t="s">
+        <v>638</v>
+      </c>
+      <c r="F58" t="s">
+        <v>639</v>
+      </c>
+      <c r="G58" t="s">
+        <v>640</v>
+      </c>
+      <c r="H58" t="s">
+        <v>641</v>
+      </c>
+      <c r="I58" t="s">
         <v>642</v>
-      </c>
-      <c r="E58" t="s">
-        <v>642</v>
-      </c>
-      <c r="F58" t="s">
-        <v>643</v>
-      </c>
-      <c r="G58" t="s">
-        <v>644</v>
-      </c>
-      <c r="H58" t="s">
-        <v>645</v>
-      </c>
-      <c r="I58" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -5077,22 +5086,22 @@
         <v>195</v>
       </c>
       <c r="D59" t="s">
+        <v>643</v>
+      </c>
+      <c r="E59" t="s">
+        <v>644</v>
+      </c>
+      <c r="F59" t="s">
+        <v>645</v>
+      </c>
+      <c r="G59" t="s">
+        <v>646</v>
+      </c>
+      <c r="H59" t="s">
         <v>647</v>
       </c>
-      <c r="E59" t="s">
+      <c r="I59" t="s">
         <v>648</v>
-      </c>
-      <c r="F59" t="s">
-        <v>649</v>
-      </c>
-      <c r="G59" t="s">
-        <v>650</v>
-      </c>
-      <c r="H59" t="s">
-        <v>651</v>
-      </c>
-      <c r="I59" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -5106,22 +5115,22 @@
         <v>199</v>
       </c>
       <c r="D60" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="E60" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="F60" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="G60" t="s">
         <v>198</v>
       </c>
       <c r="H60" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="I60" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -5135,22 +5144,22 @@
         <v>208</v>
       </c>
       <c r="D61" t="s">
+        <v>654</v>
+      </c>
+      <c r="E61" t="s">
+        <v>655</v>
+      </c>
+      <c r="F61" t="s">
+        <v>656</v>
+      </c>
+      <c r="G61" t="s">
+        <v>657</v>
+      </c>
+      <c r="H61" t="s">
         <v>658</v>
       </c>
-      <c r="E61" t="s">
+      <c r="I61" t="s">
         <v>659</v>
-      </c>
-      <c r="F61" t="s">
-        <v>660</v>
-      </c>
-      <c r="G61" t="s">
-        <v>661</v>
-      </c>
-      <c r="H61" t="s">
-        <v>662</v>
-      </c>
-      <c r="I61" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -5164,22 +5173,22 @@
         <v>204</v>
       </c>
       <c r="D62" t="s">
+        <v>660</v>
+      </c>
+      <c r="E62" t="s">
+        <v>661</v>
+      </c>
+      <c r="F62" t="s">
+        <v>662</v>
+      </c>
+      <c r="G62" t="s">
+        <v>663</v>
+      </c>
+      <c r="H62" t="s">
         <v>664</v>
       </c>
-      <c r="E62" t="s">
+      <c r="I62" t="s">
         <v>665</v>
-      </c>
-      <c r="F62" t="s">
-        <v>666</v>
-      </c>
-      <c r="G62" t="s">
-        <v>667</v>
-      </c>
-      <c r="H62" t="s">
-        <v>668</v>
-      </c>
-      <c r="I62" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -5193,22 +5202,22 @@
         <v>207</v>
       </c>
       <c r="D63" t="s">
+        <v>666</v>
+      </c>
+      <c r="E63" t="s">
+        <v>667</v>
+      </c>
+      <c r="F63" t="s">
+        <v>668</v>
+      </c>
+      <c r="G63" t="s">
+        <v>669</v>
+      </c>
+      <c r="H63" t="s">
         <v>670</v>
       </c>
-      <c r="E63" t="s">
+      <c r="I63" t="s">
         <v>671</v>
-      </c>
-      <c r="F63" t="s">
-        <v>672</v>
-      </c>
-      <c r="G63" t="s">
-        <v>673</v>
-      </c>
-      <c r="H63" t="s">
-        <v>674</v>
-      </c>
-      <c r="I63" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -5222,22 +5231,22 @@
         <v>211</v>
       </c>
       <c r="D64" t="s">
+        <v>672</v>
+      </c>
+      <c r="E64" t="s">
+        <v>673</v>
+      </c>
+      <c r="F64" t="s">
+        <v>674</v>
+      </c>
+      <c r="G64" t="s">
+        <v>675</v>
+      </c>
+      <c r="H64" t="s">
         <v>676</v>
       </c>
-      <c r="E64" t="s">
+      <c r="I64" t="s">
         <v>677</v>
-      </c>
-      <c r="F64" t="s">
-        <v>678</v>
-      </c>
-      <c r="G64" t="s">
-        <v>679</v>
-      </c>
-      <c r="H64" t="s">
-        <v>680</v>
-      </c>
-      <c r="I64" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -5251,22 +5260,22 @@
         <v>213</v>
       </c>
       <c r="D65" t="s">
+        <v>678</v>
+      </c>
+      <c r="E65" t="s">
+        <v>679</v>
+      </c>
+      <c r="F65" t="s">
+        <v>680</v>
+      </c>
+      <c r="G65" t="s">
+        <v>681</v>
+      </c>
+      <c r="H65" t="s">
         <v>682</v>
       </c>
-      <c r="E65" t="s">
+      <c r="I65" t="s">
         <v>683</v>
-      </c>
-      <c r="F65" t="s">
-        <v>684</v>
-      </c>
-      <c r="G65" t="s">
-        <v>685</v>
-      </c>
-      <c r="H65" t="s">
-        <v>686</v>
-      </c>
-      <c r="I65" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -5280,22 +5289,22 @@
         <v>217</v>
       </c>
       <c r="D66" t="s">
+        <v>684</v>
+      </c>
+      <c r="E66" t="s">
+        <v>685</v>
+      </c>
+      <c r="F66" t="s">
+        <v>686</v>
+      </c>
+      <c r="G66" t="s">
+        <v>687</v>
+      </c>
+      <c r="H66" t="s">
         <v>688</v>
       </c>
-      <c r="E66" t="s">
+      <c r="I66" t="s">
         <v>689</v>
-      </c>
-      <c r="F66" t="s">
-        <v>690</v>
-      </c>
-      <c r="G66" t="s">
-        <v>691</v>
-      </c>
-      <c r="H66" t="s">
-        <v>692</v>
-      </c>
-      <c r="I66" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -5309,22 +5318,22 @@
         <v>241</v>
       </c>
       <c r="D67" t="s">
+        <v>690</v>
+      </c>
+      <c r="E67" t="s">
+        <v>691</v>
+      </c>
+      <c r="F67" t="s">
+        <v>692</v>
+      </c>
+      <c r="G67" t="s">
+        <v>693</v>
+      </c>
+      <c r="H67" t="s">
         <v>694</v>
       </c>
-      <c r="E67" t="s">
+      <c r="I67" t="s">
         <v>695</v>
-      </c>
-      <c r="F67" t="s">
-        <v>696</v>
-      </c>
-      <c r="G67" t="s">
-        <v>697</v>
-      </c>
-      <c r="H67" t="s">
-        <v>698</v>
-      </c>
-      <c r="I67" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -5338,22 +5347,22 @@
         <v>244</v>
       </c>
       <c r="D68" t="s">
+        <v>696</v>
+      </c>
+      <c r="E68" t="s">
+        <v>697</v>
+      </c>
+      <c r="F68" t="s">
+        <v>698</v>
+      </c>
+      <c r="G68" t="s">
+        <v>699</v>
+      </c>
+      <c r="H68" t="s">
         <v>700</v>
       </c>
-      <c r="E68" t="s">
+      <c r="I68" t="s">
         <v>701</v>
-      </c>
-      <c r="F68" t="s">
-        <v>702</v>
-      </c>
-      <c r="G68" t="s">
-        <v>703</v>
-      </c>
-      <c r="H68" t="s">
-        <v>704</v>
-      </c>
-      <c r="I68" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -5367,22 +5376,22 @@
         <v>223</v>
       </c>
       <c r="D69" t="s">
+        <v>702</v>
+      </c>
+      <c r="E69" t="s">
+        <v>703</v>
+      </c>
+      <c r="F69" t="s">
+        <v>704</v>
+      </c>
+      <c r="G69" t="s">
+        <v>705</v>
+      </c>
+      <c r="H69" t="s">
         <v>706</v>
       </c>
-      <c r="E69" t="s">
+      <c r="I69" t="s">
         <v>707</v>
-      </c>
-      <c r="F69" t="s">
-        <v>708</v>
-      </c>
-      <c r="G69" t="s">
-        <v>709</v>
-      </c>
-      <c r="H69" t="s">
-        <v>710</v>
-      </c>
-      <c r="I69" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -5396,22 +5405,22 @@
         <v>226</v>
       </c>
       <c r="D70" t="s">
+        <v>708</v>
+      </c>
+      <c r="E70" t="s">
+        <v>709</v>
+      </c>
+      <c r="F70" t="s">
+        <v>710</v>
+      </c>
+      <c r="G70" t="s">
+        <v>711</v>
+      </c>
+      <c r="H70" t="s">
         <v>712</v>
       </c>
-      <c r="E70" t="s">
+      <c r="I70" t="s">
         <v>713</v>
-      </c>
-      <c r="F70" t="s">
-        <v>714</v>
-      </c>
-      <c r="G70" t="s">
-        <v>715</v>
-      </c>
-      <c r="H70" t="s">
-        <v>716</v>
-      </c>
-      <c r="I70" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -5425,22 +5434,22 @@
         <v>227</v>
       </c>
       <c r="D71" t="s">
+        <v>714</v>
+      </c>
+      <c r="E71" t="s">
+        <v>715</v>
+      </c>
+      <c r="F71" t="s">
+        <v>716</v>
+      </c>
+      <c r="G71" t="s">
+        <v>717</v>
+      </c>
+      <c r="H71" t="s">
         <v>718</v>
       </c>
-      <c r="E71" t="s">
+      <c r="I71" t="s">
         <v>719</v>
-      </c>
-      <c r="F71" t="s">
-        <v>720</v>
-      </c>
-      <c r="G71" t="s">
-        <v>721</v>
-      </c>
-      <c r="H71" t="s">
-        <v>722</v>
-      </c>
-      <c r="I71" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -5454,22 +5463,22 @@
         <v>231</v>
       </c>
       <c r="D72" t="s">
+        <v>720</v>
+      </c>
+      <c r="E72" t="s">
+        <v>721</v>
+      </c>
+      <c r="F72" t="s">
+        <v>722</v>
+      </c>
+      <c r="G72" t="s">
+        <v>723</v>
+      </c>
+      <c r="H72" t="s">
         <v>724</v>
       </c>
-      <c r="E72" t="s">
+      <c r="I72" t="s">
         <v>725</v>
-      </c>
-      <c r="F72" t="s">
-        <v>726</v>
-      </c>
-      <c r="G72" t="s">
-        <v>727</v>
-      </c>
-      <c r="H72" t="s">
-        <v>728</v>
-      </c>
-      <c r="I72" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -5483,22 +5492,22 @@
         <v>236</v>
       </c>
       <c r="D73" t="s">
+        <v>726</v>
+      </c>
+      <c r="E73" t="s">
+        <v>727</v>
+      </c>
+      <c r="F73" t="s">
+        <v>728</v>
+      </c>
+      <c r="G73" t="s">
+        <v>729</v>
+      </c>
+      <c r="H73" t="s">
         <v>730</v>
       </c>
-      <c r="E73" t="s">
+      <c r="I73" t="s">
         <v>731</v>
-      </c>
-      <c r="F73" t="s">
-        <v>732</v>
-      </c>
-      <c r="G73" t="s">
-        <v>733</v>
-      </c>
-      <c r="H73" t="s">
-        <v>734</v>
-      </c>
-      <c r="I73" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -5512,22 +5521,22 @@
         <v>237</v>
       </c>
       <c r="D74" t="s">
+        <v>732</v>
+      </c>
+      <c r="E74" t="s">
+        <v>733</v>
+      </c>
+      <c r="F74" t="s">
+        <v>734</v>
+      </c>
+      <c r="G74" t="s">
+        <v>735</v>
+      </c>
+      <c r="H74" t="s">
         <v>736</v>
       </c>
-      <c r="E74" t="s">
+      <c r="I74" t="s">
         <v>737</v>
-      </c>
-      <c r="F74" t="s">
-        <v>738</v>
-      </c>
-      <c r="G74" t="s">
-        <v>739</v>
-      </c>
-      <c r="H74" t="s">
-        <v>740</v>
-      </c>
-      <c r="I74" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -5541,22 +5550,22 @@
         <v>240</v>
       </c>
       <c r="D75" t="s">
+        <v>738</v>
+      </c>
+      <c r="E75" t="s">
+        <v>739</v>
+      </c>
+      <c r="F75" t="s">
+        <v>740</v>
+      </c>
+      <c r="G75" t="s">
+        <v>741</v>
+      </c>
+      <c r="H75" t="s">
         <v>742</v>
       </c>
-      <c r="E75" t="s">
+      <c r="I75" t="s">
         <v>743</v>
-      </c>
-      <c r="F75" t="s">
-        <v>744</v>
-      </c>
-      <c r="G75" t="s">
-        <v>745</v>
-      </c>
-      <c r="H75" t="s">
-        <v>746</v>
-      </c>
-      <c r="I75" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -5570,22 +5579,22 @@
         <v>247</v>
       </c>
       <c r="D76" t="s">
+        <v>744</v>
+      </c>
+      <c r="E76" t="s">
+        <v>745</v>
+      </c>
+      <c r="F76" t="s">
+        <v>746</v>
+      </c>
+      <c r="G76" t="s">
+        <v>747</v>
+      </c>
+      <c r="H76" t="s">
         <v>748</v>
       </c>
-      <c r="E76" t="s">
+      <c r="I76" t="s">
         <v>749</v>
-      </c>
-      <c r="F76" t="s">
-        <v>750</v>
-      </c>
-      <c r="G76" t="s">
-        <v>751</v>
-      </c>
-      <c r="H76" t="s">
-        <v>752</v>
-      </c>
-      <c r="I76" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -5599,22 +5608,22 @@
         <v>252</v>
       </c>
       <c r="D77" t="s">
+        <v>750</v>
+      </c>
+      <c r="E77" t="s">
+        <v>751</v>
+      </c>
+      <c r="F77" t="s">
+        <v>752</v>
+      </c>
+      <c r="G77" t="s">
+        <v>753</v>
+      </c>
+      <c r="H77" t="s">
         <v>754</v>
       </c>
-      <c r="E77" t="s">
+      <c r="I77" t="s">
         <v>755</v>
-      </c>
-      <c r="F77" t="s">
-        <v>756</v>
-      </c>
-      <c r="G77" t="s">
-        <v>757</v>
-      </c>
-      <c r="H77" t="s">
-        <v>758</v>
-      </c>
-      <c r="I77" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -5628,22 +5637,22 @@
         <v>253</v>
       </c>
       <c r="D78" t="s">
+        <v>756</v>
+      </c>
+      <c r="E78" t="s">
+        <v>757</v>
+      </c>
+      <c r="F78" t="s">
+        <v>758</v>
+      </c>
+      <c r="G78" t="s">
+        <v>759</v>
+      </c>
+      <c r="H78" t="s">
         <v>760</v>
       </c>
-      <c r="E78" t="s">
+      <c r="I78" t="s">
         <v>761</v>
-      </c>
-      <c r="F78" t="s">
-        <v>762</v>
-      </c>
-      <c r="G78" t="s">
-        <v>763</v>
-      </c>
-      <c r="H78" t="s">
-        <v>764</v>
-      </c>
-      <c r="I78" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -5651,28 +5660,28 @@
         <v>254</v>
       </c>
       <c r="B79" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="C79" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="D79" t="s">
+        <v>762</v>
+      </c>
+      <c r="E79" t="s">
+        <v>763</v>
+      </c>
+      <c r="F79" t="s">
+        <v>764</v>
+      </c>
+      <c r="G79" t="s">
+        <v>765</v>
+      </c>
+      <c r="H79" t="s">
         <v>766</v>
       </c>
-      <c r="E79" t="s">
+      <c r="I79" t="s">
         <v>767</v>
-      </c>
-      <c r="F79" t="s">
-        <v>768</v>
-      </c>
-      <c r="G79" t="s">
-        <v>769</v>
-      </c>
-      <c r="H79" t="s">
-        <v>770</v>
-      </c>
-      <c r="I79" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -5686,22 +5695,22 @@
         <v>264</v>
       </c>
       <c r="D80" t="s">
+        <v>768</v>
+      </c>
+      <c r="E80" t="s">
+        <v>769</v>
+      </c>
+      <c r="F80" t="s">
+        <v>770</v>
+      </c>
+      <c r="G80" t="s">
+        <v>771</v>
+      </c>
+      <c r="H80" t="s">
         <v>772</v>
       </c>
-      <c r="E80" t="s">
+      <c r="I80" t="s">
         <v>773</v>
-      </c>
-      <c r="F80" t="s">
-        <v>774</v>
-      </c>
-      <c r="G80" t="s">
-        <v>775</v>
-      </c>
-      <c r="H80" t="s">
-        <v>776</v>
-      </c>
-      <c r="I80" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -5709,28 +5718,28 @@
         <v>271</v>
       </c>
       <c r="B81" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="C81" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="D81" t="s">
+        <v>774</v>
+      </c>
+      <c r="E81" t="s">
+        <v>775</v>
+      </c>
+      <c r="F81" t="s">
+        <v>776</v>
+      </c>
+      <c r="G81" t="s">
+        <v>777</v>
+      </c>
+      <c r="H81" t="s">
         <v>778</v>
       </c>
-      <c r="E81" t="s">
+      <c r="I81" t="s">
         <v>779</v>
-      </c>
-      <c r="F81" t="s">
-        <v>780</v>
-      </c>
-      <c r="G81" t="s">
-        <v>781</v>
-      </c>
-      <c r="H81" t="s">
-        <v>782</v>
-      </c>
-      <c r="I81" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -5744,22 +5753,22 @@
         <v>265</v>
       </c>
       <c r="D82" t="s">
+        <v>780</v>
+      </c>
+      <c r="E82" t="s">
+        <v>781</v>
+      </c>
+      <c r="F82" t="s">
+        <v>782</v>
+      </c>
+      <c r="G82" t="s">
+        <v>783</v>
+      </c>
+      <c r="H82" t="s">
         <v>784</v>
       </c>
-      <c r="E82" t="s">
+      <c r="I82" t="s">
         <v>785</v>
-      </c>
-      <c r="F82" t="s">
-        <v>786</v>
-      </c>
-      <c r="G82" t="s">
-        <v>787</v>
-      </c>
-      <c r="H82" t="s">
-        <v>788</v>
-      </c>
-      <c r="I82" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -5773,22 +5782,22 @@
         <v>266</v>
       </c>
       <c r="D83" t="s">
+        <v>786</v>
+      </c>
+      <c r="E83" t="s">
+        <v>787</v>
+      </c>
+      <c r="F83" t="s">
+        <v>788</v>
+      </c>
+      <c r="G83" t="s">
+        <v>789</v>
+      </c>
+      <c r="H83" t="s">
         <v>790</v>
       </c>
-      <c r="E83" t="s">
+      <c r="I83" t="s">
         <v>791</v>
-      </c>
-      <c r="F83" t="s">
-        <v>792</v>
-      </c>
-      <c r="G83" t="s">
-        <v>793</v>
-      </c>
-      <c r="H83" t="s">
-        <v>794</v>
-      </c>
-      <c r="I83" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -5802,22 +5811,22 @@
         <v>268</v>
       </c>
       <c r="D84" t="s">
+        <v>792</v>
+      </c>
+      <c r="E84" t="s">
+        <v>793</v>
+      </c>
+      <c r="F84" t="s">
+        <v>794</v>
+      </c>
+      <c r="G84" t="s">
+        <v>795</v>
+      </c>
+      <c r="H84" t="s">
         <v>796</v>
       </c>
-      <c r="E84" t="s">
+      <c r="I84" t="s">
         <v>797</v>
-      </c>
-      <c r="F84" t="s">
-        <v>798</v>
-      </c>
-      <c r="G84" t="s">
-        <v>799</v>
-      </c>
-      <c r="H84" t="s">
-        <v>800</v>
-      </c>
-      <c r="I84" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -5831,22 +5840,22 @@
         <v>267</v>
       </c>
       <c r="D85" t="s">
+        <v>798</v>
+      </c>
+      <c r="E85" t="s">
+        <v>799</v>
+      </c>
+      <c r="F85" t="s">
+        <v>800</v>
+      </c>
+      <c r="G85" t="s">
+        <v>801</v>
+      </c>
+      <c r="H85" t="s">
+        <v>800</v>
+      </c>
+      <c r="I85" t="s">
         <v>802</v>
-      </c>
-      <c r="E85" t="s">
-        <v>803</v>
-      </c>
-      <c r="F85" t="s">
-        <v>804</v>
-      </c>
-      <c r="G85" t="s">
-        <v>805</v>
-      </c>
-      <c r="H85" t="s">
-        <v>804</v>
-      </c>
-      <c r="I85" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -5860,22 +5869,22 @@
         <v>273</v>
       </c>
       <c r="D86" t="s">
+        <v>803</v>
+      </c>
+      <c r="E86" t="s">
+        <v>804</v>
+      </c>
+      <c r="F86" t="s">
+        <v>805</v>
+      </c>
+      <c r="G86" t="s">
+        <v>806</v>
+      </c>
+      <c r="H86" t="s">
         <v>807</v>
       </c>
-      <c r="E86" t="s">
+      <c r="I86" t="s">
         <v>808</v>
-      </c>
-      <c r="F86" t="s">
-        <v>809</v>
-      </c>
-      <c r="G86" t="s">
-        <v>810</v>
-      </c>
-      <c r="H86" t="s">
-        <v>811</v>
-      </c>
-      <c r="I86" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -5889,22 +5898,22 @@
         <v>277</v>
       </c>
       <c r="D87" t="s">
+        <v>809</v>
+      </c>
+      <c r="E87" t="s">
+        <v>810</v>
+      </c>
+      <c r="F87" t="s">
+        <v>811</v>
+      </c>
+      <c r="G87" t="s">
+        <v>812</v>
+      </c>
+      <c r="H87" t="s">
         <v>813</v>
       </c>
-      <c r="E87" t="s">
+      <c r="I87" t="s">
         <v>814</v>
-      </c>
-      <c r="F87" t="s">
-        <v>815</v>
-      </c>
-      <c r="G87" t="s">
-        <v>816</v>
-      </c>
-      <c r="H87" t="s">
-        <v>817</v>
-      </c>
-      <c r="I87" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -5918,22 +5927,22 @@
         <v>280</v>
       </c>
       <c r="D88" t="s">
+        <v>815</v>
+      </c>
+      <c r="E88" t="s">
+        <v>816</v>
+      </c>
+      <c r="F88" t="s">
+        <v>817</v>
+      </c>
+      <c r="G88" t="s">
+        <v>818</v>
+      </c>
+      <c r="H88" t="s">
         <v>819</v>
       </c>
-      <c r="E88" t="s">
+      <c r="I88" t="s">
         <v>820</v>
-      </c>
-      <c r="F88" t="s">
-        <v>821</v>
-      </c>
-      <c r="G88" t="s">
-        <v>822</v>
-      </c>
-      <c r="H88" t="s">
-        <v>823</v>
-      </c>
-      <c r="I88" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -5941,28 +5950,28 @@
         <v>281</v>
       </c>
       <c r="B89" t="s">
-        <v>291</v>
+        <v>987</v>
       </c>
       <c r="C89" t="s">
-        <v>293</v>
+        <v>986</v>
       </c>
       <c r="D89" t="s">
+        <v>821</v>
+      </c>
+      <c r="E89" t="s">
+        <v>822</v>
+      </c>
+      <c r="F89" t="s">
+        <v>823</v>
+      </c>
+      <c r="G89" t="s">
+        <v>824</v>
+      </c>
+      <c r="H89" t="s">
         <v>825</v>
       </c>
-      <c r="E89" t="s">
+      <c r="I89" t="s">
         <v>826</v>
-      </c>
-      <c r="F89" t="s">
-        <v>827</v>
-      </c>
-      <c r="G89" t="s">
-        <v>828</v>
-      </c>
-      <c r="H89" t="s">
-        <v>829</v>
-      </c>
-      <c r="I89" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -5970,28 +5979,28 @@
         <v>282</v>
       </c>
       <c r="B90" t="s">
+        <v>291</v>
+      </c>
+      <c r="C90" t="s">
         <v>292</v>
       </c>
-      <c r="C90" t="s">
-        <v>294</v>
-      </c>
       <c r="D90" t="s">
+        <v>827</v>
+      </c>
+      <c r="E90" t="s">
+        <v>828</v>
+      </c>
+      <c r="F90" t="s">
+        <v>829</v>
+      </c>
+      <c r="G90" t="s">
+        <v>830</v>
+      </c>
+      <c r="H90" t="s">
         <v>831</v>
       </c>
-      <c r="E90" t="s">
+      <c r="I90" t="s">
         <v>832</v>
-      </c>
-      <c r="F90" t="s">
-        <v>833</v>
-      </c>
-      <c r="G90" t="s">
-        <v>834</v>
-      </c>
-      <c r="H90" t="s">
-        <v>835</v>
-      </c>
-      <c r="I90" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -6002,25 +6011,25 @@
         <v>287</v>
       </c>
       <c r="C91" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D91" t="s">
+        <v>833</v>
+      </c>
+      <c r="E91" t="s">
+        <v>834</v>
+      </c>
+      <c r="F91" t="s">
+        <v>835</v>
+      </c>
+      <c r="G91" t="s">
+        <v>836</v>
+      </c>
+      <c r="H91" t="s">
         <v>837</v>
       </c>
-      <c r="E91" t="s">
+      <c r="I91" t="s">
         <v>838</v>
-      </c>
-      <c r="F91" t="s">
-        <v>839</v>
-      </c>
-      <c r="G91" t="s">
-        <v>840</v>
-      </c>
-      <c r="H91" t="s">
-        <v>841</v>
-      </c>
-      <c r="I91" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -6031,25 +6040,25 @@
         <v>288</v>
       </c>
       <c r="C92" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D92" t="s">
+        <v>839</v>
+      </c>
+      <c r="E92" t="s">
+        <v>840</v>
+      </c>
+      <c r="F92" t="s">
+        <v>841</v>
+      </c>
+      <c r="G92" t="s">
+        <v>842</v>
+      </c>
+      <c r="H92" t="s">
         <v>843</v>
       </c>
-      <c r="E92" t="s">
+      <c r="I92" t="s">
         <v>844</v>
-      </c>
-      <c r="F92" t="s">
-        <v>845</v>
-      </c>
-      <c r="G92" t="s">
-        <v>846</v>
-      </c>
-      <c r="H92" t="s">
-        <v>847</v>
-      </c>
-      <c r="I92" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -6060,25 +6069,25 @@
         <v>289</v>
       </c>
       <c r="C93" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D93" t="s">
+        <v>845</v>
+      </c>
+      <c r="E93" t="s">
+        <v>846</v>
+      </c>
+      <c r="F93" t="s">
+        <v>847</v>
+      </c>
+      <c r="G93" t="s">
+        <v>848</v>
+      </c>
+      <c r="H93" t="s">
         <v>849</v>
       </c>
-      <c r="E93" t="s">
+      <c r="I93" t="s">
         <v>850</v>
-      </c>
-      <c r="F93" t="s">
-        <v>851</v>
-      </c>
-      <c r="G93" t="s">
-        <v>852</v>
-      </c>
-      <c r="H93" t="s">
-        <v>853</v>
-      </c>
-      <c r="I93" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -6089,320 +6098,320 @@
         <v>290</v>
       </c>
       <c r="C94" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D94" t="s">
+        <v>851</v>
+      </c>
+      <c r="E94" t="s">
+        <v>852</v>
+      </c>
+      <c r="F94" t="s">
+        <v>853</v>
+      </c>
+      <c r="G94" t="s">
+        <v>854</v>
+      </c>
+      <c r="H94" t="s">
         <v>855</v>
       </c>
-      <c r="E94" t="s">
+      <c r="I94" t="s">
         <v>856</v>
-      </c>
-      <c r="F94" t="s">
-        <v>857</v>
-      </c>
-      <c r="G94" t="s">
-        <v>858</v>
-      </c>
-      <c r="H94" t="s">
-        <v>859</v>
-      </c>
-      <c r="I94" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B95" t="s">
-        <v>305</v>
+        <v>981</v>
       </c>
       <c r="C95" t="s">
-        <v>311</v>
+        <v>982</v>
       </c>
       <c r="D95" t="s">
+        <v>857</v>
+      </c>
+      <c r="E95" t="s">
+        <v>858</v>
+      </c>
+      <c r="F95" t="s">
+        <v>859</v>
+      </c>
+      <c r="G95" t="s">
+        <v>860</v>
+      </c>
+      <c r="H95" t="s">
         <v>861</v>
       </c>
-      <c r="E95" t="s">
+      <c r="I95" t="s">
         <v>862</v>
-      </c>
-      <c r="F95" t="s">
-        <v>863</v>
-      </c>
-      <c r="G95" t="s">
-        <v>864</v>
-      </c>
-      <c r="H95" t="s">
-        <v>865</v>
-      </c>
-      <c r="I95" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B96" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C96" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D96" t="s">
+        <v>863</v>
+      </c>
+      <c r="E96" t="s">
+        <v>864</v>
+      </c>
+      <c r="F96" t="s">
+        <v>865</v>
+      </c>
+      <c r="G96" t="s">
+        <v>866</v>
+      </c>
+      <c r="H96" t="s">
         <v>867</v>
       </c>
-      <c r="E96" t="s">
+      <c r="I96" t="s">
         <v>868</v>
-      </c>
-      <c r="F96" t="s">
-        <v>869</v>
-      </c>
-      <c r="G96" t="s">
-        <v>870</v>
-      </c>
-      <c r="H96" t="s">
-        <v>871</v>
-      </c>
-      <c r="I96" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B97" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C97" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D97" t="s">
+        <v>869</v>
+      </c>
+      <c r="E97" t="s">
+        <v>870</v>
+      </c>
+      <c r="F97" t="s">
+        <v>871</v>
+      </c>
+      <c r="G97" t="s">
+        <v>872</v>
+      </c>
+      <c r="H97" t="s">
         <v>873</v>
       </c>
-      <c r="E97" t="s">
+      <c r="I97" t="s">
         <v>874</v>
-      </c>
-      <c r="F97" t="s">
-        <v>875</v>
-      </c>
-      <c r="G97" t="s">
-        <v>876</v>
-      </c>
-      <c r="H97" t="s">
-        <v>877</v>
-      </c>
-      <c r="I97" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B98" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C98" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D98" t="s">
+        <v>875</v>
+      </c>
+      <c r="E98" t="s">
+        <v>876</v>
+      </c>
+      <c r="F98" t="s">
+        <v>877</v>
+      </c>
+      <c r="G98" t="s">
+        <v>878</v>
+      </c>
+      <c r="H98" t="s">
         <v>879</v>
       </c>
-      <c r="E98" t="s">
+      <c r="I98" t="s">
         <v>880</v>
-      </c>
-      <c r="F98" t="s">
-        <v>881</v>
-      </c>
-      <c r="G98" t="s">
-        <v>882</v>
-      </c>
-      <c r="H98" t="s">
-        <v>883</v>
-      </c>
-      <c r="I98" t="s">
-        <v>884</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B99" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C99" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D99" t="s">
+        <v>881</v>
+      </c>
+      <c r="E99" t="s">
+        <v>882</v>
+      </c>
+      <c r="F99" t="s">
+        <v>883</v>
+      </c>
+      <c r="G99" t="s">
+        <v>884</v>
+      </c>
+      <c r="H99" t="s">
         <v>885</v>
       </c>
-      <c r="E99" t="s">
+      <c r="I99" t="s">
         <v>886</v>
-      </c>
-      <c r="F99" t="s">
-        <v>887</v>
-      </c>
-      <c r="G99" t="s">
-        <v>888</v>
-      </c>
-      <c r="H99" t="s">
-        <v>889</v>
-      </c>
-      <c r="I99" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B100" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C100" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D100" t="s">
+        <v>887</v>
+      </c>
+      <c r="E100" t="s">
+        <v>888</v>
+      </c>
+      <c r="F100" t="s">
+        <v>889</v>
+      </c>
+      <c r="G100" t="s">
+        <v>890</v>
+      </c>
+      <c r="H100" t="s">
         <v>891</v>
       </c>
-      <c r="E100" t="s">
+      <c r="I100" t="s">
         <v>892</v>
-      </c>
-      <c r="F100" t="s">
-        <v>893</v>
-      </c>
-      <c r="G100" t="s">
-        <v>894</v>
-      </c>
-      <c r="H100" t="s">
-        <v>895</v>
-      </c>
-      <c r="I100" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>313</v>
+      </c>
+      <c r="B101" t="s">
+        <v>315</v>
+      </c>
+      <c r="C101" t="s">
         <v>317</v>
       </c>
-      <c r="B101" t="s">
-        <v>319</v>
-      </c>
-      <c r="C101" t="s">
-        <v>321</v>
-      </c>
       <c r="D101" t="s">
+        <v>893</v>
+      </c>
+      <c r="E101" t="s">
+        <v>894</v>
+      </c>
+      <c r="F101" t="s">
+        <v>895</v>
+      </c>
+      <c r="G101" t="s">
+        <v>896</v>
+      </c>
+      <c r="H101" t="s">
         <v>897</v>
       </c>
-      <c r="E101" t="s">
+      <c r="I101" t="s">
         <v>898</v>
-      </c>
-      <c r="F101" t="s">
-        <v>899</v>
-      </c>
-      <c r="G101" t="s">
-        <v>900</v>
-      </c>
-      <c r="H101" t="s">
-        <v>901</v>
-      </c>
-      <c r="I101" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>314</v>
+      </c>
+      <c r="B102" t="s">
+        <v>316</v>
+      </c>
+      <c r="C102" t="s">
         <v>318</v>
       </c>
-      <c r="B102" t="s">
-        <v>320</v>
-      </c>
-      <c r="C102" t="s">
-        <v>322</v>
-      </c>
       <c r="D102" t="s">
+        <v>899</v>
+      </c>
+      <c r="E102" t="s">
+        <v>900</v>
+      </c>
+      <c r="F102" t="s">
+        <v>901</v>
+      </c>
+      <c r="G102" t="s">
+        <v>902</v>
+      </c>
+      <c r="H102" t="s">
         <v>903</v>
       </c>
-      <c r="E102" t="s">
+      <c r="I102" t="s">
         <v>904</v>
-      </c>
-      <c r="F102" t="s">
-        <v>905</v>
-      </c>
-      <c r="G102" t="s">
-        <v>906</v>
-      </c>
-      <c r="H102" t="s">
-        <v>907</v>
-      </c>
-      <c r="I102" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B103" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C103" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D103" t="s">
+        <v>905</v>
+      </c>
+      <c r="E103" t="s">
+        <v>906</v>
+      </c>
+      <c r="F103" t="s">
+        <v>907</v>
+      </c>
+      <c r="G103" t="s">
+        <v>908</v>
+      </c>
+      <c r="H103" t="s">
         <v>909</v>
       </c>
-      <c r="E103" t="s">
+      <c r="I103" t="s">
         <v>910</v>
-      </c>
-      <c r="F103" t="s">
-        <v>911</v>
-      </c>
-      <c r="G103" t="s">
-        <v>912</v>
-      </c>
-      <c r="H103" t="s">
-        <v>913</v>
-      </c>
-      <c r="I103" t="s">
-        <v>914</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B104" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C104" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D104" t="s">
+        <v>911</v>
+      </c>
+      <c r="E104" t="s">
+        <v>912</v>
+      </c>
+      <c r="F104" t="s">
+        <v>913</v>
+      </c>
+      <c r="G104" t="s">
+        <v>914</v>
+      </c>
+      <c r="H104" t="s">
         <v>915</v>
       </c>
-      <c r="E104" t="s">
+      <c r="I104" t="s">
         <v>916</v>
-      </c>
-      <c r="F104" t="s">
-        <v>917</v>
-      </c>
-      <c r="G104" t="s">
-        <v>918</v>
-      </c>
-      <c r="H104" t="s">
-        <v>919</v>
-      </c>
-      <c r="I104" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B105" t="s">
         <v>262</v>
@@ -6411,27 +6420,27 @@
         <v>265</v>
       </c>
       <c r="D105" t="s">
+        <v>780</v>
+      </c>
+      <c r="E105" t="s">
+        <v>781</v>
+      </c>
+      <c r="F105" t="s">
+        <v>782</v>
+      </c>
+      <c r="G105" t="s">
+        <v>783</v>
+      </c>
+      <c r="H105" t="s">
         <v>784</v>
       </c>
-      <c r="E105" t="s">
+      <c r="I105" t="s">
         <v>785</v>
-      </c>
-      <c r="F105" t="s">
-        <v>786</v>
-      </c>
-      <c r="G105" t="s">
-        <v>787</v>
-      </c>
-      <c r="H105" t="s">
-        <v>788</v>
-      </c>
-      <c r="I105" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B106" t="s">
         <v>263</v>
@@ -6440,85 +6449,85 @@
         <v>266</v>
       </c>
       <c r="D106" t="s">
+        <v>786</v>
+      </c>
+      <c r="E106" t="s">
+        <v>787</v>
+      </c>
+      <c r="F106" t="s">
+        <v>788</v>
+      </c>
+      <c r="G106" t="s">
+        <v>789</v>
+      </c>
+      <c r="H106" t="s">
         <v>790</v>
       </c>
-      <c r="E106" t="s">
+      <c r="I106" t="s">
         <v>791</v>
-      </c>
-      <c r="F106" t="s">
-        <v>792</v>
-      </c>
-      <c r="G106" t="s">
-        <v>793</v>
-      </c>
-      <c r="H106" t="s">
-        <v>794</v>
-      </c>
-      <c r="I106" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B107" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C107" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D107" t="s">
+        <v>917</v>
+      </c>
+      <c r="E107" t="s">
+        <v>918</v>
+      </c>
+      <c r="F107" t="s">
+        <v>919</v>
+      </c>
+      <c r="G107" t="s">
+        <v>920</v>
+      </c>
+      <c r="H107" t="s">
         <v>921</v>
       </c>
-      <c r="E107" t="s">
+      <c r="I107" t="s">
         <v>922</v>
-      </c>
-      <c r="F107" t="s">
-        <v>923</v>
-      </c>
-      <c r="G107" t="s">
-        <v>924</v>
-      </c>
-      <c r="H107" t="s">
-        <v>925</v>
-      </c>
-      <c r="I107" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B108" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C108" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D108" t="s">
+        <v>923</v>
+      </c>
+      <c r="E108" t="s">
+        <v>924</v>
+      </c>
+      <c r="F108" t="s">
+        <v>925</v>
+      </c>
+      <c r="G108" t="s">
+        <v>926</v>
+      </c>
+      <c r="H108" t="s">
         <v>927</v>
       </c>
-      <c r="E108" t="s">
+      <c r="I108" t="s">
         <v>928</v>
-      </c>
-      <c r="F108" t="s">
-        <v>929</v>
-      </c>
-      <c r="G108" t="s">
-        <v>930</v>
-      </c>
-      <c r="H108" t="s">
-        <v>931</v>
-      </c>
-      <c r="I108" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B109" t="s">
         <v>262</v>
@@ -6527,27 +6536,27 @@
         <v>265</v>
       </c>
       <c r="D109" t="s">
+        <v>780</v>
+      </c>
+      <c r="E109" t="s">
+        <v>781</v>
+      </c>
+      <c r="F109" t="s">
+        <v>782</v>
+      </c>
+      <c r="G109" t="s">
+        <v>783</v>
+      </c>
+      <c r="H109" t="s">
         <v>784</v>
       </c>
-      <c r="E109" t="s">
+      <c r="I109" t="s">
         <v>785</v>
-      </c>
-      <c r="F109" t="s">
-        <v>786</v>
-      </c>
-      <c r="G109" t="s">
-        <v>787</v>
-      </c>
-      <c r="H109" t="s">
-        <v>788</v>
-      </c>
-      <c r="I109" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B110" t="s">
         <v>263</v>
@@ -6556,317 +6565,317 @@
         <v>266</v>
       </c>
       <c r="D110" t="s">
+        <v>786</v>
+      </c>
+      <c r="E110" t="s">
+        <v>787</v>
+      </c>
+      <c r="F110" t="s">
+        <v>788</v>
+      </c>
+      <c r="G110" t="s">
+        <v>789</v>
+      </c>
+      <c r="H110" t="s">
         <v>790</v>
       </c>
-      <c r="E110" t="s">
+      <c r="I110" t="s">
         <v>791</v>
-      </c>
-      <c r="F110" t="s">
-        <v>792</v>
-      </c>
-      <c r="G110" t="s">
-        <v>793</v>
-      </c>
-      <c r="H110" t="s">
-        <v>794</v>
-      </c>
-      <c r="I110" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B111" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C111" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D111" t="s">
+        <v>929</v>
+      </c>
+      <c r="E111" t="s">
+        <v>930</v>
+      </c>
+      <c r="F111" t="s">
+        <v>931</v>
+      </c>
+      <c r="G111" t="s">
+        <v>932</v>
+      </c>
+      <c r="H111" t="s">
         <v>933</v>
       </c>
-      <c r="E111" t="s">
+      <c r="I111" t="s">
         <v>934</v>
-      </c>
-      <c r="F111" t="s">
-        <v>935</v>
-      </c>
-      <c r="G111" t="s">
-        <v>936</v>
-      </c>
-      <c r="H111" t="s">
-        <v>937</v>
-      </c>
-      <c r="I111" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="B112" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="C112" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="D112" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="E112" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="F112" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="G112" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="H112" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="I112" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="B113" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="C113" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="D113" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="E113" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="F113" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="G113" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="H113" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="I113" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="B114" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="C114" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="D114" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="E114" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="F114" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="G114" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="H114" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="I114" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="B115" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="C115" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="D115" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="E115" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="F115" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="G115" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="H115" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="I115" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="B116" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="C116" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="D116" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="E116" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="F116" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="G116" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="H116" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="I116" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="B117" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="C117" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="D117" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="E117" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="F117" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="G117" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="H117" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="I117" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="B118" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="C118" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="D118" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="E118" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="F118" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="G118" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="H118" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="I118" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="B119" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="C119" t="s">
         <v>255</v>
       </c>
       <c r="D119" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="E119" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="F119" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="G119" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="H119" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="I119" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>962</v>
+      </c>
+      <c r="B120" t="s">
+        <v>965</v>
+      </c>
+      <c r="C120" t="s">
         <v>966</v>
       </c>
-      <c r="B120" t="s">
-        <v>969</v>
-      </c>
-      <c r="C120" t="s">
-        <v>970</v>
-      </c>
       <c r="D120" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="E120" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="F120" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="G120" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="H120" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="I120" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="B121" t="s">
         <v>262</v>
@@ -6895,7 +6904,7 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="B122" t="s">
         <v>263</v>
@@ -6924,89 +6933,89 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="B123" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="C123" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="D123" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="E123" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="F123" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="G123" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="H123" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="I123" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="B124" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="C124" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="D124" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="E124" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="F124" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="G124" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="H124" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="I124" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="B125" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="C125" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="D125" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="E125" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="F125" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="G125" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="H125" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="I125" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -7017,7 +7026,7 @@
         <v>104</v>
       </c>
       <c r="C126" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="D126" t="s">
         <v>104</v>
@@ -7040,31 +7049,60 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="B127" t="s">
+        <v>979</v>
+      </c>
+      <c r="C127" t="s">
+        <v>980</v>
+      </c>
+      <c r="D127" t="s">
+        <v>979</v>
+      </c>
+      <c r="E127" t="s">
+        <v>979</v>
+      </c>
+      <c r="F127" t="s">
+        <v>979</v>
+      </c>
+      <c r="G127" t="s">
+        <v>979</v>
+      </c>
+      <c r="H127" t="s">
+        <v>979</v>
+      </c>
+      <c r="I127" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>983</v>
       </c>
-      <c r="C127" t="s">
+      <c r="B128" t="s">
         <v>984</v>
       </c>
-      <c r="D127" t="s">
-        <v>983</v>
-      </c>
-      <c r="E127" t="s">
-        <v>983</v>
-      </c>
-      <c r="F127" t="s">
-        <v>983</v>
-      </c>
-      <c r="G127" t="s">
-        <v>983</v>
-      </c>
-      <c r="H127" t="s">
-        <v>983</v>
-      </c>
-      <c r="I127" t="s">
-        <v>983</v>
+      <c r="C128" t="s">
+        <v>985</v>
+      </c>
+      <c r="D128" t="s">
+        <v>984</v>
+      </c>
+      <c r="E128" t="s">
+        <v>984</v>
+      </c>
+      <c r="F128" t="s">
+        <v>984</v>
+      </c>
+      <c r="G128" t="s">
+        <v>984</v>
+      </c>
+      <c r="H128" t="s">
+        <v>984</v>
+      </c>
+      <c r="I128" t="s">
+        <v>984</v>
       </c>
     </row>
   </sheetData>

--- a/src/locales/translations.xlsx
+++ b/src/locales/translations.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\icmm-web\src\locales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318925C4-17E8-4101-97A7-36CCA1B5B854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410D6171-C2CB-491C-850A-CA75818CB92D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{B932D239-48A5-4026-8CCD-CA2BFDECA8AC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B932D239-48A5-4026-8CCD-CA2BFDECA8AC}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
+    <sheet name="BAK_20250814" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BAK_20250814!$A$1:$I$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DATA!$A$1:$I$4</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029" iterateDelta="1.0000000000000001E-5" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="988">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2275" uniqueCount="1024">
   <si>
     <t>id</t>
   </si>
@@ -3003,6 +3005,114 @@
   </si>
   <si>
     <t>Wait payment evidence</t>
+  </si>
+  <si>
+    <t>...Welcome to the Intania Runner shop…</t>
+  </si>
+  <si>
+    <t>...ขอต้อนรับสู่ร้านค้า ชมรมวิ่งวิศวะ จุฬาฯ...</t>
+  </si>
+  <si>
+    <t>KasikornThai</t>
+  </si>
+  <si>
+    <t>ธนาคารกสิกรไทย</t>
+  </si>
+  <si>
+    <t>200-1-39657-1</t>
+  </si>
+  <si>
+    <t>Thanya Leelahabooniem</t>
+  </si>
+  <si>
+    <t>ธัญญา ลีฬหบุญเอี่ยม</t>
+  </si>
+  <si>
+    <t>สลิปหลักฐานการโอน</t>
+  </si>
+  <si>
+    <t>หมายเหตุ</t>
+  </si>
+  <si>
+    <t>เกิดความผิดพลาด</t>
+  </si>
+  <si>
+    <t>ข้อมูลบางส่วนสูญหาย (การใส่ข้อมูล)</t>
+  </si>
+  <si>
+    <t>ข้อมูลบางส่วนสูญหาย (ตะกร้าสินค้า)</t>
+  </si>
+  <si>
+    <t>ผลรวมไม่ถูกต้อง</t>
+  </si>
+  <si>
+    <t>ผลรวมสุดท้ายไม่ถูกต้อง</t>
+  </si>
+  <si>
+    <t>คลิ๊กเพื่ออัพโหลด</t>
+  </si>
+  <si>
+    <t>ยอดชำระรวม</t>
+  </si>
+  <si>
+    <t>นำสลิปออก</t>
+  </si>
+  <si>
+    <t>Your order has received</t>
+  </si>
+  <si>
+    <t>เราได้รับคำสั่งซื้อของคุณเรียบร้อย</t>
+  </si>
+  <si>
+    <t>...เราจะทำการยืนยันคำสั่งซื้อของคุณภายใน 24 ชั่วโมง...</t>
+  </si>
+  <si>
+    <t>กรุณาใส่เลขคำสั่งซื้อ</t>
+  </si>
+  <si>
+    <t>[Intania Runner] Your order has been received!...</t>
+  </si>
+  <si>
+    <t>[Intania Runner] เราได้รับคำสั่งซื้อของท่านเรียบร้อย…</t>
+  </si>
+  <si>
+    <t>We have received your order and will confirm it within 24 hours.</t>
+  </si>
+  <si>
+    <t>เราได้รับคำสั่งซื้อของท่านเรียบร้อยแล้ว และจะดำเนินการยืนยันคำสั่งซื้อภายใน 24 ชั่วโมง</t>
+  </si>
+  <si>
+    <t>Intania Runner admin.</t>
+  </si>
+  <si>
+    <t>ผู้ดูแลระบบชมรมวิ่ง วิศวะ จุฬาฯ</t>
+  </si>
+  <si>
+    <t>Payment unsuccessful</t>
+  </si>
+  <si>
+    <t>ชำระเงินไม่สำเร็จ</t>
+  </si>
+  <si>
+    <t>Please create new order.</t>
+  </si>
+  <si>
+    <t>กรุณาสร้างคำสั่งซื้อใหม่อีกครั้ง</t>
+  </si>
+  <si>
+    <t>ขอบคุณที่เลือกซื้อสินค้ากับเรา</t>
+  </si>
+  <si>
+    <t>[Intania Runner] Your order has been updated!...</t>
+  </si>
+  <si>
+    <t>[Intania Runner] คำสั่งซื้อของท่านมีการเปลี่ยนสถานะหรือแก้ไข…</t>
+  </si>
+  <si>
+    <t>[Intania Runner] Your order has changed status!...</t>
+  </si>
+  <si>
+    <t>[Intania Runner] คำสั่งซื้อของท่านมีการเปลี่ยนสถานะ…</t>
   </si>
 </sst>
 </file>
@@ -3380,20 +3490,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EFFCAA-6DA9-40A3-BF28-CA3BC524DD9C}">
-  <dimension ref="A1:I128"/>
+  <dimension ref="A1:I127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="F122" sqref="F122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3422,7 +3532,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3451,7 +3561,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3480,7 +3590,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -3509,7 +3619,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -3538,7 +3648,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -3567,15 +3677,15 @@
         <v>349</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>988</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>989</v>
       </c>
       <c r="D7" t="s">
         <v>350</v>
@@ -3596,7 +3706,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -3625,7 +3735,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -3654,7 +3764,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -3683,7 +3793,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -3712,7 +3822,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -3741,7 +3851,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>63</v>
       </c>
@@ -3770,7 +3880,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -3799,7 +3909,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>69</v>
       </c>
@@ -3828,7 +3938,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>71</v>
       </c>
@@ -3857,7 +3967,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>74</v>
       </c>
@@ -3886,7 +3996,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>75</v>
       </c>
@@ -3915,7 +4025,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -3944,7 +4054,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -3973,7 +4083,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -4002,7 +4112,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>87</v>
       </c>
@@ -4031,15 +4141,15 @@
         <v>435</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>86</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>990</v>
       </c>
       <c r="C23" t="s">
-        <v>98</v>
+        <v>991</v>
       </c>
       <c r="D23" t="s">
         <v>436</v>
@@ -4060,7 +4170,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>88</v>
       </c>
@@ -4089,15 +4199,15 @@
         <v>447</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>89</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>992</v>
       </c>
       <c r="C25" t="s">
-        <v>95</v>
+        <v>992</v>
       </c>
       <c r="D25" t="s">
         <v>448</v>
@@ -4118,7 +4228,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>90</v>
       </c>
@@ -4147,15 +4257,15 @@
         <v>456</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>91</v>
       </c>
       <c r="B27" t="s">
-        <v>102</v>
+        <v>993</v>
       </c>
       <c r="C27" t="s">
-        <v>101</v>
+        <v>994</v>
       </c>
       <c r="D27" t="s">
         <v>457</v>
@@ -4176,7 +4286,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>103</v>
       </c>
@@ -4184,7 +4294,7 @@
         <v>104</v>
       </c>
       <c r="C28" t="s">
-        <v>105</v>
+        <v>995</v>
       </c>
       <c r="D28" t="s">
         <v>462</v>
@@ -4205,7 +4315,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>106</v>
       </c>
@@ -4234,15 +4344,15 @@
         <v>473</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>109</v>
       </c>
-      <c r="B30" t="s">
-        <v>114</v>
-      </c>
-      <c r="C30" t="s">
-        <v>116</v>
+      <c r="B30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C30" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D30" t="s">
         <v>474</v>
@@ -4263,15 +4373,15 @@
         <v>479</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>134</v>
       </c>
-      <c r="B31" t="s">
-        <v>115</v>
-      </c>
-      <c r="C31" t="s">
-        <v>117</v>
+      <c r="B31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C31" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D31" t="s">
         <v>480</v>
@@ -4292,15 +4402,15 @@
         <v>485</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>110</v>
       </c>
-      <c r="B32" t="s">
-        <v>118</v>
-      </c>
-      <c r="C32" t="s">
-        <v>119</v>
+      <c r="B32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C32" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D32" t="s">
         <v>486</v>
@@ -4321,15 +4431,15 @@
         <v>491</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>135</v>
       </c>
-      <c r="B33" t="s">
-        <v>120</v>
-      </c>
-      <c r="C33" t="s">
-        <v>121</v>
+      <c r="B33" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C33" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D33" t="s">
         <v>492</v>
@@ -4350,15 +4460,15 @@
         <v>497</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>111</v>
       </c>
-      <c r="B34" t="s">
-        <v>122</v>
-      </c>
-      <c r="C34" t="s">
-        <v>123</v>
+      <c r="B34" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C34" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D34" t="s">
         <v>498</v>
@@ -4379,15 +4489,15 @@
         <v>500</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>136</v>
       </c>
-      <c r="B35" t="s">
-        <v>124</v>
-      </c>
-      <c r="C35" t="s">
-        <v>125</v>
+      <c r="B35" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C35" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D35" t="s">
         <v>503</v>
@@ -4408,15 +4518,15 @@
         <v>508</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>112</v>
       </c>
-      <c r="B36" t="s">
-        <v>126</v>
-      </c>
-      <c r="C36" t="s">
-        <v>127</v>
+      <c r="B36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C36" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D36" t="s">
         <v>509</v>
@@ -4437,15 +4547,15 @@
         <v>513</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>137</v>
       </c>
-      <c r="B37" t="s">
-        <v>128</v>
-      </c>
-      <c r="C37" t="s">
-        <v>129</v>
+      <c r="B37" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C37" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D37" t="s">
         <v>514</v>
@@ -4466,15 +4576,15 @@
         <v>519</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>113</v>
       </c>
-      <c r="B38" t="s">
-        <v>130</v>
-      </c>
-      <c r="C38" t="s">
-        <v>131</v>
+      <c r="B38" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C38" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D38" t="s">
         <v>520</v>
@@ -4495,15 +4605,15 @@
         <v>524</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>138</v>
       </c>
-      <c r="B39" t="s">
-        <v>132</v>
-      </c>
-      <c r="C39" t="s">
-        <v>133</v>
+      <c r="B39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C39" t="e">
+        <v>#N/A</v>
       </c>
       <c r="D39" t="s">
         <v>525</v>
@@ -4524,7 +4634,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>139</v>
       </c>
@@ -4553,7 +4663,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>142</v>
       </c>
@@ -4582,7 +4692,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>145</v>
       </c>
@@ -4611,7 +4721,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>148</v>
       </c>
@@ -4640,7 +4750,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>150</v>
       </c>
@@ -4669,7 +4779,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>151</v>
       </c>
@@ -4698,7 +4808,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>156</v>
       </c>
@@ -4727,7 +4837,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>160</v>
       </c>
@@ -4756,7 +4866,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>164</v>
       </c>
@@ -4785,7 +4895,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>166</v>
       </c>
@@ -4814,7 +4924,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>169</v>
       </c>
@@ -4843,7 +4953,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>172</v>
       </c>
@@ -4851,7 +4961,7 @@
         <v>175</v>
       </c>
       <c r="C51" t="s">
-        <v>176</v>
+        <v>996</v>
       </c>
       <c r="D51" t="s">
         <v>597</v>
@@ -4872,7 +4982,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>173</v>
       </c>
@@ -4901,7 +5011,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>178</v>
       </c>
@@ -4909,7 +5019,7 @@
         <v>180</v>
       </c>
       <c r="C53" t="s">
-        <v>181</v>
+        <v>997</v>
       </c>
       <c r="D53" t="s">
         <v>609</v>
@@ -4930,7 +5040,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>179</v>
       </c>
@@ -4959,7 +5069,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>187</v>
       </c>
@@ -4988,7 +5098,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>184</v>
       </c>
@@ -4996,7 +5106,7 @@
         <v>189</v>
       </c>
       <c r="C56" t="s">
-        <v>191</v>
+        <v>998</v>
       </c>
       <c r="D56" t="s">
         <v>626</v>
@@ -5017,7 +5127,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>188</v>
       </c>
@@ -5025,7 +5135,7 @@
         <v>190</v>
       </c>
       <c r="C57" t="s">
-        <v>192</v>
+        <v>999</v>
       </c>
       <c r="D57" t="s">
         <v>632</v>
@@ -5046,7 +5156,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>193</v>
       </c>
@@ -5075,7 +5185,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>194</v>
       </c>
@@ -5083,7 +5193,7 @@
         <v>197</v>
       </c>
       <c r="C59" t="s">
-        <v>195</v>
+        <v>1000</v>
       </c>
       <c r="D59" t="s">
         <v>643</v>
@@ -5104,7 +5214,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>196</v>
       </c>
@@ -5112,7 +5222,7 @@
         <v>198</v>
       </c>
       <c r="C60" t="s">
-        <v>199</v>
+        <v>1001</v>
       </c>
       <c r="D60" t="s">
         <v>649</v>
@@ -5133,7 +5243,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>200</v>
       </c>
@@ -5162,7 +5272,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>201</v>
       </c>
@@ -5191,7 +5301,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>205</v>
       </c>
@@ -5199,7 +5309,7 @@
         <v>206</v>
       </c>
       <c r="C63" t="s">
-        <v>207</v>
+        <v>1002</v>
       </c>
       <c r="D63" t="s">
         <v>666</v>
@@ -5220,7 +5330,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>209</v>
       </c>
@@ -5228,7 +5338,7 @@
         <v>210</v>
       </c>
       <c r="C64" t="s">
-        <v>211</v>
+        <v>1003</v>
       </c>
       <c r="D64" t="s">
         <v>672</v>
@@ -5249,7 +5359,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>212</v>
       </c>
@@ -5278,7 +5388,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>215</v>
       </c>
@@ -5286,7 +5396,7 @@
         <v>216</v>
       </c>
       <c r="C66" t="s">
-        <v>217</v>
+        <v>1004</v>
       </c>
       <c r="D66" t="s">
         <v>684</v>
@@ -5307,7 +5417,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>218</v>
       </c>
@@ -5336,7 +5446,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>219</v>
       </c>
@@ -5365,15 +5475,15 @@
         <v>701</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>222</v>
       </c>
       <c r="B69" t="s">
-        <v>220</v>
+        <v>1005</v>
       </c>
       <c r="C69" t="s">
-        <v>223</v>
+        <v>1006</v>
       </c>
       <c r="D69" t="s">
         <v>702</v>
@@ -5394,7 +5504,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>228</v>
       </c>
@@ -5402,7 +5512,7 @@
         <v>221</v>
       </c>
       <c r="C70" t="s">
-        <v>226</v>
+        <v>1007</v>
       </c>
       <c r="D70" t="s">
         <v>708</v>
@@ -5423,7 +5533,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>225</v>
       </c>
@@ -5452,7 +5562,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>229</v>
       </c>
@@ -5481,7 +5591,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>232</v>
       </c>
@@ -5489,7 +5599,7 @@
         <v>233</v>
       </c>
       <c r="C73" t="s">
-        <v>236</v>
+        <v>1008</v>
       </c>
       <c r="D73" t="s">
         <v>726</v>
@@ -5510,7 +5620,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>234</v>
       </c>
@@ -5539,7 +5649,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>238</v>
       </c>
@@ -5568,7 +5678,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>245</v>
       </c>
@@ -5597,7 +5707,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>250</v>
       </c>
@@ -5626,7 +5736,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>251</v>
       </c>
@@ -5655,15 +5765,15 @@
         <v>761</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>254</v>
       </c>
       <c r="B79" t="s">
-        <v>960</v>
+        <v>1009</v>
       </c>
       <c r="C79" t="s">
-        <v>958</v>
+        <v>1010</v>
       </c>
       <c r="D79" t="s">
         <v>762</v>
@@ -5684,7 +5794,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>256</v>
       </c>
@@ -5713,15 +5823,15 @@
         <v>773</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>271</v>
       </c>
       <c r="B81" t="s">
-        <v>961</v>
+        <v>1011</v>
       </c>
       <c r="C81" t="s">
-        <v>959</v>
+        <v>1012</v>
       </c>
       <c r="D81" t="s">
         <v>774</v>
@@ -5742,7 +5852,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>269</v>
       </c>
@@ -5771,7 +5881,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>270</v>
       </c>
@@ -5800,7 +5910,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>257</v>
       </c>
@@ -5829,15 +5939,15 @@
         <v>797</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>258</v>
       </c>
       <c r="B85" t="s">
-        <v>260</v>
+        <v>1013</v>
       </c>
       <c r="C85" t="s">
-        <v>267</v>
+        <v>1014</v>
       </c>
       <c r="D85" t="s">
         <v>798</v>
@@ -5858,7 +5968,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>272</v>
       </c>
@@ -5887,7 +5997,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>275</v>
       </c>
@@ -5916,7 +6026,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>278</v>
       </c>
@@ -5945,15 +6055,15 @@
         <v>820</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>281</v>
       </c>
       <c r="B89" t="s">
-        <v>987</v>
+        <v>1015</v>
       </c>
       <c r="C89" t="s">
-        <v>986</v>
+        <v>1016</v>
       </c>
       <c r="D89" t="s">
         <v>821</v>
@@ -5974,7 +6084,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>282</v>
       </c>
@@ -6003,7 +6113,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>283</v>
       </c>
@@ -6032,7 +6142,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>284</v>
       </c>
@@ -6061,7 +6171,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>285</v>
       </c>
@@ -6090,7 +6200,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>286</v>
       </c>
@@ -6119,15 +6229,15 @@
         <v>856</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>297</v>
       </c>
       <c r="B95" t="s">
-        <v>981</v>
+        <v>1017</v>
       </c>
       <c r="C95" t="s">
-        <v>982</v>
+        <v>1018</v>
       </c>
       <c r="D95" t="s">
         <v>857</v>
@@ -6148,7 +6258,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>298</v>
       </c>
@@ -6177,7 +6287,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>299</v>
       </c>
@@ -6206,7 +6316,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>300</v>
       </c>
@@ -6235,7 +6345,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>301</v>
       </c>
@@ -6264,7 +6374,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>302</v>
       </c>
@@ -6293,7 +6403,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>313</v>
       </c>
@@ -6322,7 +6432,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>314</v>
       </c>
@@ -6351,7 +6461,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>319</v>
       </c>
@@ -6380,7 +6490,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>322</v>
       </c>
@@ -6409,7 +6519,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>323</v>
       </c>
@@ -6438,7 +6548,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>324</v>
       </c>
@@ -6446,7 +6556,7 @@
         <v>263</v>
       </c>
       <c r="C106" t="s">
-        <v>266</v>
+        <v>1019</v>
       </c>
       <c r="D106" t="s">
         <v>786</v>
@@ -6467,15 +6577,15 @@
         <v>791</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>325</v>
       </c>
       <c r="B107" t="s">
-        <v>326</v>
+        <v>1020</v>
       </c>
       <c r="C107" t="s">
-        <v>328</v>
+        <v>1021</v>
       </c>
       <c r="D107" t="s">
         <v>917</v>
@@ -6496,7 +6606,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>331</v>
       </c>
@@ -6525,7 +6635,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>333</v>
       </c>
@@ -6554,7 +6664,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>332</v>
       </c>
@@ -6583,15 +6693,15 @@
         <v>791</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>334</v>
       </c>
       <c r="B111" t="s">
-        <v>335</v>
+        <v>1022</v>
       </c>
       <c r="C111" t="s">
-        <v>330</v>
+        <v>1023</v>
       </c>
       <c r="D111" t="s">
         <v>929</v>
@@ -6612,7 +6722,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>935</v>
       </c>
@@ -6641,7 +6751,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>938</v>
       </c>
@@ -6670,7 +6780,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>941</v>
       </c>
@@ -6699,7 +6809,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>944</v>
       </c>
@@ -6728,7 +6838,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>947</v>
       </c>
@@ -6757,7 +6867,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>950</v>
       </c>
@@ -6786,7 +6896,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>953</v>
       </c>
@@ -6815,7 +6925,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>956</v>
       </c>
@@ -6844,7 +6954,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>962</v>
       </c>
@@ -6873,7 +6983,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>963</v>
       </c>
@@ -6902,7 +7012,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>964</v>
       </c>
@@ -6931,7 +7041,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>967</v>
       </c>
@@ -6960,7 +7070,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>970</v>
       </c>
@@ -6989,7 +7099,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>975</v>
       </c>
@@ -7018,90 +7128,61 @@
         <v>974</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>103</v>
+        <v>978</v>
       </c>
       <c r="B126" t="s">
-        <v>104</v>
+        <v>979</v>
       </c>
       <c r="C126" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="D126" t="s">
-        <v>104</v>
+        <v>979</v>
       </c>
       <c r="E126" t="s">
-        <v>104</v>
+        <v>979</v>
       </c>
       <c r="F126" t="s">
-        <v>104</v>
+        <v>979</v>
       </c>
       <c r="G126" t="s">
-        <v>104</v>
+        <v>979</v>
       </c>
       <c r="H126" t="s">
-        <v>104</v>
+        <v>979</v>
       </c>
       <c r="I126" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>978</v>
+        <v>983</v>
       </c>
       <c r="B127" t="s">
-        <v>979</v>
+        <v>984</v>
       </c>
       <c r="C127" t="s">
-        <v>980</v>
+        <v>985</v>
       </c>
       <c r="D127" t="s">
-        <v>979</v>
+        <v>984</v>
       </c>
       <c r="E127" t="s">
-        <v>979</v>
+        <v>984</v>
       </c>
       <c r="F127" t="s">
-        <v>979</v>
+        <v>984</v>
       </c>
       <c r="G127" t="s">
-        <v>979</v>
+        <v>984</v>
       </c>
       <c r="H127" t="s">
-        <v>979</v>
+        <v>984</v>
       </c>
       <c r="I127" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>983</v>
-      </c>
-      <c r="B128" t="s">
-        <v>984</v>
-      </c>
-      <c r="C128" t="s">
-        <v>985</v>
-      </c>
-      <c r="D128" t="s">
-        <v>984</v>
-      </c>
-      <c r="E128" t="s">
-        <v>984</v>
-      </c>
-      <c r="F128" t="s">
-        <v>984</v>
-      </c>
-      <c r="G128" t="s">
-        <v>984</v>
-      </c>
-      <c r="H128" t="s">
-        <v>984</v>
-      </c>
-      <c r="I128" t="s">
         <v>984</v>
       </c>
     </row>
@@ -7111,4 +7192,3738 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08623EB8-71BE-44FC-9615-87E1DDBD6EF4}">
+  <dimension ref="A1:I128"/>
+  <sheetViews>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112:C128"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E5" t="s">
+        <v>339</v>
+      </c>
+      <c r="F5" t="s">
+        <v>340</v>
+      </c>
+      <c r="G5" t="s">
+        <v>341</v>
+      </c>
+      <c r="H5" t="s">
+        <v>342</v>
+      </c>
+      <c r="I5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>344</v>
+      </c>
+      <c r="E6" t="s">
+        <v>345</v>
+      </c>
+      <c r="F6" t="s">
+        <v>346</v>
+      </c>
+      <c r="G6" t="s">
+        <v>347</v>
+      </c>
+      <c r="H6" t="s">
+        <v>348</v>
+      </c>
+      <c r="I6" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>350</v>
+      </c>
+      <c r="E7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F7" t="s">
+        <v>352</v>
+      </c>
+      <c r="G7" t="s">
+        <v>353</v>
+      </c>
+      <c r="H7" t="s">
+        <v>354</v>
+      </c>
+      <c r="I7" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>356</v>
+      </c>
+      <c r="E8" t="s">
+        <v>357</v>
+      </c>
+      <c r="F8" t="s">
+        <v>358</v>
+      </c>
+      <c r="G8" t="s">
+        <v>359</v>
+      </c>
+      <c r="H8" t="s">
+        <v>360</v>
+      </c>
+      <c r="I8" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
+        <v>362</v>
+      </c>
+      <c r="E9" t="s">
+        <v>363</v>
+      </c>
+      <c r="F9" t="s">
+        <v>364</v>
+      </c>
+      <c r="G9" t="s">
+        <v>365</v>
+      </c>
+      <c r="H9" t="s">
+        <v>366</v>
+      </c>
+      <c r="I9" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" t="s">
+        <v>368</v>
+      </c>
+      <c r="E10" t="s">
+        <v>369</v>
+      </c>
+      <c r="F10" t="s">
+        <v>370</v>
+      </c>
+      <c r="G10" t="s">
+        <v>371</v>
+      </c>
+      <c r="H10" t="s">
+        <v>372</v>
+      </c>
+      <c r="I10" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
+        <v>374</v>
+      </c>
+      <c r="E11" t="s">
+        <v>375</v>
+      </c>
+      <c r="F11" t="s">
+        <v>376</v>
+      </c>
+      <c r="G11" t="s">
+        <v>377</v>
+      </c>
+      <c r="H11" t="s">
+        <v>378</v>
+      </c>
+      <c r="I11" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" t="s">
+        <v>380</v>
+      </c>
+      <c r="E12" t="s">
+        <v>381</v>
+      </c>
+      <c r="F12" t="s">
+        <v>382</v>
+      </c>
+      <c r="G12" t="s">
+        <v>383</v>
+      </c>
+      <c r="H12" t="s">
+        <v>384</v>
+      </c>
+      <c r="I12" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
+        <v>386</v>
+      </c>
+      <c r="E13" t="s">
+        <v>387</v>
+      </c>
+      <c r="F13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" t="s">
+        <v>388</v>
+      </c>
+      <c r="H13" t="s">
+        <v>389</v>
+      </c>
+      <c r="I13" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" t="s">
+        <v>391</v>
+      </c>
+      <c r="H14" t="s">
+        <v>392</v>
+      </c>
+      <c r="I14" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" t="s">
+        <v>380</v>
+      </c>
+      <c r="E15" t="s">
+        <v>381</v>
+      </c>
+      <c r="F15" t="s">
+        <v>382</v>
+      </c>
+      <c r="G15" t="s">
+        <v>383</v>
+      </c>
+      <c r="H15" t="s">
+        <v>384</v>
+      </c>
+      <c r="I15" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" t="s">
+        <v>394</v>
+      </c>
+      <c r="E16" t="s">
+        <v>395</v>
+      </c>
+      <c r="F16" t="s">
+        <v>396</v>
+      </c>
+      <c r="G16" t="s">
+        <v>397</v>
+      </c>
+      <c r="H16" t="s">
+        <v>398</v>
+      </c>
+      <c r="I16" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" t="s">
+        <v>400</v>
+      </c>
+      <c r="E17" t="s">
+        <v>401</v>
+      </c>
+      <c r="F17" t="s">
+        <v>402</v>
+      </c>
+      <c r="G17" t="s">
+        <v>403</v>
+      </c>
+      <c r="H17" t="s">
+        <v>404</v>
+      </c>
+      <c r="I17" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" t="s">
+        <v>406</v>
+      </c>
+      <c r="E18" t="s">
+        <v>407</v>
+      </c>
+      <c r="F18" t="s">
+        <v>408</v>
+      </c>
+      <c r="G18" t="s">
+        <v>409</v>
+      </c>
+      <c r="H18" t="s">
+        <v>410</v>
+      </c>
+      <c r="I18" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>412</v>
+      </c>
+      <c r="E19" t="s">
+        <v>413</v>
+      </c>
+      <c r="F19" t="s">
+        <v>414</v>
+      </c>
+      <c r="G19" t="s">
+        <v>415</v>
+      </c>
+      <c r="H19" t="s">
+        <v>416</v>
+      </c>
+      <c r="I19" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" t="s">
+        <v>418</v>
+      </c>
+      <c r="E20" t="s">
+        <v>419</v>
+      </c>
+      <c r="F20" t="s">
+        <v>420</v>
+      </c>
+      <c r="G20" t="s">
+        <v>421</v>
+      </c>
+      <c r="H20" t="s">
+        <v>422</v>
+      </c>
+      <c r="I20" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" t="s">
+        <v>424</v>
+      </c>
+      <c r="E21" t="s">
+        <v>425</v>
+      </c>
+      <c r="F21" t="s">
+        <v>426</v>
+      </c>
+      <c r="G21" t="s">
+        <v>427</v>
+      </c>
+      <c r="H21" t="s">
+        <v>428</v>
+      </c>
+      <c r="I21" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" t="s">
+        <v>430</v>
+      </c>
+      <c r="E22" t="s">
+        <v>431</v>
+      </c>
+      <c r="F22" t="s">
+        <v>432</v>
+      </c>
+      <c r="G22" t="s">
+        <v>433</v>
+      </c>
+      <c r="H22" t="s">
+        <v>434</v>
+      </c>
+      <c r="I22" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" t="s">
+        <v>436</v>
+      </c>
+      <c r="E23" t="s">
+        <v>437</v>
+      </c>
+      <c r="F23" t="s">
+        <v>438</v>
+      </c>
+      <c r="G23" t="s">
+        <v>439</v>
+      </c>
+      <c r="H23" t="s">
+        <v>440</v>
+      </c>
+      <c r="I23" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" t="s">
+        <v>442</v>
+      </c>
+      <c r="E24" t="s">
+        <v>443</v>
+      </c>
+      <c r="F24" t="s">
+        <v>444</v>
+      </c>
+      <c r="G24" t="s">
+        <v>445</v>
+      </c>
+      <c r="H24" t="s">
+        <v>446</v>
+      </c>
+      <c r="I24" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" t="s">
+        <v>448</v>
+      </c>
+      <c r="E25" t="s">
+        <v>449</v>
+      </c>
+      <c r="F25" t="s">
+        <v>95</v>
+      </c>
+      <c r="G25" t="s">
+        <v>95</v>
+      </c>
+      <c r="H25" t="s">
+        <v>95</v>
+      </c>
+      <c r="I25" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" t="s">
+        <v>451</v>
+      </c>
+      <c r="E26" t="s">
+        <v>452</v>
+      </c>
+      <c r="F26" t="s">
+        <v>453</v>
+      </c>
+      <c r="G26" t="s">
+        <v>454</v>
+      </c>
+      <c r="H26" t="s">
+        <v>455</v>
+      </c>
+      <c r="I26" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" t="s">
+        <v>457</v>
+      </c>
+      <c r="E27" t="s">
+        <v>458</v>
+      </c>
+      <c r="F27" t="s">
+        <v>459</v>
+      </c>
+      <c r="G27" t="s">
+        <v>102</v>
+      </c>
+      <c r="H27" t="s">
+        <v>460</v>
+      </c>
+      <c r="I27" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" t="s">
+        <v>462</v>
+      </c>
+      <c r="E28" t="s">
+        <v>463</v>
+      </c>
+      <c r="F28" t="s">
+        <v>464</v>
+      </c>
+      <c r="G28" t="s">
+        <v>465</v>
+      </c>
+      <c r="H28" t="s">
+        <v>466</v>
+      </c>
+      <c r="I28" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" t="s">
+        <v>468</v>
+      </c>
+      <c r="E29" t="s">
+        <v>469</v>
+      </c>
+      <c r="F29" t="s">
+        <v>470</v>
+      </c>
+      <c r="G29" t="s">
+        <v>471</v>
+      </c>
+      <c r="H29" t="s">
+        <v>472</v>
+      </c>
+      <c r="I29" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" t="s">
+        <v>474</v>
+      </c>
+      <c r="E30" t="s">
+        <v>475</v>
+      </c>
+      <c r="F30" t="s">
+        <v>476</v>
+      </c>
+      <c r="G30" t="s">
+        <v>477</v>
+      </c>
+      <c r="H30" t="s">
+        <v>478</v>
+      </c>
+      <c r="I30" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" t="s">
+        <v>480</v>
+      </c>
+      <c r="E31" t="s">
+        <v>481</v>
+      </c>
+      <c r="F31" t="s">
+        <v>482</v>
+      </c>
+      <c r="G31" t="s">
+        <v>483</v>
+      </c>
+      <c r="H31" t="s">
+        <v>484</v>
+      </c>
+      <c r="I31" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32" t="s">
+        <v>486</v>
+      </c>
+      <c r="E32" t="s">
+        <v>487</v>
+      </c>
+      <c r="F32" t="s">
+        <v>488</v>
+      </c>
+      <c r="G32" t="s">
+        <v>489</v>
+      </c>
+      <c r="H32" t="s">
+        <v>490</v>
+      </c>
+      <c r="I32" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>135</v>
+      </c>
+      <c r="B33" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" t="s">
+        <v>492</v>
+      </c>
+      <c r="E33" t="s">
+        <v>493</v>
+      </c>
+      <c r="F33" t="s">
+        <v>494</v>
+      </c>
+      <c r="G33" t="s">
+        <v>495</v>
+      </c>
+      <c r="H33" t="s">
+        <v>496</v>
+      </c>
+      <c r="I33" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" t="s">
+        <v>123</v>
+      </c>
+      <c r="D34" t="s">
+        <v>498</v>
+      </c>
+      <c r="E34" t="s">
+        <v>499</v>
+      </c>
+      <c r="F34" t="s">
+        <v>500</v>
+      </c>
+      <c r="G34" t="s">
+        <v>501</v>
+      </c>
+      <c r="H34" t="s">
+        <v>502</v>
+      </c>
+      <c r="I34" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35" t="s">
+        <v>503</v>
+      </c>
+      <c r="E35" t="s">
+        <v>504</v>
+      </c>
+      <c r="F35" t="s">
+        <v>505</v>
+      </c>
+      <c r="G35" t="s">
+        <v>506</v>
+      </c>
+      <c r="H35" t="s">
+        <v>507</v>
+      </c>
+      <c r="I35" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" t="s">
+        <v>127</v>
+      </c>
+      <c r="D36" t="s">
+        <v>509</v>
+      </c>
+      <c r="E36" t="s">
+        <v>510</v>
+      </c>
+      <c r="F36" t="s">
+        <v>126</v>
+      </c>
+      <c r="G36" t="s">
+        <v>511</v>
+      </c>
+      <c r="H36" t="s">
+        <v>512</v>
+      </c>
+      <c r="I36" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>137</v>
+      </c>
+      <c r="B37" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" t="s">
+        <v>129</v>
+      </c>
+      <c r="D37" t="s">
+        <v>514</v>
+      </c>
+      <c r="E37" t="s">
+        <v>515</v>
+      </c>
+      <c r="F37" t="s">
+        <v>516</v>
+      </c>
+      <c r="G37" t="s">
+        <v>517</v>
+      </c>
+      <c r="H37" t="s">
+        <v>518</v>
+      </c>
+      <c r="I37" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" t="s">
+        <v>131</v>
+      </c>
+      <c r="D38" t="s">
+        <v>520</v>
+      </c>
+      <c r="E38" t="s">
+        <v>521</v>
+      </c>
+      <c r="F38" t="s">
+        <v>522</v>
+      </c>
+      <c r="G38" t="s">
+        <v>523</v>
+      </c>
+      <c r="H38" t="s">
+        <v>523</v>
+      </c>
+      <c r="I38" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>138</v>
+      </c>
+      <c r="B39" t="s">
+        <v>132</v>
+      </c>
+      <c r="C39" t="s">
+        <v>133</v>
+      </c>
+      <c r="D39" t="s">
+        <v>525</v>
+      </c>
+      <c r="E39" t="s">
+        <v>526</v>
+      </c>
+      <c r="F39" t="s">
+        <v>527</v>
+      </c>
+      <c r="G39" t="s">
+        <v>528</v>
+      </c>
+      <c r="H39" t="s">
+        <v>529</v>
+      </c>
+      <c r="I39" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>139</v>
+      </c>
+      <c r="B40" t="s">
+        <v>140</v>
+      </c>
+      <c r="C40" t="s">
+        <v>141</v>
+      </c>
+      <c r="D40" t="s">
+        <v>531</v>
+      </c>
+      <c r="E40" t="s">
+        <v>532</v>
+      </c>
+      <c r="F40" t="s">
+        <v>533</v>
+      </c>
+      <c r="G40" t="s">
+        <v>534</v>
+      </c>
+      <c r="H40" t="s">
+        <v>535</v>
+      </c>
+      <c r="I40" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>142</v>
+      </c>
+      <c r="B41" t="s">
+        <v>143</v>
+      </c>
+      <c r="C41" t="s">
+        <v>144</v>
+      </c>
+      <c r="D41" t="s">
+        <v>537</v>
+      </c>
+      <c r="E41" t="s">
+        <v>538</v>
+      </c>
+      <c r="F41" t="s">
+        <v>539</v>
+      </c>
+      <c r="G41" t="s">
+        <v>540</v>
+      </c>
+      <c r="H41" t="s">
+        <v>541</v>
+      </c>
+      <c r="I41" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>145</v>
+      </c>
+      <c r="B42" t="s">
+        <v>146</v>
+      </c>
+      <c r="C42" t="s">
+        <v>147</v>
+      </c>
+      <c r="D42" t="s">
+        <v>543</v>
+      </c>
+      <c r="E42" t="s">
+        <v>544</v>
+      </c>
+      <c r="F42" t="s">
+        <v>545</v>
+      </c>
+      <c r="G42" t="s">
+        <v>546</v>
+      </c>
+      <c r="H42" t="s">
+        <v>547</v>
+      </c>
+      <c r="I42" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>148</v>
+      </c>
+      <c r="B43" t="s">
+        <v>149</v>
+      </c>
+      <c r="C43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D43" t="s">
+        <v>549</v>
+      </c>
+      <c r="E43" t="s">
+        <v>550</v>
+      </c>
+      <c r="F43" t="s">
+        <v>551</v>
+      </c>
+      <c r="G43" t="s">
+        <v>552</v>
+      </c>
+      <c r="H43" t="s">
+        <v>553</v>
+      </c>
+      <c r="I43" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>150</v>
+      </c>
+      <c r="B44" t="s">
+        <v>152</v>
+      </c>
+      <c r="C44" t="s">
+        <v>153</v>
+      </c>
+      <c r="D44" t="s">
+        <v>555</v>
+      </c>
+      <c r="E44" t="s">
+        <v>556</v>
+      </c>
+      <c r="F44" t="s">
+        <v>557</v>
+      </c>
+      <c r="G44" t="s">
+        <v>558</v>
+      </c>
+      <c r="H44" t="s">
+        <v>559</v>
+      </c>
+      <c r="I44" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>151</v>
+      </c>
+      <c r="B45" t="s">
+        <v>155</v>
+      </c>
+      <c r="C45" t="s">
+        <v>154</v>
+      </c>
+      <c r="D45" t="s">
+        <v>561</v>
+      </c>
+      <c r="E45" t="s">
+        <v>562</v>
+      </c>
+      <c r="F45" t="s">
+        <v>563</v>
+      </c>
+      <c r="G45" t="s">
+        <v>564</v>
+      </c>
+      <c r="H45" t="s">
+        <v>565</v>
+      </c>
+      <c r="I45" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>156</v>
+      </c>
+      <c r="B46" t="s">
+        <v>157</v>
+      </c>
+      <c r="C46" t="s">
+        <v>158</v>
+      </c>
+      <c r="D46" t="s">
+        <v>567</v>
+      </c>
+      <c r="E46" t="s">
+        <v>568</v>
+      </c>
+      <c r="F46" t="s">
+        <v>569</v>
+      </c>
+      <c r="G46" t="s">
+        <v>570</v>
+      </c>
+      <c r="H46" t="s">
+        <v>571</v>
+      </c>
+      <c r="I46" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>160</v>
+      </c>
+      <c r="B47" t="s">
+        <v>161</v>
+      </c>
+      <c r="C47" t="s">
+        <v>162</v>
+      </c>
+      <c r="D47" t="s">
+        <v>573</v>
+      </c>
+      <c r="E47" t="s">
+        <v>574</v>
+      </c>
+      <c r="F47" t="s">
+        <v>575</v>
+      </c>
+      <c r="G47" t="s">
+        <v>576</v>
+      </c>
+      <c r="H47" t="s">
+        <v>577</v>
+      </c>
+      <c r="I47" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>164</v>
+      </c>
+      <c r="B48" t="s">
+        <v>163</v>
+      </c>
+      <c r="C48" t="s">
+        <v>165</v>
+      </c>
+      <c r="D48" t="s">
+        <v>579</v>
+      </c>
+      <c r="E48" t="s">
+        <v>580</v>
+      </c>
+      <c r="F48" t="s">
+        <v>581</v>
+      </c>
+      <c r="G48" t="s">
+        <v>582</v>
+      </c>
+      <c r="H48" t="s">
+        <v>583</v>
+      </c>
+      <c r="I48" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>166</v>
+      </c>
+      <c r="B49" t="s">
+        <v>167</v>
+      </c>
+      <c r="C49" t="s">
+        <v>168</v>
+      </c>
+      <c r="D49" t="s">
+        <v>585</v>
+      </c>
+      <c r="E49" t="s">
+        <v>586</v>
+      </c>
+      <c r="F49" t="s">
+        <v>587</v>
+      </c>
+      <c r="G49" t="s">
+        <v>588</v>
+      </c>
+      <c r="H49" t="s">
+        <v>589</v>
+      </c>
+      <c r="I49" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>169</v>
+      </c>
+      <c r="B50" t="s">
+        <v>170</v>
+      </c>
+      <c r="C50" t="s">
+        <v>171</v>
+      </c>
+      <c r="D50" t="s">
+        <v>591</v>
+      </c>
+      <c r="E50" t="s">
+        <v>592</v>
+      </c>
+      <c r="F50" t="s">
+        <v>593</v>
+      </c>
+      <c r="G50" t="s">
+        <v>594</v>
+      </c>
+      <c r="H50" t="s">
+        <v>595</v>
+      </c>
+      <c r="I50" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>172</v>
+      </c>
+      <c r="B51" t="s">
+        <v>175</v>
+      </c>
+      <c r="C51" t="s">
+        <v>176</v>
+      </c>
+      <c r="D51" t="s">
+        <v>597</v>
+      </c>
+      <c r="E51" t="s">
+        <v>598</v>
+      </c>
+      <c r="F51" t="s">
+        <v>599</v>
+      </c>
+      <c r="G51" t="s">
+        <v>600</v>
+      </c>
+      <c r="H51" t="s">
+        <v>601</v>
+      </c>
+      <c r="I51" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>173</v>
+      </c>
+      <c r="B52" t="s">
+        <v>174</v>
+      </c>
+      <c r="C52" t="s">
+        <v>177</v>
+      </c>
+      <c r="D52" t="s">
+        <v>603</v>
+      </c>
+      <c r="E52" t="s">
+        <v>604</v>
+      </c>
+      <c r="F52" t="s">
+        <v>605</v>
+      </c>
+      <c r="G52" t="s">
+        <v>606</v>
+      </c>
+      <c r="H52" t="s">
+        <v>607</v>
+      </c>
+      <c r="I52" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>178</v>
+      </c>
+      <c r="B53" t="s">
+        <v>180</v>
+      </c>
+      <c r="C53" t="s">
+        <v>181</v>
+      </c>
+      <c r="D53" t="s">
+        <v>609</v>
+      </c>
+      <c r="E53" t="s">
+        <v>610</v>
+      </c>
+      <c r="F53" t="s">
+        <v>180</v>
+      </c>
+      <c r="G53" t="s">
+        <v>611</v>
+      </c>
+      <c r="H53" t="s">
+        <v>612</v>
+      </c>
+      <c r="I53" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>179</v>
+      </c>
+      <c r="B54" t="s">
+        <v>183</v>
+      </c>
+      <c r="C54" t="s">
+        <v>182</v>
+      </c>
+      <c r="D54" t="s">
+        <v>614</v>
+      </c>
+      <c r="E54" t="s">
+        <v>615</v>
+      </c>
+      <c r="F54" t="s">
+        <v>616</v>
+      </c>
+      <c r="G54" t="s">
+        <v>617</v>
+      </c>
+      <c r="H54" t="s">
+        <v>618</v>
+      </c>
+      <c r="I54" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>187</v>
+      </c>
+      <c r="B55" t="s">
+        <v>186</v>
+      </c>
+      <c r="C55" t="s">
+        <v>185</v>
+      </c>
+      <c r="D55" t="s">
+        <v>620</v>
+      </c>
+      <c r="E55" t="s">
+        <v>621</v>
+      </c>
+      <c r="F55" t="s">
+        <v>622</v>
+      </c>
+      <c r="G55" t="s">
+        <v>623</v>
+      </c>
+      <c r="H55" t="s">
+        <v>624</v>
+      </c>
+      <c r="I55" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>184</v>
+      </c>
+      <c r="B56" t="s">
+        <v>189</v>
+      </c>
+      <c r="C56" t="s">
+        <v>191</v>
+      </c>
+      <c r="D56" t="s">
+        <v>626</v>
+      </c>
+      <c r="E56" t="s">
+        <v>627</v>
+      </c>
+      <c r="F56" t="s">
+        <v>628</v>
+      </c>
+      <c r="G56" t="s">
+        <v>629</v>
+      </c>
+      <c r="H56" t="s">
+        <v>630</v>
+      </c>
+      <c r="I56" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>188</v>
+      </c>
+      <c r="B57" t="s">
+        <v>190</v>
+      </c>
+      <c r="C57" t="s">
+        <v>192</v>
+      </c>
+      <c r="D57" t="s">
+        <v>632</v>
+      </c>
+      <c r="E57" t="s">
+        <v>633</v>
+      </c>
+      <c r="F57" t="s">
+        <v>634</v>
+      </c>
+      <c r="G57" t="s">
+        <v>635</v>
+      </c>
+      <c r="H57" t="s">
+        <v>636</v>
+      </c>
+      <c r="I57" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>193</v>
+      </c>
+      <c r="B58" t="s">
+        <v>193</v>
+      </c>
+      <c r="C58" t="s">
+        <v>193</v>
+      </c>
+      <c r="D58" t="s">
+        <v>638</v>
+      </c>
+      <c r="E58" t="s">
+        <v>638</v>
+      </c>
+      <c r="F58" t="s">
+        <v>639</v>
+      </c>
+      <c r="G58" t="s">
+        <v>640</v>
+      </c>
+      <c r="H58" t="s">
+        <v>641</v>
+      </c>
+      <c r="I58" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>194</v>
+      </c>
+      <c r="B59" t="s">
+        <v>197</v>
+      </c>
+      <c r="C59" t="s">
+        <v>195</v>
+      </c>
+      <c r="D59" t="s">
+        <v>643</v>
+      </c>
+      <c r="E59" t="s">
+        <v>644</v>
+      </c>
+      <c r="F59" t="s">
+        <v>645</v>
+      </c>
+      <c r="G59" t="s">
+        <v>646</v>
+      </c>
+      <c r="H59" t="s">
+        <v>647</v>
+      </c>
+      <c r="I59" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>196</v>
+      </c>
+      <c r="B60" t="s">
+        <v>198</v>
+      </c>
+      <c r="C60" t="s">
+        <v>199</v>
+      </c>
+      <c r="D60" t="s">
+        <v>649</v>
+      </c>
+      <c r="E60" t="s">
+        <v>650</v>
+      </c>
+      <c r="F60" t="s">
+        <v>651</v>
+      </c>
+      <c r="G60" t="s">
+        <v>198</v>
+      </c>
+      <c r="H60" t="s">
+        <v>652</v>
+      </c>
+      <c r="I60" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>200</v>
+      </c>
+      <c r="B61" t="s">
+        <v>203</v>
+      </c>
+      <c r="C61" t="s">
+        <v>208</v>
+      </c>
+      <c r="D61" t="s">
+        <v>654</v>
+      </c>
+      <c r="E61" t="s">
+        <v>655</v>
+      </c>
+      <c r="F61" t="s">
+        <v>656</v>
+      </c>
+      <c r="G61" t="s">
+        <v>657</v>
+      </c>
+      <c r="H61" t="s">
+        <v>658</v>
+      </c>
+      <c r="I61" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>201</v>
+      </c>
+      <c r="B62" t="s">
+        <v>202</v>
+      </c>
+      <c r="C62" t="s">
+        <v>204</v>
+      </c>
+      <c r="D62" t="s">
+        <v>660</v>
+      </c>
+      <c r="E62" t="s">
+        <v>661</v>
+      </c>
+      <c r="F62" t="s">
+        <v>662</v>
+      </c>
+      <c r="G62" t="s">
+        <v>663</v>
+      </c>
+      <c r="H62" t="s">
+        <v>664</v>
+      </c>
+      <c r="I62" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>205</v>
+      </c>
+      <c r="B63" t="s">
+        <v>206</v>
+      </c>
+      <c r="C63" t="s">
+        <v>207</v>
+      </c>
+      <c r="D63" t="s">
+        <v>666</v>
+      </c>
+      <c r="E63" t="s">
+        <v>667</v>
+      </c>
+      <c r="F63" t="s">
+        <v>668</v>
+      </c>
+      <c r="G63" t="s">
+        <v>669</v>
+      </c>
+      <c r="H63" t="s">
+        <v>670</v>
+      </c>
+      <c r="I63" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>209</v>
+      </c>
+      <c r="B64" t="s">
+        <v>210</v>
+      </c>
+      <c r="C64" t="s">
+        <v>211</v>
+      </c>
+      <c r="D64" t="s">
+        <v>672</v>
+      </c>
+      <c r="E64" t="s">
+        <v>673</v>
+      </c>
+      <c r="F64" t="s">
+        <v>674</v>
+      </c>
+      <c r="G64" t="s">
+        <v>675</v>
+      </c>
+      <c r="H64" t="s">
+        <v>676</v>
+      </c>
+      <c r="I64" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>212</v>
+      </c>
+      <c r="B65" t="s">
+        <v>214</v>
+      </c>
+      <c r="C65" t="s">
+        <v>213</v>
+      </c>
+      <c r="D65" t="s">
+        <v>678</v>
+      </c>
+      <c r="E65" t="s">
+        <v>679</v>
+      </c>
+      <c r="F65" t="s">
+        <v>680</v>
+      </c>
+      <c r="G65" t="s">
+        <v>681</v>
+      </c>
+      <c r="H65" t="s">
+        <v>682</v>
+      </c>
+      <c r="I65" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>215</v>
+      </c>
+      <c r="B66" t="s">
+        <v>216</v>
+      </c>
+      <c r="C66" t="s">
+        <v>217</v>
+      </c>
+      <c r="D66" t="s">
+        <v>684</v>
+      </c>
+      <c r="E66" t="s">
+        <v>685</v>
+      </c>
+      <c r="F66" t="s">
+        <v>686</v>
+      </c>
+      <c r="G66" t="s">
+        <v>687</v>
+      </c>
+      <c r="H66" t="s">
+        <v>688</v>
+      </c>
+      <c r="I66" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>218</v>
+      </c>
+      <c r="B67" t="s">
+        <v>242</v>
+      </c>
+      <c r="C67" t="s">
+        <v>241</v>
+      </c>
+      <c r="D67" t="s">
+        <v>690</v>
+      </c>
+      <c r="E67" t="s">
+        <v>691</v>
+      </c>
+      <c r="F67" t="s">
+        <v>692</v>
+      </c>
+      <c r="G67" t="s">
+        <v>693</v>
+      </c>
+      <c r="H67" t="s">
+        <v>694</v>
+      </c>
+      <c r="I67" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>219</v>
+      </c>
+      <c r="B68" t="s">
+        <v>243</v>
+      </c>
+      <c r="C68" t="s">
+        <v>244</v>
+      </c>
+      <c r="D68" t="s">
+        <v>696</v>
+      </c>
+      <c r="E68" t="s">
+        <v>697</v>
+      </c>
+      <c r="F68" t="s">
+        <v>698</v>
+      </c>
+      <c r="G68" t="s">
+        <v>699</v>
+      </c>
+      <c r="H68" t="s">
+        <v>700</v>
+      </c>
+      <c r="I68" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>222</v>
+      </c>
+      <c r="B69" t="s">
+        <v>220</v>
+      </c>
+      <c r="C69" t="s">
+        <v>223</v>
+      </c>
+      <c r="D69" t="s">
+        <v>702</v>
+      </c>
+      <c r="E69" t="s">
+        <v>703</v>
+      </c>
+      <c r="F69" t="s">
+        <v>704</v>
+      </c>
+      <c r="G69" t="s">
+        <v>705</v>
+      </c>
+      <c r="H69" t="s">
+        <v>706</v>
+      </c>
+      <c r="I69" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>228</v>
+      </c>
+      <c r="B70" t="s">
+        <v>221</v>
+      </c>
+      <c r="C70" t="s">
+        <v>226</v>
+      </c>
+      <c r="D70" t="s">
+        <v>708</v>
+      </c>
+      <c r="E70" t="s">
+        <v>709</v>
+      </c>
+      <c r="F70" t="s">
+        <v>710</v>
+      </c>
+      <c r="G70" t="s">
+        <v>711</v>
+      </c>
+      <c r="H70" t="s">
+        <v>712</v>
+      </c>
+      <c r="I70" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>225</v>
+      </c>
+      <c r="B71" t="s">
+        <v>224</v>
+      </c>
+      <c r="C71" t="s">
+        <v>227</v>
+      </c>
+      <c r="D71" t="s">
+        <v>714</v>
+      </c>
+      <c r="E71" t="s">
+        <v>715</v>
+      </c>
+      <c r="F71" t="s">
+        <v>716</v>
+      </c>
+      <c r="G71" t="s">
+        <v>717</v>
+      </c>
+      <c r="H71" t="s">
+        <v>718</v>
+      </c>
+      <c r="I71" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>229</v>
+      </c>
+      <c r="B72" t="s">
+        <v>230</v>
+      </c>
+      <c r="C72" t="s">
+        <v>231</v>
+      </c>
+      <c r="D72" t="s">
+        <v>720</v>
+      </c>
+      <c r="E72" t="s">
+        <v>721</v>
+      </c>
+      <c r="F72" t="s">
+        <v>722</v>
+      </c>
+      <c r="G72" t="s">
+        <v>723</v>
+      </c>
+      <c r="H72" t="s">
+        <v>724</v>
+      </c>
+      <c r="I72" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>232</v>
+      </c>
+      <c r="B73" t="s">
+        <v>233</v>
+      </c>
+      <c r="C73" t="s">
+        <v>236</v>
+      </c>
+      <c r="D73" t="s">
+        <v>726</v>
+      </c>
+      <c r="E73" t="s">
+        <v>727</v>
+      </c>
+      <c r="F73" t="s">
+        <v>728</v>
+      </c>
+      <c r="G73" t="s">
+        <v>729</v>
+      </c>
+      <c r="H73" t="s">
+        <v>730</v>
+      </c>
+      <c r="I73" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>234</v>
+      </c>
+      <c r="B74" t="s">
+        <v>235</v>
+      </c>
+      <c r="C74" t="s">
+        <v>237</v>
+      </c>
+      <c r="D74" t="s">
+        <v>732</v>
+      </c>
+      <c r="E74" t="s">
+        <v>733</v>
+      </c>
+      <c r="F74" t="s">
+        <v>734</v>
+      </c>
+      <c r="G74" t="s">
+        <v>735</v>
+      </c>
+      <c r="H74" t="s">
+        <v>736</v>
+      </c>
+      <c r="I74" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>238</v>
+      </c>
+      <c r="B75" t="s">
+        <v>239</v>
+      </c>
+      <c r="C75" t="s">
+        <v>240</v>
+      </c>
+      <c r="D75" t="s">
+        <v>738</v>
+      </c>
+      <c r="E75" t="s">
+        <v>739</v>
+      </c>
+      <c r="F75" t="s">
+        <v>740</v>
+      </c>
+      <c r="G75" t="s">
+        <v>741</v>
+      </c>
+      <c r="H75" t="s">
+        <v>742</v>
+      </c>
+      <c r="I75" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>245</v>
+      </c>
+      <c r="B76" t="s">
+        <v>246</v>
+      </c>
+      <c r="C76" t="s">
+        <v>247</v>
+      </c>
+      <c r="D76" t="s">
+        <v>744</v>
+      </c>
+      <c r="E76" t="s">
+        <v>745</v>
+      </c>
+      <c r="F76" t="s">
+        <v>746</v>
+      </c>
+      <c r="G76" t="s">
+        <v>747</v>
+      </c>
+      <c r="H76" t="s">
+        <v>748</v>
+      </c>
+      <c r="I76" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>250</v>
+      </c>
+      <c r="B77" t="s">
+        <v>248</v>
+      </c>
+      <c r="C77" t="s">
+        <v>252</v>
+      </c>
+      <c r="D77" t="s">
+        <v>750</v>
+      </c>
+      <c r="E77" t="s">
+        <v>751</v>
+      </c>
+      <c r="F77" t="s">
+        <v>752</v>
+      </c>
+      <c r="G77" t="s">
+        <v>753</v>
+      </c>
+      <c r="H77" t="s">
+        <v>754</v>
+      </c>
+      <c r="I77" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>251</v>
+      </c>
+      <c r="B78" t="s">
+        <v>249</v>
+      </c>
+      <c r="C78" t="s">
+        <v>253</v>
+      </c>
+      <c r="D78" t="s">
+        <v>756</v>
+      </c>
+      <c r="E78" t="s">
+        <v>757</v>
+      </c>
+      <c r="F78" t="s">
+        <v>758</v>
+      </c>
+      <c r="G78" t="s">
+        <v>759</v>
+      </c>
+      <c r="H78" t="s">
+        <v>760</v>
+      </c>
+      <c r="I78" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>254</v>
+      </c>
+      <c r="B79" t="s">
+        <v>960</v>
+      </c>
+      <c r="C79" t="s">
+        <v>958</v>
+      </c>
+      <c r="D79" t="s">
+        <v>762</v>
+      </c>
+      <c r="E79" t="s">
+        <v>763</v>
+      </c>
+      <c r="F79" t="s">
+        <v>764</v>
+      </c>
+      <c r="G79" t="s">
+        <v>765</v>
+      </c>
+      <c r="H79" t="s">
+        <v>766</v>
+      </c>
+      <c r="I79" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>256</v>
+      </c>
+      <c r="B80" t="s">
+        <v>261</v>
+      </c>
+      <c r="C80" t="s">
+        <v>264</v>
+      </c>
+      <c r="D80" t="s">
+        <v>768</v>
+      </c>
+      <c r="E80" t="s">
+        <v>769</v>
+      </c>
+      <c r="F80" t="s">
+        <v>770</v>
+      </c>
+      <c r="G80" t="s">
+        <v>771</v>
+      </c>
+      <c r="H80" t="s">
+        <v>772</v>
+      </c>
+      <c r="I80" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>271</v>
+      </c>
+      <c r="B81" t="s">
+        <v>961</v>
+      </c>
+      <c r="C81" t="s">
+        <v>959</v>
+      </c>
+      <c r="D81" t="s">
+        <v>774</v>
+      </c>
+      <c r="E81" t="s">
+        <v>775</v>
+      </c>
+      <c r="F81" t="s">
+        <v>776</v>
+      </c>
+      <c r="G81" t="s">
+        <v>777</v>
+      </c>
+      <c r="H81" t="s">
+        <v>778</v>
+      </c>
+      <c r="I81" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>269</v>
+      </c>
+      <c r="B82" t="s">
+        <v>262</v>
+      </c>
+      <c r="C82" t="s">
+        <v>265</v>
+      </c>
+      <c r="D82" t="s">
+        <v>780</v>
+      </c>
+      <c r="E82" t="s">
+        <v>781</v>
+      </c>
+      <c r="F82" t="s">
+        <v>782</v>
+      </c>
+      <c r="G82" t="s">
+        <v>783</v>
+      </c>
+      <c r="H82" t="s">
+        <v>784</v>
+      </c>
+      <c r="I82" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>270</v>
+      </c>
+      <c r="B83" t="s">
+        <v>263</v>
+      </c>
+      <c r="C83" t="s">
+        <v>266</v>
+      </c>
+      <c r="D83" t="s">
+        <v>786</v>
+      </c>
+      <c r="E83" t="s">
+        <v>787</v>
+      </c>
+      <c r="F83" t="s">
+        <v>788</v>
+      </c>
+      <c r="G83" t="s">
+        <v>789</v>
+      </c>
+      <c r="H83" t="s">
+        <v>790</v>
+      </c>
+      <c r="I83" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>257</v>
+      </c>
+      <c r="B84" t="s">
+        <v>259</v>
+      </c>
+      <c r="C84" t="s">
+        <v>268</v>
+      </c>
+      <c r="D84" t="s">
+        <v>792</v>
+      </c>
+      <c r="E84" t="s">
+        <v>793</v>
+      </c>
+      <c r="F84" t="s">
+        <v>794</v>
+      </c>
+      <c r="G84" t="s">
+        <v>795</v>
+      </c>
+      <c r="H84" t="s">
+        <v>796</v>
+      </c>
+      <c r="I84" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>258</v>
+      </c>
+      <c r="B85" t="s">
+        <v>260</v>
+      </c>
+      <c r="C85" t="s">
+        <v>267</v>
+      </c>
+      <c r="D85" t="s">
+        <v>798</v>
+      </c>
+      <c r="E85" t="s">
+        <v>799</v>
+      </c>
+      <c r="F85" t="s">
+        <v>800</v>
+      </c>
+      <c r="G85" t="s">
+        <v>801</v>
+      </c>
+      <c r="H85" t="s">
+        <v>800</v>
+      </c>
+      <c r="I85" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>272</v>
+      </c>
+      <c r="B86" t="s">
+        <v>274</v>
+      </c>
+      <c r="C86" t="s">
+        <v>273</v>
+      </c>
+      <c r="D86" t="s">
+        <v>803</v>
+      </c>
+      <c r="E86" t="s">
+        <v>804</v>
+      </c>
+      <c r="F86" t="s">
+        <v>805</v>
+      </c>
+      <c r="G86" t="s">
+        <v>806</v>
+      </c>
+      <c r="H86" t="s">
+        <v>807</v>
+      </c>
+      <c r="I86" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>275</v>
+      </c>
+      <c r="B87" t="s">
+        <v>276</v>
+      </c>
+      <c r="C87" t="s">
+        <v>277</v>
+      </c>
+      <c r="D87" t="s">
+        <v>809</v>
+      </c>
+      <c r="E87" t="s">
+        <v>810</v>
+      </c>
+      <c r="F87" t="s">
+        <v>811</v>
+      </c>
+      <c r="G87" t="s">
+        <v>812</v>
+      </c>
+      <c r="H87" t="s">
+        <v>813</v>
+      </c>
+      <c r="I87" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>278</v>
+      </c>
+      <c r="B88" t="s">
+        <v>279</v>
+      </c>
+      <c r="C88" t="s">
+        <v>280</v>
+      </c>
+      <c r="D88" t="s">
+        <v>815</v>
+      </c>
+      <c r="E88" t="s">
+        <v>816</v>
+      </c>
+      <c r="F88" t="s">
+        <v>817</v>
+      </c>
+      <c r="G88" t="s">
+        <v>818</v>
+      </c>
+      <c r="H88" t="s">
+        <v>819</v>
+      </c>
+      <c r="I88" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>281</v>
+      </c>
+      <c r="B89" t="s">
+        <v>987</v>
+      </c>
+      <c r="C89" t="s">
+        <v>986</v>
+      </c>
+      <c r="D89" t="s">
+        <v>821</v>
+      </c>
+      <c r="E89" t="s">
+        <v>822</v>
+      </c>
+      <c r="F89" t="s">
+        <v>823</v>
+      </c>
+      <c r="G89" t="s">
+        <v>824</v>
+      </c>
+      <c r="H89" t="s">
+        <v>825</v>
+      </c>
+      <c r="I89" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>282</v>
+      </c>
+      <c r="B90" t="s">
+        <v>291</v>
+      </c>
+      <c r="C90" t="s">
+        <v>292</v>
+      </c>
+      <c r="D90" t="s">
+        <v>827</v>
+      </c>
+      <c r="E90" t="s">
+        <v>828</v>
+      </c>
+      <c r="F90" t="s">
+        <v>829</v>
+      </c>
+      <c r="G90" t="s">
+        <v>830</v>
+      </c>
+      <c r="H90" t="s">
+        <v>831</v>
+      </c>
+      <c r="I90" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>283</v>
+      </c>
+      <c r="B91" t="s">
+        <v>287</v>
+      </c>
+      <c r="C91" t="s">
+        <v>293</v>
+      </c>
+      <c r="D91" t="s">
+        <v>833</v>
+      </c>
+      <c r="E91" t="s">
+        <v>834</v>
+      </c>
+      <c r="F91" t="s">
+        <v>835</v>
+      </c>
+      <c r="G91" t="s">
+        <v>836</v>
+      </c>
+      <c r="H91" t="s">
+        <v>837</v>
+      </c>
+      <c r="I91" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>284</v>
+      </c>
+      <c r="B92" t="s">
+        <v>288</v>
+      </c>
+      <c r="C92" t="s">
+        <v>294</v>
+      </c>
+      <c r="D92" t="s">
+        <v>839</v>
+      </c>
+      <c r="E92" t="s">
+        <v>840</v>
+      </c>
+      <c r="F92" t="s">
+        <v>841</v>
+      </c>
+      <c r="G92" t="s">
+        <v>842</v>
+      </c>
+      <c r="H92" t="s">
+        <v>843</v>
+      </c>
+      <c r="I92" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>285</v>
+      </c>
+      <c r="B93" t="s">
+        <v>289</v>
+      </c>
+      <c r="C93" t="s">
+        <v>295</v>
+      </c>
+      <c r="D93" t="s">
+        <v>845</v>
+      </c>
+      <c r="E93" t="s">
+        <v>846</v>
+      </c>
+      <c r="F93" t="s">
+        <v>847</v>
+      </c>
+      <c r="G93" t="s">
+        <v>848</v>
+      </c>
+      <c r="H93" t="s">
+        <v>849</v>
+      </c>
+      <c r="I93" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>286</v>
+      </c>
+      <c r="B94" t="s">
+        <v>290</v>
+      </c>
+      <c r="C94" t="s">
+        <v>296</v>
+      </c>
+      <c r="D94" t="s">
+        <v>851</v>
+      </c>
+      <c r="E94" t="s">
+        <v>852</v>
+      </c>
+      <c r="F94" t="s">
+        <v>853</v>
+      </c>
+      <c r="G94" t="s">
+        <v>854</v>
+      </c>
+      <c r="H94" t="s">
+        <v>855</v>
+      </c>
+      <c r="I94" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>297</v>
+      </c>
+      <c r="B95" t="s">
+        <v>981</v>
+      </c>
+      <c r="C95" t="s">
+        <v>982</v>
+      </c>
+      <c r="D95" t="s">
+        <v>857</v>
+      </c>
+      <c r="E95" t="s">
+        <v>858</v>
+      </c>
+      <c r="F95" t="s">
+        <v>859</v>
+      </c>
+      <c r="G95" t="s">
+        <v>860</v>
+      </c>
+      <c r="H95" t="s">
+        <v>861</v>
+      </c>
+      <c r="I95" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>298</v>
+      </c>
+      <c r="B96" t="s">
+        <v>303</v>
+      </c>
+      <c r="C96" t="s">
+        <v>308</v>
+      </c>
+      <c r="D96" t="s">
+        <v>863</v>
+      </c>
+      <c r="E96" t="s">
+        <v>864</v>
+      </c>
+      <c r="F96" t="s">
+        <v>865</v>
+      </c>
+      <c r="G96" t="s">
+        <v>866</v>
+      </c>
+      <c r="H96" t="s">
+        <v>867</v>
+      </c>
+      <c r="I96" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>299</v>
+      </c>
+      <c r="B97" t="s">
+        <v>304</v>
+      </c>
+      <c r="C97" t="s">
+        <v>309</v>
+      </c>
+      <c r="D97" t="s">
+        <v>869</v>
+      </c>
+      <c r="E97" t="s">
+        <v>870</v>
+      </c>
+      <c r="F97" t="s">
+        <v>871</v>
+      </c>
+      <c r="G97" t="s">
+        <v>872</v>
+      </c>
+      <c r="H97" t="s">
+        <v>873</v>
+      </c>
+      <c r="I97" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>300</v>
+      </c>
+      <c r="B98" t="s">
+        <v>305</v>
+      </c>
+      <c r="C98" t="s">
+        <v>310</v>
+      </c>
+      <c r="D98" t="s">
+        <v>875</v>
+      </c>
+      <c r="E98" t="s">
+        <v>876</v>
+      </c>
+      <c r="F98" t="s">
+        <v>877</v>
+      </c>
+      <c r="G98" t="s">
+        <v>878</v>
+      </c>
+      <c r="H98" t="s">
+        <v>879</v>
+      </c>
+      <c r="I98" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>301</v>
+      </c>
+      <c r="B99" t="s">
+        <v>306</v>
+      </c>
+      <c r="C99" t="s">
+        <v>311</v>
+      </c>
+      <c r="D99" t="s">
+        <v>881</v>
+      </c>
+      <c r="E99" t="s">
+        <v>882</v>
+      </c>
+      <c r="F99" t="s">
+        <v>883</v>
+      </c>
+      <c r="G99" t="s">
+        <v>884</v>
+      </c>
+      <c r="H99" t="s">
+        <v>885</v>
+      </c>
+      <c r="I99" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>302</v>
+      </c>
+      <c r="B100" t="s">
+        <v>307</v>
+      </c>
+      <c r="C100" t="s">
+        <v>312</v>
+      </c>
+      <c r="D100" t="s">
+        <v>887</v>
+      </c>
+      <c r="E100" t="s">
+        <v>888</v>
+      </c>
+      <c r="F100" t="s">
+        <v>889</v>
+      </c>
+      <c r="G100" t="s">
+        <v>890</v>
+      </c>
+      <c r="H100" t="s">
+        <v>891</v>
+      </c>
+      <c r="I100" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>313</v>
+      </c>
+      <c r="B101" t="s">
+        <v>315</v>
+      </c>
+      <c r="C101" t="s">
+        <v>317</v>
+      </c>
+      <c r="D101" t="s">
+        <v>893</v>
+      </c>
+      <c r="E101" t="s">
+        <v>894</v>
+      </c>
+      <c r="F101" t="s">
+        <v>895</v>
+      </c>
+      <c r="G101" t="s">
+        <v>896</v>
+      </c>
+      <c r="H101" t="s">
+        <v>897</v>
+      </c>
+      <c r="I101" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>314</v>
+      </c>
+      <c r="B102" t="s">
+        <v>316</v>
+      </c>
+      <c r="C102" t="s">
+        <v>318</v>
+      </c>
+      <c r="D102" t="s">
+        <v>899</v>
+      </c>
+      <c r="E102" t="s">
+        <v>900</v>
+      </c>
+      <c r="F102" t="s">
+        <v>901</v>
+      </c>
+      <c r="G102" t="s">
+        <v>902</v>
+      </c>
+      <c r="H102" t="s">
+        <v>903</v>
+      </c>
+      <c r="I102" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>319</v>
+      </c>
+      <c r="B103" t="s">
+        <v>320</v>
+      </c>
+      <c r="C103" t="s">
+        <v>321</v>
+      </c>
+      <c r="D103" t="s">
+        <v>905</v>
+      </c>
+      <c r="E103" t="s">
+        <v>906</v>
+      </c>
+      <c r="F103" t="s">
+        <v>907</v>
+      </c>
+      <c r="G103" t="s">
+        <v>908</v>
+      </c>
+      <c r="H103" t="s">
+        <v>909</v>
+      </c>
+      <c r="I103" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>322</v>
+      </c>
+      <c r="B104" t="s">
+        <v>327</v>
+      </c>
+      <c r="C104" t="s">
+        <v>329</v>
+      </c>
+      <c r="D104" t="s">
+        <v>911</v>
+      </c>
+      <c r="E104" t="s">
+        <v>912</v>
+      </c>
+      <c r="F104" t="s">
+        <v>913</v>
+      </c>
+      <c r="G104" t="s">
+        <v>914</v>
+      </c>
+      <c r="H104" t="s">
+        <v>915</v>
+      </c>
+      <c r="I104" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>323</v>
+      </c>
+      <c r="B105" t="s">
+        <v>262</v>
+      </c>
+      <c r="C105" t="s">
+        <v>265</v>
+      </c>
+      <c r="D105" t="s">
+        <v>780</v>
+      </c>
+      <c r="E105" t="s">
+        <v>781</v>
+      </c>
+      <c r="F105" t="s">
+        <v>782</v>
+      </c>
+      <c r="G105" t="s">
+        <v>783</v>
+      </c>
+      <c r="H105" t="s">
+        <v>784</v>
+      </c>
+      <c r="I105" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>324</v>
+      </c>
+      <c r="B106" t="s">
+        <v>263</v>
+      </c>
+      <c r="C106" t="s">
+        <v>266</v>
+      </c>
+      <c r="D106" t="s">
+        <v>786</v>
+      </c>
+      <c r="E106" t="s">
+        <v>787</v>
+      </c>
+      <c r="F106" t="s">
+        <v>788</v>
+      </c>
+      <c r="G106" t="s">
+        <v>789</v>
+      </c>
+      <c r="H106" t="s">
+        <v>790</v>
+      </c>
+      <c r="I106" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>325</v>
+      </c>
+      <c r="B107" t="s">
+        <v>326</v>
+      </c>
+      <c r="C107" t="s">
+        <v>328</v>
+      </c>
+      <c r="D107" t="s">
+        <v>917</v>
+      </c>
+      <c r="E107" t="s">
+        <v>918</v>
+      </c>
+      <c r="F107" t="s">
+        <v>919</v>
+      </c>
+      <c r="G107" t="s">
+        <v>920</v>
+      </c>
+      <c r="H107" t="s">
+        <v>921</v>
+      </c>
+      <c r="I107" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>331</v>
+      </c>
+      <c r="B108" t="s">
+        <v>336</v>
+      </c>
+      <c r="C108" t="s">
+        <v>337</v>
+      </c>
+      <c r="D108" t="s">
+        <v>923</v>
+      </c>
+      <c r="E108" t="s">
+        <v>924</v>
+      </c>
+      <c r="F108" t="s">
+        <v>925</v>
+      </c>
+      <c r="G108" t="s">
+        <v>926</v>
+      </c>
+      <c r="H108" t="s">
+        <v>927</v>
+      </c>
+      <c r="I108" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>333</v>
+      </c>
+      <c r="B109" t="s">
+        <v>262</v>
+      </c>
+      <c r="C109" t="s">
+        <v>265</v>
+      </c>
+      <c r="D109" t="s">
+        <v>780</v>
+      </c>
+      <c r="E109" t="s">
+        <v>781</v>
+      </c>
+      <c r="F109" t="s">
+        <v>782</v>
+      </c>
+      <c r="G109" t="s">
+        <v>783</v>
+      </c>
+      <c r="H109" t="s">
+        <v>784</v>
+      </c>
+      <c r="I109" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>332</v>
+      </c>
+      <c r="B110" t="s">
+        <v>263</v>
+      </c>
+      <c r="C110" t="s">
+        <v>266</v>
+      </c>
+      <c r="D110" t="s">
+        <v>786</v>
+      </c>
+      <c r="E110" t="s">
+        <v>787</v>
+      </c>
+      <c r="F110" t="s">
+        <v>788</v>
+      </c>
+      <c r="G110" t="s">
+        <v>789</v>
+      </c>
+      <c r="H110" t="s">
+        <v>790</v>
+      </c>
+      <c r="I110" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>334</v>
+      </c>
+      <c r="B111" t="s">
+        <v>335</v>
+      </c>
+      <c r="C111" t="s">
+        <v>330</v>
+      </c>
+      <c r="D111" t="s">
+        <v>929</v>
+      </c>
+      <c r="E111" t="s">
+        <v>930</v>
+      </c>
+      <c r="F111" t="s">
+        <v>931</v>
+      </c>
+      <c r="G111" t="s">
+        <v>932</v>
+      </c>
+      <c r="H111" t="s">
+        <v>933</v>
+      </c>
+      <c r="I111" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>935</v>
+      </c>
+      <c r="B112" t="s">
+        <v>936</v>
+      </c>
+      <c r="C112" t="s">
+        <v>937</v>
+      </c>
+      <c r="D112" t="s">
+        <v>936</v>
+      </c>
+      <c r="E112" t="s">
+        <v>936</v>
+      </c>
+      <c r="F112" t="s">
+        <v>936</v>
+      </c>
+      <c r="G112" t="s">
+        <v>936</v>
+      </c>
+      <c r="H112" t="s">
+        <v>936</v>
+      </c>
+      <c r="I112" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>938</v>
+      </c>
+      <c r="B113" t="s">
+        <v>939</v>
+      </c>
+      <c r="C113" t="s">
+        <v>940</v>
+      </c>
+      <c r="D113" t="s">
+        <v>939</v>
+      </c>
+      <c r="E113" t="s">
+        <v>939</v>
+      </c>
+      <c r="F113" t="s">
+        <v>939</v>
+      </c>
+      <c r="G113" t="s">
+        <v>939</v>
+      </c>
+      <c r="H113" t="s">
+        <v>939</v>
+      </c>
+      <c r="I113" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>941</v>
+      </c>
+      <c r="B114" t="s">
+        <v>942</v>
+      </c>
+      <c r="C114" t="s">
+        <v>943</v>
+      </c>
+      <c r="D114" t="s">
+        <v>942</v>
+      </c>
+      <c r="E114" t="s">
+        <v>942</v>
+      </c>
+      <c r="F114" t="s">
+        <v>942</v>
+      </c>
+      <c r="G114" t="s">
+        <v>942</v>
+      </c>
+      <c r="H114" t="s">
+        <v>942</v>
+      </c>
+      <c r="I114" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>944</v>
+      </c>
+      <c r="B115" t="s">
+        <v>945</v>
+      </c>
+      <c r="C115" t="s">
+        <v>946</v>
+      </c>
+      <c r="D115" t="s">
+        <v>945</v>
+      </c>
+      <c r="E115" t="s">
+        <v>945</v>
+      </c>
+      <c r="F115" t="s">
+        <v>945</v>
+      </c>
+      <c r="G115" t="s">
+        <v>945</v>
+      </c>
+      <c r="H115" t="s">
+        <v>945</v>
+      </c>
+      <c r="I115" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>947</v>
+      </c>
+      <c r="B116" t="s">
+        <v>948</v>
+      </c>
+      <c r="C116" t="s">
+        <v>949</v>
+      </c>
+      <c r="D116" t="s">
+        <v>948</v>
+      </c>
+      <c r="E116" t="s">
+        <v>948</v>
+      </c>
+      <c r="F116" t="s">
+        <v>948</v>
+      </c>
+      <c r="G116" t="s">
+        <v>948</v>
+      </c>
+      <c r="H116" t="s">
+        <v>948</v>
+      </c>
+      <c r="I116" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>950</v>
+      </c>
+      <c r="B117" t="s">
+        <v>951</v>
+      </c>
+      <c r="C117" t="s">
+        <v>952</v>
+      </c>
+      <c r="D117" t="s">
+        <v>951</v>
+      </c>
+      <c r="E117" t="s">
+        <v>951</v>
+      </c>
+      <c r="F117" t="s">
+        <v>951</v>
+      </c>
+      <c r="G117" t="s">
+        <v>951</v>
+      </c>
+      <c r="H117" t="s">
+        <v>951</v>
+      </c>
+      <c r="I117" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>953</v>
+      </c>
+      <c r="B118" t="s">
+        <v>955</v>
+      </c>
+      <c r="C118" t="s">
+        <v>954</v>
+      </c>
+      <c r="D118" t="s">
+        <v>955</v>
+      </c>
+      <c r="E118" t="s">
+        <v>955</v>
+      </c>
+      <c r="F118" t="s">
+        <v>955</v>
+      </c>
+      <c r="G118" t="s">
+        <v>955</v>
+      </c>
+      <c r="H118" t="s">
+        <v>955</v>
+      </c>
+      <c r="I118" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>956</v>
+      </c>
+      <c r="B119" t="s">
+        <v>957</v>
+      </c>
+      <c r="C119" t="s">
+        <v>255</v>
+      </c>
+      <c r="D119" t="s">
+        <v>957</v>
+      </c>
+      <c r="E119" t="s">
+        <v>957</v>
+      </c>
+      <c r="F119" t="s">
+        <v>957</v>
+      </c>
+      <c r="G119" t="s">
+        <v>957</v>
+      </c>
+      <c r="H119" t="s">
+        <v>957</v>
+      </c>
+      <c r="I119" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>962</v>
+      </c>
+      <c r="B120" t="s">
+        <v>965</v>
+      </c>
+      <c r="C120" t="s">
+        <v>966</v>
+      </c>
+      <c r="D120" t="s">
+        <v>965</v>
+      </c>
+      <c r="E120" t="s">
+        <v>965</v>
+      </c>
+      <c r="F120" t="s">
+        <v>965</v>
+      </c>
+      <c r="G120" t="s">
+        <v>965</v>
+      </c>
+      <c r="H120" t="s">
+        <v>965</v>
+      </c>
+      <c r="I120" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>963</v>
+      </c>
+      <c r="B121" t="s">
+        <v>262</v>
+      </c>
+      <c r="C121" t="s">
+        <v>265</v>
+      </c>
+      <c r="D121" t="s">
+        <v>262</v>
+      </c>
+      <c r="E121" t="s">
+        <v>262</v>
+      </c>
+      <c r="F121" t="s">
+        <v>262</v>
+      </c>
+      <c r="G121" t="s">
+        <v>262</v>
+      </c>
+      <c r="H121" t="s">
+        <v>262</v>
+      </c>
+      <c r="I121" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>964</v>
+      </c>
+      <c r="B122" t="s">
+        <v>263</v>
+      </c>
+      <c r="C122" t="s">
+        <v>266</v>
+      </c>
+      <c r="D122" t="s">
+        <v>263</v>
+      </c>
+      <c r="E122" t="s">
+        <v>263</v>
+      </c>
+      <c r="F122" t="s">
+        <v>263</v>
+      </c>
+      <c r="G122" t="s">
+        <v>263</v>
+      </c>
+      <c r="H122" t="s">
+        <v>263</v>
+      </c>
+      <c r="I122" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>967</v>
+      </c>
+      <c r="B123" t="s">
+        <v>973</v>
+      </c>
+      <c r="C123" t="s">
+        <v>969</v>
+      </c>
+      <c r="D123" t="s">
+        <v>968</v>
+      </c>
+      <c r="E123" t="s">
+        <v>968</v>
+      </c>
+      <c r="F123" t="s">
+        <v>968</v>
+      </c>
+      <c r="G123" t="s">
+        <v>968</v>
+      </c>
+      <c r="H123" t="s">
+        <v>968</v>
+      </c>
+      <c r="I123" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>970</v>
+      </c>
+      <c r="B124" t="s">
+        <v>971</v>
+      </c>
+      <c r="C124" t="s">
+        <v>972</v>
+      </c>
+      <c r="D124" t="s">
+        <v>971</v>
+      </c>
+      <c r="E124" t="s">
+        <v>971</v>
+      </c>
+      <c r="F124" t="s">
+        <v>971</v>
+      </c>
+      <c r="G124" t="s">
+        <v>971</v>
+      </c>
+      <c r="H124" t="s">
+        <v>971</v>
+      </c>
+      <c r="I124" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>975</v>
+      </c>
+      <c r="B125" t="s">
+        <v>974</v>
+      </c>
+      <c r="C125" t="s">
+        <v>976</v>
+      </c>
+      <c r="D125" t="s">
+        <v>974</v>
+      </c>
+      <c r="E125" t="s">
+        <v>974</v>
+      </c>
+      <c r="F125" t="s">
+        <v>974</v>
+      </c>
+      <c r="G125" t="s">
+        <v>974</v>
+      </c>
+      <c r="H125" t="s">
+        <v>974</v>
+      </c>
+      <c r="I125" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>103</v>
+      </c>
+      <c r="B126" t="s">
+        <v>104</v>
+      </c>
+      <c r="C126" t="s">
+        <v>977</v>
+      </c>
+      <c r="D126" t="s">
+        <v>104</v>
+      </c>
+      <c r="E126" t="s">
+        <v>104</v>
+      </c>
+      <c r="F126" t="s">
+        <v>104</v>
+      </c>
+      <c r="G126" t="s">
+        <v>104</v>
+      </c>
+      <c r="H126" t="s">
+        <v>104</v>
+      </c>
+      <c r="I126" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>978</v>
+      </c>
+      <c r="B127" t="s">
+        <v>979</v>
+      </c>
+      <c r="C127" t="s">
+        <v>980</v>
+      </c>
+      <c r="D127" t="s">
+        <v>979</v>
+      </c>
+      <c r="E127" t="s">
+        <v>979</v>
+      </c>
+      <c r="F127" t="s">
+        <v>979</v>
+      </c>
+      <c r="G127" t="s">
+        <v>979</v>
+      </c>
+      <c r="H127" t="s">
+        <v>979</v>
+      </c>
+      <c r="I127" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>983</v>
+      </c>
+      <c r="B128" t="s">
+        <v>984</v>
+      </c>
+      <c r="C128" t="s">
+        <v>985</v>
+      </c>
+      <c r="D128" t="s">
+        <v>984</v>
+      </c>
+      <c r="E128" t="s">
+        <v>984</v>
+      </c>
+      <c r="F128" t="s">
+        <v>984</v>
+      </c>
+      <c r="G128" t="s">
+        <v>984</v>
+      </c>
+      <c r="H128" t="s">
+        <v>984</v>
+      </c>
+      <c r="I128" t="s">
+        <v>984</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:I4" xr:uid="{01EFFCAA-6DA9-40A3-BF28-CA3BC524DD9C}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/locales/translations.xlsx
+++ b/src/locales/translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\icmm-web\src\locales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410D6171-C2CB-491C-850A-CA75818CB92D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1411EA9-787E-410D-AF90-12623DF54A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B932D239-48A5-4026-8CCD-CA2BFDECA8AC}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BAK_20250814!$A$1:$I$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DATA!$A$1:$I$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DATA!$A$1:$C$4</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1.0000000000000001E-5" calcOnSave="0"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2275" uniqueCount="1024">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="1133">
   <si>
     <t>id</t>
   </si>
@@ -3007,15 +3007,6 @@
     <t>Wait payment evidence</t>
   </si>
   <si>
-    <t>...Welcome to the Intania Runner shop…</t>
-  </si>
-  <si>
-    <t>...ขอต้อนรับสู่ร้านค้า ชมรมวิ่งวิศวะ จุฬาฯ...</t>
-  </si>
-  <si>
-    <t>KasikornThai</t>
-  </si>
-  <si>
     <t>ธนาคารกสิกรไทย</t>
   </si>
   <si>
@@ -3028,9 +3019,6 @@
     <t>ธัญญา ลีฬหบุญเอี่ยม</t>
   </si>
   <si>
-    <t>สลิปหลักฐานการโอน</t>
-  </si>
-  <si>
     <t>หมายเหตุ</t>
   </si>
   <si>
@@ -3049,48 +3037,27 @@
     <t>ผลรวมสุดท้ายไม่ถูกต้อง</t>
   </si>
   <si>
-    <t>คลิ๊กเพื่ออัพโหลด</t>
-  </si>
-  <si>
     <t>ยอดชำระรวม</t>
   </si>
   <si>
-    <t>นำสลิปออก</t>
-  </si>
-  <si>
-    <t>Your order has received</t>
-  </si>
-  <si>
     <t>เราได้รับคำสั่งซื้อของคุณเรียบร้อย</t>
   </si>
   <si>
     <t>...เราจะทำการยืนยันคำสั่งซื้อของคุณภายใน 24 ชั่วโมง...</t>
   </si>
   <si>
-    <t>กรุณาใส่เลขคำสั่งซื้อ</t>
-  </si>
-  <si>
     <t>[Intania Runner] Your order has been received!...</t>
   </si>
   <si>
     <t>[Intania Runner] เราได้รับคำสั่งซื้อของท่านเรียบร้อย…</t>
   </si>
   <si>
-    <t>We have received your order and will confirm it within 24 hours.</t>
-  </si>
-  <si>
     <t>เราได้รับคำสั่งซื้อของท่านเรียบร้อยแล้ว และจะดำเนินการยืนยันคำสั่งซื้อภายใน 24 ชั่วโมง</t>
   </si>
   <si>
     <t>Intania Runner admin.</t>
   </si>
   <si>
-    <t>ผู้ดูแลระบบชมรมวิ่ง วิศวะ จุฬาฯ</t>
-  </si>
-  <si>
-    <t>Payment unsuccessful</t>
-  </si>
-  <si>
     <t>ชำระเงินไม่สำเร็จ</t>
   </si>
   <si>
@@ -3103,16 +3070,382 @@
     <t>ขอบคุณที่เลือกซื้อสินค้ากับเรา</t>
   </si>
   <si>
-    <t>[Intania Runner] Your order has been updated!...</t>
-  </si>
-  <si>
     <t>[Intania Runner] คำสั่งซื้อของท่านมีการเปลี่ยนสถานะหรือแก้ไข…</t>
   </si>
   <si>
-    <t>[Intania Runner] Your order has changed status!...</t>
-  </si>
-  <si>
     <t>[Intania Runner] คำสั่งซื้อของท่านมีการเปลี่ยนสถานะ…</t>
+  </si>
+  <si>
+    <t>addressNo</t>
+  </si>
+  <si>
+    <t>บ้านเลขที่ ห้อง ชั้น ซอย ถนน</t>
+  </si>
+  <si>
+    <t>addressSubDistrict</t>
+  </si>
+  <si>
+    <t>ตำบล / แขวง</t>
+  </si>
+  <si>
+    <t>addressDistrict</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>อำเภอ / เขต</t>
+  </si>
+  <si>
+    <t>addressProvince</t>
+  </si>
+  <si>
+    <t>Province</t>
+  </si>
+  <si>
+    <t>จังหวัด</t>
+  </si>
+  <si>
+    <t>addressPostCode</t>
+  </si>
+  <si>
+    <t>รหัสไปรษณีย์</t>
+  </si>
+  <si>
+    <t>errAddress5to400</t>
+  </si>
+  <si>
+    <t>Address must be between 5 and 400 characters</t>
+  </si>
+  <si>
+    <t>errAddress5</t>
+  </si>
+  <si>
+    <t>Postcode must be 5 characters</t>
+  </si>
+  <si>
+    <t>รหัสไปรษณีย์ต้องมี 5 ตัวอักษร</t>
+  </si>
+  <si>
+    <t>prod6Name</t>
+  </si>
+  <si>
+    <t>prod6Detail</t>
+  </si>
+  <si>
+    <t>...Welcome to Intania Runner shop…</t>
+  </si>
+  <si>
+    <t>...ขอต้อนรับเข้าสู่ร้านค้า ชมรมวิ่งวิศวฯ จุฬาฯ...</t>
+  </si>
+  <si>
+    <t>Check order status</t>
+  </si>
+  <si>
+    <t>Click to select product</t>
+  </si>
+  <si>
+    <t>คลิกเพื่อเลือกสินค้า</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>รวมราคา:</t>
+  </si>
+  <si>
+    <t>Confirm order</t>
+  </si>
+  <si>
+    <t>Ready for payment</t>
+  </si>
+  <si>
+    <t>อีเมล</t>
+  </si>
+  <si>
+    <t>ที่อยู่สำหรับจัดส่ง</t>
+  </si>
+  <si>
+    <t>Kasikornthai Bank</t>
+  </si>
+  <si>
+    <t>Account number</t>
+  </si>
+  <si>
+    <t>Account name</t>
+  </si>
+  <si>
+    <t>สลิปการชำระเงิน</t>
+  </si>
+  <si>
+    <t>Submit order</t>
+  </si>
+  <si>
+    <t>Phone number</t>
+  </si>
+  <si>
+    <t>Total price:</t>
+  </si>
+  <si>
+    <t>รวมราคาสินค้า:</t>
+  </si>
+  <si>
+    <t>Delivery fee</t>
+  </si>
+  <si>
+    <t>Order total</t>
+  </si>
+  <si>
+    <t>Name length must be between 4 to 50 characters.</t>
+  </si>
+  <si>
+    <t>รูปแบบอีเมลไม่ถูกต้อง</t>
+  </si>
+  <si>
+    <t>Test error</t>
+  </si>
+  <si>
+    <t>ทดสอบความผิดพลาด</t>
+  </si>
+  <si>
+    <t>Total amount is incorrect.</t>
+  </si>
+  <si>
+    <t>Grand total is incorrect</t>
+  </si>
+  <si>
+    <t>Switch to QR payment</t>
+  </si>
+  <si>
+    <t>เปลี่ยนเป็นการชำระเงินด้วยคิวอาร์โค้ด</t>
+  </si>
+  <si>
+    <t>Switch to account number payment</t>
+  </si>
+  <si>
+    <t>เปลี่ยนเป็นการชำระเงินด้วยเลขที่บัญชี</t>
+  </si>
+  <si>
+    <t>คลิกเพื่ออัพโหลด</t>
+  </si>
+  <si>
+    <t>Total payment</t>
+  </si>
+  <si>
+    <t>Remove payment slip</t>
+  </si>
+  <si>
+    <t>ลบสลิปการชำระเงิน</t>
+  </si>
+  <si>
+    <t>Invalid order ID</t>
+  </si>
+  <si>
+    <t>ไม่พบรูปสลิปการชำระเงิน</t>
+  </si>
+  <si>
+    <t>Your order has been received</t>
+  </si>
+  <si>
+    <t>...We will confirm your order within 24 hours...</t>
+  </si>
+  <si>
+    <t>You can check your order status by clicking "Check Order Status" on the top of page.</t>
+  </si>
+  <si>
+    <t>ท่านสามารถตรวจสอบสถานะคำสั่งซื้อโดยคลิก "ตรวจสอบสถานะคำสั่งซื้อ" ด้านบนของเพจ</t>
+  </si>
+  <si>
+    <t>Input your order number</t>
+  </si>
+  <si>
+    <t>กรุณาใส่หมายเลขคำสั่งซื้อ</t>
+  </si>
+  <si>
+    <t>และอีเมลของท่าน</t>
+  </si>
+  <si>
+    <t>Fail to create QR</t>
+  </si>
+  <si>
+    <t>ไม่สามารถสร้างคิวอาร์โค้ดได้</t>
+  </si>
+  <si>
+    <t>Fail to upload payment slip</t>
+  </si>
+  <si>
+    <t>ไม่สามารถส่งสลิปการชำระเงินได้</t>
+  </si>
+  <si>
+    <t>We are currently not operating.</t>
+  </si>
+  <si>
+    <t>We apologize for inconvenience.</t>
+  </si>
+  <si>
+    <t>We have received your order and will confirm within 24 hours.</t>
+  </si>
+  <si>
+    <t>ผู้ดูแลระบบชมรมวิ่ง วิศวฯ จุฬาฯ</t>
+  </si>
+  <si>
+    <t>Email or order number are not found.</t>
+  </si>
+  <si>
+    <t>ไม่พบอีเมล์หรือหมายเลขคำสั่งซื้อ</t>
+  </si>
+  <si>
+    <t>Please input email and order number</t>
+  </si>
+  <si>
+    <t>กรุณาระบุอีเมลและหมายเลขคำสั่งซื้อ</t>
+  </si>
+  <si>
+    <t>Unsuccessful payment</t>
+  </si>
+  <si>
+    <t>Waiting for confirmation</t>
+  </si>
+  <si>
+    <t>Please wait for confirmed payment.</t>
+  </si>
+  <si>
+    <t>Your order has been confirmed. We will notify you again when it is out for delivery.</t>
+  </si>
+  <si>
+    <t>Your order has been delivered. Please check your delivery status from tracking number.</t>
+  </si>
+  <si>
+    <t>Created at (at เวลา, on วันที่ เอาแบบใด)</t>
+  </si>
+  <si>
+    <t>Updated (at เวลา, on วันที่ เอาแบบใด)</t>
+  </si>
+  <si>
+    <t>EMS tracking number</t>
+  </si>
+  <si>
+    <t>We have updated your order status.</t>
+  </si>
+  <si>
+    <t>You can check your order status by clicking "Check Order Status" and entering your order number:</t>
+  </si>
+  <si>
+    <t>[Intania Runner] Your order status has been updated...</t>
+  </si>
+  <si>
+    <t>คำสั่งซื้อของท่านถูกดำเนินการไปยังสถานะถัดไป</t>
+  </si>
+  <si>
+    <t>[Intania Runner] Your order status has been changed...</t>
+  </si>
+  <si>
+    <t>Please fill in code.</t>
+  </si>
+  <si>
+    <t>Code is not found or has been already used.</t>
+  </si>
+  <si>
+    <t>[ICMM2025] Your order has been created...</t>
+  </si>
+  <si>
+    <t>We have received your order, please complete your payment and upload payment slip.</t>
+  </si>
+  <si>
+    <t>เราได้รับคำสั่งซื้อของท่านเรียบร้อยแล้ว โปรดดำเนินการชำระเงินและอัพโหลดหลักฐานการชำระเงิน</t>
+  </si>
+  <si>
+    <t>Total price is THB 0.00. Please click ‘Submit order’ to complete your order.</t>
+  </si>
+  <si>
+    <t>If you are not ready to pay now, you can pay and upload payment payment slip later by going to the 'Upload payment slip' and entering your order number:</t>
+  </si>
+  <si>
+    <t>หากคุณยังไม่พร้อมชำระเงินในขณะนี้ คุณสามารถชำระเงินและอัปโหลดสลิปการชำระเงินในภายหลังได้โดยไปที่เมนู 'ส่งหลักฐานการชำระ' และกรอกหมายเลขคำสั่งซื้อของคุณ</t>
+  </si>
+  <si>
+    <t>Upload payment slip</t>
+  </si>
+  <si>
+    <t>Address number</t>
+  </si>
+  <si>
+    <t>Sub-district</t>
+  </si>
+  <si>
+    <t>Postal code</t>
+  </si>
+  <si>
+    <t>Running Cap</t>
+  </si>
+  <si>
+    <t>หมวกวิ่ง</t>
+  </si>
+  <si>
+    <t>Original BUFF® Coolnet UV</t>
+  </si>
+  <si>
+    <t>ผ้าบัฟ รุ่น Coolnet UV</t>
+  </si>
+  <si>
+    <t>Made from Spain / Lightweight multifunctional neckwear made from recycled plastic bottles. / UPS50 sun protection / Breathable, sweat-wicking, and versatile for multiple wearing style / For your favorite outdoor activity, running, trail running, hiking, trekking, paddling, diving.</t>
+  </si>
+  <si>
+    <t>Original BUFF® Coolnet UV – ของแท้จากสเปน ผ้าคลุมคอแบบ Tubular น้ำหนักเบา UPF50 ผลิตจาก Recycled Polyester ระบายอากาศดี ซับเหงื่อเร็ว และปรับใส่ได้หลายแบบ มาพร้อม HeiQ Smart Temp Cooling และแถบสะท้อนแสง 3M Scotchlite™ (บางรุ่น) เหมาะสำหรับป้องกัน UV ระหว่างทำงานกลางแจ้งหนัก</t>
+  </si>
+  <si>
+    <t>Men’s 5" Running Shorts</t>
+  </si>
+  <si>
+    <t>กางเกงวิ่งขาสั้นชาย 5 นิ้ว</t>
+  </si>
+  <si>
+    <t>Men’s Running Shorts with Inner Brief
+Designed for runners of all levels, these shorts feature a sporty, modern look and provide exceptional comfort, allowing you to move at full speed without feeling heavy or restricted.
+Crafted from Micropeach fabric, they offer a soft, smooth touch and excellent breathability to keep you cool and dry. The elastic waistband with an inner drawstring ensures a secure fit, while the quick-dry material prevents unpleasant odors and moisture build-up. Premium department-store quality you can rely on.</t>
+  </si>
+  <si>
+    <t>กางเกงวิ่งสำหรับผู้ชาย พร้อมซับในแบบกางเกงใน (Inner Brief) ออกแบบมาสำหรับนักวิ่งทุกระดับ มาพร้อมดีไซน์สปอร์ตเท่ สวมใส่สบาย และช่วยให้คุณเคลื่อนไหวได้เต็มสปีด โดยไม่รู้สึกหนักหรืออึดอัด
+ผ้า Micropeachใส่สบายกางเกงขอบเอวยางยืด มีเชือกผูกด้านใน นุ่มลื่น ใส่สบาย ระรายความร้อนได้ดี ไม่มีกลิ่นอับชื้น แห้งไว สินค้าเกรดห้าง คุณภาพดี</t>
+  </si>
+  <si>
+    <t>Women’s 3" Running Shorts</t>
+  </si>
+  <si>
+    <t>กางเกงวิ่งขาสั้นหญิง 3 นิ้ว</t>
+  </si>
+  <si>
+    <t>Women’s Running Shorts with Inner Brief
+Designed for runners of all levels, these shorts feature a sporty, modern look and provide exceptional comfort, allowing you to move at full speed without feeling heavy or restricted.
+Crafted from Micropeach fabric, they offer a soft, smooth touch and excellent breathability to keep you cool and dry. The elastic waistband with an inner drawstring ensures a secure fit, while the quick-dry material prevents unpleasant odors and moisture build-up. Premium department-store quality you can rely on.</t>
+  </si>
+  <si>
+    <t>กางเกงวิ่งสำหรับผู้หญิง พร้อมซับในแบบกางเกงใน (Inner Brief) ออกแบบมาสำหรับนักวิ่งทุกระดับ มาพร้อมดีไซน์สปอร์ตเท่ สวมใส่สบาย และช่วยให้คุณเคลื่อนไหวได้เต็มสปีด โดยไม่รู้สึกหนักหรืออึดอัด
+ผ้า Micropeachใส่สบายกางเกงขอบเอวยางยืด มีเชือกผูกด้านใน นุ่มลื่น ใส่สบาย ระรายความร้อนได้ดี ไม่มีกลิ่นอับชื้น แห้งไว สินค้าเกรดห้าง คุณภาพดี</t>
+  </si>
+  <si>
+    <t>Running Set (Men)</t>
+  </si>
+  <si>
+    <t>เซ็ตสำหรับนักวิ่งชาย</t>
+  </si>
+  <si>
+    <t>Running Cap + Original BUFF® Coolnet UV + Running Shorts M</t>
+  </si>
+  <si>
+    <t>หมวกวิ่ง + ผ้าบัฟ รุ่น Coolnet UV + กางเกงวิ่งขาสั้นชาย 5 นิ้ว</t>
+  </si>
+  <si>
+    <t>Running Set (Women)</t>
+  </si>
+  <si>
+    <t>เซ็ทสำหรับนักวิ่งหญิง</t>
+  </si>
+  <si>
+    <t>Running Cap + Original BUFF® Coolnet UV + Running Shorts F</t>
+  </si>
+  <si>
+    <t>หมวกวิ่ง + ผ้าบัฟ รุ่น Coolnet UV + กางเกงวิ่งขาสั้นหญิง 3 นิ้ว</t>
   </si>
 </sst>
 </file>
@@ -3490,10 +3823,1528 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EFFCAA-6DA9-40A3-BF28-CA3BC524DD9C}">
-  <dimension ref="A1:I127"/>
+  <dimension ref="A1:C136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="F122" sqref="F122"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="40" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C23" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" t="s">
+        <v>989</v>
+      </c>
+      <c r="C25" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" t="s">
+        <v>990</v>
+      </c>
+      <c r="C27" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>135</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>137</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>138</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>139</v>
+      </c>
+      <c r="B42" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>142</v>
+      </c>
+      <c r="B43" t="s">
+        <v>143</v>
+      </c>
+      <c r="C43" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>145</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C44" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>148</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>150</v>
+      </c>
+      <c r="B46" t="s">
+        <v>152</v>
+      </c>
+      <c r="C46" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>151</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C47" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>156</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C48" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>160</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C49" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>164</v>
+      </c>
+      <c r="B50" t="s">
+        <v>163</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>166</v>
+      </c>
+      <c r="B51" t="s">
+        <v>167</v>
+      </c>
+      <c r="C51" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>169</v>
+      </c>
+      <c r="B52" t="s">
+        <v>170</v>
+      </c>
+      <c r="C52" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C53" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>172</v>
+      </c>
+      <c r="B55" t="s">
+        <v>175</v>
+      </c>
+      <c r="C55" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>173</v>
+      </c>
+      <c r="B56" t="s">
+        <v>174</v>
+      </c>
+      <c r="C56" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>178</v>
+      </c>
+      <c r="B57" t="s">
+        <v>180</v>
+      </c>
+      <c r="C57" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>179</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>187</v>
+      </c>
+      <c r="B59" t="s">
+        <v>186</v>
+      </c>
+      <c r="C59" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>184</v>
+      </c>
+      <c r="B60" t="s">
+        <v>189</v>
+      </c>
+      <c r="C60" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>188</v>
+      </c>
+      <c r="B61" t="s">
+        <v>190</v>
+      </c>
+      <c r="C61" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>193</v>
+      </c>
+      <c r="B62" t="s">
+        <v>193</v>
+      </c>
+      <c r="C62" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>194</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C63" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>196</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C64" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>200</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>201</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>205</v>
+      </c>
+      <c r="B67" t="s">
+        <v>206</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>209</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C68" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>212</v>
+      </c>
+      <c r="B69" t="s">
+        <v>214</v>
+      </c>
+      <c r="C69" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>215</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>218</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C71" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>219</v>
+      </c>
+      <c r="B72" t="s">
+        <v>243</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>222</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C73" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>228</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>225</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>229</v>
+      </c>
+      <c r="B76" t="s">
+        <v>230</v>
+      </c>
+      <c r="C76" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>232</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>234</v>
+      </c>
+      <c r="B78" t="s">
+        <v>235</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>238</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>245</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>250</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C81" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>251</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C82" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>254</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>256</v>
+      </c>
+      <c r="B84" t="s">
+        <v>261</v>
+      </c>
+      <c r="C84" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>271</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>269</v>
+      </c>
+      <c r="B86" t="s">
+        <v>262</v>
+      </c>
+      <c r="C86" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>270</v>
+      </c>
+      <c r="B87" t="s">
+        <v>263</v>
+      </c>
+      <c r="C87" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>257</v>
+      </c>
+      <c r="B88" t="s">
+        <v>259</v>
+      </c>
+      <c r="C88" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>258</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>272</v>
+      </c>
+      <c r="B90" t="s">
+        <v>274</v>
+      </c>
+      <c r="C90" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>275</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>278</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>281</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>282</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C94" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>283</v>
+      </c>
+      <c r="B95" t="s">
+        <v>287</v>
+      </c>
+      <c r="C95" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>284</v>
+      </c>
+      <c r="B96" t="s">
+        <v>288</v>
+      </c>
+      <c r="C96" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>285</v>
+      </c>
+      <c r="B97" t="s">
+        <v>289</v>
+      </c>
+      <c r="C97" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>286</v>
+      </c>
+      <c r="B98" t="s">
+        <v>290</v>
+      </c>
+      <c r="C98" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>297</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>298</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C100" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>299</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C101" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>300</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C102" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>301</v>
+      </c>
+      <c r="B103" t="s">
+        <v>306</v>
+      </c>
+      <c r="C103" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>302</v>
+      </c>
+      <c r="B104" t="s">
+        <v>307</v>
+      </c>
+      <c r="C104" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>313</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C105" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>314</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C106" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>319</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C107" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>322</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C108" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>323</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C109" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>324</v>
+      </c>
+      <c r="B110" t="s">
+        <v>263</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>325</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>331</v>
+      </c>
+      <c r="B112" t="s">
+        <v>336</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>333</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C113" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>332</v>
+      </c>
+      <c r="B114" t="s">
+        <v>263</v>
+      </c>
+      <c r="C114" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>334</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>935</v>
+      </c>
+      <c r="B116" t="s">
+        <v>936</v>
+      </c>
+      <c r="C116" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>938</v>
+      </c>
+      <c r="B117" t="s">
+        <v>939</v>
+      </c>
+      <c r="C117" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>941</v>
+      </c>
+      <c r="B118" t="s">
+        <v>942</v>
+      </c>
+      <c r="C118" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>944</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C119" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>947</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C120" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>950</v>
+      </c>
+      <c r="B121" t="s">
+        <v>951</v>
+      </c>
+      <c r="C121" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>953</v>
+      </c>
+      <c r="B122" t="s">
+        <v>955</v>
+      </c>
+      <c r="C122" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>956</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C123" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>962</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>963</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C125" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>964</v>
+      </c>
+      <c r="B126" t="s">
+        <v>263</v>
+      </c>
+      <c r="C126" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>967</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C127" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>970</v>
+      </c>
+      <c r="B128" t="s">
+        <v>971</v>
+      </c>
+      <c r="C128" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>975</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C129" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>978</v>
+      </c>
+      <c r="B130" t="s">
+        <v>979</v>
+      </c>
+      <c r="C130" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>983</v>
+      </c>
+      <c r="B131" t="s">
+        <v>984</v>
+      </c>
+      <c r="C131" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C132" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C134" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C135" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C136" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C4" xr:uid="{01EFFCAA-6DA9-40A3-BF28-CA3BC524DD9C}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08623EB8-71BE-44FC-9615-87E1DDBD6EF4}">
+  <dimension ref="A1:I128"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30:C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3682,3712 +5533,6 @@
         <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>988</v>
-      </c>
-      <c r="C7" t="s">
-        <v>989</v>
-      </c>
-      <c r="D7" t="s">
-        <v>350</v>
-      </c>
-      <c r="E7" t="s">
-        <v>351</v>
-      </c>
-      <c r="F7" t="s">
-        <v>352</v>
-      </c>
-      <c r="G7" t="s">
-        <v>353</v>
-      </c>
-      <c r="H7" t="s">
-        <v>354</v>
-      </c>
-      <c r="I7" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" t="s">
-        <v>356</v>
-      </c>
-      <c r="E8" t="s">
-        <v>357</v>
-      </c>
-      <c r="F8" t="s">
-        <v>358</v>
-      </c>
-      <c r="G8" t="s">
-        <v>359</v>
-      </c>
-      <c r="H8" t="s">
-        <v>360</v>
-      </c>
-      <c r="I8" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" t="s">
-        <v>362</v>
-      </c>
-      <c r="E9" t="s">
-        <v>363</v>
-      </c>
-      <c r="F9" t="s">
-        <v>364</v>
-      </c>
-      <c r="G9" t="s">
-        <v>365</v>
-      </c>
-      <c r="H9" t="s">
-        <v>366</v>
-      </c>
-      <c r="I9" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" t="s">
-        <v>368</v>
-      </c>
-      <c r="E10" t="s">
-        <v>369</v>
-      </c>
-      <c r="F10" t="s">
-        <v>370</v>
-      </c>
-      <c r="G10" t="s">
-        <v>371</v>
-      </c>
-      <c r="H10" t="s">
-        <v>372</v>
-      </c>
-      <c r="I10" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" t="s">
-        <v>374</v>
-      </c>
-      <c r="E11" t="s">
-        <v>375</v>
-      </c>
-      <c r="F11" t="s">
-        <v>376</v>
-      </c>
-      <c r="G11" t="s">
-        <v>377</v>
-      </c>
-      <c r="H11" t="s">
-        <v>378</v>
-      </c>
-      <c r="I11" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" t="s">
-        <v>380</v>
-      </c>
-      <c r="E12" t="s">
-        <v>381</v>
-      </c>
-      <c r="F12" t="s">
-        <v>382</v>
-      </c>
-      <c r="G12" t="s">
-        <v>383</v>
-      </c>
-      <c r="H12" t="s">
-        <v>384</v>
-      </c>
-      <c r="I12" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" t="s">
-        <v>386</v>
-      </c>
-      <c r="E13" t="s">
-        <v>387</v>
-      </c>
-      <c r="F13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" t="s">
-        <v>388</v>
-      </c>
-      <c r="H13" t="s">
-        <v>389</v>
-      </c>
-      <c r="I13" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" t="s">
-        <v>391</v>
-      </c>
-      <c r="H14" t="s">
-        <v>392</v>
-      </c>
-      <c r="I14" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" t="s">
-        <v>380</v>
-      </c>
-      <c r="E15" t="s">
-        <v>381</v>
-      </c>
-      <c r="F15" t="s">
-        <v>382</v>
-      </c>
-      <c r="G15" t="s">
-        <v>383</v>
-      </c>
-      <c r="H15" t="s">
-        <v>384</v>
-      </c>
-      <c r="I15" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" t="s">
-        <v>394</v>
-      </c>
-      <c r="E16" t="s">
-        <v>395</v>
-      </c>
-      <c r="F16" t="s">
-        <v>396</v>
-      </c>
-      <c r="G16" t="s">
-        <v>397</v>
-      </c>
-      <c r="H16" t="s">
-        <v>398</v>
-      </c>
-      <c r="I16" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" t="s">
-        <v>400</v>
-      </c>
-      <c r="E17" t="s">
-        <v>401</v>
-      </c>
-      <c r="F17" t="s">
-        <v>402</v>
-      </c>
-      <c r="G17" t="s">
-        <v>403</v>
-      </c>
-      <c r="H17" t="s">
-        <v>404</v>
-      </c>
-      <c r="I17" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" t="s">
-        <v>406</v>
-      </c>
-      <c r="E18" t="s">
-        <v>407</v>
-      </c>
-      <c r="F18" t="s">
-        <v>408</v>
-      </c>
-      <c r="G18" t="s">
-        <v>409</v>
-      </c>
-      <c r="H18" t="s">
-        <v>410</v>
-      </c>
-      <c r="I18" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" t="s">
-        <v>412</v>
-      </c>
-      <c r="E19" t="s">
-        <v>413</v>
-      </c>
-      <c r="F19" t="s">
-        <v>414</v>
-      </c>
-      <c r="G19" t="s">
-        <v>415</v>
-      </c>
-      <c r="H19" t="s">
-        <v>416</v>
-      </c>
-      <c r="I19" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>80</v>
-      </c>
-      <c r="B20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" t="s">
-        <v>418</v>
-      </c>
-      <c r="E20" t="s">
-        <v>419</v>
-      </c>
-      <c r="F20" t="s">
-        <v>420</v>
-      </c>
-      <c r="G20" t="s">
-        <v>421</v>
-      </c>
-      <c r="H20" t="s">
-        <v>422</v>
-      </c>
-      <c r="I20" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" t="s">
-        <v>424</v>
-      </c>
-      <c r="E21" t="s">
-        <v>425</v>
-      </c>
-      <c r="F21" t="s">
-        <v>426</v>
-      </c>
-      <c r="G21" t="s">
-        <v>427</v>
-      </c>
-      <c r="H21" t="s">
-        <v>428</v>
-      </c>
-      <c r="I21" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>87</v>
-      </c>
-      <c r="B22" t="s">
-        <v>92</v>
-      </c>
-      <c r="C22" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22" t="s">
-        <v>430</v>
-      </c>
-      <c r="E22" t="s">
-        <v>431</v>
-      </c>
-      <c r="F22" t="s">
-        <v>432</v>
-      </c>
-      <c r="G22" t="s">
-        <v>433</v>
-      </c>
-      <c r="H22" t="s">
-        <v>434</v>
-      </c>
-      <c r="I22" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>86</v>
-      </c>
-      <c r="B23" t="s">
-        <v>990</v>
-      </c>
-      <c r="C23" t="s">
-        <v>991</v>
-      </c>
-      <c r="D23" t="s">
-        <v>436</v>
-      </c>
-      <c r="E23" t="s">
-        <v>437</v>
-      </c>
-      <c r="F23" t="s">
-        <v>438</v>
-      </c>
-      <c r="G23" t="s">
-        <v>439</v>
-      </c>
-      <c r="H23" t="s">
-        <v>440</v>
-      </c>
-      <c r="I23" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" t="s">
-        <v>99</v>
-      </c>
-      <c r="D24" t="s">
-        <v>442</v>
-      </c>
-      <c r="E24" t="s">
-        <v>443</v>
-      </c>
-      <c r="F24" t="s">
-        <v>444</v>
-      </c>
-      <c r="G24" t="s">
-        <v>445</v>
-      </c>
-      <c r="H24" t="s">
-        <v>446</v>
-      </c>
-      <c r="I24" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>89</v>
-      </c>
-      <c r="B25" t="s">
-        <v>992</v>
-      </c>
-      <c r="C25" t="s">
-        <v>992</v>
-      </c>
-      <c r="D25" t="s">
-        <v>448</v>
-      </c>
-      <c r="E25" t="s">
-        <v>449</v>
-      </c>
-      <c r="F25" t="s">
-        <v>95</v>
-      </c>
-      <c r="G25" t="s">
-        <v>95</v>
-      </c>
-      <c r="H25" t="s">
-        <v>95</v>
-      </c>
-      <c r="I25" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>90</v>
-      </c>
-      <c r="B26" t="s">
-        <v>96</v>
-      </c>
-      <c r="C26" t="s">
-        <v>100</v>
-      </c>
-      <c r="D26" t="s">
-        <v>451</v>
-      </c>
-      <c r="E26" t="s">
-        <v>452</v>
-      </c>
-      <c r="F26" t="s">
-        <v>453</v>
-      </c>
-      <c r="G26" t="s">
-        <v>454</v>
-      </c>
-      <c r="H26" t="s">
-        <v>455</v>
-      </c>
-      <c r="I26" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>91</v>
-      </c>
-      <c r="B27" t="s">
-        <v>993</v>
-      </c>
-      <c r="C27" t="s">
-        <v>994</v>
-      </c>
-      <c r="D27" t="s">
-        <v>457</v>
-      </c>
-      <c r="E27" t="s">
-        <v>458</v>
-      </c>
-      <c r="F27" t="s">
-        <v>459</v>
-      </c>
-      <c r="G27" t="s">
-        <v>102</v>
-      </c>
-      <c r="H27" t="s">
-        <v>460</v>
-      </c>
-      <c r="I27" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>103</v>
-      </c>
-      <c r="B28" t="s">
-        <v>104</v>
-      </c>
-      <c r="C28" t="s">
-        <v>995</v>
-      </c>
-      <c r="D28" t="s">
-        <v>462</v>
-      </c>
-      <c r="E28" t="s">
-        <v>463</v>
-      </c>
-      <c r="F28" t="s">
-        <v>464</v>
-      </c>
-      <c r="G28" t="s">
-        <v>465</v>
-      </c>
-      <c r="H28" t="s">
-        <v>466</v>
-      </c>
-      <c r="I28" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>106</v>
-      </c>
-      <c r="B29" t="s">
-        <v>107</v>
-      </c>
-      <c r="C29" t="s">
-        <v>108</v>
-      </c>
-      <c r="D29" t="s">
-        <v>468</v>
-      </c>
-      <c r="E29" t="s">
-        <v>469</v>
-      </c>
-      <c r="F29" t="s">
-        <v>470</v>
-      </c>
-      <c r="G29" t="s">
-        <v>471</v>
-      </c>
-      <c r="H29" t="s">
-        <v>472</v>
-      </c>
-      <c r="I29" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>109</v>
-      </c>
-      <c r="B30" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C30" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D30" t="s">
-        <v>474</v>
-      </c>
-      <c r="E30" t="s">
-        <v>475</v>
-      </c>
-      <c r="F30" t="s">
-        <v>476</v>
-      </c>
-      <c r="G30" t="s">
-        <v>477</v>
-      </c>
-      <c r="H30" t="s">
-        <v>478</v>
-      </c>
-      <c r="I30" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>134</v>
-      </c>
-      <c r="B31" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C31" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D31" t="s">
-        <v>480</v>
-      </c>
-      <c r="E31" t="s">
-        <v>481</v>
-      </c>
-      <c r="F31" t="s">
-        <v>482</v>
-      </c>
-      <c r="G31" t="s">
-        <v>483</v>
-      </c>
-      <c r="H31" t="s">
-        <v>484</v>
-      </c>
-      <c r="I31" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>110</v>
-      </c>
-      <c r="B32" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C32" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D32" t="s">
-        <v>486</v>
-      </c>
-      <c r="E32" t="s">
-        <v>487</v>
-      </c>
-      <c r="F32" t="s">
-        <v>488</v>
-      </c>
-      <c r="G32" t="s">
-        <v>489</v>
-      </c>
-      <c r="H32" t="s">
-        <v>490</v>
-      </c>
-      <c r="I32" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>135</v>
-      </c>
-      <c r="B33" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C33" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D33" t="s">
-        <v>492</v>
-      </c>
-      <c r="E33" t="s">
-        <v>493</v>
-      </c>
-      <c r="F33" t="s">
-        <v>494</v>
-      </c>
-      <c r="G33" t="s">
-        <v>495</v>
-      </c>
-      <c r="H33" t="s">
-        <v>496</v>
-      </c>
-      <c r="I33" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>111</v>
-      </c>
-      <c r="B34" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C34" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D34" t="s">
-        <v>498</v>
-      </c>
-      <c r="E34" t="s">
-        <v>499</v>
-      </c>
-      <c r="F34" t="s">
-        <v>500</v>
-      </c>
-      <c r="G34" t="s">
-        <v>501</v>
-      </c>
-      <c r="H34" t="s">
-        <v>502</v>
-      </c>
-      <c r="I34" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>136</v>
-      </c>
-      <c r="B35" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C35" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D35" t="s">
-        <v>503</v>
-      </c>
-      <c r="E35" t="s">
-        <v>504</v>
-      </c>
-      <c r="F35" t="s">
-        <v>505</v>
-      </c>
-      <c r="G35" t="s">
-        <v>506</v>
-      </c>
-      <c r="H35" t="s">
-        <v>507</v>
-      </c>
-      <c r="I35" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>112</v>
-      </c>
-      <c r="B36" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C36" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D36" t="s">
-        <v>509</v>
-      </c>
-      <c r="E36" t="s">
-        <v>510</v>
-      </c>
-      <c r="F36" t="s">
-        <v>126</v>
-      </c>
-      <c r="G36" t="s">
-        <v>511</v>
-      </c>
-      <c r="H36" t="s">
-        <v>512</v>
-      </c>
-      <c r="I36" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>137</v>
-      </c>
-      <c r="B37" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C37" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D37" t="s">
-        <v>514</v>
-      </c>
-      <c r="E37" t="s">
-        <v>515</v>
-      </c>
-      <c r="F37" t="s">
-        <v>516</v>
-      </c>
-      <c r="G37" t="s">
-        <v>517</v>
-      </c>
-      <c r="H37" t="s">
-        <v>518</v>
-      </c>
-      <c r="I37" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>113</v>
-      </c>
-      <c r="B38" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C38" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D38" t="s">
-        <v>520</v>
-      </c>
-      <c r="E38" t="s">
-        <v>521</v>
-      </c>
-      <c r="F38" t="s">
-        <v>522</v>
-      </c>
-      <c r="G38" t="s">
-        <v>523</v>
-      </c>
-      <c r="H38" t="s">
-        <v>523</v>
-      </c>
-      <c r="I38" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>138</v>
-      </c>
-      <c r="B39" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C39" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="D39" t="s">
-        <v>525</v>
-      </c>
-      <c r="E39" t="s">
-        <v>526</v>
-      </c>
-      <c r="F39" t="s">
-        <v>527</v>
-      </c>
-      <c r="G39" t="s">
-        <v>528</v>
-      </c>
-      <c r="H39" t="s">
-        <v>529</v>
-      </c>
-      <c r="I39" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>139</v>
-      </c>
-      <c r="B40" t="s">
-        <v>140</v>
-      </c>
-      <c r="C40" t="s">
-        <v>141</v>
-      </c>
-      <c r="D40" t="s">
-        <v>531</v>
-      </c>
-      <c r="E40" t="s">
-        <v>532</v>
-      </c>
-      <c r="F40" t="s">
-        <v>533</v>
-      </c>
-      <c r="G40" t="s">
-        <v>534</v>
-      </c>
-      <c r="H40" t="s">
-        <v>535</v>
-      </c>
-      <c r="I40" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>142</v>
-      </c>
-      <c r="B41" t="s">
-        <v>143</v>
-      </c>
-      <c r="C41" t="s">
-        <v>144</v>
-      </c>
-      <c r="D41" t="s">
-        <v>537</v>
-      </c>
-      <c r="E41" t="s">
-        <v>538</v>
-      </c>
-      <c r="F41" t="s">
-        <v>539</v>
-      </c>
-      <c r="G41" t="s">
-        <v>540</v>
-      </c>
-      <c r="H41" t="s">
-        <v>541</v>
-      </c>
-      <c r="I41" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>145</v>
-      </c>
-      <c r="B42" t="s">
-        <v>146</v>
-      </c>
-      <c r="C42" t="s">
-        <v>147</v>
-      </c>
-      <c r="D42" t="s">
-        <v>543</v>
-      </c>
-      <c r="E42" t="s">
-        <v>544</v>
-      </c>
-      <c r="F42" t="s">
-        <v>545</v>
-      </c>
-      <c r="G42" t="s">
-        <v>546</v>
-      </c>
-      <c r="H42" t="s">
-        <v>547</v>
-      </c>
-      <c r="I42" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>148</v>
-      </c>
-      <c r="B43" t="s">
-        <v>149</v>
-      </c>
-      <c r="C43" t="s">
-        <v>159</v>
-      </c>
-      <c r="D43" t="s">
-        <v>549</v>
-      </c>
-      <c r="E43" t="s">
-        <v>550</v>
-      </c>
-      <c r="F43" t="s">
-        <v>551</v>
-      </c>
-      <c r="G43" t="s">
-        <v>552</v>
-      </c>
-      <c r="H43" t="s">
-        <v>553</v>
-      </c>
-      <c r="I43" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>150</v>
-      </c>
-      <c r="B44" t="s">
-        <v>152</v>
-      </c>
-      <c r="C44" t="s">
-        <v>153</v>
-      </c>
-      <c r="D44" t="s">
-        <v>555</v>
-      </c>
-      <c r="E44" t="s">
-        <v>556</v>
-      </c>
-      <c r="F44" t="s">
-        <v>557</v>
-      </c>
-      <c r="G44" t="s">
-        <v>558</v>
-      </c>
-      <c r="H44" t="s">
-        <v>559</v>
-      </c>
-      <c r="I44" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>151</v>
-      </c>
-      <c r="B45" t="s">
-        <v>155</v>
-      </c>
-      <c r="C45" t="s">
-        <v>154</v>
-      </c>
-      <c r="D45" t="s">
-        <v>561</v>
-      </c>
-      <c r="E45" t="s">
-        <v>562</v>
-      </c>
-      <c r="F45" t="s">
-        <v>563</v>
-      </c>
-      <c r="G45" t="s">
-        <v>564</v>
-      </c>
-      <c r="H45" t="s">
-        <v>565</v>
-      </c>
-      <c r="I45" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>156</v>
-      </c>
-      <c r="B46" t="s">
-        <v>157</v>
-      </c>
-      <c r="C46" t="s">
-        <v>158</v>
-      </c>
-      <c r="D46" t="s">
-        <v>567</v>
-      </c>
-      <c r="E46" t="s">
-        <v>568</v>
-      </c>
-      <c r="F46" t="s">
-        <v>569</v>
-      </c>
-      <c r="G46" t="s">
-        <v>570</v>
-      </c>
-      <c r="H46" t="s">
-        <v>571</v>
-      </c>
-      <c r="I46" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>160</v>
-      </c>
-      <c r="B47" t="s">
-        <v>161</v>
-      </c>
-      <c r="C47" t="s">
-        <v>162</v>
-      </c>
-      <c r="D47" t="s">
-        <v>573</v>
-      </c>
-      <c r="E47" t="s">
-        <v>574</v>
-      </c>
-      <c r="F47" t="s">
-        <v>575</v>
-      </c>
-      <c r="G47" t="s">
-        <v>576</v>
-      </c>
-      <c r="H47" t="s">
-        <v>577</v>
-      </c>
-      <c r="I47" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>164</v>
-      </c>
-      <c r="B48" t="s">
-        <v>163</v>
-      </c>
-      <c r="C48" t="s">
-        <v>165</v>
-      </c>
-      <c r="D48" t="s">
-        <v>579</v>
-      </c>
-      <c r="E48" t="s">
-        <v>580</v>
-      </c>
-      <c r="F48" t="s">
-        <v>581</v>
-      </c>
-      <c r="G48" t="s">
-        <v>582</v>
-      </c>
-      <c r="H48" t="s">
-        <v>583</v>
-      </c>
-      <c r="I48" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>166</v>
-      </c>
-      <c r="B49" t="s">
-        <v>167</v>
-      </c>
-      <c r="C49" t="s">
-        <v>168</v>
-      </c>
-      <c r="D49" t="s">
-        <v>585</v>
-      </c>
-      <c r="E49" t="s">
-        <v>586</v>
-      </c>
-      <c r="F49" t="s">
-        <v>587</v>
-      </c>
-      <c r="G49" t="s">
-        <v>588</v>
-      </c>
-      <c r="H49" t="s">
-        <v>589</v>
-      </c>
-      <c r="I49" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>169</v>
-      </c>
-      <c r="B50" t="s">
-        <v>170</v>
-      </c>
-      <c r="C50" t="s">
-        <v>171</v>
-      </c>
-      <c r="D50" t="s">
-        <v>591</v>
-      </c>
-      <c r="E50" t="s">
-        <v>592</v>
-      </c>
-      <c r="F50" t="s">
-        <v>593</v>
-      </c>
-      <c r="G50" t="s">
-        <v>594</v>
-      </c>
-      <c r="H50" t="s">
-        <v>595</v>
-      </c>
-      <c r="I50" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>172</v>
-      </c>
-      <c r="B51" t="s">
-        <v>175</v>
-      </c>
-      <c r="C51" t="s">
-        <v>996</v>
-      </c>
-      <c r="D51" t="s">
-        <v>597</v>
-      </c>
-      <c r="E51" t="s">
-        <v>598</v>
-      </c>
-      <c r="F51" t="s">
-        <v>599</v>
-      </c>
-      <c r="G51" t="s">
-        <v>600</v>
-      </c>
-      <c r="H51" t="s">
-        <v>601</v>
-      </c>
-      <c r="I51" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>173</v>
-      </c>
-      <c r="B52" t="s">
-        <v>174</v>
-      </c>
-      <c r="C52" t="s">
-        <v>177</v>
-      </c>
-      <c r="D52" t="s">
-        <v>603</v>
-      </c>
-      <c r="E52" t="s">
-        <v>604</v>
-      </c>
-      <c r="F52" t="s">
-        <v>605</v>
-      </c>
-      <c r="G52" t="s">
-        <v>606</v>
-      </c>
-      <c r="H52" t="s">
-        <v>607</v>
-      </c>
-      <c r="I52" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>178</v>
-      </c>
-      <c r="B53" t="s">
-        <v>180</v>
-      </c>
-      <c r="C53" t="s">
-        <v>997</v>
-      </c>
-      <c r="D53" t="s">
-        <v>609</v>
-      </c>
-      <c r="E53" t="s">
-        <v>610</v>
-      </c>
-      <c r="F53" t="s">
-        <v>180</v>
-      </c>
-      <c r="G53" t="s">
-        <v>611</v>
-      </c>
-      <c r="H53" t="s">
-        <v>612</v>
-      </c>
-      <c r="I53" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>179</v>
-      </c>
-      <c r="B54" t="s">
-        <v>183</v>
-      </c>
-      <c r="C54" t="s">
-        <v>182</v>
-      </c>
-      <c r="D54" t="s">
-        <v>614</v>
-      </c>
-      <c r="E54" t="s">
-        <v>615</v>
-      </c>
-      <c r="F54" t="s">
-        <v>616</v>
-      </c>
-      <c r="G54" t="s">
-        <v>617</v>
-      </c>
-      <c r="H54" t="s">
-        <v>618</v>
-      </c>
-      <c r="I54" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>187</v>
-      </c>
-      <c r="B55" t="s">
-        <v>186</v>
-      </c>
-      <c r="C55" t="s">
-        <v>185</v>
-      </c>
-      <c r="D55" t="s">
-        <v>620</v>
-      </c>
-      <c r="E55" t="s">
-        <v>621</v>
-      </c>
-      <c r="F55" t="s">
-        <v>622</v>
-      </c>
-      <c r="G55" t="s">
-        <v>623</v>
-      </c>
-      <c r="H55" t="s">
-        <v>624</v>
-      </c>
-      <c r="I55" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>184</v>
-      </c>
-      <c r="B56" t="s">
-        <v>189</v>
-      </c>
-      <c r="C56" t="s">
-        <v>998</v>
-      </c>
-      <c r="D56" t="s">
-        <v>626</v>
-      </c>
-      <c r="E56" t="s">
-        <v>627</v>
-      </c>
-      <c r="F56" t="s">
-        <v>628</v>
-      </c>
-      <c r="G56" t="s">
-        <v>629</v>
-      </c>
-      <c r="H56" t="s">
-        <v>630</v>
-      </c>
-      <c r="I56" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>188</v>
-      </c>
-      <c r="B57" t="s">
-        <v>190</v>
-      </c>
-      <c r="C57" t="s">
-        <v>999</v>
-      </c>
-      <c r="D57" t="s">
-        <v>632</v>
-      </c>
-      <c r="E57" t="s">
-        <v>633</v>
-      </c>
-      <c r="F57" t="s">
-        <v>634</v>
-      </c>
-      <c r="G57" t="s">
-        <v>635</v>
-      </c>
-      <c r="H57" t="s">
-        <v>636</v>
-      </c>
-      <c r="I57" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>193</v>
-      </c>
-      <c r="B58" t="s">
-        <v>193</v>
-      </c>
-      <c r="C58" t="s">
-        <v>193</v>
-      </c>
-      <c r="D58" t="s">
-        <v>638</v>
-      </c>
-      <c r="E58" t="s">
-        <v>638</v>
-      </c>
-      <c r="F58" t="s">
-        <v>639</v>
-      </c>
-      <c r="G58" t="s">
-        <v>640</v>
-      </c>
-      <c r="H58" t="s">
-        <v>641</v>
-      </c>
-      <c r="I58" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>194</v>
-      </c>
-      <c r="B59" t="s">
-        <v>197</v>
-      </c>
-      <c r="C59" t="s">
-        <v>1000</v>
-      </c>
-      <c r="D59" t="s">
-        <v>643</v>
-      </c>
-      <c r="E59" t="s">
-        <v>644</v>
-      </c>
-      <c r="F59" t="s">
-        <v>645</v>
-      </c>
-      <c r="G59" t="s">
-        <v>646</v>
-      </c>
-      <c r="H59" t="s">
-        <v>647</v>
-      </c>
-      <c r="I59" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>196</v>
-      </c>
-      <c r="B60" t="s">
-        <v>198</v>
-      </c>
-      <c r="C60" t="s">
-        <v>1001</v>
-      </c>
-      <c r="D60" t="s">
-        <v>649</v>
-      </c>
-      <c r="E60" t="s">
-        <v>650</v>
-      </c>
-      <c r="F60" t="s">
-        <v>651</v>
-      </c>
-      <c r="G60" t="s">
-        <v>198</v>
-      </c>
-      <c r="H60" t="s">
-        <v>652</v>
-      </c>
-      <c r="I60" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>200</v>
-      </c>
-      <c r="B61" t="s">
-        <v>203</v>
-      </c>
-      <c r="C61" t="s">
-        <v>208</v>
-      </c>
-      <c r="D61" t="s">
-        <v>654</v>
-      </c>
-      <c r="E61" t="s">
-        <v>655</v>
-      </c>
-      <c r="F61" t="s">
-        <v>656</v>
-      </c>
-      <c r="G61" t="s">
-        <v>657</v>
-      </c>
-      <c r="H61" t="s">
-        <v>658</v>
-      </c>
-      <c r="I61" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>201</v>
-      </c>
-      <c r="B62" t="s">
-        <v>202</v>
-      </c>
-      <c r="C62" t="s">
-        <v>204</v>
-      </c>
-      <c r="D62" t="s">
-        <v>660</v>
-      </c>
-      <c r="E62" t="s">
-        <v>661</v>
-      </c>
-      <c r="F62" t="s">
-        <v>662</v>
-      </c>
-      <c r="G62" t="s">
-        <v>663</v>
-      </c>
-      <c r="H62" t="s">
-        <v>664</v>
-      </c>
-      <c r="I62" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>205</v>
-      </c>
-      <c r="B63" t="s">
-        <v>206</v>
-      </c>
-      <c r="C63" t="s">
-        <v>1002</v>
-      </c>
-      <c r="D63" t="s">
-        <v>666</v>
-      </c>
-      <c r="E63" t="s">
-        <v>667</v>
-      </c>
-      <c r="F63" t="s">
-        <v>668</v>
-      </c>
-      <c r="G63" t="s">
-        <v>669</v>
-      </c>
-      <c r="H63" t="s">
-        <v>670</v>
-      </c>
-      <c r="I63" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>209</v>
-      </c>
-      <c r="B64" t="s">
-        <v>210</v>
-      </c>
-      <c r="C64" t="s">
-        <v>1003</v>
-      </c>
-      <c r="D64" t="s">
-        <v>672</v>
-      </c>
-      <c r="E64" t="s">
-        <v>673</v>
-      </c>
-      <c r="F64" t="s">
-        <v>674</v>
-      </c>
-      <c r="G64" t="s">
-        <v>675</v>
-      </c>
-      <c r="H64" t="s">
-        <v>676</v>
-      </c>
-      <c r="I64" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>212</v>
-      </c>
-      <c r="B65" t="s">
-        <v>214</v>
-      </c>
-      <c r="C65" t="s">
-        <v>213</v>
-      </c>
-      <c r="D65" t="s">
-        <v>678</v>
-      </c>
-      <c r="E65" t="s">
-        <v>679</v>
-      </c>
-      <c r="F65" t="s">
-        <v>680</v>
-      </c>
-      <c r="G65" t="s">
-        <v>681</v>
-      </c>
-      <c r="H65" t="s">
-        <v>682</v>
-      </c>
-      <c r="I65" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>215</v>
-      </c>
-      <c r="B66" t="s">
-        <v>216</v>
-      </c>
-      <c r="C66" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D66" t="s">
-        <v>684</v>
-      </c>
-      <c r="E66" t="s">
-        <v>685</v>
-      </c>
-      <c r="F66" t="s">
-        <v>686</v>
-      </c>
-      <c r="G66" t="s">
-        <v>687</v>
-      </c>
-      <c r="H66" t="s">
-        <v>688</v>
-      </c>
-      <c r="I66" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>218</v>
-      </c>
-      <c r="B67" t="s">
-        <v>242</v>
-      </c>
-      <c r="C67" t="s">
-        <v>241</v>
-      </c>
-      <c r="D67" t="s">
-        <v>690</v>
-      </c>
-      <c r="E67" t="s">
-        <v>691</v>
-      </c>
-      <c r="F67" t="s">
-        <v>692</v>
-      </c>
-      <c r="G67" t="s">
-        <v>693</v>
-      </c>
-      <c r="H67" t="s">
-        <v>694</v>
-      </c>
-      <c r="I67" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>219</v>
-      </c>
-      <c r="B68" t="s">
-        <v>243</v>
-      </c>
-      <c r="C68" t="s">
-        <v>244</v>
-      </c>
-      <c r="D68" t="s">
-        <v>696</v>
-      </c>
-      <c r="E68" t="s">
-        <v>697</v>
-      </c>
-      <c r="F68" t="s">
-        <v>698</v>
-      </c>
-      <c r="G68" t="s">
-        <v>699</v>
-      </c>
-      <c r="H68" t="s">
-        <v>700</v>
-      </c>
-      <c r="I68" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>222</v>
-      </c>
-      <c r="B69" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C69" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D69" t="s">
-        <v>702</v>
-      </c>
-      <c r="E69" t="s">
-        <v>703</v>
-      </c>
-      <c r="F69" t="s">
-        <v>704</v>
-      </c>
-      <c r="G69" t="s">
-        <v>705</v>
-      </c>
-      <c r="H69" t="s">
-        <v>706</v>
-      </c>
-      <c r="I69" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>228</v>
-      </c>
-      <c r="B70" t="s">
-        <v>221</v>
-      </c>
-      <c r="C70" t="s">
-        <v>1007</v>
-      </c>
-      <c r="D70" t="s">
-        <v>708</v>
-      </c>
-      <c r="E70" t="s">
-        <v>709</v>
-      </c>
-      <c r="F70" t="s">
-        <v>710</v>
-      </c>
-      <c r="G70" t="s">
-        <v>711</v>
-      </c>
-      <c r="H70" t="s">
-        <v>712</v>
-      </c>
-      <c r="I70" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>225</v>
-      </c>
-      <c r="B71" t="s">
-        <v>224</v>
-      </c>
-      <c r="C71" t="s">
-        <v>227</v>
-      </c>
-      <c r="D71" t="s">
-        <v>714</v>
-      </c>
-      <c r="E71" t="s">
-        <v>715</v>
-      </c>
-      <c r="F71" t="s">
-        <v>716</v>
-      </c>
-      <c r="G71" t="s">
-        <v>717</v>
-      </c>
-      <c r="H71" t="s">
-        <v>718</v>
-      </c>
-      <c r="I71" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>229</v>
-      </c>
-      <c r="B72" t="s">
-        <v>230</v>
-      </c>
-      <c r="C72" t="s">
-        <v>231</v>
-      </c>
-      <c r="D72" t="s">
-        <v>720</v>
-      </c>
-      <c r="E72" t="s">
-        <v>721</v>
-      </c>
-      <c r="F72" t="s">
-        <v>722</v>
-      </c>
-      <c r="G72" t="s">
-        <v>723</v>
-      </c>
-      <c r="H72" t="s">
-        <v>724</v>
-      </c>
-      <c r="I72" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>232</v>
-      </c>
-      <c r="B73" t="s">
-        <v>233</v>
-      </c>
-      <c r="C73" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D73" t="s">
-        <v>726</v>
-      </c>
-      <c r="E73" t="s">
-        <v>727</v>
-      </c>
-      <c r="F73" t="s">
-        <v>728</v>
-      </c>
-      <c r="G73" t="s">
-        <v>729</v>
-      </c>
-      <c r="H73" t="s">
-        <v>730</v>
-      </c>
-      <c r="I73" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>234</v>
-      </c>
-      <c r="B74" t="s">
-        <v>235</v>
-      </c>
-      <c r="C74" t="s">
-        <v>237</v>
-      </c>
-      <c r="D74" t="s">
-        <v>732</v>
-      </c>
-      <c r="E74" t="s">
-        <v>733</v>
-      </c>
-      <c r="F74" t="s">
-        <v>734</v>
-      </c>
-      <c r="G74" t="s">
-        <v>735</v>
-      </c>
-      <c r="H74" t="s">
-        <v>736</v>
-      </c>
-      <c r="I74" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>238</v>
-      </c>
-      <c r="B75" t="s">
-        <v>239</v>
-      </c>
-      <c r="C75" t="s">
-        <v>240</v>
-      </c>
-      <c r="D75" t="s">
-        <v>738</v>
-      </c>
-      <c r="E75" t="s">
-        <v>739</v>
-      </c>
-      <c r="F75" t="s">
-        <v>740</v>
-      </c>
-      <c r="G75" t="s">
-        <v>741</v>
-      </c>
-      <c r="H75" t="s">
-        <v>742</v>
-      </c>
-      <c r="I75" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>245</v>
-      </c>
-      <c r="B76" t="s">
-        <v>246</v>
-      </c>
-      <c r="C76" t="s">
-        <v>247</v>
-      </c>
-      <c r="D76" t="s">
-        <v>744</v>
-      </c>
-      <c r="E76" t="s">
-        <v>745</v>
-      </c>
-      <c r="F76" t="s">
-        <v>746</v>
-      </c>
-      <c r="G76" t="s">
-        <v>747</v>
-      </c>
-      <c r="H76" t="s">
-        <v>748</v>
-      </c>
-      <c r="I76" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>250</v>
-      </c>
-      <c r="B77" t="s">
-        <v>248</v>
-      </c>
-      <c r="C77" t="s">
-        <v>252</v>
-      </c>
-      <c r="D77" t="s">
-        <v>750</v>
-      </c>
-      <c r="E77" t="s">
-        <v>751</v>
-      </c>
-      <c r="F77" t="s">
-        <v>752</v>
-      </c>
-      <c r="G77" t="s">
-        <v>753</v>
-      </c>
-      <c r="H77" t="s">
-        <v>754</v>
-      </c>
-      <c r="I77" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>251</v>
-      </c>
-      <c r="B78" t="s">
-        <v>249</v>
-      </c>
-      <c r="C78" t="s">
-        <v>253</v>
-      </c>
-      <c r="D78" t="s">
-        <v>756</v>
-      </c>
-      <c r="E78" t="s">
-        <v>757</v>
-      </c>
-      <c r="F78" t="s">
-        <v>758</v>
-      </c>
-      <c r="G78" t="s">
-        <v>759</v>
-      </c>
-      <c r="H78" t="s">
-        <v>760</v>
-      </c>
-      <c r="I78" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>254</v>
-      </c>
-      <c r="B79" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C79" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D79" t="s">
-        <v>762</v>
-      </c>
-      <c r="E79" t="s">
-        <v>763</v>
-      </c>
-      <c r="F79" t="s">
-        <v>764</v>
-      </c>
-      <c r="G79" t="s">
-        <v>765</v>
-      </c>
-      <c r="H79" t="s">
-        <v>766</v>
-      </c>
-      <c r="I79" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>256</v>
-      </c>
-      <c r="B80" t="s">
-        <v>261</v>
-      </c>
-      <c r="C80" t="s">
-        <v>264</v>
-      </c>
-      <c r="D80" t="s">
-        <v>768</v>
-      </c>
-      <c r="E80" t="s">
-        <v>769</v>
-      </c>
-      <c r="F80" t="s">
-        <v>770</v>
-      </c>
-      <c r="G80" t="s">
-        <v>771</v>
-      </c>
-      <c r="H80" t="s">
-        <v>772</v>
-      </c>
-      <c r="I80" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>271</v>
-      </c>
-      <c r="B81" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C81" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D81" t="s">
-        <v>774</v>
-      </c>
-      <c r="E81" t="s">
-        <v>775</v>
-      </c>
-      <c r="F81" t="s">
-        <v>776</v>
-      </c>
-      <c r="G81" t="s">
-        <v>777</v>
-      </c>
-      <c r="H81" t="s">
-        <v>778</v>
-      </c>
-      <c r="I81" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>269</v>
-      </c>
-      <c r="B82" t="s">
-        <v>262</v>
-      </c>
-      <c r="C82" t="s">
-        <v>265</v>
-      </c>
-      <c r="D82" t="s">
-        <v>780</v>
-      </c>
-      <c r="E82" t="s">
-        <v>781</v>
-      </c>
-      <c r="F82" t="s">
-        <v>782</v>
-      </c>
-      <c r="G82" t="s">
-        <v>783</v>
-      </c>
-      <c r="H82" t="s">
-        <v>784</v>
-      </c>
-      <c r="I82" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>270</v>
-      </c>
-      <c r="B83" t="s">
-        <v>263</v>
-      </c>
-      <c r="C83" t="s">
-        <v>266</v>
-      </c>
-      <c r="D83" t="s">
-        <v>786</v>
-      </c>
-      <c r="E83" t="s">
-        <v>787</v>
-      </c>
-      <c r="F83" t="s">
-        <v>788</v>
-      </c>
-      <c r="G83" t="s">
-        <v>789</v>
-      </c>
-      <c r="H83" t="s">
-        <v>790</v>
-      </c>
-      <c r="I83" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>257</v>
-      </c>
-      <c r="B84" t="s">
-        <v>259</v>
-      </c>
-      <c r="C84" t="s">
-        <v>268</v>
-      </c>
-      <c r="D84" t="s">
-        <v>792</v>
-      </c>
-      <c r="E84" t="s">
-        <v>793</v>
-      </c>
-      <c r="F84" t="s">
-        <v>794</v>
-      </c>
-      <c r="G84" t="s">
-        <v>795</v>
-      </c>
-      <c r="H84" t="s">
-        <v>796</v>
-      </c>
-      <c r="I84" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>258</v>
-      </c>
-      <c r="B85" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C85" t="s">
-        <v>1014</v>
-      </c>
-      <c r="D85" t="s">
-        <v>798</v>
-      </c>
-      <c r="E85" t="s">
-        <v>799</v>
-      </c>
-      <c r="F85" t="s">
-        <v>800</v>
-      </c>
-      <c r="G85" t="s">
-        <v>801</v>
-      </c>
-      <c r="H85" t="s">
-        <v>800</v>
-      </c>
-      <c r="I85" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>272</v>
-      </c>
-      <c r="B86" t="s">
-        <v>274</v>
-      </c>
-      <c r="C86" t="s">
-        <v>273</v>
-      </c>
-      <c r="D86" t="s">
-        <v>803</v>
-      </c>
-      <c r="E86" t="s">
-        <v>804</v>
-      </c>
-      <c r="F86" t="s">
-        <v>805</v>
-      </c>
-      <c r="G86" t="s">
-        <v>806</v>
-      </c>
-      <c r="H86" t="s">
-        <v>807</v>
-      </c>
-      <c r="I86" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>275</v>
-      </c>
-      <c r="B87" t="s">
-        <v>276</v>
-      </c>
-      <c r="C87" t="s">
-        <v>277</v>
-      </c>
-      <c r="D87" t="s">
-        <v>809</v>
-      </c>
-      <c r="E87" t="s">
-        <v>810</v>
-      </c>
-      <c r="F87" t="s">
-        <v>811</v>
-      </c>
-      <c r="G87" t="s">
-        <v>812</v>
-      </c>
-      <c r="H87" t="s">
-        <v>813</v>
-      </c>
-      <c r="I87" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>278</v>
-      </c>
-      <c r="B88" t="s">
-        <v>279</v>
-      </c>
-      <c r="C88" t="s">
-        <v>280</v>
-      </c>
-      <c r="D88" t="s">
-        <v>815</v>
-      </c>
-      <c r="E88" t="s">
-        <v>816</v>
-      </c>
-      <c r="F88" t="s">
-        <v>817</v>
-      </c>
-      <c r="G88" t="s">
-        <v>818</v>
-      </c>
-      <c r="H88" t="s">
-        <v>819</v>
-      </c>
-      <c r="I88" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>281</v>
-      </c>
-      <c r="B89" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C89" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D89" t="s">
-        <v>821</v>
-      </c>
-      <c r="E89" t="s">
-        <v>822</v>
-      </c>
-      <c r="F89" t="s">
-        <v>823</v>
-      </c>
-      <c r="G89" t="s">
-        <v>824</v>
-      </c>
-      <c r="H89" t="s">
-        <v>825</v>
-      </c>
-      <c r="I89" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>282</v>
-      </c>
-      <c r="B90" t="s">
-        <v>291</v>
-      </c>
-      <c r="C90" t="s">
-        <v>292</v>
-      </c>
-      <c r="D90" t="s">
-        <v>827</v>
-      </c>
-      <c r="E90" t="s">
-        <v>828</v>
-      </c>
-      <c r="F90" t="s">
-        <v>829</v>
-      </c>
-      <c r="G90" t="s">
-        <v>830</v>
-      </c>
-      <c r="H90" t="s">
-        <v>831</v>
-      </c>
-      <c r="I90" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>283</v>
-      </c>
-      <c r="B91" t="s">
-        <v>287</v>
-      </c>
-      <c r="C91" t="s">
-        <v>293</v>
-      </c>
-      <c r="D91" t="s">
-        <v>833</v>
-      </c>
-      <c r="E91" t="s">
-        <v>834</v>
-      </c>
-      <c r="F91" t="s">
-        <v>835</v>
-      </c>
-      <c r="G91" t="s">
-        <v>836</v>
-      </c>
-      <c r="H91" t="s">
-        <v>837</v>
-      </c>
-      <c r="I91" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>284</v>
-      </c>
-      <c r="B92" t="s">
-        <v>288</v>
-      </c>
-      <c r="C92" t="s">
-        <v>294</v>
-      </c>
-      <c r="D92" t="s">
-        <v>839</v>
-      </c>
-      <c r="E92" t="s">
-        <v>840</v>
-      </c>
-      <c r="F92" t="s">
-        <v>841</v>
-      </c>
-      <c r="G92" t="s">
-        <v>842</v>
-      </c>
-      <c r="H92" t="s">
-        <v>843</v>
-      </c>
-      <c r="I92" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>285</v>
-      </c>
-      <c r="B93" t="s">
-        <v>289</v>
-      </c>
-      <c r="C93" t="s">
-        <v>295</v>
-      </c>
-      <c r="D93" t="s">
-        <v>845</v>
-      </c>
-      <c r="E93" t="s">
-        <v>846</v>
-      </c>
-      <c r="F93" t="s">
-        <v>847</v>
-      </c>
-      <c r="G93" t="s">
-        <v>848</v>
-      </c>
-      <c r="H93" t="s">
-        <v>849</v>
-      </c>
-      <c r="I93" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>286</v>
-      </c>
-      <c r="B94" t="s">
-        <v>290</v>
-      </c>
-      <c r="C94" t="s">
-        <v>296</v>
-      </c>
-      <c r="D94" t="s">
-        <v>851</v>
-      </c>
-      <c r="E94" t="s">
-        <v>852</v>
-      </c>
-      <c r="F94" t="s">
-        <v>853</v>
-      </c>
-      <c r="G94" t="s">
-        <v>854</v>
-      </c>
-      <c r="H94" t="s">
-        <v>855</v>
-      </c>
-      <c r="I94" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>297</v>
-      </c>
-      <c r="B95" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C95" t="s">
-        <v>1018</v>
-      </c>
-      <c r="D95" t="s">
-        <v>857</v>
-      </c>
-      <c r="E95" t="s">
-        <v>858</v>
-      </c>
-      <c r="F95" t="s">
-        <v>859</v>
-      </c>
-      <c r="G95" t="s">
-        <v>860</v>
-      </c>
-      <c r="H95" t="s">
-        <v>861</v>
-      </c>
-      <c r="I95" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>298</v>
-      </c>
-      <c r="B96" t="s">
-        <v>303</v>
-      </c>
-      <c r="C96" t="s">
-        <v>308</v>
-      </c>
-      <c r="D96" t="s">
-        <v>863</v>
-      </c>
-      <c r="E96" t="s">
-        <v>864</v>
-      </c>
-      <c r="F96" t="s">
-        <v>865</v>
-      </c>
-      <c r="G96" t="s">
-        <v>866</v>
-      </c>
-      <c r="H96" t="s">
-        <v>867</v>
-      </c>
-      <c r="I96" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>299</v>
-      </c>
-      <c r="B97" t="s">
-        <v>304</v>
-      </c>
-      <c r="C97" t="s">
-        <v>309</v>
-      </c>
-      <c r="D97" t="s">
-        <v>869</v>
-      </c>
-      <c r="E97" t="s">
-        <v>870</v>
-      </c>
-      <c r="F97" t="s">
-        <v>871</v>
-      </c>
-      <c r="G97" t="s">
-        <v>872</v>
-      </c>
-      <c r="H97" t="s">
-        <v>873</v>
-      </c>
-      <c r="I97" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>300</v>
-      </c>
-      <c r="B98" t="s">
-        <v>305</v>
-      </c>
-      <c r="C98" t="s">
-        <v>310</v>
-      </c>
-      <c r="D98" t="s">
-        <v>875</v>
-      </c>
-      <c r="E98" t="s">
-        <v>876</v>
-      </c>
-      <c r="F98" t="s">
-        <v>877</v>
-      </c>
-      <c r="G98" t="s">
-        <v>878</v>
-      </c>
-      <c r="H98" t="s">
-        <v>879</v>
-      </c>
-      <c r="I98" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>301</v>
-      </c>
-      <c r="B99" t="s">
-        <v>306</v>
-      </c>
-      <c r="C99" t="s">
-        <v>311</v>
-      </c>
-      <c r="D99" t="s">
-        <v>881</v>
-      </c>
-      <c r="E99" t="s">
-        <v>882</v>
-      </c>
-      <c r="F99" t="s">
-        <v>883</v>
-      </c>
-      <c r="G99" t="s">
-        <v>884</v>
-      </c>
-      <c r="H99" t="s">
-        <v>885</v>
-      </c>
-      <c r="I99" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>302</v>
-      </c>
-      <c r="B100" t="s">
-        <v>307</v>
-      </c>
-      <c r="C100" t="s">
-        <v>312</v>
-      </c>
-      <c r="D100" t="s">
-        <v>887</v>
-      </c>
-      <c r="E100" t="s">
-        <v>888</v>
-      </c>
-      <c r="F100" t="s">
-        <v>889</v>
-      </c>
-      <c r="G100" t="s">
-        <v>890</v>
-      </c>
-      <c r="H100" t="s">
-        <v>891</v>
-      </c>
-      <c r="I100" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>313</v>
-      </c>
-      <c r="B101" t="s">
-        <v>315</v>
-      </c>
-      <c r="C101" t="s">
-        <v>317</v>
-      </c>
-      <c r="D101" t="s">
-        <v>893</v>
-      </c>
-      <c r="E101" t="s">
-        <v>894</v>
-      </c>
-      <c r="F101" t="s">
-        <v>895</v>
-      </c>
-      <c r="G101" t="s">
-        <v>896</v>
-      </c>
-      <c r="H101" t="s">
-        <v>897</v>
-      </c>
-      <c r="I101" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>314</v>
-      </c>
-      <c r="B102" t="s">
-        <v>316</v>
-      </c>
-      <c r="C102" t="s">
-        <v>318</v>
-      </c>
-      <c r="D102" t="s">
-        <v>899</v>
-      </c>
-      <c r="E102" t="s">
-        <v>900</v>
-      </c>
-      <c r="F102" t="s">
-        <v>901</v>
-      </c>
-      <c r="G102" t="s">
-        <v>902</v>
-      </c>
-      <c r="H102" t="s">
-        <v>903</v>
-      </c>
-      <c r="I102" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>319</v>
-      </c>
-      <c r="B103" t="s">
-        <v>320</v>
-      </c>
-      <c r="C103" t="s">
-        <v>321</v>
-      </c>
-      <c r="D103" t="s">
-        <v>905</v>
-      </c>
-      <c r="E103" t="s">
-        <v>906</v>
-      </c>
-      <c r="F103" t="s">
-        <v>907</v>
-      </c>
-      <c r="G103" t="s">
-        <v>908</v>
-      </c>
-      <c r="H103" t="s">
-        <v>909</v>
-      </c>
-      <c r="I103" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>322</v>
-      </c>
-      <c r="B104" t="s">
-        <v>327</v>
-      </c>
-      <c r="C104" t="s">
-        <v>329</v>
-      </c>
-      <c r="D104" t="s">
-        <v>911</v>
-      </c>
-      <c r="E104" t="s">
-        <v>912</v>
-      </c>
-      <c r="F104" t="s">
-        <v>913</v>
-      </c>
-      <c r="G104" t="s">
-        <v>914</v>
-      </c>
-      <c r="H104" t="s">
-        <v>915</v>
-      </c>
-      <c r="I104" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>323</v>
-      </c>
-      <c r="B105" t="s">
-        <v>262</v>
-      </c>
-      <c r="C105" t="s">
-        <v>265</v>
-      </c>
-      <c r="D105" t="s">
-        <v>780</v>
-      </c>
-      <c r="E105" t="s">
-        <v>781</v>
-      </c>
-      <c r="F105" t="s">
-        <v>782</v>
-      </c>
-      <c r="G105" t="s">
-        <v>783</v>
-      </c>
-      <c r="H105" t="s">
-        <v>784</v>
-      </c>
-      <c r="I105" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>324</v>
-      </c>
-      <c r="B106" t="s">
-        <v>263</v>
-      </c>
-      <c r="C106" t="s">
-        <v>1019</v>
-      </c>
-      <c r="D106" t="s">
-        <v>786</v>
-      </c>
-      <c r="E106" t="s">
-        <v>787</v>
-      </c>
-      <c r="F106" t="s">
-        <v>788</v>
-      </c>
-      <c r="G106" t="s">
-        <v>789</v>
-      </c>
-      <c r="H106" t="s">
-        <v>790</v>
-      </c>
-      <c r="I106" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>325</v>
-      </c>
-      <c r="B107" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C107" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D107" t="s">
-        <v>917</v>
-      </c>
-      <c r="E107" t="s">
-        <v>918</v>
-      </c>
-      <c r="F107" t="s">
-        <v>919</v>
-      </c>
-      <c r="G107" t="s">
-        <v>920</v>
-      </c>
-      <c r="H107" t="s">
-        <v>921</v>
-      </c>
-      <c r="I107" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>331</v>
-      </c>
-      <c r="B108" t="s">
-        <v>336</v>
-      </c>
-      <c r="C108" t="s">
-        <v>337</v>
-      </c>
-      <c r="D108" t="s">
-        <v>923</v>
-      </c>
-      <c r="E108" t="s">
-        <v>924</v>
-      </c>
-      <c r="F108" t="s">
-        <v>925</v>
-      </c>
-      <c r="G108" t="s">
-        <v>926</v>
-      </c>
-      <c r="H108" t="s">
-        <v>927</v>
-      </c>
-      <c r="I108" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>333</v>
-      </c>
-      <c r="B109" t="s">
-        <v>262</v>
-      </c>
-      <c r="C109" t="s">
-        <v>265</v>
-      </c>
-      <c r="D109" t="s">
-        <v>780</v>
-      </c>
-      <c r="E109" t="s">
-        <v>781</v>
-      </c>
-      <c r="F109" t="s">
-        <v>782</v>
-      </c>
-      <c r="G109" t="s">
-        <v>783</v>
-      </c>
-      <c r="H109" t="s">
-        <v>784</v>
-      </c>
-      <c r="I109" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>332</v>
-      </c>
-      <c r="B110" t="s">
-        <v>263</v>
-      </c>
-      <c r="C110" t="s">
-        <v>266</v>
-      </c>
-      <c r="D110" t="s">
-        <v>786</v>
-      </c>
-      <c r="E110" t="s">
-        <v>787</v>
-      </c>
-      <c r="F110" t="s">
-        <v>788</v>
-      </c>
-      <c r="G110" t="s">
-        <v>789</v>
-      </c>
-      <c r="H110" t="s">
-        <v>790</v>
-      </c>
-      <c r="I110" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>334</v>
-      </c>
-      <c r="B111" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C111" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D111" t="s">
-        <v>929</v>
-      </c>
-      <c r="E111" t="s">
-        <v>930</v>
-      </c>
-      <c r="F111" t="s">
-        <v>931</v>
-      </c>
-      <c r="G111" t="s">
-        <v>932</v>
-      </c>
-      <c r="H111" t="s">
-        <v>933</v>
-      </c>
-      <c r="I111" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>935</v>
-      </c>
-      <c r="B112" t="s">
-        <v>936</v>
-      </c>
-      <c r="C112" t="s">
-        <v>937</v>
-      </c>
-      <c r="D112" t="s">
-        <v>936</v>
-      </c>
-      <c r="E112" t="s">
-        <v>936</v>
-      </c>
-      <c r="F112" t="s">
-        <v>936</v>
-      </c>
-      <c r="G112" t="s">
-        <v>936</v>
-      </c>
-      <c r="H112" t="s">
-        <v>936</v>
-      </c>
-      <c r="I112" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>938</v>
-      </c>
-      <c r="B113" t="s">
-        <v>939</v>
-      </c>
-      <c r="C113" t="s">
-        <v>940</v>
-      </c>
-      <c r="D113" t="s">
-        <v>939</v>
-      </c>
-      <c r="E113" t="s">
-        <v>939</v>
-      </c>
-      <c r="F113" t="s">
-        <v>939</v>
-      </c>
-      <c r="G113" t="s">
-        <v>939</v>
-      </c>
-      <c r="H113" t="s">
-        <v>939</v>
-      </c>
-      <c r="I113" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>941</v>
-      </c>
-      <c r="B114" t="s">
-        <v>942</v>
-      </c>
-      <c r="C114" t="s">
-        <v>943</v>
-      </c>
-      <c r="D114" t="s">
-        <v>942</v>
-      </c>
-      <c r="E114" t="s">
-        <v>942</v>
-      </c>
-      <c r="F114" t="s">
-        <v>942</v>
-      </c>
-      <c r="G114" t="s">
-        <v>942</v>
-      </c>
-      <c r="H114" t="s">
-        <v>942</v>
-      </c>
-      <c r="I114" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>944</v>
-      </c>
-      <c r="B115" t="s">
-        <v>945</v>
-      </c>
-      <c r="C115" t="s">
-        <v>946</v>
-      </c>
-      <c r="D115" t="s">
-        <v>945</v>
-      </c>
-      <c r="E115" t="s">
-        <v>945</v>
-      </c>
-      <c r="F115" t="s">
-        <v>945</v>
-      </c>
-      <c r="G115" t="s">
-        <v>945</v>
-      </c>
-      <c r="H115" t="s">
-        <v>945</v>
-      </c>
-      <c r="I115" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>947</v>
-      </c>
-      <c r="B116" t="s">
-        <v>948</v>
-      </c>
-      <c r="C116" t="s">
-        <v>949</v>
-      </c>
-      <c r="D116" t="s">
-        <v>948</v>
-      </c>
-      <c r="E116" t="s">
-        <v>948</v>
-      </c>
-      <c r="F116" t="s">
-        <v>948</v>
-      </c>
-      <c r="G116" t="s">
-        <v>948</v>
-      </c>
-      <c r="H116" t="s">
-        <v>948</v>
-      </c>
-      <c r="I116" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>950</v>
-      </c>
-      <c r="B117" t="s">
-        <v>951</v>
-      </c>
-      <c r="C117" t="s">
-        <v>952</v>
-      </c>
-      <c r="D117" t="s">
-        <v>951</v>
-      </c>
-      <c r="E117" t="s">
-        <v>951</v>
-      </c>
-      <c r="F117" t="s">
-        <v>951</v>
-      </c>
-      <c r="G117" t="s">
-        <v>951</v>
-      </c>
-      <c r="H117" t="s">
-        <v>951</v>
-      </c>
-      <c r="I117" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>953</v>
-      </c>
-      <c r="B118" t="s">
-        <v>955</v>
-      </c>
-      <c r="C118" t="s">
-        <v>954</v>
-      </c>
-      <c r="D118" t="s">
-        <v>955</v>
-      </c>
-      <c r="E118" t="s">
-        <v>955</v>
-      </c>
-      <c r="F118" t="s">
-        <v>955</v>
-      </c>
-      <c r="G118" t="s">
-        <v>955</v>
-      </c>
-      <c r="H118" t="s">
-        <v>955</v>
-      </c>
-      <c r="I118" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>956</v>
-      </c>
-      <c r="B119" t="s">
-        <v>957</v>
-      </c>
-      <c r="C119" t="s">
-        <v>255</v>
-      </c>
-      <c r="D119" t="s">
-        <v>957</v>
-      </c>
-      <c r="E119" t="s">
-        <v>957</v>
-      </c>
-      <c r="F119" t="s">
-        <v>957</v>
-      </c>
-      <c r="G119" t="s">
-        <v>957</v>
-      </c>
-      <c r="H119" t="s">
-        <v>957</v>
-      </c>
-      <c r="I119" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>962</v>
-      </c>
-      <c r="B120" t="s">
-        <v>965</v>
-      </c>
-      <c r="C120" t="s">
-        <v>966</v>
-      </c>
-      <c r="D120" t="s">
-        <v>965</v>
-      </c>
-      <c r="E120" t="s">
-        <v>965</v>
-      </c>
-      <c r="F120" t="s">
-        <v>965</v>
-      </c>
-      <c r="G120" t="s">
-        <v>965</v>
-      </c>
-      <c r="H120" t="s">
-        <v>965</v>
-      </c>
-      <c r="I120" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>963</v>
-      </c>
-      <c r="B121" t="s">
-        <v>262</v>
-      </c>
-      <c r="C121" t="s">
-        <v>265</v>
-      </c>
-      <c r="D121" t="s">
-        <v>262</v>
-      </c>
-      <c r="E121" t="s">
-        <v>262</v>
-      </c>
-      <c r="F121" t="s">
-        <v>262</v>
-      </c>
-      <c r="G121" t="s">
-        <v>262</v>
-      </c>
-      <c r="H121" t="s">
-        <v>262</v>
-      </c>
-      <c r="I121" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>964</v>
-      </c>
-      <c r="B122" t="s">
-        <v>263</v>
-      </c>
-      <c r="C122" t="s">
-        <v>266</v>
-      </c>
-      <c r="D122" t="s">
-        <v>263</v>
-      </c>
-      <c r="E122" t="s">
-        <v>263</v>
-      </c>
-      <c r="F122" t="s">
-        <v>263</v>
-      </c>
-      <c r="G122" t="s">
-        <v>263</v>
-      </c>
-      <c r="H122" t="s">
-        <v>263</v>
-      </c>
-      <c r="I122" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>967</v>
-      </c>
-      <c r="B123" t="s">
-        <v>973</v>
-      </c>
-      <c r="C123" t="s">
-        <v>969</v>
-      </c>
-      <c r="D123" t="s">
-        <v>968</v>
-      </c>
-      <c r="E123" t="s">
-        <v>968</v>
-      </c>
-      <c r="F123" t="s">
-        <v>968</v>
-      </c>
-      <c r="G123" t="s">
-        <v>968</v>
-      </c>
-      <c r="H123" t="s">
-        <v>968</v>
-      </c>
-      <c r="I123" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>970</v>
-      </c>
-      <c r="B124" t="s">
-        <v>971</v>
-      </c>
-      <c r="C124" t="s">
-        <v>972</v>
-      </c>
-      <c r="D124" t="s">
-        <v>971</v>
-      </c>
-      <c r="E124" t="s">
-        <v>971</v>
-      </c>
-      <c r="F124" t="s">
-        <v>971</v>
-      </c>
-      <c r="G124" t="s">
-        <v>971</v>
-      </c>
-      <c r="H124" t="s">
-        <v>971</v>
-      </c>
-      <c r="I124" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>975</v>
-      </c>
-      <c r="B125" t="s">
-        <v>974</v>
-      </c>
-      <c r="C125" t="s">
-        <v>976</v>
-      </c>
-      <c r="D125" t="s">
-        <v>974</v>
-      </c>
-      <c r="E125" t="s">
-        <v>974</v>
-      </c>
-      <c r="F125" t="s">
-        <v>974</v>
-      </c>
-      <c r="G125" t="s">
-        <v>974</v>
-      </c>
-      <c r="H125" t="s">
-        <v>974</v>
-      </c>
-      <c r="I125" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>978</v>
-      </c>
-      <c r="B126" t="s">
-        <v>979</v>
-      </c>
-      <c r="C126" t="s">
-        <v>980</v>
-      </c>
-      <c r="D126" t="s">
-        <v>979</v>
-      </c>
-      <c r="E126" t="s">
-        <v>979</v>
-      </c>
-      <c r="F126" t="s">
-        <v>979</v>
-      </c>
-      <c r="G126" t="s">
-        <v>979</v>
-      </c>
-      <c r="H126" t="s">
-        <v>979</v>
-      </c>
-      <c r="I126" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>983</v>
-      </c>
-      <c r="B127" t="s">
-        <v>984</v>
-      </c>
-      <c r="C127" t="s">
-        <v>985</v>
-      </c>
-      <c r="D127" t="s">
-        <v>984</v>
-      </c>
-      <c r="E127" t="s">
-        <v>984</v>
-      </c>
-      <c r="F127" t="s">
-        <v>984</v>
-      </c>
-      <c r="G127" t="s">
-        <v>984</v>
-      </c>
-      <c r="H127" t="s">
-        <v>984</v>
-      </c>
-      <c r="I127" t="s">
-        <v>984</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:I4" xr:uid="{01EFFCAA-6DA9-40A3-BF28-CA3BC524DD9C}"/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08623EB8-71BE-44FC-9615-87E1DDBD6EF4}">
-  <dimension ref="A1:I128"/>
-  <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112:C128"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" t="s">
-        <v>338</v>
-      </c>
-      <c r="E5" t="s">
-        <v>339</v>
-      </c>
-      <c r="F5" t="s">
-        <v>340</v>
-      </c>
-      <c r="G5" t="s">
-        <v>341</v>
-      </c>
-      <c r="H5" t="s">
-        <v>342</v>
-      </c>
-      <c r="I5" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" t="s">
-        <v>344</v>
-      </c>
-      <c r="E6" t="s">
-        <v>345</v>
-      </c>
-      <c r="F6" t="s">
-        <v>346</v>
-      </c>
-      <c r="G6" t="s">
-        <v>347</v>
-      </c>
-      <c r="H6" t="s">
-        <v>348</v>
-      </c>
-      <c r="I6" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" t="s">
         <v>45</v>
       </c>
       <c r="C7" t="s">

--- a/src/locales/translations.xlsx
+++ b/src/locales/translations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\icmm-web\src\locales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1411EA9-787E-410D-AF90-12623DF54A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6177B1C9-D00D-4B90-83C3-6D36A0322485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B932D239-48A5-4026-8CCD-CA2BFDECA8AC}"/>
   </bookViews>
@@ -3316,12 +3316,6 @@
     <t>Your order has been delivered. Please check your delivery status from tracking number.</t>
   </si>
   <si>
-    <t>Created at (at เวลา, on วันที่ เอาแบบใด)</t>
-  </si>
-  <si>
-    <t>Updated (at เวลา, on วันที่ เอาแบบใด)</t>
-  </si>
-  <si>
     <t>EMS tracking number</t>
   </si>
   <si>
@@ -3446,6 +3440,12 @@
   </si>
   <si>
     <t>หมวกวิ่ง + ผ้าบัฟ รุ่น Coolnet UV + กางเกงวิ่งขาสั้นหญิง 3 นิ้ว</t>
+  </si>
+  <si>
+    <t>Created at</t>
+  </si>
+  <si>
+    <t>Updated at</t>
   </si>
 </sst>
 </file>
@@ -3825,8 +3825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EFFCAA-6DA9-40A3-BF28-CA3BC524DD9C}">
   <dimension ref="A1:C136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4137,7 +4137,7 @@
         <v>103</v>
       </c>
       <c r="B28" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="C28" t="s">
         <v>1044</v>
@@ -4159,10 +4159,10 @@
         <v>109</v>
       </c>
       <c r="B30" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="C30" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -4181,10 +4181,10 @@
         <v>110</v>
       </c>
       <c r="B32" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="C32" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -4192,10 +4192,10 @@
         <v>135</v>
       </c>
       <c r="B33" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="C33" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -4203,10 +4203,10 @@
         <v>111</v>
       </c>
       <c r="B34" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="C34" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -4214,10 +4214,10 @@
         <v>136</v>
       </c>
       <c r="B35" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="C35" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -4225,10 +4225,10 @@
         <v>112</v>
       </c>
       <c r="B36" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="C36" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -4236,10 +4236,10 @@
         <v>137</v>
       </c>
       <c r="B37" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="C37" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -4247,10 +4247,10 @@
         <v>113</v>
       </c>
       <c r="B38" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="C38" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -4258,10 +4258,10 @@
         <v>138</v>
       </c>
       <c r="B39" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="C39" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -4269,10 +4269,10 @@
         <v>1028</v>
       </c>
       <c r="B40" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="C40" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -4280,10 +4280,10 @@
         <v>1029</v>
       </c>
       <c r="B41" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="C41" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -4984,7 +4984,7 @@
         <v>313</v>
       </c>
       <c r="B105" t="s">
-        <v>1091</v>
+        <v>1131</v>
       </c>
       <c r="C105" t="s">
         <v>317</v>
@@ -4995,7 +4995,7 @@
         <v>314</v>
       </c>
       <c r="B106" t="s">
-        <v>1092</v>
+        <v>1132</v>
       </c>
       <c r="C106" t="s">
         <v>318</v>
@@ -5006,7 +5006,7 @@
         <v>319</v>
       </c>
       <c r="B107" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="C107" t="s">
         <v>321</v>
@@ -5017,7 +5017,7 @@
         <v>322</v>
       </c>
       <c r="B108" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="C108" t="s">
         <v>329</v>
@@ -5028,7 +5028,7 @@
         <v>323</v>
       </c>
       <c r="B109" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="C109" t="s">
         <v>265</v>
@@ -5050,7 +5050,7 @@
         <v>325</v>
       </c>
       <c r="B111" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="C111" t="s">
         <v>1009</v>
@@ -5064,7 +5064,7 @@
         <v>336</v>
       </c>
       <c r="C112" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -5072,7 +5072,7 @@
         <v>333</v>
       </c>
       <c r="B113" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="C113" t="s">
         <v>265</v>
@@ -5094,7 +5094,7 @@
         <v>334</v>
       </c>
       <c r="B115" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="C115" t="s">
         <v>1010</v>
@@ -5138,7 +5138,7 @@
         <v>944</v>
       </c>
       <c r="B119" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="C119" t="s">
         <v>946</v>
@@ -5149,7 +5149,7 @@
         <v>947</v>
       </c>
       <c r="B120" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="C120" t="s">
         <v>949</v>
@@ -5182,7 +5182,7 @@
         <v>956</v>
       </c>
       <c r="B123" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="C123" t="s">
         <v>255</v>
@@ -5193,10 +5193,10 @@
         <v>962</v>
       </c>
       <c r="B124" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="C124" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
@@ -5204,7 +5204,7 @@
         <v>963</v>
       </c>
       <c r="B125" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="C125" t="s">
         <v>265</v>
@@ -5226,7 +5226,7 @@
         <v>967</v>
       </c>
       <c r="B127" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="C127" t="s">
         <v>969</v>
@@ -5248,10 +5248,10 @@
         <v>975</v>
       </c>
       <c r="B129" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="C129" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
@@ -5281,7 +5281,7 @@
         <v>1011</v>
       </c>
       <c r="B132" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="C132" t="s">
         <v>1012</v>
@@ -5292,7 +5292,7 @@
         <v>1013</v>
       </c>
       <c r="B133" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="C133" t="s">
         <v>1014</v>
@@ -5325,7 +5325,7 @@
         <v>1021</v>
       </c>
       <c r="B136" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="C136" t="s">
         <v>1022</v>
@@ -5343,8 +5343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08623EB8-71BE-44FC-9615-87E1DDBD6EF4}">
   <dimension ref="A1:I128"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:C39"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/locales/translations.xlsx
+++ b/src/locales/translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\icmm-web\src\locales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6177B1C9-D00D-4B90-83C3-6D36A0322485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC180DB-3671-477A-BC26-4528097B6CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B932D239-48A5-4026-8CCD-CA2BFDECA8AC}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="1133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="1138">
   <si>
     <t>id</t>
   </si>
@@ -3136,9 +3136,6 @@
     <t>...Welcome to Intania Runner shop…</t>
   </si>
   <si>
-    <t>...ขอต้อนรับเข้าสู่ร้านค้า ชมรมวิ่งวิศวฯ จุฬาฯ...</t>
-  </si>
-  <si>
     <t>Check order status</t>
   </si>
   <si>
@@ -3184,15 +3181,6 @@
     <t>Phone number</t>
   </si>
   <si>
-    <t>Total price:</t>
-  </si>
-  <si>
-    <t>รวมราคาสินค้า:</t>
-  </si>
-  <si>
-    <t>Delivery fee</t>
-  </si>
-  <si>
     <t>Order total</t>
   </si>
   <si>
@@ -3208,12 +3196,6 @@
     <t>ทดสอบความผิดพลาด</t>
   </si>
   <si>
-    <t>Total amount is incorrect.</t>
-  </si>
-  <si>
-    <t>Grand total is incorrect</t>
-  </si>
-  <si>
     <t>Switch to QR payment</t>
   </si>
   <si>
@@ -3226,9 +3208,6 @@
     <t>เปลี่ยนเป็นการชำระเงินด้วยเลขที่บัญชี</t>
   </si>
   <si>
-    <t>คลิกเพื่ออัพโหลด</t>
-  </si>
-  <si>
     <t>Total payment</t>
   </si>
   <si>
@@ -3286,9 +3265,6 @@
     <t>We have received your order and will confirm within 24 hours.</t>
   </si>
   <si>
-    <t>ผู้ดูแลระบบชมรมวิ่ง วิศวฯ จุฬาฯ</t>
-  </si>
-  <si>
     <t>Email or order number are not found.</t>
   </si>
   <si>
@@ -3340,9 +3316,6 @@
     <t>Code is not found or has been already used.</t>
   </si>
   <si>
-    <t>[ICMM2025] Your order has been created...</t>
-  </si>
-  <si>
     <t>We have received your order, please complete your payment and upload payment slip.</t>
   </si>
   <si>
@@ -3382,51 +3355,24 @@
     <t>ผ้าบัฟ รุ่น Coolnet UV</t>
   </si>
   <si>
-    <t>Made from Spain / Lightweight multifunctional neckwear made from recycled plastic bottles. / UPS50 sun protection / Breathable, sweat-wicking, and versatile for multiple wearing style / For your favorite outdoor activity, running, trail running, hiking, trekking, paddling, diving.</t>
-  </si>
-  <si>
-    <t>Original BUFF® Coolnet UV – ของแท้จากสเปน ผ้าคลุมคอแบบ Tubular น้ำหนักเบา UPF50 ผลิตจาก Recycled Polyester ระบายอากาศดี ซับเหงื่อเร็ว และปรับใส่ได้หลายแบบ มาพร้อม HeiQ Smart Temp Cooling และแถบสะท้อนแสง 3M Scotchlite™ (บางรุ่น) เหมาะสำหรับป้องกัน UV ระหว่างทำงานกลางแจ้งหนัก</t>
-  </si>
-  <si>
     <t>Men’s 5" Running Shorts</t>
   </si>
   <si>
     <t>กางเกงวิ่งขาสั้นชาย 5 นิ้ว</t>
   </si>
   <si>
-    <t>Men’s Running Shorts with Inner Brief
-Designed for runners of all levels, these shorts feature a sporty, modern look and provide exceptional comfort, allowing you to move at full speed without feeling heavy or restricted.
-Crafted from Micropeach fabric, they offer a soft, smooth touch and excellent breathability to keep you cool and dry. The elastic waistband with an inner drawstring ensures a secure fit, while the quick-dry material prevents unpleasant odors and moisture build-up. Premium department-store quality you can rely on.</t>
-  </si>
-  <si>
-    <t>กางเกงวิ่งสำหรับผู้ชาย พร้อมซับในแบบกางเกงใน (Inner Brief) ออกแบบมาสำหรับนักวิ่งทุกระดับ มาพร้อมดีไซน์สปอร์ตเท่ สวมใส่สบาย และช่วยให้คุณเคลื่อนไหวได้เต็มสปีด โดยไม่รู้สึกหนักหรืออึดอัด
-ผ้า Micropeachใส่สบายกางเกงขอบเอวยางยืด มีเชือกผูกด้านใน นุ่มลื่น ใส่สบาย ระรายความร้อนได้ดี ไม่มีกลิ่นอับชื้น แห้งไว สินค้าเกรดห้าง คุณภาพดี</t>
-  </si>
-  <si>
     <t>Women’s 3" Running Shorts</t>
   </si>
   <si>
     <t>กางเกงวิ่งขาสั้นหญิง 3 นิ้ว</t>
   </si>
   <si>
-    <t>Women’s Running Shorts with Inner Brief
-Designed for runners of all levels, these shorts feature a sporty, modern look and provide exceptional comfort, allowing you to move at full speed without feeling heavy or restricted.
-Crafted from Micropeach fabric, they offer a soft, smooth touch and excellent breathability to keep you cool and dry. The elastic waistband with an inner drawstring ensures a secure fit, while the quick-dry material prevents unpleasant odors and moisture build-up. Premium department-store quality you can rely on.</t>
-  </si>
-  <si>
-    <t>กางเกงวิ่งสำหรับผู้หญิง พร้อมซับในแบบกางเกงใน (Inner Brief) ออกแบบมาสำหรับนักวิ่งทุกระดับ มาพร้อมดีไซน์สปอร์ตเท่ สวมใส่สบาย และช่วยให้คุณเคลื่อนไหวได้เต็มสปีด โดยไม่รู้สึกหนักหรืออึดอัด
-ผ้า Micropeachใส่สบายกางเกงขอบเอวยางยืด มีเชือกผูกด้านใน นุ่มลื่น ใส่สบาย ระรายความร้อนได้ดี ไม่มีกลิ่นอับชื้น แห้งไว สินค้าเกรดห้าง คุณภาพดี</t>
-  </si>
-  <si>
     <t>Running Set (Men)</t>
   </si>
   <si>
     <t>เซ็ตสำหรับนักวิ่งชาย</t>
   </si>
   <si>
-    <t>Running Cap + Original BUFF® Coolnet UV + Running Shorts M</t>
-  </si>
-  <si>
     <t>หมวกวิ่ง + ผ้าบัฟ รุ่น Coolnet UV + กางเกงวิ่งขาสั้นชาย 5 นิ้ว</t>
   </si>
   <si>
@@ -3436,9 +3382,6 @@
     <t>เซ็ทสำหรับนักวิ่งหญิง</t>
   </si>
   <si>
-    <t>Running Cap + Original BUFF® Coolnet UV + Running Shorts F</t>
-  </si>
-  <si>
     <t>หมวกวิ่ง + ผ้าบัฟ รุ่น Coolnet UV + กางเกงวิ่งขาสั้นหญิง 3 นิ้ว</t>
   </si>
   <si>
@@ -3446,6 +3389,96 @@
   </si>
   <si>
     <t>Updated at</t>
+  </si>
+  <si>
+    <t>...ขอต้อนรับเข้าสู่ร้านค้า ชมรมวิ่งวิศวะ จุฬาฯ...</t>
+  </si>
+  <si>
+    <t>Shipping address</t>
+  </si>
+  <si>
+    <t>Subtotal</t>
+  </si>
+  <si>
+    <t>รวมราคาสินค้า</t>
+  </si>
+  <si>
+    <t>Shipping fee</t>
+  </si>
+  <si>
+    <t>ที่อยู่มีความยาวตั้งแต่ 20 ถึง 400 ตัวอักษร</t>
+  </si>
+  <si>
+    <t>Subtotal is incorrect.</t>
+  </si>
+  <si>
+    <t>Order total is incorrect</t>
+  </si>
+  <si>
+    <t>Click to upload payment slip</t>
+  </si>
+  <si>
+    <t>คลิกเพื่ออัพโหลดสลิปการชำระเงิน</t>
+  </si>
+  <si>
+    <t>ผู้ดูแลระบบชมรมวิ่ง วิศวะ จุฬาฯ</t>
+  </si>
+  <si>
+    <t>[Intania Runner] Your order has been created...</t>
+  </si>
+  <si>
+    <t>Running Cap + Original BUFF® Coolnet UV + Men’s 5" Running Shorts</t>
+  </si>
+  <si>
+    <t>Running Cap + Original BUFF® Coolnet UV + Women's 5" Running Shorts</t>
+  </si>
+  <si>
+    <t>The Super Diamond fabric is specially woven for smooth texture
++Breathable, quick drying, feels light and comfortable
++Good for intense workouts with heavy sweating.</t>
+  </si>
+  <si>
+    <t>เนื้อผ้า Super Diamond ทอขึ้นมาพิเศษเพื่อผิวสัมผัสที่มีความเรียบเนียน
++มีคุณสมบัติการระบายอากาศอย่างดี ทำให้แห้งเร็ว เบา สบาย
++เหมาะสมกับการออกกำลังกายที่มีเหงื่อออกมากโดยเฉพาะ</t>
+  </si>
+  <si>
+    <t>ผลิตจากประเทศสเปน
++ผ้าคลุมคอที่ใช้งานได้หลายรูปแบบ น้ำหนักเบา ผลิตจากวัสดุรีไซเคิล
++ป้องกันรังสี UV ได้ถึง UPF50
++ระบายอากาศดี ซับเหงื่อเร็ว และปรับใส่ได้หลายรูปแบบ
++เหมาะสำหรับทุกกิจกรรมกลางแจ้ง ไม่ว่าจะเป็นการวิ่ง วิ่งเทรล เดินป่า ปีนเขา พายเรือ หรือดำน้ำ</t>
+  </si>
+  <si>
+    <t>Made from Spain
++Lightweight multifunctional neckwear made from recycled plastic bottles.
++UPS50 sun protection
++Breathable, sweat-wicking, and versatile for multiple wearing style
++For your favorite outdoor activity, running, trail running, hiking, trekking, paddling, diving.</t>
+  </si>
+  <si>
+    <t>​Men's 2-in-1 Running Shorts with built-in compression shorts for muscle support, these shorts help you move with confidence.
++Designed for all activities, whether running or daily workouts.
++The outer fabric is lightweight, breathable, and quick-drying, while the inner layer is stretchy and snug.
++Features four pockets around the waist: front, back, left, and right.</t>
+  </si>
+  <si>
+    <t>กางเกงวิ่ง 2 in 1 สำหรับผู้ชาย พร้อมกางเกงชั้นในแบบแนบตัวช่วยซัพพอร์ตกล้ามเนื้อ เพิ่มความมั่นใจในทุกการเคลื่อนไหว
++ออกแบบมาสำหรับทุกกิจกรรม ไม่ว่าจะเป็นการวิ่งหรือการออกกำลังกายประเภทอื่นๆ
++เนื้อผ้าด้านนอกมีน้ำหนักเบา ระบายอากาศดี และแห้งไว เนื้อผ้าด้านในมีความยืดหยุ่น กระชับ
++มาพร้อมกับกระเป๋ารอบตัว ซ้าย ขวา หน้า หลัง</t>
+  </si>
+  <si>
+    <t>​Women's 2-in-1 Running Shorts with built-in compression shorts for muscle support, these shorts help you move with confidence.
++Designed for all activities, whether running or daily workouts.
++The outer fabric is lightweight, breathable, and quick-drying, while the inner layer is stretchy and snug.
++Features four pockets around the waist: front, back, left, and right.</t>
+  </si>
+  <si>
+    <t>กางเกงวิ่ง 2 in 1 สำหรับผู้หญิง พร้อมกางเกงชั้นในแบบแนบตัวช่วยซัพพอร์ตกล้ามเนื้อ เพิ่มความมั่นใจในทุกการเคลื่อนไหว
++ออกแบบมาสำหรับทุกกิจกรรม ไม่ว่าจะเป็นการซ้อม การลงแข่งขัน หรือการออกกำลังกายประเภทอื่นๆ
++เนื้อผ้าด้านนอกมีน้ำหนักเบา ระบายอากาศดี และแห้งไว เนื้อผ้าด้านในมีความยืดหยุ่น กระชับ
++มาพร้อมกับกระเป๋ารอบตัว ซ้าย ขวา หน้า หลัง</t>
   </si>
 </sst>
 </file>
@@ -3487,8 +3520,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3825,8 +3861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EFFCAA-6DA9-40A3-BF28-CA3BC524DD9C}">
   <dimension ref="A1:C136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B107" sqref="B107"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3909,7 +3945,7 @@
         <v>1030</v>
       </c>
       <c r="C7" t="s">
-        <v>1031</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -3917,7 +3953,7 @@
         <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C8" t="s">
         <v>50</v>
@@ -3939,10 +3975,10 @@
         <v>54</v>
       </c>
       <c r="B10" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C10" t="s">
         <v>1033</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -3972,10 +4008,10 @@
         <v>63</v>
       </c>
       <c r="B13" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C13" t="s">
         <v>1035</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -4005,7 +4041,7 @@
         <v>71</v>
       </c>
       <c r="B16" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C16" t="s">
         <v>73</v>
@@ -4027,7 +4063,7 @@
         <v>75</v>
       </c>
       <c r="B18" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C18" t="s">
         <v>79</v>
@@ -4041,7 +4077,7 @@
         <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -4060,10 +4096,10 @@
         <v>85</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>1117</v>
       </c>
       <c r="C21" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -4082,7 +4118,7 @@
         <v>86</v>
       </c>
       <c r="B23" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C23" t="s">
         <v>988</v>
@@ -4093,7 +4129,7 @@
         <v>88</v>
       </c>
       <c r="B24" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C24" t="s">
         <v>99</v>
@@ -4115,7 +4151,7 @@
         <v>90</v>
       </c>
       <c r="B26" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C26" t="s">
         <v>100</v>
@@ -4137,10 +4173,10 @@
         <v>103</v>
       </c>
       <c r="B28" t="s">
-        <v>1105</v>
+        <v>1096</v>
       </c>
       <c r="C28" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -4148,7 +4184,7 @@
         <v>106</v>
       </c>
       <c r="B29" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C29" t="s">
         <v>108</v>
@@ -4159,21 +4195,21 @@
         <v>109</v>
       </c>
       <c r="B30" t="s">
-        <v>1109</v>
+        <v>1100</v>
       </c>
       <c r="C30" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>134</v>
       </c>
-      <c r="B31" t="s">
-        <v>115</v>
-      </c>
-      <c r="C31" t="s">
-        <v>117</v>
+      <c r="B31" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>1131</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -4181,21 +4217,21 @@
         <v>110</v>
       </c>
       <c r="B32" t="s">
-        <v>1111</v>
+        <v>1102</v>
       </c>
       <c r="C32" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>135</v>
       </c>
-      <c r="B33" t="s">
-        <v>1113</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1114</v>
+      <c r="B33" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -4203,21 +4239,21 @@
         <v>111</v>
       </c>
       <c r="B34" t="s">
-        <v>1115</v>
+        <v>1104</v>
       </c>
       <c r="C34" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>136</v>
       </c>
-      <c r="B35" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C35" t="s">
-        <v>1118</v>
+      <c r="B35" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>1135</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -4225,21 +4261,21 @@
         <v>112</v>
       </c>
       <c r="B36" t="s">
-        <v>1119</v>
+        <v>1106</v>
       </c>
       <c r="C36" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>137</v>
       </c>
-      <c r="B37" t="s">
-        <v>1121</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1122</v>
+      <c r="B37" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>1137</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -4247,10 +4283,10 @@
         <v>113</v>
       </c>
       <c r="B38" t="s">
-        <v>1123</v>
+        <v>1108</v>
       </c>
       <c r="C38" t="s">
-        <v>1124</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -4258,10 +4294,10 @@
         <v>138</v>
       </c>
       <c r="B39" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
       <c r="C39" t="s">
-        <v>1126</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -4269,10 +4305,10 @@
         <v>1028</v>
       </c>
       <c r="B40" t="s">
-        <v>1127</v>
+        <v>1111</v>
       </c>
       <c r="C40" t="s">
-        <v>1128</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -4283,7 +4319,7 @@
         <v>1129</v>
       </c>
       <c r="C41" t="s">
-        <v>1130</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -4313,7 +4349,7 @@
         <v>145</v>
       </c>
       <c r="B44" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C44" t="s">
         <v>147</v>
@@ -4324,10 +4360,10 @@
         <v>148</v>
       </c>
       <c r="B45" t="s">
-        <v>1047</v>
+        <v>1118</v>
       </c>
       <c r="C45" t="s">
-        <v>1048</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -4346,7 +4382,7 @@
         <v>151</v>
       </c>
       <c r="B47" t="s">
-        <v>1049</v>
+        <v>1120</v>
       </c>
       <c r="C47" t="s">
         <v>154</v>
@@ -4357,7 +4393,7 @@
         <v>156</v>
       </c>
       <c r="B48" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="C48" t="s">
         <v>158</v>
@@ -4368,7 +4404,7 @@
         <v>160</v>
       </c>
       <c r="B49" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="C49" t="s">
         <v>162</v>
@@ -4382,7 +4418,7 @@
         <v>163</v>
       </c>
       <c r="C50" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -4404,7 +4440,7 @@
         <v>170</v>
       </c>
       <c r="C52" t="s">
-        <v>171</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -4467,10 +4503,10 @@
         <v>179</v>
       </c>
       <c r="B58" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="C58" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -4522,7 +4558,7 @@
         <v>194</v>
       </c>
       <c r="B63" t="s">
-        <v>1055</v>
+        <v>1122</v>
       </c>
       <c r="C63" t="s">
         <v>996</v>
@@ -4533,7 +4569,7 @@
         <v>196</v>
       </c>
       <c r="B64" t="s">
-        <v>1056</v>
+        <v>1123</v>
       </c>
       <c r="C64" t="s">
         <v>997</v>
@@ -4544,10 +4580,10 @@
         <v>200</v>
       </c>
       <c r="B65" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="C65" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -4555,10 +4591,10 @@
         <v>201</v>
       </c>
       <c r="B66" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="C66" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -4566,10 +4602,10 @@
         <v>205</v>
       </c>
       <c r="B67" t="s">
-        <v>206</v>
+        <v>1124</v>
       </c>
       <c r="C67" t="s">
-        <v>1061</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -4577,7 +4613,7 @@
         <v>209</v>
       </c>
       <c r="B68" t="s">
-        <v>1062</v>
+        <v>1055</v>
       </c>
       <c r="C68" t="s">
         <v>998</v>
@@ -4599,10 +4635,10 @@
         <v>215</v>
       </c>
       <c r="B70" t="s">
-        <v>1063</v>
+        <v>1056</v>
       </c>
       <c r="C70" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -4610,7 +4646,7 @@
         <v>218</v>
       </c>
       <c r="B71" t="s">
-        <v>1065</v>
+        <v>1058</v>
       </c>
       <c r="C71" t="s">
         <v>241</v>
@@ -4624,7 +4660,7 @@
         <v>243</v>
       </c>
       <c r="C72" t="s">
-        <v>1066</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -4632,7 +4668,7 @@
         <v>222</v>
       </c>
       <c r="B73" t="s">
-        <v>1067</v>
+        <v>1060</v>
       </c>
       <c r="C73" t="s">
         <v>999</v>
@@ -4643,7 +4679,7 @@
         <v>228</v>
       </c>
       <c r="B74" t="s">
-        <v>1068</v>
+        <v>1061</v>
       </c>
       <c r="C74" t="s">
         <v>1000</v>
@@ -4654,10 +4690,10 @@
         <v>225</v>
       </c>
       <c r="B75" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
       <c r="C75" t="s">
-        <v>1070</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -4676,10 +4712,10 @@
         <v>232</v>
       </c>
       <c r="B77" t="s">
-        <v>1071</v>
+        <v>1064</v>
       </c>
       <c r="C77" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -4690,7 +4726,7 @@
         <v>235</v>
       </c>
       <c r="C78" t="s">
-        <v>1073</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -4698,10 +4734,10 @@
         <v>238</v>
       </c>
       <c r="B79" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="C79" t="s">
-        <v>1075</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -4709,10 +4745,10 @@
         <v>245</v>
       </c>
       <c r="B80" t="s">
-        <v>1076</v>
+        <v>1069</v>
       </c>
       <c r="C80" t="s">
-        <v>1077</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -4720,7 +4756,7 @@
         <v>250</v>
       </c>
       <c r="B81" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="C81" t="s">
         <v>252</v>
@@ -4731,7 +4767,7 @@
         <v>251</v>
       </c>
       <c r="B82" t="s">
-        <v>1079</v>
+        <v>1072</v>
       </c>
       <c r="C82" t="s">
         <v>253</v>
@@ -4764,7 +4800,7 @@
         <v>271</v>
       </c>
       <c r="B85" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="C85" t="s">
         <v>1003</v>
@@ -4811,7 +4847,7 @@
         <v>1004</v>
       </c>
       <c r="C89" t="s">
-        <v>1081</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -4830,10 +4866,10 @@
         <v>275</v>
       </c>
       <c r="B91" t="s">
-        <v>1082</v>
+        <v>1074</v>
       </c>
       <c r="C91" t="s">
-        <v>1083</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -4841,10 +4877,10 @@
         <v>278</v>
       </c>
       <c r="B92" t="s">
-        <v>1084</v>
+        <v>1076</v>
       </c>
       <c r="C92" t="s">
-        <v>1085</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -4852,7 +4888,7 @@
         <v>281</v>
       </c>
       <c r="B93" t="s">
-        <v>1086</v>
+        <v>1078</v>
       </c>
       <c r="C93" t="s">
         <v>1005</v>
@@ -4863,7 +4899,7 @@
         <v>282</v>
       </c>
       <c r="B94" t="s">
-        <v>1087</v>
+        <v>1079</v>
       </c>
       <c r="C94" t="s">
         <v>292</v>
@@ -4929,7 +4965,7 @@
         <v>298</v>
       </c>
       <c r="B100" t="s">
-        <v>1088</v>
+        <v>1080</v>
       </c>
       <c r="C100" t="s">
         <v>308</v>
@@ -4940,7 +4976,7 @@
         <v>299</v>
       </c>
       <c r="B101" t="s">
-        <v>1089</v>
+        <v>1081</v>
       </c>
       <c r="C101" t="s">
         <v>309</v>
@@ -4951,7 +4987,7 @@
         <v>300</v>
       </c>
       <c r="B102" t="s">
-        <v>1090</v>
+        <v>1082</v>
       </c>
       <c r="C102" t="s">
         <v>310</v>
@@ -4984,7 +5020,7 @@
         <v>313</v>
       </c>
       <c r="B105" t="s">
-        <v>1131</v>
+        <v>1114</v>
       </c>
       <c r="C105" t="s">
         <v>317</v>
@@ -4995,7 +5031,7 @@
         <v>314</v>
       </c>
       <c r="B106" t="s">
-        <v>1132</v>
+        <v>1115</v>
       </c>
       <c r="C106" t="s">
         <v>318</v>
@@ -5006,7 +5042,7 @@
         <v>319</v>
       </c>
       <c r="B107" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="C107" t="s">
         <v>321</v>
@@ -5017,7 +5053,7 @@
         <v>322</v>
       </c>
       <c r="B108" t="s">
-        <v>1092</v>
+        <v>1084</v>
       </c>
       <c r="C108" t="s">
         <v>329</v>
@@ -5028,7 +5064,7 @@
         <v>323</v>
       </c>
       <c r="B109" t="s">
-        <v>1093</v>
+        <v>1085</v>
       </c>
       <c r="C109" t="s">
         <v>265</v>
@@ -5050,7 +5086,7 @@
         <v>325</v>
       </c>
       <c r="B111" t="s">
-        <v>1094</v>
+        <v>1086</v>
       </c>
       <c r="C111" t="s">
         <v>1009</v>
@@ -5064,7 +5100,7 @@
         <v>336</v>
       </c>
       <c r="C112" t="s">
-        <v>1095</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -5072,7 +5108,7 @@
         <v>333</v>
       </c>
       <c r="B113" t="s">
-        <v>1093</v>
+        <v>1085</v>
       </c>
       <c r="C113" t="s">
         <v>265</v>
@@ -5094,7 +5130,7 @@
         <v>334</v>
       </c>
       <c r="B115" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="C115" t="s">
         <v>1010</v>
@@ -5138,7 +5174,7 @@
         <v>944</v>
       </c>
       <c r="B119" t="s">
-        <v>1097</v>
+        <v>1089</v>
       </c>
       <c r="C119" t="s">
         <v>946</v>
@@ -5149,7 +5185,7 @@
         <v>947</v>
       </c>
       <c r="B120" t="s">
-        <v>1098</v>
+        <v>1090</v>
       </c>
       <c r="C120" t="s">
         <v>949</v>
@@ -5182,10 +5218,10 @@
         <v>956</v>
       </c>
       <c r="B123" t="s">
-        <v>1099</v>
+        <v>1127</v>
       </c>
       <c r="C123" t="s">
-        <v>255</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
@@ -5193,10 +5229,10 @@
         <v>962</v>
       </c>
       <c r="B124" t="s">
-        <v>1100</v>
+        <v>1091</v>
       </c>
       <c r="C124" t="s">
-        <v>1101</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
@@ -5204,7 +5240,7 @@
         <v>963</v>
       </c>
       <c r="B125" t="s">
-        <v>1093</v>
+        <v>1085</v>
       </c>
       <c r="C125" t="s">
         <v>265</v>
@@ -5226,7 +5262,7 @@
         <v>967</v>
       </c>
       <c r="B127" t="s">
-        <v>1102</v>
+        <v>1093</v>
       </c>
       <c r="C127" t="s">
         <v>969</v>
@@ -5248,10 +5284,10 @@
         <v>975</v>
       </c>
       <c r="B129" t="s">
-        <v>1103</v>
+        <v>1094</v>
       </c>
       <c r="C129" t="s">
-        <v>1104</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
@@ -5281,7 +5317,7 @@
         <v>1011</v>
       </c>
       <c r="B132" t="s">
-        <v>1106</v>
+        <v>1097</v>
       </c>
       <c r="C132" t="s">
         <v>1012</v>
@@ -5292,7 +5328,7 @@
         <v>1013</v>
       </c>
       <c r="B133" t="s">
-        <v>1107</v>
+        <v>1098</v>
       </c>
       <c r="C133" t="s">
         <v>1014</v>
@@ -5325,7 +5361,7 @@
         <v>1021</v>
       </c>
       <c r="B136" t="s">
-        <v>1108</v>
+        <v>1099</v>
       </c>
       <c r="C136" t="s">
         <v>1022</v>

--- a/src/locales/translations.xlsx
+++ b/src/locales/translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\icmm-web\src\locales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC180DB-3671-477A-BC26-4528097B6CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E882E4A1-E8C4-4E92-9C63-36CB440776B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B932D239-48A5-4026-8CCD-CA2BFDECA8AC}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="1138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1581" uniqueCount="1155">
   <si>
     <t>id</t>
   </si>
@@ -3059,12 +3059,6 @@
   </si>
   <si>
     <t>ชำระเงินไม่สำเร็จ</t>
-  </si>
-  <si>
-    <t>Please create new order.</t>
-  </si>
-  <si>
-    <t>กรุณาสร้างคำสั่งซื้อใหม่อีกครั้ง</t>
   </si>
   <si>
     <t>ขอบคุณที่เลือกซื้อสินค้ากับเรา</t>
@@ -3479,6 +3473,63 @@
 +ออกแบบมาสำหรับทุกกิจกรรม ไม่ว่าจะเป็นการซ้อม การลงแข่งขัน หรือการออกกำลังกายประเภทอื่นๆ
 +เนื้อผ้าด้านนอกมีน้ำหนักเบา ระบายอากาศดี และแห้งไว เนื้อผ้าด้านในมีความยืดหยุ่น กระชับ
 +มาพร้อมกับกระเป๋ารอบตัว ซ้าย ขวา หน้า หลัง</t>
+  </si>
+  <si>
+    <t>Address must be between 1 and 400 characters</t>
+  </si>
+  <si>
+    <t>errAddress1to400</t>
+  </si>
+  <si>
+    <t>deliveryWithinThailandOnly</t>
+  </si>
+  <si>
+    <t>จัดส่งภายในประเทศเท่านั้น</t>
+  </si>
+  <si>
+    <t>Delivery within Thailand only.</t>
+  </si>
+  <si>
+    <t>Please finish payment or create new order.</t>
+  </si>
+  <si>
+    <t>กรุณาชำระค่าสินค้าหรือสร้างคำสั่งซื้อใหม่</t>
+  </si>
+  <si>
+    <t>orPayByQr</t>
+  </si>
+  <si>
+    <t>หรือชำระผ่าน QR Code</t>
+  </si>
+  <si>
+    <t>or pay via QR code.</t>
+  </si>
+  <si>
+    <t>orderDetail</t>
+  </si>
+  <si>
+    <t>Order Detail</t>
+  </si>
+  <si>
+    <t>รายละเอียดสินค้า</t>
+  </si>
+  <si>
+    <t>productName</t>
+  </si>
+  <si>
+    <t>ชื่อสินค้า</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>จำนวน</t>
   </si>
 </sst>
 </file>
@@ -3859,10 +3910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EFFCAA-6DA9-40A3-BF28-CA3BC524DD9C}">
-  <dimension ref="A1:C136"/>
+  <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A117" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A142" sqref="A142:C142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3942,10 +3993,10 @@
         <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="C7" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -3953,7 +4004,7 @@
         <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="C8" t="s">
         <v>50</v>
@@ -3975,10 +4026,10 @@
         <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="C10" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -4008,10 +4059,10 @@
         <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="C13" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -4041,7 +4092,7 @@
         <v>71</v>
       </c>
       <c r="B16" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="C16" t="s">
         <v>73</v>
@@ -4063,7 +4114,7 @@
         <v>75</v>
       </c>
       <c r="B18" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="C18" t="s">
         <v>79</v>
@@ -4077,7 +4128,7 @@
         <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -4096,10 +4147,10 @@
         <v>85</v>
       </c>
       <c r="B21" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="C21" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -4118,7 +4169,7 @@
         <v>86</v>
       </c>
       <c r="B23" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="C23" t="s">
         <v>988</v>
@@ -4129,7 +4180,7 @@
         <v>88</v>
       </c>
       <c r="B24" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="C24" t="s">
         <v>99</v>
@@ -4151,7 +4202,7 @@
         <v>90</v>
       </c>
       <c r="B26" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="C26" t="s">
         <v>100</v>
@@ -4173,10 +4224,10 @@
         <v>103</v>
       </c>
       <c r="B28" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="C28" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -4184,7 +4235,7 @@
         <v>106</v>
       </c>
       <c r="B29" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="C29" t="s">
         <v>108</v>
@@ -4195,10 +4246,10 @@
         <v>109</v>
       </c>
       <c r="B30" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="C30" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
@@ -4206,10 +4257,10 @@
         <v>134</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -4217,10 +4268,10 @@
         <v>110</v>
       </c>
       <c r="B32" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="C32" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
@@ -4228,10 +4279,10 @@
         <v>135</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -4239,10 +4290,10 @@
         <v>111</v>
       </c>
       <c r="B34" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="C34" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="144" x14ac:dyDescent="0.3">
@@ -4250,10 +4301,10 @@
         <v>136</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -4261,10 +4312,10 @@
         <v>112</v>
       </c>
       <c r="B36" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="C36" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="144" x14ac:dyDescent="0.3">
@@ -4272,10 +4323,10 @@
         <v>137</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -4283,10 +4334,10 @@
         <v>113</v>
       </c>
       <c r="B38" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="C38" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -4294,32 +4345,32 @@
         <v>138</v>
       </c>
       <c r="B39" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C39" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B40" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="C40" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B41" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="C41" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -4349,7 +4400,7 @@
         <v>145</v>
       </c>
       <c r="B44" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="C44" t="s">
         <v>147</v>
@@ -4360,10 +4411,10 @@
         <v>148</v>
       </c>
       <c r="B45" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="C45" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -4382,7 +4433,7 @@
         <v>151</v>
       </c>
       <c r="B47" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="C47" t="s">
         <v>154</v>
@@ -4393,7 +4444,7 @@
         <v>156</v>
       </c>
       <c r="B48" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C48" t="s">
         <v>158</v>
@@ -4404,7 +4455,7 @@
         <v>160</v>
       </c>
       <c r="B49" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="C49" t="s">
         <v>162</v>
@@ -4418,7 +4469,7 @@
         <v>163</v>
       </c>
       <c r="C50" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -4440,15 +4491,15 @@
         <v>170</v>
       </c>
       <c r="C52" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B53" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="C53" t="s">
         <v>171</v>
@@ -4456,915 +4507,981 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>1025</v>
+        <v>1137</v>
       </c>
       <c r="B54" t="s">
-        <v>1026</v>
+        <v>1136</v>
       </c>
       <c r="C54" t="s">
-        <v>1027</v>
+        <v>171</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>172</v>
+        <v>1023</v>
       </c>
       <c r="B55" t="s">
-        <v>175</v>
+        <v>1024</v>
       </c>
       <c r="C55" t="s">
-        <v>992</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B56" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C56" t="s">
-        <v>177</v>
+        <v>992</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B57" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C57" t="s">
-        <v>993</v>
+        <v>177</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B58" t="s">
-        <v>1049</v>
+        <v>180</v>
       </c>
       <c r="C58" t="s">
-        <v>1050</v>
+        <v>993</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B59" t="s">
-        <v>186</v>
+        <v>1047</v>
       </c>
       <c r="C59" t="s">
-        <v>185</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B60" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C60" t="s">
-        <v>994</v>
+        <v>185</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B61" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C61" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B62" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C62" t="s">
-        <v>193</v>
+        <v>995</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B63" t="s">
-        <v>1122</v>
+        <v>193</v>
       </c>
       <c r="C63" t="s">
-        <v>996</v>
+        <v>193</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B64" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="C64" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B65" t="s">
-        <v>1051</v>
+        <v>1121</v>
       </c>
       <c r="C65" t="s">
-        <v>1052</v>
+        <v>997</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B66" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="C66" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B67" t="s">
-        <v>1124</v>
+        <v>1051</v>
       </c>
       <c r="C67" t="s">
-        <v>1125</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B68" t="s">
-        <v>1055</v>
+        <v>1122</v>
       </c>
       <c r="C68" t="s">
-        <v>998</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B69" t="s">
-        <v>214</v>
+        <v>1053</v>
       </c>
       <c r="C69" t="s">
-        <v>213</v>
+        <v>998</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B70" t="s">
-        <v>1056</v>
+        <v>214</v>
       </c>
       <c r="C70" t="s">
-        <v>1057</v>
+        <v>213</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B71" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="C71" t="s">
-        <v>241</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B72" t="s">
-        <v>243</v>
+        <v>1056</v>
       </c>
       <c r="C72" t="s">
-        <v>1059</v>
+        <v>241</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B73" t="s">
-        <v>1060</v>
+        <v>243</v>
       </c>
       <c r="C73" t="s">
-        <v>999</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B74" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="C74" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B75" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="C75" t="s">
-        <v>1063</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B76" t="s">
-        <v>230</v>
+        <v>1060</v>
       </c>
       <c r="C76" t="s">
-        <v>231</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B77" t="s">
-        <v>1064</v>
+        <v>230</v>
       </c>
       <c r="C77" t="s">
-        <v>1065</v>
+        <v>231</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B78" t="s">
-        <v>235</v>
+        <v>1062</v>
       </c>
       <c r="C78" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B79" t="s">
-        <v>1067</v>
+        <v>235</v>
       </c>
       <c r="C79" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B80" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="C80" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B81" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="C81" t="s">
-        <v>252</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B82" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C82" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B83" t="s">
-        <v>1001</v>
+        <v>1070</v>
       </c>
       <c r="C83" t="s">
-        <v>1002</v>
+        <v>253</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B84" t="s">
-        <v>261</v>
+        <v>1001</v>
       </c>
       <c r="C84" t="s">
-        <v>264</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="B85" t="s">
-        <v>1073</v>
+        <v>261</v>
       </c>
       <c r="C85" t="s">
-        <v>1003</v>
+        <v>264</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B86" t="s">
-        <v>262</v>
+        <v>1071</v>
       </c>
       <c r="C86" t="s">
-        <v>265</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B87" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C87" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="B88" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C88" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B89" t="s">
-        <v>1004</v>
+        <v>259</v>
       </c>
       <c r="C89" t="s">
-        <v>1126</v>
+        <v>268</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="B90" t="s">
-        <v>274</v>
+        <v>1004</v>
       </c>
       <c r="C90" t="s">
-        <v>273</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B91" t="s">
-        <v>1074</v>
+        <v>274</v>
       </c>
       <c r="C91" t="s">
-        <v>1075</v>
+        <v>273</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B92" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="C92" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B93" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="C93" t="s">
-        <v>1005</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B94" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="C94" t="s">
-        <v>292</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B95" t="s">
-        <v>287</v>
+        <v>1077</v>
       </c>
       <c r="C95" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B96" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C96" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B97" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C97" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B98" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C98" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="B99" t="s">
-        <v>1006</v>
+        <v>290</v>
       </c>
       <c r="C99" t="s">
-        <v>1007</v>
+        <v>296</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B100" t="s">
-        <v>1080</v>
+        <v>1141</v>
       </c>
       <c r="C100" t="s">
-        <v>308</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B101" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="C101" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B102" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="C102" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B103" t="s">
-        <v>306</v>
+        <v>1080</v>
       </c>
       <c r="C103" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B104" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C104" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="B105" t="s">
-        <v>1114</v>
+        <v>307</v>
       </c>
       <c r="C105" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B106" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="C106" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B107" t="s">
-        <v>1083</v>
+        <v>1113</v>
       </c>
       <c r="C107" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B108" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="C108" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B109" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="C109" t="s">
-        <v>265</v>
+        <v>329</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B110" t="s">
-        <v>263</v>
+        <v>1083</v>
       </c>
       <c r="C110" t="s">
-        <v>1008</v>
+        <v>265</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B111" t="s">
-        <v>1086</v>
+        <v>263</v>
       </c>
       <c r="C111" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B112" t="s">
-        <v>336</v>
+        <v>1084</v>
       </c>
       <c r="C112" t="s">
-        <v>1087</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B113" t="s">
+        <v>336</v>
+      </c>
+      <c r="C113" t="s">
         <v>1085</v>
-      </c>
-      <c r="C113" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B114" t="s">
-        <v>263</v>
+        <v>1083</v>
       </c>
       <c r="C114" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B115" t="s">
-        <v>1088</v>
+        <v>263</v>
       </c>
       <c r="C115" t="s">
-        <v>1010</v>
+        <v>266</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>935</v>
+        <v>334</v>
       </c>
       <c r="B116" t="s">
-        <v>936</v>
+        <v>1086</v>
       </c>
       <c r="C116" t="s">
-        <v>937</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="B117" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="C117" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="B118" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="C118" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="B119" t="s">
-        <v>1089</v>
+        <v>942</v>
       </c>
       <c r="C119" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="B120" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="C120" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="B121" t="s">
-        <v>951</v>
+        <v>1088</v>
       </c>
       <c r="C121" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="B122" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="C122" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="B123" t="s">
-        <v>1127</v>
+        <v>955</v>
       </c>
       <c r="C123" t="s">
-        <v>1002</v>
+        <v>954</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="B124" t="s">
-        <v>1091</v>
+        <v>1125</v>
       </c>
       <c r="C124" t="s">
-        <v>1092</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B125" t="s">
-        <v>1085</v>
+        <v>1089</v>
       </c>
       <c r="C125" t="s">
-        <v>265</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B126" t="s">
-        <v>263</v>
+        <v>1083</v>
       </c>
       <c r="C126" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="B127" t="s">
-        <v>1093</v>
+        <v>263</v>
       </c>
       <c r="C127" t="s">
-        <v>969</v>
+        <v>266</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="B128" t="s">
-        <v>971</v>
+        <v>1091</v>
       </c>
       <c r="C128" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="B129" t="s">
-        <v>1094</v>
+        <v>971</v>
       </c>
       <c r="C129" t="s">
-        <v>1095</v>
+        <v>972</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="B130" t="s">
-        <v>979</v>
+        <v>1092</v>
       </c>
       <c r="C130" t="s">
-        <v>980</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="B131" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="C131" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>1011</v>
+        <v>983</v>
       </c>
       <c r="B132" t="s">
-        <v>1097</v>
+        <v>984</v>
       </c>
       <c r="C132" t="s">
-        <v>1012</v>
+        <v>985</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="B133" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="C133" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="B134" t="s">
-        <v>1016</v>
+        <v>1096</v>
       </c>
       <c r="C134" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="B135" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="C135" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="B136" t="s">
-        <v>1099</v>
+        <v>1017</v>
       </c>
       <c r="C136" t="s">
-        <v>1022</v>
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C137" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C139" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C140" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C141" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C142" t="s">
+        <v>1154</v>
       </c>
     </row>
   </sheetData>
@@ -5377,10 +5494,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08623EB8-71BE-44FC-9615-87E1DDBD6EF4}">
-  <dimension ref="A1:I128"/>
+  <dimension ref="A1:I129"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="C129" sqref="A129:C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9102,6 +9219,17 @@
         <v>984</v>
       </c>
     </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C129" t="s">
+        <v>1154</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:I4" xr:uid="{01EFFCAA-6DA9-40A3-BF28-CA3BC524DD9C}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/locales/translations.xlsx
+++ b/src/locales/translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\icmm-web\src\locales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E882E4A1-E8C4-4E92-9C63-36CB440776B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE986B5C-EBBC-4DA3-BE4F-5F33910C12B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B932D239-48A5-4026-8CCD-CA2BFDECA8AC}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1581" uniqueCount="1155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1581" uniqueCount="1156">
   <si>
     <t>id</t>
   </si>
@@ -3043,21 +3043,12 @@
     <t>เราได้รับคำสั่งซื้อของคุณเรียบร้อย</t>
   </si>
   <si>
-    <t>...เราจะทำการยืนยันคำสั่งซื้อของคุณภายใน 24 ชั่วโมง...</t>
-  </si>
-  <si>
     <t>[Intania Runner] Your order has been received!...</t>
   </si>
   <si>
     <t>[Intania Runner] เราได้รับคำสั่งซื้อของท่านเรียบร้อย…</t>
   </si>
   <si>
-    <t>เราได้รับคำสั่งซื้อของท่านเรียบร้อยแล้ว และจะดำเนินการยืนยันคำสั่งซื้อภายใน 24 ชั่วโมง</t>
-  </si>
-  <si>
-    <t>Intania Runner admin.</t>
-  </si>
-  <si>
     <t>ชำระเงินไม่สำเร็จ</t>
   </si>
   <si>
@@ -3220,9 +3211,6 @@
     <t>Your order has been received</t>
   </si>
   <si>
-    <t>...We will confirm your order within 24 hours...</t>
-  </si>
-  <si>
     <t>You can check your order status by clicking "Check Order Status" on the top of page.</t>
   </si>
   <si>
@@ -3256,9 +3244,6 @@
     <t>We apologize for inconvenience.</t>
   </si>
   <si>
-    <t>We have received your order and will confirm within 24 hours.</t>
-  </si>
-  <si>
     <t>Email or order number are not found.</t>
   </si>
   <si>
@@ -3349,12 +3334,6 @@
     <t>ผ้าบัฟ รุ่น Coolnet UV</t>
   </si>
   <si>
-    <t>Men’s 5" Running Shorts</t>
-  </si>
-  <si>
-    <t>กางเกงวิ่งขาสั้นชาย 5 นิ้ว</t>
-  </si>
-  <si>
     <t>Women’s 3" Running Shorts</t>
   </si>
   <si>
@@ -3413,9 +3392,6 @@
   </si>
   <si>
     <t>คลิกเพื่ออัพโหลดสลิปการชำระเงิน</t>
-  </si>
-  <si>
-    <t>ผู้ดูแลระบบชมรมวิ่ง วิศวะ จุฬาฯ</t>
   </si>
   <si>
     <t>[Intania Runner] Your order has been created...</t>
@@ -3530,6 +3506,33 @@
   </si>
   <si>
     <t>จำนวน</t>
+  </si>
+  <si>
+    <t>Men’s 3" Running Shorts</t>
+  </si>
+  <si>
+    <t>กางเกงวิ่งขาสั้นชาย 3 นิ้ว</t>
+  </si>
+  <si>
+    <t>...We will confirm your order within 5 working day...</t>
+  </si>
+  <si>
+    <t>...เราจะทำการยืนยันคำสั่งซื้อของคุณภายใน 5 วันทำการ...</t>
+  </si>
+  <si>
+    <t>We have received your order and will confirm within 5 working day.</t>
+  </si>
+  <si>
+    <t>เราได้รับคำสั่งซื้อของท่านเรียบร้อยแล้ว และจะดำเนินการยืนยันคำสั่งซื้อภายใน 5 วันทำการ</t>
+  </si>
+  <si>
+    <t>Intania Runner Chula</t>
+  </si>
+  <si>
+    <t>ชมรมวิ่ง วิศวะ จุฬาฯ</t>
+  </si>
+  <si>
+    <t>อยู่ระหว่างช่วงดำเนินการตรวจสอบหลักฐานการชำระเงิน</t>
   </si>
 </sst>
 </file>
@@ -3571,10 +3574,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3912,24 +3918,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EFFCAA-6DA9-40A3-BF28-CA3BC524DD9C}">
   <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A142" sqref="A142:C142"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="40" customWidth="1"/>
+    <col min="2" max="3" width="42.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3937,10 +3943,10 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3948,10 +3954,10 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3959,10 +3965,10 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3970,10 +3976,10 @@
       <c r="A5" t="s">
         <v>39</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3981,10 +3987,10 @@
       <c r="A6" t="s">
         <v>42</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3992,21 +3998,21 @@
       <c r="A7" t="s">
         <v>47</v>
       </c>
-      <c r="B7" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1114</v>
+      <c r="B7" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1107</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>48</v>
       </c>
-      <c r="B8" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4014,10 +4020,10 @@
       <c r="A9" t="s">
         <v>53</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4025,21 +4031,21 @@
       <c r="A10" t="s">
         <v>54</v>
       </c>
-      <c r="B10" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1031</v>
+      <c r="B10" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1028</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>57</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4047,10 +4053,10 @@
       <c r="A12" t="s">
         <v>60</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4058,21 +4064,21 @@
       <c r="A13" t="s">
         <v>63</v>
       </c>
-      <c r="B13" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1033</v>
+      <c r="B13" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>64</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4080,10 +4086,10 @@
       <c r="A15" t="s">
         <v>69</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4091,10 +4097,10 @@
       <c r="A16" t="s">
         <v>71</v>
       </c>
-      <c r="B16" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B16" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4102,10 +4108,10 @@
       <c r="A17" t="s">
         <v>74</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>78</v>
       </c>
     </row>
@@ -4113,10 +4119,10 @@
       <c r="A18" t="s">
         <v>75</v>
       </c>
-      <c r="B18" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B18" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4124,21 +4130,21 @@
       <c r="A19" t="s">
         <v>29</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C19" t="s">
-        <v>1036</v>
+      <c r="C19" s="1" t="s">
+        <v>1033</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>80</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -4146,21 +4152,21 @@
       <c r="A21" t="s">
         <v>85</v>
       </c>
-      <c r="B21" t="s">
-        <v>1115</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1037</v>
+      <c r="B21" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1034</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>87</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>97</v>
       </c>
     </row>
@@ -4168,10 +4174,10 @@
       <c r="A23" t="s">
         <v>86</v>
       </c>
-      <c r="B23" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B23" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>988</v>
       </c>
     </row>
@@ -4179,10 +4185,10 @@
       <c r="A24" t="s">
         <v>88</v>
       </c>
-      <c r="B24" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B24" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>99</v>
       </c>
     </row>
@@ -4190,10 +4196,10 @@
       <c r="A25" t="s">
         <v>89</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>989</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>989</v>
       </c>
     </row>
@@ -4201,10 +4207,10 @@
       <c r="A26" t="s">
         <v>90</v>
       </c>
-      <c r="B26" t="s">
-        <v>1040</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B26" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>100</v>
       </c>
     </row>
@@ -4212,10 +4218,10 @@
       <c r="A27" t="s">
         <v>91</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>990</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>991</v>
       </c>
     </row>
@@ -4223,21 +4229,21 @@
       <c r="A28" t="s">
         <v>103</v>
       </c>
-      <c r="B28" t="s">
-        <v>1094</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1041</v>
+      <c r="B28" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>1038</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>106</v>
       </c>
-      <c r="B29" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B29" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>108</v>
       </c>
     </row>
@@ -4245,142 +4251,142 @@
       <c r="A30" t="s">
         <v>109</v>
       </c>
-      <c r="B30" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>134</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>1129</v>
+      <c r="B31" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>1121</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>110</v>
       </c>
-      <c r="B32" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1101</v>
+      <c r="B32" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>1096</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>135</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>1131</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>1130</v>
+      <c r="B33" s="2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>1122</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>111</v>
       </c>
-      <c r="B34" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C34" t="s">
-        <v>1103</v>
+      <c r="B34" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>1148</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>136</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>1132</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>1133</v>
+      <c r="B35" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>1125</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>112</v>
       </c>
-      <c r="B36" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C36" t="s">
-        <v>1105</v>
+      <c r="B36" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>1098</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>137</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>1135</v>
+      <c r="B37" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>1127</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>113</v>
       </c>
-      <c r="B38" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C38" t="s">
-        <v>1107</v>
+      <c r="B38" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>1100</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>138</v>
       </c>
-      <c r="B39" t="s">
-        <v>1126</v>
-      </c>
-      <c r="C39" t="s">
-        <v>1108</v>
+      <c r="B39" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>1101</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C40" t="s">
-        <v>1110</v>
+        <v>1023</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>1103</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1127</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1111</v>
+        <v>1024</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>1104</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>139</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="1" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4388,10 +4394,10 @@
       <c r="A43" t="s">
         <v>142</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="1" t="s">
         <v>144</v>
       </c>
     </row>
@@ -4399,10 +4405,10 @@
       <c r="A44" t="s">
         <v>145</v>
       </c>
-      <c r="B44" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="B44" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>147</v>
       </c>
     </row>
@@ -4410,21 +4416,21 @@
       <c r="A45" t="s">
         <v>148</v>
       </c>
-      <c r="B45" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C45" t="s">
-        <v>1117</v>
+      <c r="B45" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>1110</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>150</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="1" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4432,10 +4438,10 @@
       <c r="A47" t="s">
         <v>151</v>
       </c>
-      <c r="B47" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="B47" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>154</v>
       </c>
     </row>
@@ -4443,10 +4449,10 @@
       <c r="A48" t="s">
         <v>156</v>
       </c>
-      <c r="B48" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="B48" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4454,10 +4460,10 @@
       <c r="A49" t="s">
         <v>160</v>
       </c>
-      <c r="B49" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="B49" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>162</v>
       </c>
     </row>
@@ -4465,21 +4471,21 @@
       <c r="A50" t="s">
         <v>164</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C50" t="s">
-        <v>1046</v>
+      <c r="C50" s="1" t="s">
+        <v>1043</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>166</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="1" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4487,54 +4493,54 @@
       <c r="A52" t="s">
         <v>169</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C52" t="s">
-        <v>1119</v>
+      <c r="C52" s="1" t="s">
+        <v>1112</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B53" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C53" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>1137</v>
-      </c>
-      <c r="B54" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C54" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B55" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C55" t="s">
-        <v>1025</v>
+        <v>1020</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>1022</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>172</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="1" t="s">
         <v>992</v>
       </c>
     </row>
@@ -4542,10 +4548,10 @@
       <c r="A57" t="s">
         <v>173</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="1" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4553,10 +4559,10 @@
       <c r="A58" t="s">
         <v>178</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="1" t="s">
         <v>993</v>
       </c>
     </row>
@@ -4564,21 +4570,21 @@
       <c r="A59" t="s">
         <v>179</v>
       </c>
-      <c r="B59" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C59" t="s">
-        <v>1048</v>
+      <c r="B59" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>1045</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>187</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="1" t="s">
         <v>185</v>
       </c>
     </row>
@@ -4586,10 +4592,10 @@
       <c r="A61" t="s">
         <v>184</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="1" t="s">
         <v>994</v>
       </c>
     </row>
@@ -4597,10 +4603,10 @@
       <c r="A62" t="s">
         <v>188</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="1" t="s">
         <v>995</v>
       </c>
     </row>
@@ -4608,10 +4614,10 @@
       <c r="A63" t="s">
         <v>193</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="1" t="s">
         <v>193</v>
       </c>
     </row>
@@ -4619,10 +4625,10 @@
       <c r="A64" t="s">
         <v>194</v>
       </c>
-      <c r="B64" t="s">
-        <v>1120</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="B64" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>996</v>
       </c>
     </row>
@@ -4630,10 +4636,10 @@
       <c r="A65" t="s">
         <v>196</v>
       </c>
-      <c r="B65" t="s">
-        <v>1121</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="B65" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>997</v>
       </c>
     </row>
@@ -4641,43 +4647,43 @@
       <c r="A66" t="s">
         <v>200</v>
       </c>
-      <c r="B66" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C66" t="s">
-        <v>1050</v>
+      <c r="B66" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>201</v>
       </c>
-      <c r="B67" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C67" t="s">
-        <v>1052</v>
+      <c r="B67" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>1049</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>205</v>
       </c>
-      <c r="B68" t="s">
-        <v>1122</v>
-      </c>
-      <c r="C68" t="s">
-        <v>1123</v>
+      <c r="B68" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>1116</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>209</v>
       </c>
-      <c r="B69" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="B69" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>998</v>
       </c>
     </row>
@@ -4685,10 +4691,10 @@
       <c r="A70" t="s">
         <v>212</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="1" t="s">
         <v>213</v>
       </c>
     </row>
@@ -4696,21 +4702,21 @@
       <c r="A71" t="s">
         <v>215</v>
       </c>
-      <c r="B71" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C71" t="s">
-        <v>1055</v>
+      <c r="B71" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>1052</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>218</v>
       </c>
-      <c r="B72" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="B72" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>241</v>
       </c>
     </row>
@@ -4718,21 +4724,21 @@
       <c r="A73" t="s">
         <v>219</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C73" t="s">
-        <v>1057</v>
+      <c r="C73" s="1" t="s">
+        <v>1054</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>222</v>
       </c>
-      <c r="B74" t="s">
-        <v>1058</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="B74" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>999</v>
       </c>
     </row>
@@ -4740,32 +4746,32 @@
       <c r="A75" t="s">
         <v>228</v>
       </c>
-      <c r="B75" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C75" t="s">
-        <v>1000</v>
+      <c r="B75" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>1150</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>225</v>
       </c>
-      <c r="B76" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C76" t="s">
-        <v>1061</v>
+      <c r="B76" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>1057</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>229</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="1" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4773,54 +4779,54 @@
       <c r="A78" t="s">
         <v>232</v>
       </c>
-      <c r="B78" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C78" t="s">
-        <v>1063</v>
+      <c r="B78" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>1059</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>234</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C79" t="s">
-        <v>1064</v>
+      <c r="C79" s="1" t="s">
+        <v>1060</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>238</v>
       </c>
-      <c r="B80" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C80" t="s">
-        <v>1066</v>
+      <c r="B80" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>1062</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>245</v>
       </c>
-      <c r="B81" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C81" t="s">
-        <v>1068</v>
+      <c r="B81" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>1064</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>250</v>
       </c>
-      <c r="B82" t="s">
-        <v>1069</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="B82" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>252</v>
       </c>
     </row>
@@ -4828,10 +4834,10 @@
       <c r="A83" t="s">
         <v>251</v>
       </c>
-      <c r="B83" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="B83" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>253</v>
       </c>
     </row>
@@ -4839,21 +4845,21 @@
       <c r="A84" t="s">
         <v>254</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>1001</v>
-      </c>
-      <c r="C84" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>256</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="1" t="s">
         <v>264</v>
       </c>
     </row>
@@ -4861,21 +4867,21 @@
       <c r="A86" t="s">
         <v>271</v>
       </c>
-      <c r="B86" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C86" t="s">
-        <v>1003</v>
+      <c r="B86" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>1152</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>269</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="1" t="s">
         <v>265</v>
       </c>
     </row>
@@ -4883,10 +4889,10 @@
       <c r="A88" t="s">
         <v>270</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="1" t="s">
         <v>266</v>
       </c>
     </row>
@@ -4894,10 +4900,10 @@
       <c r="A89" t="s">
         <v>257</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="1" t="s">
         <v>268</v>
       </c>
     </row>
@@ -4905,21 +4911,21 @@
       <c r="A90" t="s">
         <v>258</v>
       </c>
-      <c r="B90" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C90" t="s">
-        <v>1124</v>
+      <c r="B90" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>1154</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>272</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="1" t="s">
         <v>273</v>
       </c>
     </row>
@@ -4927,43 +4933,43 @@
       <c r="A92" t="s">
         <v>275</v>
       </c>
-      <c r="B92" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C92" t="s">
-        <v>1073</v>
+      <c r="B92" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>278</v>
       </c>
-      <c r="B93" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C93" t="s">
-        <v>1075</v>
+      <c r="B93" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>1070</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>281</v>
       </c>
-      <c r="B94" t="s">
-        <v>1076</v>
-      </c>
-      <c r="C94" t="s">
-        <v>1005</v>
+      <c r="B94" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>1002</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>282</v>
       </c>
-      <c r="B95" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C95" t="s">
+      <c r="B95" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>292</v>
       </c>
     </row>
@@ -4971,10 +4977,10 @@
       <c r="A96" t="s">
         <v>283</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="1" t="s">
         <v>293</v>
       </c>
     </row>
@@ -4982,10 +4988,10 @@
       <c r="A97" t="s">
         <v>284</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="1" t="s">
         <v>294</v>
       </c>
     </row>
@@ -4993,10 +4999,10 @@
       <c r="A98" t="s">
         <v>285</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="1" t="s">
         <v>295</v>
       </c>
     </row>
@@ -5004,10 +5010,10 @@
       <c r="A99" t="s">
         <v>286</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="1" t="s">
         <v>296</v>
       </c>
     </row>
@@ -5015,32 +5021,32 @@
       <c r="A100" t="s">
         <v>297</v>
       </c>
-      <c r="B100" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C100" t="s">
-        <v>1142</v>
+      <c r="B100" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>1134</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>298</v>
       </c>
-      <c r="B101" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C101" t="s">
-        <v>308</v>
+      <c r="B101" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>1155</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>299</v>
       </c>
-      <c r="B102" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="B102" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>309</v>
       </c>
     </row>
@@ -5048,10 +5054,10 @@
       <c r="A103" t="s">
         <v>300</v>
       </c>
-      <c r="B103" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C103" t="s">
+      <c r="B103" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>310</v>
       </c>
     </row>
@@ -5059,10 +5065,10 @@
       <c r="A104" t="s">
         <v>301</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="1" t="s">
         <v>311</v>
       </c>
     </row>
@@ -5070,10 +5076,10 @@
       <c r="A105" t="s">
         <v>302</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="1" t="s">
         <v>312</v>
       </c>
     </row>
@@ -5081,10 +5087,10 @@
       <c r="A106" t="s">
         <v>313</v>
       </c>
-      <c r="B106" t="s">
-        <v>1112</v>
-      </c>
-      <c r="C106" t="s">
+      <c r="B106" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>317</v>
       </c>
     </row>
@@ -5092,10 +5098,10 @@
       <c r="A107" t="s">
         <v>314</v>
       </c>
-      <c r="B107" t="s">
-        <v>1113</v>
-      </c>
-      <c r="C107" t="s">
+      <c r="B107" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>318</v>
       </c>
     </row>
@@ -5103,10 +5109,10 @@
       <c r="A108" t="s">
         <v>319</v>
       </c>
-      <c r="B108" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C108" t="s">
+      <c r="B108" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>321</v>
       </c>
     </row>
@@ -5114,10 +5120,10 @@
       <c r="A109" t="s">
         <v>322</v>
       </c>
-      <c r="B109" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C109" t="s">
+      <c r="B109" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>329</v>
       </c>
     </row>
@@ -5125,10 +5131,10 @@
       <c r="A110" t="s">
         <v>323</v>
       </c>
-      <c r="B110" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C110" t="s">
+      <c r="B110" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>265</v>
       </c>
     </row>
@@ -5136,43 +5142,43 @@
       <c r="A111" t="s">
         <v>324</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C111" t="s">
-        <v>1006</v>
+      <c r="C111" s="1" t="s">
+        <v>1003</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>325</v>
       </c>
-      <c r="B112" t="s">
-        <v>1084</v>
-      </c>
-      <c r="C112" t="s">
-        <v>1007</v>
+      <c r="B112" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>1004</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>331</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C113" t="s">
-        <v>1085</v>
+      <c r="C113" s="1" t="s">
+        <v>1080</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>333</v>
       </c>
-      <c r="B114" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C114" t="s">
+      <c r="B114" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>265</v>
       </c>
     </row>
@@ -5180,10 +5186,10 @@
       <c r="A115" t="s">
         <v>332</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="1" t="s">
         <v>266</v>
       </c>
     </row>
@@ -5191,21 +5197,21 @@
       <c r="A116" t="s">
         <v>334</v>
       </c>
-      <c r="B116" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C116" t="s">
-        <v>1008</v>
+      <c r="B116" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>935</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="1" t="s">
         <v>937</v>
       </c>
     </row>
@@ -5213,10 +5219,10 @@
       <c r="A118" t="s">
         <v>938</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="1" t="s">
         <v>940</v>
       </c>
     </row>
@@ -5224,10 +5230,10 @@
       <c r="A119" t="s">
         <v>941</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="1" t="s">
         <v>942</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="1" t="s">
         <v>943</v>
       </c>
     </row>
@@ -5235,10 +5241,10 @@
       <c r="A120" t="s">
         <v>944</v>
       </c>
-      <c r="B120" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C120" t="s">
+      <c r="B120" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>946</v>
       </c>
     </row>
@@ -5246,10 +5252,10 @@
       <c r="A121" t="s">
         <v>947</v>
       </c>
-      <c r="B121" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C121" t="s">
+      <c r="B121" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>949</v>
       </c>
     </row>
@@ -5257,10 +5263,10 @@
       <c r="A122" t="s">
         <v>950</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="1" t="s">
         <v>952</v>
       </c>
     </row>
@@ -5268,10 +5274,10 @@
       <c r="A123" t="s">
         <v>953</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="1" t="s">
         <v>955</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="1" t="s">
         <v>954</v>
       </c>
     </row>
@@ -5279,32 +5285,32 @@
       <c r="A124" t="s">
         <v>956</v>
       </c>
-      <c r="B124" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C124" t="s">
-        <v>1002</v>
+      <c r="B124" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>1001</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>962</v>
       </c>
-      <c r="B125" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C125" t="s">
-        <v>1090</v>
+      <c r="B125" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>1085</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>963</v>
       </c>
-      <c r="B126" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C126" t="s">
+      <c r="B126" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>265</v>
       </c>
     </row>
@@ -5312,10 +5318,10 @@
       <c r="A127" t="s">
         <v>964</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="1" t="s">
         <v>266</v>
       </c>
     </row>
@@ -5323,10 +5329,10 @@
       <c r="A128" t="s">
         <v>967</v>
       </c>
-      <c r="B128" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C128" t="s">
+      <c r="B128" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C128" s="1" t="s">
         <v>969</v>
       </c>
     </row>
@@ -5334,10 +5340,10 @@
       <c r="A129" t="s">
         <v>970</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="1" t="s">
         <v>972</v>
       </c>
     </row>
@@ -5345,21 +5351,21 @@
       <c r="A130" t="s">
         <v>975</v>
       </c>
-      <c r="B130" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C130" t="s">
-        <v>1093</v>
+      <c r="B130" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>1088</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>978</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="1" t="s">
         <v>980</v>
       </c>
     </row>
@@ -5367,121 +5373,121 @@
       <c r="A132" t="s">
         <v>983</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="1" t="s">
         <v>984</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="1" t="s">
         <v>985</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B133" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C133" t="s">
-        <v>1010</v>
+        <v>1006</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>1007</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B134" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C134" t="s">
-        <v>1012</v>
+        <v>1008</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>1009</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B135" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C135" t="s">
-        <v>1015</v>
+        <v>1010</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B136" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C136" t="s">
-        <v>1018</v>
+        <v>1013</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>1015</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B137" t="s">
-        <v>1097</v>
-      </c>
-      <c r="C137" t="s">
-        <v>1020</v>
+        <v>1016</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>1017</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>1138</v>
-      </c>
-      <c r="B138" t="s">
-        <v>1140</v>
-      </c>
-      <c r="C138" t="s">
-        <v>1139</v>
+        <v>1130</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>1131</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>1143</v>
-      </c>
-      <c r="B139" t="s">
-        <v>1145</v>
-      </c>
-      <c r="C139" t="s">
-        <v>1144</v>
+        <v>1135</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>1136</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>1146</v>
-      </c>
-      <c r="B140" t="s">
-        <v>1147</v>
-      </c>
-      <c r="C140" t="s">
-        <v>1148</v>
+        <v>1138</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>1140</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B141" t="s">
-        <v>1151</v>
-      </c>
-      <c r="C141" t="s">
-        <v>1150</v>
+        <v>1141</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>1142</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B142" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C142" t="s">
-        <v>1154</v>
+        <v>1144</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>1146</v>
       </c>
     </row>
   </sheetData>
@@ -9221,13 +9227,13 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>1152</v>
+        <v>1144</v>
       </c>
       <c r="B129" t="s">
-        <v>1153</v>
+        <v>1145</v>
       </c>
       <c r="C129" t="s">
-        <v>1154</v>
+        <v>1146</v>
       </c>
     </row>
   </sheetData>

--- a/src/locales/translations.xlsx
+++ b/src/locales/translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\icmm-web\src\locales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE986B5C-EBBC-4DA3-BE4F-5F33910C12B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F8E79A-57FB-4496-B0DA-BEF9D2BC93DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B932D239-48A5-4026-8CCD-CA2BFDECA8AC}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1581" uniqueCount="1156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1581" uniqueCount="1157">
   <si>
     <t>id</t>
   </si>
@@ -3526,13 +3526,16 @@
     <t>เราได้รับคำสั่งซื้อของท่านเรียบร้อยแล้ว และจะดำเนินการยืนยันคำสั่งซื้อภายใน 5 วันทำการ</t>
   </si>
   <si>
-    <t>Intania Runner Chula</t>
-  </si>
-  <si>
     <t>ชมรมวิ่ง วิศวะ จุฬาฯ</t>
   </si>
   <si>
     <t>อยู่ระหว่างช่วงดำเนินการตรวจสอบหลักฐานการชำระเงิน</t>
+  </si>
+  <si>
+    <t>เรียน ลูกค้า,</t>
+  </si>
+  <si>
+    <t>Intania Runner</t>
   </si>
 </sst>
 </file>
@@ -3918,8 +3921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EFFCAA-6DA9-40A3-BF28-CA3BC524DD9C}">
   <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4860,7 +4863,7 @@
         <v>261</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>264</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -4912,10 +4915,10 @@
         <v>258</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>1153</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>1154</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -5036,7 +5039,7 @@
         <v>1073</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">

--- a/src/locales/translations.xlsx
+++ b/src/locales/translations.xlsx
@@ -2,22 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\icmm-web\src\locales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F8E79A-57FB-4496-B0DA-BEF9D2BC93DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC7A30D-AF4E-4953-A4FA-251022401FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B932D239-48A5-4026-8CCD-CA2BFDECA8AC}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{B932D239-48A5-4026-8CCD-CA2BFDECA8AC}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
-    <sheet name="BAK_20250814" sheetId="3" r:id="rId2"/>
+    <sheet name="BAK_20250916" sheetId="4" r:id="rId2"/>
+    <sheet name="BAK_20250814" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BAK_20250814!$A$1:$I$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">BAK_20250814!$A$1:$I$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BAK_20250916!$A$1:$C$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DATA!$A$1:$C$4</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1.0000000000000001E-5" calcOnSave="0"/>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1581" uniqueCount="1157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="1171">
   <si>
     <t>id</t>
   </si>
@@ -3536,6 +3538,48 @@
   </si>
   <si>
     <t>Intania Runner</t>
+  </si>
+  <si>
+    <t>Running Set (Men) - Black Cap</t>
+  </si>
+  <si>
+    <t>เซ็ตสำหรับนักวิ่งชาย - หมวกสีดำ</t>
+  </si>
+  <si>
+    <t>Running Set (Women) - Black Cap</t>
+  </si>
+  <si>
+    <t>เซ็ทสำหรับนักวิ่งหญิง - หมวกสีดำ</t>
+  </si>
+  <si>
+    <t>prod7Name</t>
+  </si>
+  <si>
+    <t>Running Set (Men) - White Cap</t>
+  </si>
+  <si>
+    <t>เซ็ตสำหรับนักวิ่งชาย - หมวกสีขาว</t>
+  </si>
+  <si>
+    <t>prod7Detail</t>
+  </si>
+  <si>
+    <t>Running Cap + Original BUFF® Coolnet UV + Men’s 3" Running Shorts</t>
+  </si>
+  <si>
+    <t>หมวกวิ่ง + ผ้าบัฟ รุ่น Coolnet UV + กางเกงวิ่งขาสั้นชาย 3 นิ้ว</t>
+  </si>
+  <si>
+    <t>prod8Name</t>
+  </si>
+  <si>
+    <t>Running Set (Women) - White Cap</t>
+  </si>
+  <si>
+    <t>เซ็ทสำหรับนักวิ่งหญิง - หมวกสีขาว</t>
+  </si>
+  <si>
+    <t>prod8Detail</t>
   </si>
 </sst>
 </file>
@@ -3919,10 +3963,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EFFCAA-6DA9-40A3-BF28-CA3BC524DD9C}">
-  <dimension ref="A1:C142"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:C146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4343,10 +4388,10 @@
         <v>113</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1099</v>
+        <v>1157</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>1100</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -4365,10 +4410,10 @@
         <v>1023</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1102</v>
+        <v>1159</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>1103</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -4384,799 +4429,799 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>139</v>
+        <v>1161</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>140</v>
+        <v>1162</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>141</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>142</v>
+        <v>1164</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>143</v>
+        <v>1165</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>144</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>145</v>
+        <v>1167</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1040</v>
+        <v>1168</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>147</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>148</v>
+        <v>1170</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1109</v>
+        <v>1119</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1111</v>
+        <v>143</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1042</v>
+        <v>1109</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>162</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1043</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>167</v>
+        <v>1111</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>170</v>
+        <v>1041</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1112</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>1018</v>
+        <v>160</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1019</v>
+        <v>1042</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>1129</v>
+        <v>164</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1128</v>
+        <v>163</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>171</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>1020</v>
+        <v>166</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1021</v>
+        <v>167</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1022</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>992</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>173</v>
+        <v>1018</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>174</v>
+        <v>1019</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>178</v>
+        <v>1129</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>180</v>
+        <v>1128</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>993</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>179</v>
+        <v>1020</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1044</v>
+        <v>1021</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1045</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>185</v>
+        <v>992</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>994</v>
+        <v>177</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>193</v>
+        <v>1044</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>193</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1113</v>
+        <v>186</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>996</v>
+        <v>185</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1114</v>
+        <v>189</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1046</v>
+        <v>190</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1047</v>
+        <v>995</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1048</v>
+        <v>193</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1049</v>
+        <v>193</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1116</v>
+        <v>996</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1050</v>
+        <v>1114</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>214</v>
+        <v>1046</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>213</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1053</v>
+        <v>1115</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>241</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>243</v>
+        <v>1050</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1054</v>
+        <v>998</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1055</v>
+        <v>214</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>999</v>
+        <v>213</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1149</v>
+        <v>1051</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1150</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1057</v>
+        <v>241</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>231</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1059</v>
+        <v>999</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>235</v>
+        <v>1149</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1060</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>1063</v>
+        <v>230</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1064</v>
+        <v>231</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>1065</v>
+        <v>1058</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>252</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>1066</v>
+        <v>235</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>253</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1000</v>
+        <v>1061</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1001</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>261</v>
+        <v>1063</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1155</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>1151</v>
+        <v>1065</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>1152</v>
+        <v>252</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>262</v>
+        <v>1066</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>263</v>
+        <v>1000</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>266</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>268</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>1156</v>
+        <v>1151</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>1067</v>
+        <v>263</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>1068</v>
+        <v>266</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>1069</v>
+        <v>259</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>1070</v>
+        <v>268</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>1071</v>
+        <v>1156</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>1002</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>1072</v>
+        <v>274</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>287</v>
+        <v>1067</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>293</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>288</v>
+        <v>1069</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>294</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>289</v>
+        <v>1071</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>295</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>290</v>
+        <v>1072</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>1133</v>
+        <v>287</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>1134</v>
+        <v>293</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>1073</v>
+        <v>288</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>1154</v>
+        <v>294</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>1074</v>
+        <v>289</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>1075</v>
+        <v>290</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>306</v>
+        <v>1133</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>311</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>307</v>
+        <v>1073</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>312</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1105</v>
+        <v>1074</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>1106</v>
+        <v>1075</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>1076</v>
+        <v>306</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>1077</v>
+        <v>307</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1078</v>
+        <v>1105</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>265</v>
+        <v>317</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>263</v>
+        <v>1106</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>1003</v>
+        <v>318</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>1004</v>
+        <v>321</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>336</v>
+        <v>1077</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>1080</v>
+        <v>329</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>1078</v>
@@ -5187,309 +5232,353 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>263</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>266</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>935</v>
+        <v>331</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>936</v>
+        <v>336</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>937</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>938</v>
+        <v>333</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>939</v>
+        <v>1078</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>940</v>
+        <v>265</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>941</v>
+        <v>332</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>942</v>
+        <v>263</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>943</v>
+        <v>266</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>944</v>
+        <v>334</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>946</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>947</v>
+        <v>935</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>1083</v>
+        <v>936</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>949</v>
+        <v>937</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>950</v>
+        <v>938</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>951</v>
+        <v>939</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>952</v>
+        <v>940</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>953</v>
+        <v>941</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>955</v>
+        <v>942</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>954</v>
+        <v>943</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>956</v>
+        <v>944</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>1117</v>
+        <v>1082</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>1001</v>
+        <v>946</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>962</v>
+        <v>947</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>1085</v>
+        <v>949</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>963</v>
+        <v>950</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>1078</v>
+        <v>951</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>265</v>
+        <v>952</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>964</v>
+        <v>953</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>263</v>
+        <v>955</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>266</v>
+        <v>954</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>967</v>
+        <v>956</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>1086</v>
+        <v>1117</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>969</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>971</v>
+        <v>1084</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>972</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>975</v>
+        <v>963</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>1087</v>
+        <v>1078</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>1088</v>
+        <v>265</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>978</v>
+        <v>964</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>979</v>
+        <v>263</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>980</v>
+        <v>266</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>983</v>
+        <v>967</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>984</v>
+        <v>1086</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>985</v>
+        <v>969</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>1006</v>
+        <v>970</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>1090</v>
+        <v>971</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>1007</v>
+        <v>972</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>1008</v>
+        <v>975</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>1009</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>1010</v>
+        <v>978</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>1011</v>
+        <v>979</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>1012</v>
+        <v>980</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>1013</v>
+        <v>983</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>1014</v>
+        <v>984</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>1015</v>
+        <v>985</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>1016</v>
+        <v>1006</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>1017</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>1130</v>
+        <v>1008</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>1132</v>
+        <v>1091</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>1131</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>1135</v>
+        <v>1010</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>1137</v>
+        <v>1011</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>1136</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>1138</v>
+        <v>1013</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>1139</v>
+        <v>1014</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>1140</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>1141</v>
+        <v>1016</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>1143</v>
+        <v>1092</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>1142</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
         <v>1144</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B146" s="1" t="s">
         <v>1145</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="C146" s="1" t="s">
         <v>1146</v>
       </c>
     </row>
@@ -5502,11 +5591,1596 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E473FA-375A-45CE-B9D9-17513763A224}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:C142"/>
+  <sheetViews>
+    <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="42.5546875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>135</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>137</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>138</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>139</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>142</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>145</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>148</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>150</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>151</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>156</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>160</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>164</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>166</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>169</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>172</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>173</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>178</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>179</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>187</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>184</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>188</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>193</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>194</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>196</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>200</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>201</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>205</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>209</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>212</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>215</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>218</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>219</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>222</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>228</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>225</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>229</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>232</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>234</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>238</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>245</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>250</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>251</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>254</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>256</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>271</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>269</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>270</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>257</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>258</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>272</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>275</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>278</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>281</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>282</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>283</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>284</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>285</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>286</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>297</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>298</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>299</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>300</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>301</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>302</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>313</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>314</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>319</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>322</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>323</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>324</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>325</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>331</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>333</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>332</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>334</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>935</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>938</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>941</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>944</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>947</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>950</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>953</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>956</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>962</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>963</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>964</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>967</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>970</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>975</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>978</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>983</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C4" xr:uid="{01EFFCAA-6DA9-40A3-BF28-CA3BC524DD9C}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08623EB8-71BE-44FC-9615-87E1DDBD6EF4}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I129"/>
   <sheetViews>
-    <sheetView topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="C129" sqref="A129:C129"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/locales/translations.xlsx
+++ b/src/locales/translations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\icmm-web\src\locales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC7A30D-AF4E-4953-A4FA-251022401FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D99F5DC-12FE-4384-935D-99BEBFB4B6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{B932D239-48A5-4026-8CCD-CA2BFDECA8AC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B932D239-48A5-4026-8CCD-CA2BFDECA8AC}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="1171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2031" uniqueCount="1183">
   <si>
     <t>id</t>
   </si>
@@ -3580,6 +3580,42 @@
   </si>
   <si>
     <t>prod8Detail</t>
+  </si>
+  <si>
+    <t>prod9Name</t>
+  </si>
+  <si>
+    <t>prod9Detail</t>
+  </si>
+  <si>
+    <t>prod10Name</t>
+  </si>
+  <si>
+    <t>prod10Detail</t>
+  </si>
+  <si>
+    <t>Buff + Short (Men) Set</t>
+  </si>
+  <si>
+    <t>เซ็ตผ้าบัฟและกางเกงวิ่ง (ชาย)</t>
+  </si>
+  <si>
+    <t>Original BUFF® Coolnet UV + Men’s 3" Running Shorts</t>
+  </si>
+  <si>
+    <t>ผ้าบัฟ รุ่น Coolnet UV + กางเกงวิ่งขาสั้นชาย 3 นิ้ว</t>
+  </si>
+  <si>
+    <t>Buff + Short (Women) Set</t>
+  </si>
+  <si>
+    <t>เซ็ตผ้าบัฟและกางเกงวิ่ง (หญิง)</t>
+  </si>
+  <si>
+    <t>Original BUFF® Coolnet UV + Women's 5" Running Shorts</t>
+  </si>
+  <si>
+    <t>ผ้าบัฟ รุ่น Coolnet UV + กางเกงวิ่งขาสั้นหญิง 3 นิ้ว</t>
   </si>
 </sst>
 </file>
@@ -3964,10 +4000,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EFFCAA-6DA9-40A3-BF28-CA3BC524DD9C}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C146"/>
+  <dimension ref="A1:C150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4473,799 +4509,799 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>139</v>
+        <v>1171</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>140</v>
+        <v>1175</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>141</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>142</v>
+        <v>1172</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>143</v>
+        <v>1177</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>144</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>145</v>
+        <v>1173</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1040</v>
+        <v>1179</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>147</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>148</v>
+        <v>1174</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1109</v>
+        <v>1181</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1110</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1111</v>
+        <v>143</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1042</v>
+        <v>1109</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>162</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1043</v>
+        <v>153</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>167</v>
+        <v>1111</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>170</v>
+        <v>1041</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1112</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>1018</v>
+        <v>160</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1019</v>
+        <v>1042</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>1129</v>
+        <v>164</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1128</v>
+        <v>163</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>171</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>1020</v>
+        <v>166</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1021</v>
+        <v>167</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1022</v>
+        <v>168</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>992</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>173</v>
+        <v>1018</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>174</v>
+        <v>1019</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>178</v>
+        <v>1129</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>180</v>
+        <v>1128</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>993</v>
+        <v>171</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>179</v>
+        <v>1020</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1044</v>
+        <v>1021</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1045</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>185</v>
+        <v>992</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>994</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>193</v>
+        <v>1044</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>193</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1113</v>
+        <v>186</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>996</v>
+        <v>185</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1114</v>
+        <v>189</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>1046</v>
+        <v>190</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1047</v>
+        <v>995</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>1048</v>
+        <v>193</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1049</v>
+        <v>193</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1116</v>
+        <v>996</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1050</v>
+        <v>1114</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>214</v>
+        <v>1046</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>213</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1053</v>
+        <v>1115</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>241</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>243</v>
+        <v>1050</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1054</v>
+        <v>998</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>1055</v>
+        <v>214</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>999</v>
+        <v>213</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>1149</v>
+        <v>1051</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1150</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1057</v>
+        <v>241</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>231</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1059</v>
+        <v>999</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>235</v>
+        <v>1149</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1060</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>1063</v>
+        <v>230</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1064</v>
+        <v>231</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>1065</v>
+        <v>1058</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>252</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>1066</v>
+        <v>235</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>253</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>1000</v>
+        <v>1061</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1001</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>261</v>
+        <v>1063</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>1155</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>1151</v>
+        <v>1065</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>1152</v>
+        <v>252</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>262</v>
+        <v>1066</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>263</v>
+        <v>1000</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>266</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>268</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>1156</v>
+        <v>1151</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>1067</v>
+        <v>263</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1068</v>
+        <v>266</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>1069</v>
+        <v>259</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>1070</v>
+        <v>268</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>1071</v>
+        <v>1156</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>1002</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>1072</v>
+        <v>274</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>287</v>
+        <v>1067</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>293</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>288</v>
+        <v>1069</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>294</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>289</v>
+        <v>1071</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>295</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>290</v>
+        <v>1072</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>1133</v>
+        <v>287</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1134</v>
+        <v>293</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>1073</v>
+        <v>288</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>1154</v>
+        <v>294</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1074</v>
+        <v>289</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>1075</v>
+        <v>290</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>306</v>
+        <v>1133</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>311</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>307</v>
+        <v>1073</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>312</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1105</v>
+        <v>1074</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>1106</v>
+        <v>1075</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>1076</v>
+        <v>306</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>1077</v>
+        <v>307</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>1078</v>
+        <v>1105</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>265</v>
+        <v>317</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>263</v>
+        <v>1106</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>1003</v>
+        <v>318</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>1004</v>
+        <v>321</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>336</v>
+        <v>1077</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>1080</v>
+        <v>329</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>1078</v>
@@ -5276,309 +5312,353 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>263</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>266</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>935</v>
+        <v>331</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>936</v>
+        <v>336</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>937</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>938</v>
+        <v>333</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>939</v>
+        <v>1078</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>940</v>
+        <v>265</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>941</v>
+        <v>332</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>942</v>
+        <v>263</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>943</v>
+        <v>266</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>944</v>
+        <v>334</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>946</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>947</v>
+        <v>935</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>1083</v>
+        <v>936</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>949</v>
+        <v>937</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>950</v>
+        <v>938</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>951</v>
+        <v>939</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>952</v>
+        <v>940</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>953</v>
+        <v>941</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>955</v>
+        <v>942</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>954</v>
+        <v>943</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>956</v>
+        <v>944</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>1117</v>
+        <v>1082</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>1001</v>
+        <v>946</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>962</v>
+        <v>947</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>1085</v>
+        <v>949</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>963</v>
+        <v>950</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>1078</v>
+        <v>951</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>265</v>
+        <v>952</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>964</v>
+        <v>953</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>263</v>
+        <v>955</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>266</v>
+        <v>954</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>967</v>
+        <v>956</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>1086</v>
+        <v>1117</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>969</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>971</v>
+        <v>1084</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>972</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>975</v>
+        <v>963</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>1087</v>
+        <v>1078</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>1088</v>
+        <v>265</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>978</v>
+        <v>964</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>979</v>
+        <v>263</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>980</v>
+        <v>266</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>983</v>
+        <v>967</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>984</v>
+        <v>1086</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>985</v>
+        <v>969</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>1006</v>
+        <v>970</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>1090</v>
+        <v>971</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>1007</v>
+        <v>972</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>1008</v>
+        <v>975</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>1009</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>1010</v>
+        <v>978</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>1011</v>
+        <v>979</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>1012</v>
+        <v>980</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>1013</v>
+        <v>983</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>1014</v>
+        <v>984</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>1015</v>
+        <v>985</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>1016</v>
+        <v>1006</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>1017</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>1130</v>
+        <v>1008</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>1132</v>
+        <v>1091</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>1131</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>1135</v>
+        <v>1010</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>1137</v>
+        <v>1011</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>1136</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>1138</v>
+        <v>1013</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>1139</v>
+        <v>1014</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>1140</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>1141</v>
+        <v>1016</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>1143</v>
+        <v>1092</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>1142</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
         <v>1144</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="B150" s="1" t="s">
         <v>1145</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="C150" s="1" t="s">
         <v>1146</v>
       </c>
     </row>

--- a/src/locales/translations.xlsx
+++ b/src/locales/translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\icmm-web\src\locales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D99F5DC-12FE-4384-935D-99BEBFB4B6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17863427-EC43-4004-BE1B-A824A88B23D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B932D239-48A5-4026-8CCD-CA2BFDECA8AC}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2031" uniqueCount="1183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2040" uniqueCount="1192">
   <si>
     <t>id</t>
   </si>
@@ -3616,6 +3616,34 @@
   </si>
   <si>
     <t>ผ้าบัฟ รุ่น Coolnet UV + กางเกงวิ่งขาสั้นหญิง 3 นิ้ว</t>
+  </si>
+  <si>
+    <t>notice</t>
+  </si>
+  <si>
+    <t>Notice…</t>
+  </si>
+  <si>
+    <t>ประกาศ…</t>
+  </si>
+  <si>
+    <t>preorderTxt</t>
+  </si>
+  <si>
+    <t>This product is Pre-Order.
+Estimated shipping: New Year 2026.</t>
+  </si>
+  <si>
+    <t>สินค้าเป็นแบบ Pre-Order จัดส่งสินค้าช่วงปีใหม่ 2026</t>
+  </si>
+  <si>
+    <t>accept</t>
+  </si>
+  <si>
+    <t>Accept</t>
+  </si>
+  <si>
+    <t>ยอมรับ</t>
   </si>
 </sst>
 </file>
@@ -4000,10 +4028,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EFFCAA-6DA9-40A3-BF28-CA3BC524DD9C}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C150"/>
+  <dimension ref="A1:C153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A132" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C154" sqref="C154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5660,6 +5688,39 @@
       </c>
       <c r="C150" s="1" t="s">
         <v>1146</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>1191</v>
       </c>
     </row>
   </sheetData>

--- a/src/locales/translations.xlsx
+++ b/src/locales/translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\icmm-web\src\locales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17863427-EC43-4004-BE1B-A824A88B23D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168C460E-4E9C-4748-B533-A5D5423B8F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B932D239-48A5-4026-8CCD-CA2BFDECA8AC}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2040" uniqueCount="1192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2043" uniqueCount="1195">
   <si>
     <t>id</t>
   </si>
@@ -3644,6 +3644,15 @@
   </si>
   <si>
     <t>ยอมรับ</t>
+  </si>
+  <si>
+    <t>Our shop is currently closed. Please contact our administration team via Facebook for further assistance.</t>
+  </si>
+  <si>
+    <t>ขณะนี้ร้านค้าของเราได้ปิดทำการแล้ว กรุณาติดต่อฝ่ายบริหารผ่านทาง Facebook เพื่อรับความช่วยเหลือต่อไป</t>
+  </si>
+  <si>
+    <t>closeTxt</t>
   </si>
 </sst>
 </file>
@@ -4028,10 +4037,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EFFCAA-6DA9-40A3-BF28-CA3BC524DD9C}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C153"/>
+  <dimension ref="A1:C154"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A132" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C154" sqref="C154"/>
+      <selection activeCell="A154" sqref="A154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5721,6 +5730,17 @@
       </c>
       <c r="C153" s="1" t="s">
         <v>1191</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>1193</v>
       </c>
     </row>
   </sheetData>

--- a/src/locales/translations.xlsx
+++ b/src/locales/translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\icmm-web\src\locales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168C460E-4E9C-4748-B533-A5D5423B8F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F598739A-28A8-45DA-93E8-4986238ADB90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B932D239-48A5-4026-8CCD-CA2BFDECA8AC}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2043" uniqueCount="1195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2049" uniqueCount="1201">
   <si>
     <t>id</t>
   </si>
@@ -3646,13 +3646,31 @@
     <t>ยอมรับ</t>
   </si>
   <si>
-    <t>Our shop is currently closed. Please contact our administration team via Facebook for further assistance.</t>
-  </si>
-  <si>
-    <t>ขณะนี้ร้านค้าของเราได้ปิดทำการแล้ว กรุณาติดต่อฝ่ายบริหารผ่านทาง Facebook เพื่อรับความช่วยเหลือต่อไป</t>
-  </si>
-  <si>
-    <t>closeTxt</t>
+    <t>Your order is scheduled to be delivered during the New Year 2026 holiday period.</t>
+  </si>
+  <si>
+    <t>สินค้าของท่านมีกำหนดการจัดส่งในช่วงเทศกาลปีใหม่ พ.ศ. 2569</t>
+  </si>
+  <si>
+    <t>If you have any inquiries, please contact us at intaniarunner@gmail.com</t>
+  </si>
+  <si>
+    <t>หากมีข้อสงสัย กรุณาติดต่อ intaniarunner@gmail.com</t>
+  </si>
+  <si>
+    <t>closeTxt2</t>
+  </si>
+  <si>
+    <t>closeTxt3</t>
+  </si>
+  <si>
+    <t>closeTxt1</t>
+  </si>
+  <si>
+    <t>...Our shop is currently closed…</t>
+  </si>
+  <si>
+    <t>...ขณะนี้ร้านค้าของเราได้ปิดทำการแล้ว...</t>
   </si>
 </sst>
 </file>
@@ -4037,10 +4055,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01EFFCAA-6DA9-40A3-BF28-CA3BC524DD9C}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C154"/>
+  <dimension ref="A1:C156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A154" sqref="A154"/>
+    <sheetView tabSelected="1" topLeftCell="A138" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5734,13 +5752,35 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B156" s="1" t="s">
         <v>1194</v>
       </c>
-      <c r="B154" s="1" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>1193</v>
+      <c r="C156" s="1" t="s">
+        <v>1195</v>
       </c>
     </row>
   </sheetData>
